--- a/VAE_literature.xlsx
+++ b/VAE_literature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewvowels/Desktop/PhD/Awesome-VAEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4079C6AC-3F29-0B47-811D-9B94C10316FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24327240-CA5E-564E-8BD6-E7330F61B955}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1600" windowWidth="27680" windowHeight="16780" xr2:uid="{E4269A26-9BAE-F54F-8C24-CC08A7F9F2AA}"/>
+    <workbookView xWindow="2400" yWindow="6380" windowWidth="27680" windowHeight="16780" xr2:uid="{E4269A26-9BAE-F54F-8C24-CC08A7F9F2AA}"/>
   </bookViews>
   <sheets>
     <sheet name="by paper" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="1632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="1664">
   <si>
     <t>Title</t>
   </si>
@@ -4731,9 +4731,6 @@
     <t>Roeder, Wu, Duvenaud</t>
   </si>
   <si>
-    <t>They provide 3 different decompositions of the ELBO and highlight that a simple stop gradient function would enable better convergence during optimisation. Results aren't hugely improved, but given the simplicity of the modification it is worth implementing.</t>
-  </si>
-  <si>
     <t>177</t>
   </si>
   <si>
@@ -4951,6 +4948,105 @@
   </si>
   <si>
     <t>Their 'weak' supervision relates to the fact that they provide a label for no transformtation, clockwise rotation, or anti clockwise rotation, and pair images from e.g. the multiPIE dataset accordingly. E.g. pair a -15 degree rotation with a +5 degree rotation, and supply the weak label 'clockwise'. Good results. Non variational. They disentangle identity from pose. They use an RNN to simulate a progression of rotations.</t>
+  </si>
+  <si>
+    <t>181 weak</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>Training generative neural networks via Maximum Mean Discrepancy optimization</t>
+  </si>
+  <si>
+    <t>Dziugaite, Roy, Ghahramani</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1505.03906.pdf</t>
+  </si>
+  <si>
+    <t>NYU hand pose,</t>
+  </si>
+  <si>
+    <t>supervised (uses depth map as x and GT hand pose as target y)</t>
+  </si>
+  <si>
+    <t>They provide 3 different decompositions of the ELBO and highlight that a simple stop gradient function would enable better convergence during optimisation. Results aren't hugely improved, but given the simplicity of the modification it is worth implemeting.</t>
+  </si>
+  <si>
+    <t>For a single input example x, we concatenate multiple noise vectors z to produce multiple outputs y. A dissimiliarity metric is used to train the network (see paper for details), resulting in an estimation of the true P(y|x) using Q(y|x). During training, they learn by minimising the dissimilarity coefficient between the true distribution and the estimated distribution. They outperform non-probabilistic models and accurately model the uncertainty of the output.</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>Auto-encoding variational Bayes</t>
+  </si>
+  <si>
+    <t>Kingma, Welling</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1312.6114.pdf</t>
+  </si>
+  <si>
+    <t>the original highly cited paper for VAEs</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>Learning latent superstructures in variational autoencoders for deep multidimensional clustering</t>
+  </si>
+  <si>
+    <t>Li, Chen, Poon, Zhang</t>
+  </si>
+  <si>
+    <t>https://openreview.net/pdf?id=SJgNwi09Km</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>Leveraging the exact likelihood of deep latent variable models</t>
+  </si>
+  <si>
+    <t>Mattei, Frellsen</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1802.04826.pdf</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>Stochastic variational video prediction</t>
+  </si>
+  <si>
+    <t>Babaeizadeh, Finn, Erhan, Campbell, Levine</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1710.11252.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/alexlee-gk/video_prediction</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1806.03107.pdf</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>Temporal difference variational auto-encoder</t>
+  </si>
+  <si>
+    <t>Gregor, Papamakarios, Besse, Buesing, Weber</t>
+  </si>
+  <si>
+    <t>https://github.com/xqding/TD-VAE</t>
+  </si>
+  <si>
+    <t>TD-VAE (temporal different VAE)</t>
   </si>
 </sst>
 </file>
@@ -5371,10 +5467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8920E9C9-067C-A145-84FD-2821C51037F0}">
-  <dimension ref="A1:O186"/>
+  <dimension ref="A1:O192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E190" sqref="E190"/>
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="75" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="H192" sqref="H192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11776,22 +11872,22 @@
         <v>1539</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="I173" s="3" t="s">
         <v>879</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="N173" s="3" t="s">
         <v>640</v>
@@ -11857,56 +11953,68 @@
         <v>1557</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>1558</v>
+        <v>1638</v>
       </c>
       <c r="N176" s="3" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="177" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C177" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D177" s="3" t="s">
         <v>1560</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="E177" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="F177" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="G177" s="3" t="s">
         <v>1563</v>
       </c>
-      <c r="G177" s="3" t="s">
-        <v>1564</v>
+      <c r="H177" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>1636</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>1639</v>
+      </c>
+      <c r="N177" s="3" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="178" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>1566</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="D178" s="3" t="s">
         <v>1567</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="E178" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="G178" s="3" t="s">
         <v>1569</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>1570</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>40</v>
@@ -11915,16 +12023,16 @@
         <v>879</v>
       </c>
       <c r="J178" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="L178" s="3" t="s">
         <v>1616</v>
       </c>
-      <c r="K178" s="3" t="s">
-        <v>1615</v>
-      </c>
-      <c r="L178" s="3" t="s">
+      <c r="M178" s="3" t="s">
         <v>1617</v>
-      </c>
-      <c r="M178" s="3" t="s">
-        <v>1618</v>
       </c>
       <c r="N178" s="3" t="s">
         <v>640</v>
@@ -11932,22 +12040,22 @@
     </row>
     <row r="179" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C179" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>1572</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="E179" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="F179" s="1" t="s">
         <v>1574</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>1575</v>
       </c>
       <c r="H179" s="3" t="s">
         <v>974</v>
@@ -11956,21 +12064,21 @@
         <v>879</v>
       </c>
       <c r="J179" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K179" s="3" t="s">
         <v>1576</v>
       </c>
-      <c r="K179" s="3" t="s">
+      <c r="L179" s="3" t="s">
         <v>1577</v>
       </c>
-      <c r="L179" s="3" t="s">
+      <c r="M179" s="3" t="s">
         <v>1578</v>
-      </c>
-      <c r="M179" s="3" t="s">
-        <v>1579</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>71</v>
@@ -11987,45 +12095,45 @@
     </row>
     <row r="181" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C181" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D181" s="3" t="s">
         <v>1587</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="E181" s="1" t="s">
         <v>1588</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="F181" s="1" t="s">
         <v>1589</v>
       </c>
-      <c r="F181" s="1" t="s">
+      <c r="G181" s="3" t="s">
         <v>1590</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D182" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>1594</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="F182" s="1" t="s">
         <v>1595</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>1596</v>
       </c>
       <c r="H182" s="3" t="s">
         <v>495</v>
@@ -12034,16 +12142,16 @@
         <v>879</v>
       </c>
       <c r="J182" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="L182" s="3" t="s">
         <v>1628</v>
       </c>
-      <c r="K182" s="3" t="s">
+      <c r="M182" s="3" t="s">
         <v>1630</v>
-      </c>
-      <c r="L182" s="3" t="s">
-        <v>1629</v>
-      </c>
-      <c r="M182" s="3" t="s">
-        <v>1631</v>
       </c>
       <c r="N182" s="3" t="s">
         <v>640</v>
@@ -12051,74 +12159,74 @@
     </row>
     <row r="183" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C183" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>1598</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="E183" s="1" t="s">
         <v>1599</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="F183" s="1" t="s">
         <v>1600</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C184" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D184" s="3" t="s">
         <v>1603</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="E184" s="1" t="s">
         <v>1604</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="F184" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="F184" s="1" t="s">
+      <c r="G184" s="3" t="s">
         <v>1606</v>
       </c>
-      <c r="G184" s="3" t="s">
-        <v>1607</v>
-      </c>
       <c r="M184" s="3" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="185" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>1462</v>
       </c>
       <c r="E185" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="M185" s="3" t="s">
         <v>1610</v>
-      </c>
-      <c r="K185" s="3" t="s">
-        <v>1613</v>
-      </c>
-      <c r="L185" s="3" t="s">
-        <v>1612</v>
-      </c>
-      <c r="M185" s="3" t="s">
-        <v>1611</v>
       </c>
       <c r="N185" s="3" t="s">
         <v>640</v>
@@ -12126,37 +12234,157 @@
     </row>
     <row r="186" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C186" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>1620</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="E186" s="1" t="s">
         <v>1621</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="F186" s="1" t="s">
         <v>1622</v>
       </c>
-      <c r="F186" s="1" t="s">
+      <c r="G186" s="3" t="s">
         <v>1623</v>
       </c>
-      <c r="G186" s="3" t="s">
-        <v>1624</v>
+      <c r="H186" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>879</v>
       </c>
       <c r="J186" s="3" t="s">
         <v>73</v>
       </c>
       <c r="K186" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="M186" s="3" t="s">
         <v>1625</v>
       </c>
-      <c r="L186" s="3" t="s">
-        <v>1612</v>
-      </c>
-      <c r="M186" s="3" t="s">
-        <v>1626</v>
+    </row>
+    <row r="187" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="M188" s="3" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>1663</v>
       </c>
     </row>
   </sheetData>
@@ -12451,6 +12679,14 @@
     <hyperlink ref="E176" r:id="rId284" xr:uid="{0FC84A87-7A41-0E4B-967A-5C6A39B7F220}"/>
     <hyperlink ref="E186" r:id="rId285" xr:uid="{1F8C9667-CAAD-C242-AD5A-3C88ED0E9A02}"/>
     <hyperlink ref="F186" r:id="rId286" xr:uid="{5430BEEB-5BDE-9943-954D-86B2B480C836}"/>
+    <hyperlink ref="E187" r:id="rId287" xr:uid="{E14C85A6-D6A7-D741-8069-64579BAE5566}"/>
+    <hyperlink ref="E188" r:id="rId288" xr:uid="{7E9981EB-E879-AB45-BB06-CE6FAB1E9DEB}"/>
+    <hyperlink ref="E189" r:id="rId289" xr:uid="{6992AA56-7575-B44A-931F-DD01FF969557}"/>
+    <hyperlink ref="E190" r:id="rId290" xr:uid="{C7BA2772-D75F-D749-82A8-2885402CAC6C}"/>
+    <hyperlink ref="E191" r:id="rId291" xr:uid="{42EDE8CB-7622-454D-ADEC-AAC170D57E73}"/>
+    <hyperlink ref="F191" r:id="rId292" xr:uid="{F2434C3A-8A54-8843-88D1-1D151762112C}"/>
+    <hyperlink ref="E192" r:id="rId293" xr:uid="{E7A6F36D-9B99-6A46-9FB2-875F8388D22B}"/>
+    <hyperlink ref="F192" r:id="rId294" xr:uid="{9D4E22D6-0A7B-B141-B1A4-10908F3526FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -12461,8 +12697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFC51FA-4B42-B247-AFC0-29136BEB1948}">
   <dimension ref="A1:AK62"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13315,6 +13551,9 @@
       <c r="A10" t="s">
         <v>1477</v>
       </c>
+      <c r="G10">
+        <v>181</v>
+      </c>
       <c r="J10">
         <v>93</v>
       </c>
@@ -13958,6 +14197,9 @@
       </c>
       <c r="O26">
         <v>149</v>
+      </c>
+      <c r="X26" t="s">
+        <v>1631</v>
       </c>
       <c r="Z26">
         <v>56</v>

--- a/VAE_literature.xlsx
+++ b/VAE_literature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewvowels/Desktop/PhD/Awesome-VAEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24327240-CA5E-564E-8BD6-E7330F61B955}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F045DB-B9A8-2240-ABFF-A3C0CC1BD80B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="6380" windowWidth="27680" windowHeight="16780" xr2:uid="{E4269A26-9BAE-F54F-8C24-CC08A7F9F2AA}"/>
+    <workbookView xWindow="14960" yWindow="1580" windowWidth="27680" windowHeight="13860" xr2:uid="{E4269A26-9BAE-F54F-8C24-CC08A7F9F2AA}"/>
   </bookViews>
   <sheets>
     <sheet name="by paper" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="1664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="1701">
   <si>
     <t>Title</t>
   </si>
@@ -4989,9 +4989,6 @@
     <t>https://arxiv.org/pdf/1312.6114.pdf</t>
   </si>
   <si>
-    <t>the original highly cited paper for VAEs</t>
-  </si>
-  <si>
     <t>188</t>
   </si>
   <si>
@@ -5047,6 +5044,120 @@
   </si>
   <si>
     <t>TD-VAE (temporal different VAE)</t>
+  </si>
+  <si>
+    <t>177 (hand-pose)</t>
+  </si>
+  <si>
+    <t>MNIST, Frey Faces</t>
+  </si>
+  <si>
+    <t>the original highly cited paper for VAEs. Good example of how when we see the likelihood quoted, we are actually seeing the Likelihood lower bound. Estimating the true marginal likelihood  can be done using an MCMC estimator (for example) but takes computation</t>
+  </si>
+  <si>
+    <t>Uses a sampling process to achieve more accurate estimations of elbo and LL</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>MNIST, OMNIGLOT, Caltech 101, Frey Faces</t>
+  </si>
+  <si>
+    <t>LL, imputation</t>
+  </si>
+  <si>
+    <t>More work showing a further 'parsimony gap' between the approximation gap and the true LL, which depends on the expressiveness of the decoder.</t>
+  </si>
+  <si>
+    <t>https://github.com/anthonycaterini/hvae-nips</t>
+  </si>
+  <si>
+    <t>HAVE</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>DRAW: a recurrent neural network for image generation</t>
+  </si>
+  <si>
+    <t>Gregor, Danihelka, Graves, Rezende, Wierstra</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1502.04623.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/ericjang/draw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>VAE/GAN VAE disc</t>
+  </si>
+  <si>
+    <t>CelebA, LFW</t>
+  </si>
+  <si>
+    <t>VAE, GAN</t>
+  </si>
+  <si>
+    <t>generation, reconstruction, disentanglement.</t>
+  </si>
+  <si>
+    <t>They argue that they learn a dissimilarity metric. This is sort of true, but really it is an application of GAN to derive layers corresponding with high informativeness for the task of discriminating between an image generated by the VAE, and the original image being fed to the VAE. The results are quite good, although the evaluation is fairly limited. IT is a good reference for why pixel-wise losses are poor in general. Their investigation into disentanglement is particularly limited, but then this is a relatively old paper.</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>Causal generative neural networks</t>
+  </si>
+  <si>
+    <t>Goudet, Kalainathan, Caillou, Guyon, Lopez-Paz, Sebag</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1711.08936.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/GoudetOlivier/CGNN</t>
+  </si>
+  <si>
+    <t>CGNN</t>
+  </si>
+  <si>
+    <t>They provide the network with skeleton graphs (undirected), and ask the model to generate the data whilst exploring the possible causal relationships and functions between the nodes. The assumption is that when the MMD between generated and real data is  minimised that this structure reflects the true causal structure of the data.</t>
+  </si>
+  <si>
+    <t>CE-Cha, CE-Net, CE-Gauss, CE-multi, CE-Tueb</t>
+  </si>
+  <si>
+    <t>MMD</t>
+  </si>
+  <si>
+    <t>Stanford Question and Answer Dataset, Cornell movie dialog corpus</t>
+  </si>
+  <si>
+    <t>BLEU1-4, entropy</t>
+  </si>
+  <si>
+    <t>with and without variational dropout</t>
+  </si>
+  <si>
+    <t>application of variational attention with variational encoder decoder. They identify that using a variational encoder and decoder with attention is not enough - the attention bypasses the variational layer (reducing KL to 0) and becomes deterministic. Need both variational layer for encoder and decoder as well as a variational layer for attention mechanism to achieve diversity and good results.</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>A note on the evaluation of generative models</t>
+  </si>
+  <si>
+    <t>Theis, van den Oord, Bethge</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1511.01844.pdf</t>
   </si>
 </sst>
 </file>
@@ -5467,10 +5578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8920E9C9-067C-A145-84FD-2821C51037F0}">
-  <dimension ref="A1:O192"/>
+  <dimension ref="A1:O195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="75" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="H192" sqref="H192"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="75" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11726,6 +11837,24 @@
       <c r="E168" s="1" t="s">
         <v>1508</v>
       </c>
+      <c r="F168" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>1666</v>
+      </c>
     </row>
     <row r="169" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
@@ -12093,7 +12222,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="181" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>1585</v>
       </c>
@@ -12114,6 +12243,21 @@
       </c>
       <c r="G181" s="3" t="s">
         <v>1590</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="L181" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="M181" s="3" t="s">
+        <v>1696</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -12176,6 +12320,30 @@
       <c r="F183" s="1" t="s">
         <v>1600</v>
       </c>
+      <c r="G183" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L183" s="3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="M183" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="N183" s="3" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="184" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
@@ -12306,86 +12474,189 @@
       <c r="E188" s="1" t="s">
         <v>1643</v>
       </c>
+      <c r="J188" s="3" t="s">
+        <v>1664</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>1413</v>
+      </c>
       <c r="M188" s="3" t="s">
-        <v>1644</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="189" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C189" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D189" s="3" t="s">
         <v>1646</v>
       </c>
-      <c r="D189" s="3" t="s">
+      <c r="E189" s="1" t="s">
         <v>1647</v>
       </c>
-      <c r="E189" s="1" t="s">
+    </row>
+    <row r="190" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
         <v>1648</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="s">
-        <v>1649</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C190" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D190" s="3" t="s">
         <v>1650</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="E190" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>1652</v>
+      <c r="H190" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="K190" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="M190" s="3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="N190" s="3" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="191" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C191" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D191" s="3" t="s">
         <v>1654</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="E191" s="1" t="s">
         <v>1655</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="F191" s="1" t="s">
         <v>1656</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="192" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C192" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D192" s="3" t="s">
         <v>1660</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="E192" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>1661</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>1658</v>
-      </c>
-      <c r="F192" s="1" t="s">
+      <c r="G192" s="3" t="s">
         <v>1662</v>
       </c>
-      <c r="G192" s="3" t="s">
-        <v>1663</v>
-      </c>
+    </row>
+    <row r="193" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="M194" s="3" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F195" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O180">
@@ -12687,6 +12958,12 @@
     <hyperlink ref="F191" r:id="rId292" xr:uid="{F2434C3A-8A54-8843-88D1-1D151762112C}"/>
     <hyperlink ref="E192" r:id="rId293" xr:uid="{E7A6F36D-9B99-6A46-9FB2-875F8388D22B}"/>
     <hyperlink ref="F192" r:id="rId294" xr:uid="{9D4E22D6-0A7B-B141-B1A4-10908F3526FB}"/>
+    <hyperlink ref="F168" r:id="rId295" xr:uid="{DA7336E7-7219-AA45-939E-BBE77997AADC}"/>
+    <hyperlink ref="E193" r:id="rId296" xr:uid="{B5D6E7D3-427A-1045-8918-FB2DAA768F5C}"/>
+    <hyperlink ref="F193" r:id="rId297" xr:uid="{4B3072FF-543A-574E-B2F7-95160C406893}"/>
+    <hyperlink ref="E194" r:id="rId298" xr:uid="{67007C84-0087-9340-AD9B-54DBDF01C5C2}"/>
+    <hyperlink ref="F194" r:id="rId299" xr:uid="{E17CDA46-BA2C-9148-B00A-A3D4DD054114}"/>
+    <hyperlink ref="E195" r:id="rId300" xr:uid="{CB01305B-37F1-FD45-989F-D551A845C95E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -12695,2072 +12972,2107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFC51FA-4B42-B247-AFC0-29136BEB1948}">
-  <dimension ref="A1:AK62"/>
+  <dimension ref="A1:AL63"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" customWidth="1"/>
-    <col min="7" max="7" width="7.5" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
-    <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="16" width="9.33203125" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" customWidth="1"/>
-    <col min="19" max="19" width="7.33203125" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" customWidth="1"/>
-    <col min="21" max="21" width="7.33203125" customWidth="1"/>
-    <col min="22" max="23" width="7.83203125" customWidth="1"/>
-    <col min="26" max="26" width="10.5" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" customWidth="1"/>
-    <col min="31" max="31" width="8" customWidth="1"/>
-    <col min="32" max="32" width="14.83203125" customWidth="1"/>
-    <col min="33" max="33" width="10.83203125" customWidth="1"/>
-    <col min="34" max="35" width="8.6640625" customWidth="1"/>
-    <col min="36" max="36" width="6.33203125" customWidth="1"/>
-    <col min="37" max="37" width="17.5" customWidth="1"/>
+    <col min="1" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="17" width="9.33203125" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="5.33203125" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" customWidth="1"/>
+    <col min="23" max="24" width="7.83203125" customWidth="1"/>
+    <col min="27" max="27" width="10.5" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" customWidth="1"/>
+    <col min="32" max="32" width="8" customWidth="1"/>
+    <col min="33" max="33" width="14.83203125" customWidth="1"/>
+    <col min="34" max="34" width="10.83203125" customWidth="1"/>
+    <col min="35" max="36" width="8.6640625" customWidth="1"/>
+    <col min="37" max="37" width="6.33203125" customWidth="1"/>
+    <col min="38" max="38" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1436</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1408</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>1403</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>1384</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>1383</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>1406</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>1404</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>1399</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>1391</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>1412</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>1419</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>1396</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>1377</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>1425</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>1400</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>1378</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>1437</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>1388</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>1379</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>1386</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>1380</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>1381</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>1382</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>1428</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>1385</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>1389</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>1407</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>1390</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>1395</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1415</v>
       </c>
       <c r="B2">
+        <v>168</v>
+      </c>
+      <c r="C2">
         <v>88</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>99</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>38</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>24</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>44</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>154</v>
-      </c>
-      <c r="H2">
-        <v>162</v>
       </c>
       <c r="I2">
         <v>162</v>
       </c>
       <c r="J2">
+        <v>162</v>
+      </c>
+      <c r="K2">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>1405</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>127</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>1392</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>20</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>9</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>103</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>129</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>148</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>141</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>46</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>1468</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>22</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>1438</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>44</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>154</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>43</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>1393</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>46</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>1393</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>161</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>80</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>127</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>148</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>31</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>152</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>84</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1424</v>
       </c>
       <c r="B3">
+        <v>189</v>
+      </c>
+      <c r="C3">
         <v>89</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>91</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>40</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>37</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>16</v>
-      </c>
-      <c r="H3">
-        <v>161</v>
       </c>
       <c r="I3">
         <v>161</v>
       </c>
       <c r="J3">
+        <v>161</v>
+      </c>
+      <c r="K3">
         <v>9</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>33</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>126</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>1393</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>9</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>96</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>115</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>73</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>101</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>31</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>44</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>1472</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>9</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>1458</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>24</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>165</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>38</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>72</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>26</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>46</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>38</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>50</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>129</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>45</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>77</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>31</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>156</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1426</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>54</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>160</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>128</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>123</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>96</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>9</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>153</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>1394</v>
-      </c>
-      <c r="N4">
-        <v>101</v>
       </c>
       <c r="O4">
         <v>101</v>
       </c>
       <c r="P4">
+        <v>101</v>
+      </c>
+      <c r="Q4">
         <v>78</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>1411</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>155</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>120</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>164</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>1475</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>116</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>1467</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>9</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>69</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>26</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>55</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>21</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>34</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>21</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>113</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>126</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>101</v>
-      </c>
-      <c r="AH4">
-        <v>16</v>
       </c>
       <c r="AI4">
         <v>16</v>
       </c>
       <c r="AJ4">
+        <v>16</v>
+      </c>
+      <c r="AK4">
         <v>35</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1444</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>40</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>147</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>107</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>64</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>6</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>96</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>1401</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>109</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>103</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>10</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>1439</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>149</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>54</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>140</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>164</v>
-      </c>
-      <c r="W5" t="s">
-        <v>1479</v>
       </c>
       <c r="X5" t="s">
         <v>1479</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="s">
+        <v>1479</v>
+      </c>
+      <c r="Z5">
         <v>49</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>24</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>15</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>9</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>33</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>1418</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>45</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>165</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>51</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>18</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1456</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>33</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>59</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>147</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>162</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>1418</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>38</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>116</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>109</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>145</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>1440</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>136</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>132</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>60</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>83</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>160</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>30</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>9</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>6</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>96</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>26</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>80</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>22</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>68</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>153</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>41</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1457</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>30</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>37</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>153</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>13</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>34</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>77</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>116</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>130</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>73</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>23</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>156</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>84</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>147</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>118</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>1</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>103</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>22</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>53</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>21</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>11</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>134</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>124</v>
       </c>
-      <c r="AK7">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL7">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1459</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>108</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>61</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>142</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>10</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>33</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>79</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>76</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>131</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>1464</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>40</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>7</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>1471</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>25</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>1442</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>147</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>109</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>21</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>56</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>9</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>1</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1466</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>61</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>58</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>136</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>51</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>73</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>164</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>79</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>125</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>169</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>2</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>1481</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>144</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>54</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>138</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>76</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>9</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>1470</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>101</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>22</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1477</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>181</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>93</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>142</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>1410</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>84</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>164</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>4</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>170</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>62</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>150</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>1484</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>55</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>136</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>77</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>96</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>6</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>116</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>160</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1482</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>98</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>104</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>9</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>91</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>82</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>98</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>167</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>142</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>3</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>165</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>42</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>72</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>103</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>1480</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>164</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1487</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>102</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>170</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>109</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>92</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>83</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>106</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>134</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>132</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>59</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>62</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>1443</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>109</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>125</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>72</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1489</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>104</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>116</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>52</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>84</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>111</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>29</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>28</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>68</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>58</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>56</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>76</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>36</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>52</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1491</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>105</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>76</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>53</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>90</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>117</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>75</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>29</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>15</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>4</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>71</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>77</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>58</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>53</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1493</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>111</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>1435</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>11</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>72</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>176</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>12</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>1488</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>13</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>50</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>70</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>79</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>112</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>66</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1496</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>173</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>1434</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>22</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>52</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>185</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>104</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>17</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>6</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>14</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>80</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>117</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>1</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="13:33" x14ac:dyDescent="0.2">
-      <c r="M17" t="s">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="K17">
+        <v>189</v>
+      </c>
+      <c r="N17" t="s">
         <v>1440</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>158</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>53</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>105</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>1492</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>1</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>13</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>164</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>122</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>51</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="13:33" x14ac:dyDescent="0.2">
-      <c r="M18">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="N18">
         <v>92</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>155</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>56</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>106</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>1494</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>140</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>11</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>82</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>173</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>21</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="13:33" x14ac:dyDescent="0.2">
-      <c r="M19">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="N19">
         <v>52</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>149</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>11</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>112</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>108</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>60</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>8</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>84</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>158</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="13:33" x14ac:dyDescent="0.2">
-      <c r="M20">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="N20">
         <v>53</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>1483</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>6</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>113</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>60</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>21</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>140</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>90</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>155</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="13:33" x14ac:dyDescent="0.2">
-      <c r="M21">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="N21">
         <v>56</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>138</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>1</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>114</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>65</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>160</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>60</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>72</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>153</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="13:33" x14ac:dyDescent="0.2">
-      <c r="M22">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="N22">
         <v>15</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>130</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>51</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>1499</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>1495</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>159</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>21</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>1443</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>149</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="13:33" x14ac:dyDescent="0.2">
-      <c r="M23">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="N23">
         <v>11</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>131</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>1410</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>122</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>86</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>147</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>156</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>56</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>138</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="13:33" x14ac:dyDescent="0.2">
-      <c r="M24">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="N24">
         <v>6</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>4</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>153</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>170</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>87</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>25</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>155</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>74</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>135</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="13:33" x14ac:dyDescent="0.2">
-      <c r="M25" t="s">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="N25" t="s">
         <v>1473</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>75</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>150</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>1498</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>144</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>149</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>14</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>130</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="13:33" x14ac:dyDescent="0.2">
-      <c r="M26" t="s">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="N26" t="s">
         <v>1476</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>12</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>149</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>1631</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>56</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
         <v>1483</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>11</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>131</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="13:33" x14ac:dyDescent="0.2">
-      <c r="M27">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="N27">
         <v>60</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>93</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>1483</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>142</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>142</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>8</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>2</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="13:33" x14ac:dyDescent="0.2">
-      <c r="M28">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="N28">
         <v>22</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>106</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>142</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>138</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>136</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>140</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="13:33" x14ac:dyDescent="0.2">
-      <c r="M29">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="N29">
         <v>158</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>119</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>138</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>136</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>134</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>60</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="13:33" x14ac:dyDescent="0.2">
-      <c r="M30">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="N30">
         <v>155</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>173</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>131</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>133</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>130</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>21</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="13:33" x14ac:dyDescent="0.2">
-      <c r="M31">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="N31">
         <v>150</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>185</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>18</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>3</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>131</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>158</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="13:33" x14ac:dyDescent="0.2">
-      <c r="M32">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="N32">
         <v>149</v>
       </c>
       <c r="O32">
+        <v>168</v>
+      </c>
+      <c r="P32">
         <v>35</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>132</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>7</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>156</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M33" t="s">
+    <row r="33" spans="14:33" x14ac:dyDescent="0.2">
+      <c r="N33" t="s">
         <v>1483</v>
       </c>
       <c r="O33">
+        <v>189</v>
+      </c>
+      <c r="P33">
         <v>2</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>7</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>35</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>155</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M34">
+    <row r="34" spans="14:33" x14ac:dyDescent="0.2">
+      <c r="N34">
         <v>142</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>41</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>28</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>2</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>149</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M35">
+    <row r="35" spans="14:33" x14ac:dyDescent="0.2">
+      <c r="N35">
         <v>138</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>4</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>29</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>4</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AD35" t="s">
         <v>1483</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M36">
+    <row r="36" spans="14:33" x14ac:dyDescent="0.2">
+      <c r="N36">
         <v>136</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>50</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>35</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>75</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M37">
+    <row r="37" spans="14:33" x14ac:dyDescent="0.2">
+      <c r="N37">
         <v>130</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>75</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>33</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>12</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M38">
+    <row r="38" spans="14:33" x14ac:dyDescent="0.2">
+      <c r="N38">
         <v>131</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>12</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>23</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>93</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M39">
+    <row r="39" spans="14:33" x14ac:dyDescent="0.2">
+      <c r="N39">
         <v>29</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>93</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>2</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>98</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M40">
+    <row r="40" spans="14:33" x14ac:dyDescent="0.2">
+      <c r="N40">
         <v>41</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>98</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>17</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>97</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M41">
+    <row r="41" spans="14:33" x14ac:dyDescent="0.2">
+      <c r="N41">
         <v>4</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>97</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>37</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>102</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M42">
+    <row r="42" spans="14:33" x14ac:dyDescent="0.2">
+      <c r="N42">
         <v>50</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>102</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>42</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>106</v>
       </c>
-      <c r="AC42">
+      <c r="AD42">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M43">
+    <row r="43" spans="14:33" x14ac:dyDescent="0.2">
+      <c r="N43">
         <v>75</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>104</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>41</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <v>111</v>
       </c>
-      <c r="AC43">
+      <c r="AD43">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M44">
+    <row r="44" spans="14:33" x14ac:dyDescent="0.2">
+      <c r="N44">
         <v>12</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>105</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>61</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>113</v>
       </c>
-      <c r="AC44">
+      <c r="AD44">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M45">
+    <row r="45" spans="14:33" x14ac:dyDescent="0.2">
+      <c r="N45">
         <v>93</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>106</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>62</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AC45" t="s">
         <v>1499</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M46">
+    <row r="46" spans="14:33" x14ac:dyDescent="0.2">
+      <c r="N46">
         <v>98</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>111</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>65</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>124</v>
       </c>
-      <c r="AC46">
+      <c r="AD46">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M47">
+    <row r="47" spans="14:33" x14ac:dyDescent="0.2">
+      <c r="N47">
         <v>97</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>113</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>60</v>
       </c>
-      <c r="AC47">
+      <c r="AD47">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M48">
+    <row r="48" spans="14:33" x14ac:dyDescent="0.2">
+      <c r="N48">
         <v>106</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>114</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>85</v>
       </c>
-      <c r="AC48">
+      <c r="AD48">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M49">
+    <row r="49" spans="14:30" x14ac:dyDescent="0.2">
+      <c r="N49">
         <v>113</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>117</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>86</v>
       </c>
-      <c r="AC49">
+      <c r="AD49">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M50">
+    <row r="50" spans="14:30" x14ac:dyDescent="0.2">
+      <c r="N50">
         <v>114</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>1499</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>87</v>
       </c>
-      <c r="AC50">
+      <c r="AD50">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M51">
+    <row r="51" spans="14:30" x14ac:dyDescent="0.2">
+      <c r="N51">
         <v>117</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>122</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>58</v>
       </c>
-      <c r="AC51">
+      <c r="AD51">
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M52" t="s">
+    <row r="52" spans="14:30" x14ac:dyDescent="0.2">
+      <c r="N52" t="s">
         <v>1499</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>124</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>4</v>
       </c>
-      <c r="AC52">
+      <c r="AD52">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M53">
+    <row r="53" spans="14:30" x14ac:dyDescent="0.2">
+      <c r="N53">
         <v>122</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>185</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>50</v>
       </c>
-      <c r="AC53">
+      <c r="AD53">
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M54">
+    <row r="54" spans="14:30" x14ac:dyDescent="0.2">
+      <c r="N54">
         <v>124</v>
       </c>
-      <c r="Z54">
+      <c r="P54">
+        <v>177</v>
+      </c>
+      <c r="AA54">
         <v>97</v>
       </c>
-      <c r="AC54">
+      <c r="AD54">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M55">
+    <row r="55" spans="14:30" x14ac:dyDescent="0.2">
+      <c r="N55">
         <v>167</v>
       </c>
-      <c r="Z55">
+      <c r="P55">
+        <v>168</v>
+      </c>
+      <c r="AA55">
         <v>112</v>
       </c>
-      <c r="AC55">
+      <c r="AD55">
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M56">
+    <row r="56" spans="14:30" x14ac:dyDescent="0.2">
+      <c r="N56">
         <v>176</v>
       </c>
-      <c r="AC56">
+      <c r="AD56">
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M57">
+    <row r="57" spans="14:30" x14ac:dyDescent="0.2">
+      <c r="N57">
         <v>185</v>
       </c>
-      <c r="AC57">
+      <c r="AD57">
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="AC58">
+    <row r="58" spans="14:30" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <v>168</v>
+      </c>
+      <c r="AD58">
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="AC59">
+    <row r="59" spans="14:30" x14ac:dyDescent="0.2">
+      <c r="AD59">
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="AC60" t="s">
+    <row r="60" spans="14:30" x14ac:dyDescent="0.2">
+      <c r="AD60" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="61" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="AC61">
+    <row r="61" spans="14:30" x14ac:dyDescent="0.2">
+      <c r="AD61">
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="AC62">
+    <row r="62" spans="14:30" x14ac:dyDescent="0.2">
+      <c r="AD62">
         <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="14:30" x14ac:dyDescent="0.2">
+      <c r="AD63">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/VAE_literature.xlsx
+++ b/VAE_literature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewvowels/Desktop/PhD/Awesome-VAEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F045DB-B9A8-2240-ABFF-A3C0CC1BD80B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A37ED2A-7357-D141-8AA2-E67000D2B772}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14960" yWindow="1580" windowWidth="27680" windowHeight="13860" xr2:uid="{E4269A26-9BAE-F54F-8C24-CC08A7F9F2AA}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="25620" windowHeight="17460" xr2:uid="{E4269A26-9BAE-F54F-8C24-CC08A7F9F2AA}"/>
   </bookViews>
   <sheets>
     <sheet name="by paper" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="1701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="1778">
   <si>
     <t>Title</t>
   </si>
@@ -4875,9 +4875,6 @@
     <t>https://github.com/shijx12/DeepSim</t>
   </si>
   <si>
-    <t>DeepPSim</t>
-  </si>
-  <si>
     <t>184</t>
   </si>
   <si>
@@ -4935,9 +4932,6 @@
     <t>"algorithmic approaches to increasing the tightness of the elbo indpendently to the expressiveness of the inference network can be detrimental to learning by reducing the SNR of the inference network gradients"</t>
   </si>
   <si>
-    <t>M182</t>
-  </si>
-  <si>
     <t>MultiPie, Chairs 3D</t>
   </si>
   <si>
@@ -5091,9 +5085,6 @@
     <t>https://github.com/ericjang/draw</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>VAE/GAN VAE disc</t>
   </si>
   <si>
@@ -5158,6 +5149,246 @@
   </si>
   <si>
     <t>https://arxiv.org/pdf/1511.01844.pdf</t>
+  </si>
+  <si>
+    <t>Interesting exposition of why training for LL does not mean good quality samples and vice versa. Justifies the use of subjective/qualitative evaluation and gives demonstrations of the differences that result from different divergence measures.</t>
+  </si>
+  <si>
+    <t>exact likelihood' flow based model, good results, good description of the implementation - uses variational dequantisation (rather than uniform) to achieve better convergence. Useful overview of other flow-based models and their advantages and disadvantages.</t>
+  </si>
+  <si>
+    <t>CIFAR-10, CelebA, Imagenet</t>
+  </si>
+  <si>
+    <t>RealNVP, Glow, IAF-VAE, MultiScale PixelCNN, PixelCNN, PixelRNN, Gated PixelCNN, PixelCNN++, Image transformer, PixelSNAIL</t>
+  </si>
+  <si>
+    <t>bits per dim, samples</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>Flow-GAN: Combining maximum likelihood and adversarial learning in generative models</t>
+  </si>
+  <si>
+    <t>Grover, Dhar, Ermon</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1705.08868.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/ermongroup/flow-gan</t>
+  </si>
+  <si>
+    <t>Flow-GAN</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>VEEGAN: Reducing mode collapse in GANs using implicit variational learning</t>
+  </si>
+  <si>
+    <t>Srivastava, Valkov, Russell, Gutmann</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1705.07761.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/akashgit/VEEGAN</t>
+  </si>
+  <si>
+    <t>Nice overview of issues surrouding MLE in the context of GANs and flow-based models. They combine GANs with flow to achieve good results.</t>
+  </si>
+  <si>
+    <t>VEEGAN (variational encoder enhancement to GAN)</t>
+  </si>
+  <si>
+    <t>MNIST, CIFAR-10, synthetic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samples, KL, IvOM, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCGAN, ALI, unrolled GAN, </t>
+  </si>
+  <si>
+    <t>Combination of GANs and an autoencoder reconstruction loss that works on mapping the  image distribution  back to the noise sample (as well as the usual mapping from noise sample to image in GANs). Demonstates that mode collapse is significantly reduced with VEEGAN.</t>
+  </si>
+  <si>
+    <t>STL-10, CIFAR-10</t>
+  </si>
+  <si>
+    <t>L2 loss,</t>
+  </si>
+  <si>
+    <t>DeepPSim loss</t>
+  </si>
+  <si>
+    <t>samples, interpolations, re-encodings</t>
+  </si>
+  <si>
+    <t>Really interesting re-encoding results (zoom in for detail). They explain why L2 loss yields blurry reconstructions.</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>InfoGAN: interpretable representation learning by information maximizing generative adversarial nets</t>
+  </si>
+  <si>
+    <t>Chen, Duan, Houthooft, Schulman, Sutskever, Abbeel</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1606.03657.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/openai/InfoGAN</t>
+  </si>
+  <si>
+    <t>InfoGAN</t>
+  </si>
+  <si>
+    <t>Nice application of information theory. They split the GAN input vector into z (just noise) and c (a code vector) and introduce a loss term that maximises the mutual information between c and G(z,c) (i.e. the generator output given the noise and code vector. As the MI is intractable they derive a lower bound for this quantity using a tractable distribution for the posterior q. The results are promising.</t>
+  </si>
+  <si>
+    <t>3D faces, 3D chairs, SVHN, MNIST, CelebA</t>
+  </si>
+  <si>
+    <t>DC-IGN, GAN</t>
+  </si>
+  <si>
+    <t>samples and latent traversals</t>
+  </si>
+  <si>
+    <t>A nice exposition of the GAN objective and theory. They propose that adversarial training is too lengthy and unpredictable, so they replace it with a two-sample test statistic based on Gretton's work with MMD. However, the results aren't great, and the results also illustrate the problems with estimation LL with KDE (kernel density estimation) and Parzen windows.</t>
+  </si>
+  <si>
+    <t>GAN</t>
+  </si>
+  <si>
+    <t>MMD-nets</t>
+  </si>
+  <si>
+    <t>samples and LL</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>Meng, Pawlowski, Rueckert, Kainz</t>
+  </si>
+  <si>
+    <t>synthetic, ultrasound</t>
+  </si>
+  <si>
+    <t>classification, PCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non variational and non autoencoder. They propose to disentangle image artefacts (e.g. acoustic shadowing) from underlying image structure of interest. They demonstrate this by partitioning the datasets for training, and then, using 4 branches (1 for prediction from first image, 2nd for adversarial minimisation of mutual information between embeddings and alternate image class, and the 3rd and 4th equivalent for the other image). Limited evaluation. </t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Representation learning with contrastive predictive coding</t>
+  </si>
+  <si>
+    <t>van den Oord, Li, Vinyals</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1807.03748.pdf</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1908.07885.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/davidtellez/contrastive-predictive-coding</t>
+  </si>
+  <si>
+    <t>CPC (contrastive predictive coding)</t>
+  </si>
+  <si>
+    <t>unsupervised / self</t>
+  </si>
+  <si>
+    <t>t-sne, accuracy,</t>
+  </si>
+  <si>
+    <t>ImageNet, LibriSpeech, BookCorpus, Movie sentiment, customer product reviews, MPQA, TREC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiGAN, Colorization, Jigsaw, skip-thought, MFCC, and more. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They define latent variable Y on top of the learned latent VAE variables z. They combine an EM message parsing algorithm with the standard VAE objective (they alternate each optimisation step) and then perform a model search to establish the latent structure. This is an interesting perspective as it is not concerned with identifying disentangled variables and instead in understanding the structure between latent variables (which in some regards sounds more realistic). There is no mention of how efficient it is to train, however, especially on large datasets with high latent dimensionality. </t>
+  </si>
+  <si>
+    <t>LTVAE (latent tree VAE)</t>
+  </si>
+  <si>
+    <t>MNIST and others</t>
+  </si>
+  <si>
+    <t>AE+GMM, VAE+GMM, DEC, DCN</t>
+  </si>
+  <si>
+    <t>samples, clustering accuracy,</t>
+  </si>
+  <si>
+    <t>DRAW</t>
+  </si>
+  <si>
+    <t>samples, generation sequences, LL</t>
+  </si>
+  <si>
+    <t>DBM, DBN, NADE, EoNADE, NADE-5, DLGM, DARN</t>
+  </si>
+  <si>
+    <t>Follows variational encoder decoder network with LSTMs for iteratively attending to different parts of the intput image whilst reconstructing it bit by bit in the decoder. Includes selective attention.</t>
+  </si>
+  <si>
+    <t>Non variational and non autoencoder BUT a great example of how to inforporate 'self' supervision to encode important information for representation learning, both on audio and on video. Extensive evaluation.</t>
+  </si>
+  <si>
+    <t>199 self</t>
+  </si>
+  <si>
+    <t>199 (medical)</t>
+  </si>
+  <si>
+    <t>192 (sort of)</t>
+  </si>
+  <si>
+    <t>SV2P</t>
+  </si>
+  <si>
+    <t>More on the reasons for blurry reconstruction. Nice network architecture for predicting frames into the future with a VAE. Strangely they suggest that when KL loss disappears then it is converged but this would usually mean no information is stored in latents?  They also use an interesting training strategy where they optimise decoder first, then encoder, then they add the KL loss and optimise for that. they also use KL annealing with the beta parameter</t>
+  </si>
+  <si>
+    <t>samples, SSIM, MSE, PSNR,</t>
+  </si>
+  <si>
+    <t>Finn et al.</t>
+  </si>
+  <si>
+    <t>BAIR, Human3.6M, Roboticc pushing prediction</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>TherML: The thermodynamics of machine learning</t>
+  </si>
+  <si>
+    <t>Alemi, Fishcer</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1807.04162.pdf</t>
+  </si>
+  <si>
+    <t>Representation disentanglement  for multi-task learning with application to fetal ultrasound</t>
   </si>
 </sst>
 </file>
@@ -5578,10 +5809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8920E9C9-067C-A145-84FD-2821C51037F0}">
-  <dimension ref="A1:O195"/>
+  <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="75" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E204" sqref="E204"/>
+    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="116" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11838,10 +12069,10 @@
         <v>1508</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>40</v>
@@ -11853,7 +12084,7 @@
         <v>85</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -11958,7 +12189,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>1532</v>
       </c>
@@ -11979,6 +12210,27 @@
       </c>
       <c r="G172" s="3" t="s">
         <v>1538</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="M172" s="7" t="s">
+        <v>1699</v>
+      </c>
+      <c r="N172" s="3" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -12082,13 +12334,13 @@
         <v>1557</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>1564</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="N176" s="3" t="s">
         <v>640</v>
@@ -12117,13 +12369,13 @@
         <v>1563</v>
       </c>
       <c r="H177" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="M177" s="3" t="s">
         <v>1637</v>
-      </c>
-      <c r="J177" s="3" t="s">
-        <v>1636</v>
-      </c>
-      <c r="M177" s="3" t="s">
-        <v>1639</v>
       </c>
       <c r="N177" s="3" t="s">
         <v>640</v>
@@ -12152,16 +12404,16 @@
         <v>879</v>
       </c>
       <c r="J178" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="L178" s="3" t="s">
         <v>1615</v>
       </c>
-      <c r="K178" s="3" t="s">
-        <v>1614</v>
-      </c>
-      <c r="L178" s="3" t="s">
+      <c r="M178" s="3" t="s">
         <v>1616</v>
-      </c>
-      <c r="M178" s="3" t="s">
-        <v>1617</v>
       </c>
       <c r="N178" s="3" t="s">
         <v>640</v>
@@ -12248,16 +12500,16 @@
         <v>879</v>
       </c>
       <c r="J181" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="L181" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="M181" s="3" t="s">
         <v>1693</v>
-      </c>
-      <c r="K181" s="3" t="s">
-        <v>1694</v>
-      </c>
-      <c r="L181" s="3" t="s">
-        <v>1695</v>
-      </c>
-      <c r="M181" s="3" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -12286,16 +12538,16 @@
         <v>879</v>
       </c>
       <c r="J182" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="K182" s="3" t="s">
         <v>1627</v>
       </c>
-      <c r="K182" s="3" t="s">
-        <v>1629</v>
-      </c>
       <c r="L182" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="M182" s="3" t="s">
         <v>1628</v>
-      </c>
-      <c r="M182" s="3" t="s">
-        <v>1630</v>
       </c>
       <c r="N182" s="3" t="s">
         <v>640</v>
@@ -12321,7 +12573,7 @@
         <v>1600</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="H183" s="3" t="s">
         <v>40</v>
@@ -12330,16 +12582,16 @@
         <v>879</v>
       </c>
       <c r="J183" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L183" s="3" t="s">
+        <v>1678</v>
+      </c>
+      <c r="M183" s="3" t="s">
         <v>1680</v>
-      </c>
-      <c r="K183" s="3" t="s">
-        <v>1682</v>
-      </c>
-      <c r="L183" s="3" t="s">
-        <v>1681</v>
-      </c>
-      <c r="M183" s="3" t="s">
-        <v>1683</v>
       </c>
       <c r="N183" s="3" t="s">
         <v>640</v>
@@ -12365,36 +12617,54 @@
         <v>1605</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>1606</v>
+        <v>1722</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>1721</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>1626</v>
+        <v>1724</v>
+      </c>
+      <c r="N184" s="3" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="185" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>1462</v>
       </c>
       <c r="E185" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="M185" s="3" t="s">
         <v>1609</v>
-      </c>
-      <c r="K185" s="3" t="s">
-        <v>1612</v>
-      </c>
-      <c r="L185" s="3" t="s">
-        <v>1611</v>
-      </c>
-      <c r="M185" s="3" t="s">
-        <v>1610</v>
       </c>
       <c r="N185" s="3" t="s">
         <v>640</v>
@@ -12402,25 +12672,25 @@
     </row>
     <row r="186" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C186" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>1619</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="E186" s="1" t="s">
         <v>1620</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="F186" s="1" t="s">
         <v>1621</v>
       </c>
-      <c r="F186" s="1" t="s">
+      <c r="G186" s="3" t="s">
         <v>1622</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>1623</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>40</v>
@@ -12432,90 +12702,138 @@
         <v>73</v>
       </c>
       <c r="K186" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="M186" s="3" t="s">
         <v>1624</v>
-      </c>
-      <c r="L186" s="3" t="s">
-        <v>1611</v>
-      </c>
-      <c r="M186" s="3" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="187" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>317</v>
       </c>
       <c r="C187" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>1633</v>
       </c>
-      <c r="D187" s="3" t="s">
-        <v>1634</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>1635</v>
+      <c r="G187" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="L187" s="3" t="s">
+        <v>1736</v>
+      </c>
+      <c r="M187" s="3" t="s">
+        <v>1735</v>
       </c>
     </row>
     <row r="188" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>508</v>
       </c>
       <c r="C188" s="3" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>1641</v>
       </c>
-      <c r="D188" s="3" t="s">
-        <v>1642</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>1643</v>
+      <c r="I188" s="3" t="s">
+        <v>879</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="K188" s="3" t="s">
         <v>1413</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="189" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C189" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="D189" s="3" t="s">
-        <v>1646</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>1647</v>
+      <c r="G189" s="3" t="s">
+        <v>1756</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="M189" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="N189" s="3" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="190" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C190" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>1649</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>1650</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>1651</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>40</v>
@@ -12524,105 +12842,147 @@
         <v>879</v>
       </c>
       <c r="J190" s="3" t="s">
+        <v>1666</v>
+      </c>
+      <c r="K190" s="3" t="s">
+        <v>1667</v>
+      </c>
+      <c r="M190" s="3" t="s">
         <v>1668</v>
-      </c>
-      <c r="K190" s="3" t="s">
-        <v>1669</v>
-      </c>
-      <c r="M190" s="3" t="s">
-        <v>1670</v>
       </c>
       <c r="N190" s="3" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="191" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C191" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="F191" s="1" t="s">
         <v>1654</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>1656</v>
+      <c r="G191" s="3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J191" s="3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="K191" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="L191" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="M191" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="N191" s="3" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="192" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C192" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>1659</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="G192" s="3" t="s">
         <v>1660</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>1657</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>1661</v>
-      </c>
-      <c r="G192" s="3" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>317</v>
       </c>
       <c r="C193" s="3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>1674</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="F193" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>1677</v>
-      </c>
       <c r="G193" s="3" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>1760</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>1761</v>
+      </c>
+      <c r="L193" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="M193" s="3" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C194" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F194" s="1" t="s">
         <v>1685</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="G194" s="3" t="s">
         <v>1686</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>1689</v>
       </c>
       <c r="H194" s="3" t="s">
         <v>40</v>
@@ -12631,32 +12991,251 @@
         <v>879</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C195" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F195" s="1"/>
+      <c r="M195" s="3" t="s">
         <v>1698</v>
       </c>
-      <c r="D195" s="3" t="s">
-        <v>1699</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>1700</v>
-      </c>
-      <c r="F195" s="1"/>
+      <c r="N195" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="M196" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="N196" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="K197" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="L197" s="3" t="s">
+        <v>1718</v>
+      </c>
+      <c r="M197" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="N197" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="L198" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="M198" s="3" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="K199" s="3" t="s">
+        <v>1742</v>
+      </c>
+      <c r="M199" s="3" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="L200" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="M200" s="3" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>1776</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O180">
@@ -12664,306 +13243,316 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{287684C2-8B7E-5848-A893-933142CE627C}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{3D68445D-29DA-B64C-97CE-ACF8027E5FF6}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{7CF8C55D-B082-7A4A-B16A-0379FC5F862C}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{762BBD67-35EB-C648-8785-2882DE807AB4}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{748E930A-EA16-E44D-96D5-C065BBB5ACC9}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{241DAD7E-25A8-1A43-BF01-91CE111377CE}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{75736402-73CE-5647-AEB0-0C935EB06D4B}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{F3BAFF5B-3AA5-AF48-AE58-1178FD304899}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{710816D4-97E6-004F-B089-E1ABD789F089}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{A2039981-9D1F-4042-BF05-5FAFF0F426E8}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{0F4ABD6D-A0FB-044B-8F74-208BDFB0CC4A}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{7AF440A2-1DBA-5C43-AC27-82BDE286168A}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{4FF6750B-469D-4C48-8700-7D71E2270C9A}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{9E226031-1A93-7042-A53A-CE51DD9ABC65}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{66867570-F699-574F-94A0-A5D227BBEB86}"/>
-    <hyperlink ref="E17" r:id="rId16" xr:uid="{9EED600A-C6CD-1F4D-A52A-42BF5958B7EA}"/>
-    <hyperlink ref="E18" r:id="rId17" xr:uid="{BDE9D707-C6B9-0343-8C72-908B7FCB3689}"/>
-    <hyperlink ref="E19" r:id="rId18" xr:uid="{56EC5D00-AC89-E542-B267-3A54495A9BA3}"/>
-    <hyperlink ref="E20" r:id="rId19" xr:uid="{6812D194-9452-854D-889F-C774620D4163}"/>
-    <hyperlink ref="E21" r:id="rId20" xr:uid="{D12AD687-5E1E-4E43-9911-0AE159A13C23}"/>
-    <hyperlink ref="E22" r:id="rId21" xr:uid="{C5E08AA4-6E8B-3845-A98E-E2E9BD0B9E75}"/>
-    <hyperlink ref="E23" r:id="rId22" xr:uid="{1F64D28C-2A7E-D64A-95BA-6DDD80260DD6}"/>
-    <hyperlink ref="E24" r:id="rId23" xr:uid="{9176E768-ED83-FC49-A193-03365BCB5AD6}"/>
-    <hyperlink ref="E25" r:id="rId24" xr:uid="{A7A50C8F-6111-A240-AF6D-EA48457572B0}"/>
-    <hyperlink ref="E26" r:id="rId25" xr:uid="{F86BE994-C6B8-BC4C-A3B3-7E75B1F72A04}"/>
-    <hyperlink ref="E27" r:id="rId26" xr:uid="{F3877792-5EF0-E345-858E-9EAA5A02137E}"/>
-    <hyperlink ref="E28" r:id="rId27" xr:uid="{121BDBA0-0A98-4A44-8386-EF2307896247}"/>
-    <hyperlink ref="E29" r:id="rId28" xr:uid="{2E248752-89B7-3E41-8B9F-A87AD5816AE7}"/>
-    <hyperlink ref="E30" r:id="rId29" xr:uid="{27D1D7C0-ED6E-2441-93D3-68A56636571B}"/>
-    <hyperlink ref="E31" r:id="rId30" xr:uid="{527988F4-D96C-C446-A104-5289059D7AA9}"/>
-    <hyperlink ref="E32" r:id="rId31" xr:uid="{43AD3320-5419-134A-B915-5E7933289A5D}"/>
-    <hyperlink ref="E33" r:id="rId32" xr:uid="{F7877987-A307-9E4C-AC0F-4B7AD496EC66}"/>
-    <hyperlink ref="E34" r:id="rId33" xr:uid="{CD85543D-0F45-B442-8056-59A5D0CAC591}"/>
-    <hyperlink ref="E35" r:id="rId34" xr:uid="{8AE40189-A24F-364E-9C6F-9535A15F6207}"/>
-    <hyperlink ref="E36" r:id="rId35" xr:uid="{F8DAEB65-529C-1B4D-A0BD-7875BD428FFF}"/>
-    <hyperlink ref="E37" r:id="rId36" xr:uid="{89D276A0-9111-5C49-808B-037C83656A4B}"/>
-    <hyperlink ref="E38" r:id="rId37" xr:uid="{9DA57912-5201-914E-B610-3DFEBA61DF13}"/>
-    <hyperlink ref="E39" r:id="rId38" xr:uid="{7778B0B2-93E7-A245-8B4E-1F0756236DD3}"/>
-    <hyperlink ref="E180" r:id="rId39" xr:uid="{F82D0D5D-52FF-C648-985B-52F280F4C0B1}"/>
-    <hyperlink ref="E40" r:id="rId40" xr:uid="{DC8AC94E-6F60-C349-9C1C-55CD8606E658}"/>
-    <hyperlink ref="E41" r:id="rId41" xr:uid="{3BDD0579-BD1A-A84A-81E0-CEA058339000}"/>
-    <hyperlink ref="E42" r:id="rId42" xr:uid="{D223B593-B41D-C946-ADC3-FCF06ED17F5A}"/>
-    <hyperlink ref="E43" r:id="rId43" xr:uid="{45F76E88-4B74-5E4B-A6D1-5B6B3848F560}"/>
-    <hyperlink ref="E44" r:id="rId44" xr:uid="{5B554A1C-E84F-5F4A-8ED9-0A8A3458D5C8}"/>
-    <hyperlink ref="E45" r:id="rId45" xr:uid="{5F648001-98EB-3B45-AE26-196D439188D5}"/>
-    <hyperlink ref="E46" r:id="rId46" xr:uid="{E63017F7-D5F5-284E-991A-982F8EB606FD}"/>
-    <hyperlink ref="E47" r:id="rId47" xr:uid="{AFF39D95-E577-EE4B-A025-8C0018E3ADC1}"/>
-    <hyperlink ref="E48" r:id="rId48" xr:uid="{1B1C1524-635F-654E-B016-AB1E1DFE0BD4}"/>
-    <hyperlink ref="E49" r:id="rId49" xr:uid="{33D63C2C-A122-0B41-B539-74187DA5C153}"/>
-    <hyperlink ref="E50" r:id="rId50" xr:uid="{E4508A09-2999-C14B-BAD5-5E1D600C23D8}"/>
-    <hyperlink ref="E51" r:id="rId51" xr:uid="{79E2163C-4A10-2E48-A958-B3E9A50695D8}"/>
-    <hyperlink ref="E52" r:id="rId52" xr:uid="{A22FE584-5BEB-2044-8C54-5A209668F44A}"/>
-    <hyperlink ref="E53" r:id="rId53" xr:uid="{18860AEB-B914-D749-8897-DE464124F923}"/>
-    <hyperlink ref="E54" r:id="rId54" xr:uid="{79CD9A80-6156-3146-B151-529C578C6654}"/>
-    <hyperlink ref="E55" r:id="rId55" xr:uid="{4F1A2511-4676-8947-B560-B304B8EE6342}"/>
-    <hyperlink ref="E56" r:id="rId56" xr:uid="{0A12411D-23E4-744D-B562-D70FCC8AF978}"/>
-    <hyperlink ref="E57" r:id="rId57" xr:uid="{A89499A2-AC73-AD4A-AB36-D06C3409177D}"/>
-    <hyperlink ref="E58" r:id="rId58" xr:uid="{07102C24-5D5C-1146-BADD-8B8B8C5D90ED}"/>
-    <hyperlink ref="E59" r:id="rId59" xr:uid="{EA47B403-405E-5243-980A-DCA6D68D4BCB}"/>
-    <hyperlink ref="E60" r:id="rId60" xr:uid="{0420C41B-A23E-284B-ADA0-DD11DC75C1E5}"/>
-    <hyperlink ref="E61" r:id="rId61" xr:uid="{90B1D2EE-F4FE-C249-9554-AF6607CE2982}"/>
-    <hyperlink ref="E62" r:id="rId62" xr:uid="{4A20FE83-D8FF-1F40-AF95-9AF006962CE4}"/>
-    <hyperlink ref="E63" r:id="rId63" xr:uid="{C0D8BD5C-0D3E-6F4C-82D3-DE299A46B1B6}"/>
-    <hyperlink ref="E64" r:id="rId64" xr:uid="{8B166347-F3A4-0C4C-8C9F-57F08F678D86}"/>
-    <hyperlink ref="E65" r:id="rId65" xr:uid="{9A781361-CF96-C14C-AFDA-69BECEA920B0}"/>
-    <hyperlink ref="E66" r:id="rId66" xr:uid="{AA0452C5-98EC-F043-8D90-6F4B87260C50}"/>
-    <hyperlink ref="E67" r:id="rId67" xr:uid="{213949E7-9053-B84F-9132-E709B82FB93A}"/>
-    <hyperlink ref="E68" r:id="rId68" xr:uid="{A39FA1F0-5A74-214D-8F5C-6E4E0C021C35}"/>
-    <hyperlink ref="E70" r:id="rId69" xr:uid="{C4F062B0-E20C-B046-AE17-CF48CF1FD846}"/>
-    <hyperlink ref="E71" r:id="rId70" xr:uid="{FE8783B1-4D44-054D-BDDE-D18425980D94}"/>
-    <hyperlink ref="E72" r:id="rId71" xr:uid="{768E9870-CFEF-F942-B847-02342E33FF4A}"/>
-    <hyperlink ref="E73" r:id="rId72" xr:uid="{D21E2177-3083-8C45-A177-363CD860E664}"/>
-    <hyperlink ref="E69" r:id="rId73" xr:uid="{7CEACBFE-1656-8B48-B5B0-E925C95050C8}"/>
-    <hyperlink ref="E74" r:id="rId74" xr:uid="{984FFBFE-A91A-9046-BA1A-AE493EEE7D7D}"/>
-    <hyperlink ref="E75" r:id="rId75" xr:uid="{3E40E21F-EF8D-5844-AEFE-D70E44AC940F}"/>
-    <hyperlink ref="E76" r:id="rId76" xr:uid="{FAB704CB-68D8-B043-B640-98465F4A70EC}"/>
-    <hyperlink ref="E77" r:id="rId77" xr:uid="{308058B2-9DF1-734D-9974-FBB843AABE16}"/>
-    <hyperlink ref="E78" r:id="rId78" xr:uid="{CEE4C649-7F3D-444B-A11C-F796AE8CB7D4}"/>
-    <hyperlink ref="E79" r:id="rId79" xr:uid="{A6C92A62-5828-EA40-A4D5-890445A0E38E}"/>
-    <hyperlink ref="E80" r:id="rId80" xr:uid="{E747A436-79A2-E54C-AB94-34BE18D12CEB}"/>
-    <hyperlink ref="E81" r:id="rId81" display="https://vimeo.com/285802293" xr:uid="{622FBD58-DC08-7549-A44F-B632170B42D3}"/>
-    <hyperlink ref="E82" r:id="rId82" xr:uid="{44D0A2C5-1E52-8547-84E2-4DDA0FBCB105}"/>
-    <hyperlink ref="E83" r:id="rId83" xr:uid="{C6737A2F-5E00-1741-BFE7-0E0682A19E76}"/>
-    <hyperlink ref="E84" r:id="rId84" xr:uid="{62F4BB00-F5BB-CC45-9C26-8057F661D21F}"/>
-    <hyperlink ref="E86" r:id="rId85" xr:uid="{DAF248E7-438E-784E-AF8B-63EFAD89FF00}"/>
-    <hyperlink ref="E85" r:id="rId86" xr:uid="{516C4FBA-663D-7E4B-ADDC-1980FE5F1238}"/>
-    <hyperlink ref="E87" r:id="rId87" xr:uid="{5512ADAD-2EBC-9743-BB56-E814C7683FFD}"/>
-    <hyperlink ref="E88" r:id="rId88" xr:uid="{C25E2D4B-2DFF-5846-A9DE-4F99442B561A}"/>
-    <hyperlink ref="E89" r:id="rId89" xr:uid="{56BE9458-7FB1-214C-A122-96DE97D87BD8}"/>
-    <hyperlink ref="E90" r:id="rId90" xr:uid="{2E904AC1-6EC8-7843-B843-2F15B94041BE}"/>
-    <hyperlink ref="E91" r:id="rId91" xr:uid="{C117CC20-124C-424E-8E09-9B812018D0A6}"/>
-    <hyperlink ref="E92" r:id="rId92" display="https://www.researchgate.net/profile/Andreas_Veit/publication/301837223_Disentangling_Nonlinear_Perceptual_Embeddings_With_Multi-Query_Triplet_Networks/links/57e2997308ae040ae3c2f3a3/Disentangling-Nonlinear-Perceptual-Embeddings-With-Multi-Query-Triplet-Networks.pdf" xr:uid="{9F93F0B1-2BC7-0C46-9C04-78ED319D0912}"/>
-    <hyperlink ref="E93" r:id="rId93" xr:uid="{DDED75B6-BC96-C34F-8A33-88B96B0C5D73}"/>
-    <hyperlink ref="E94" r:id="rId94" xr:uid="{87928C87-2EC6-0D42-9A71-44D683A914F1}"/>
-    <hyperlink ref="E95" r:id="rId95" xr:uid="{2C8DFE2B-C45F-F346-84D8-A58199075F40}"/>
-    <hyperlink ref="E96" r:id="rId96" xr:uid="{3115AF41-F576-B146-BE2F-9752BCF8626F}"/>
-    <hyperlink ref="E97" r:id="rId97" xr:uid="{ED598E9F-E756-FD4F-B307-2AEE261DD300}"/>
-    <hyperlink ref="E98" r:id="rId98" xr:uid="{3222C550-264B-204A-B320-72C3DD3ACEA3}"/>
-    <hyperlink ref="E99" r:id="rId99" xr:uid="{87733583-A3A0-F540-93A3-4E32D7F6E240}"/>
-    <hyperlink ref="E100" r:id="rId100" xr:uid="{7BB2D929-A5A0-E145-A0D4-0AAE845F0F67}"/>
-    <hyperlink ref="E101" r:id="rId101" xr:uid="{D068A7A1-29ED-CD4E-96E0-3BA4B68000EC}"/>
-    <hyperlink ref="E102" r:id="rId102" xr:uid="{01F2916E-934C-E545-BA10-9732E4ED82E6}"/>
-    <hyperlink ref="E103" r:id="rId103" xr:uid="{A1420B55-22FD-9947-AC05-9689708F4724}"/>
-    <hyperlink ref="E104" r:id="rId104" xr:uid="{A250D5D1-B878-7545-B73E-C6227C1D4A48}"/>
-    <hyperlink ref="E105" r:id="rId105" xr:uid="{05EA7040-AA80-1E42-A739-CD5C42969BE7}"/>
-    <hyperlink ref="E106" r:id="rId106" xr:uid="{E753D5F3-08CF-9246-9558-415DD1101F17}"/>
-    <hyperlink ref="E108" r:id="rId107" xr:uid="{B8B026B2-62AA-5246-9B24-694AB774E853}"/>
-    <hyperlink ref="E107" r:id="rId108" xr:uid="{CD3C7D2D-EEFE-2F4E-8931-74B5D8DF2E21}"/>
-    <hyperlink ref="E109" r:id="rId109" xr:uid="{FA49247A-4FCE-354A-9C19-9C470523BB9E}"/>
-    <hyperlink ref="E110" r:id="rId110" xr:uid="{8B59613E-4094-6A47-85CE-3930B922B05E}"/>
-    <hyperlink ref="E111" r:id="rId111" xr:uid="{7C88A0B1-AB52-C74A-897A-E363A0D0760E}"/>
-    <hyperlink ref="E112" r:id="rId112" xr:uid="{E7286F66-EB9A-8A44-B020-368B51630404}"/>
-    <hyperlink ref="E113" r:id="rId113" xr:uid="{B1B4AAC3-2EC0-A242-B03E-D3DD8CDD4D35}"/>
-    <hyperlink ref="E114" r:id="rId114" xr:uid="{1170A079-E568-984D-976D-7AE8038329A4}"/>
-    <hyperlink ref="E115" r:id="rId115" xr:uid="{8F34129F-53F3-954B-A4F8-CAC1641CE73E}"/>
-    <hyperlink ref="E116" r:id="rId116" xr:uid="{D2DAFDA3-8DA0-3A41-96F1-B984A9677C2C}"/>
-    <hyperlink ref="E117" r:id="rId117" xr:uid="{D7AC6EC2-DB28-3741-A801-3A2C591F4372}"/>
-    <hyperlink ref="E118" r:id="rId118" xr:uid="{C18394C9-4A26-E74D-9DC2-C0D9F976DADB}"/>
-    <hyperlink ref="E119" r:id="rId119" xr:uid="{63DA334F-C94A-E048-90C4-875223E78FC5}"/>
-    <hyperlink ref="E120" r:id="rId120" xr:uid="{45E16E6F-5876-7F4E-A651-C033578D1BF5}"/>
-    <hyperlink ref="E121" r:id="rId121" xr:uid="{A231E325-CE15-7140-BE90-B16A05F79CEC}"/>
-    <hyperlink ref="E122" r:id="rId122" xr:uid="{7AF8E4B5-20A3-914B-9FC1-65A6E9366D9F}"/>
-    <hyperlink ref="E123" r:id="rId123" xr:uid="{71581D31-D5D9-3C41-BBBE-C91547CD9BB5}"/>
-    <hyperlink ref="E124" r:id="rId124" xr:uid="{3CA89AC3-6C9E-F94A-8E36-55A9E9213956}"/>
-    <hyperlink ref="E125" r:id="rId125" display="https://arxiv.org/pdf/1807.09356.pdf" xr:uid="{47022A3F-BCFE-0F41-A4FD-71A0A5723034}"/>
-    <hyperlink ref="E126" r:id="rId126" xr:uid="{1F435C60-1DB2-2045-87EB-3E7260719A00}"/>
-    <hyperlink ref="E127" r:id="rId127" xr:uid="{A2ACA7AD-6F8D-0D4C-8CA3-B9DD24FAFFFD}"/>
-    <hyperlink ref="E128" r:id="rId128" xr:uid="{21CBC9DE-D28B-F44A-92EB-F8634F1C8E38}"/>
-    <hyperlink ref="E129" r:id="rId129" xr:uid="{A4775757-53F8-8B45-A9AB-F9FA216E5E7D}"/>
-    <hyperlink ref="E130" r:id="rId130" xr:uid="{7CCE2187-C43D-2242-AD18-AA309394F575}"/>
-    <hyperlink ref="E131" r:id="rId131" xr:uid="{73C29958-F4B1-6F4D-93B2-79B552DCC173}"/>
-    <hyperlink ref="N2" r:id="rId132" display="https://github.com/youngleec/DeepGenerativeModels" xr:uid="{7C19B556-F84E-9548-9605-4F03B891A0CE}"/>
-    <hyperlink ref="E132" r:id="rId133" xr:uid="{2E3CACB3-FC71-D74B-883C-3C51D1F9DBE4}"/>
-    <hyperlink ref="E133" r:id="rId134" xr:uid="{B1EC8237-12A7-3A40-BBB8-96E16CBC9DF5}"/>
-    <hyperlink ref="E134" r:id="rId135" xr:uid="{F493203C-B67A-A04C-B651-697767C0178D}"/>
-    <hyperlink ref="E135" r:id="rId136" xr:uid="{A73ADDDA-E55D-C642-A7B0-1C9733D25C90}"/>
-    <hyperlink ref="E136" r:id="rId137" xr:uid="{FBD75AE4-0EB2-FD40-841D-368F3496C12F}"/>
-    <hyperlink ref="E138" r:id="rId138" xr:uid="{76904A68-77E0-E84A-ABE2-B56CD32ADDAC}"/>
-    <hyperlink ref="E139" r:id="rId139" xr:uid="{C60401B6-D284-6C4E-84C3-1BDA6B7640B6}"/>
-    <hyperlink ref="E140" r:id="rId140" xr:uid="{43EB408C-3B93-994A-8898-82238E8739F9}"/>
-    <hyperlink ref="E141" r:id="rId141" display="../../Downloads/Life-Long_Disentangled_Representation_Learning_wit.pdf" xr:uid="{BA55ACDB-2C86-414A-9022-ADBB44542E11}"/>
-    <hyperlink ref="E142" r:id="rId142" xr:uid="{C8D784F4-ADC7-C640-B063-4A9851B78236}"/>
-    <hyperlink ref="E143" r:id="rId143" xr:uid="{AC31FE78-95C0-614D-A7D7-ADB8CD5233BE}"/>
-    <hyperlink ref="E144" r:id="rId144" xr:uid="{2A396368-4C6B-C546-AC33-C34CCE2D9C5D}"/>
-    <hyperlink ref="E145" r:id="rId145" xr:uid="{7BBFA0E6-D261-2C47-B54A-EEC2A56EA4BC}"/>
-    <hyperlink ref="E146" r:id="rId146" xr:uid="{257B33F0-3E19-994B-927D-39D66AB5E6FE}"/>
-    <hyperlink ref="E147" r:id="rId147" xr:uid="{6DFCF6FC-28DF-4B4F-9C1A-6A3CB6A9F198}"/>
-    <hyperlink ref="E148" r:id="rId148" xr:uid="{902221B1-2DAB-034F-ABA5-F27372499274}"/>
-    <hyperlink ref="E149" r:id="rId149" display="http://2017.ds3-datascience-polytechnique.fr/wp-content/uploads/2017/08/DS3_posterID_048.pdf" xr:uid="{D7DBC5A5-DD78-9A49-ACC3-278298EF2657}"/>
-    <hyperlink ref="E150" r:id="rId150" xr:uid="{BEEC9054-91C6-A845-BB1C-3D18E3B01B3B}"/>
-    <hyperlink ref="E151" r:id="rId151" xr:uid="{D072C7EE-2722-0945-9046-9728DFE828CB}"/>
-    <hyperlink ref="E152" r:id="rId152" xr:uid="{40848DF5-5697-654D-9768-823D16E96E17}"/>
-    <hyperlink ref="E153" r:id="rId153" xr:uid="{5B44294D-4F3B-F247-AA46-A5C128CCC7B1}"/>
-    <hyperlink ref="E154" r:id="rId154" xr:uid="{2610CD40-58DA-3443-BCF3-0DDA57BF2EBF}"/>
-    <hyperlink ref="E155" r:id="rId155" xr:uid="{B77DFE6E-DF8B-6C40-9CC6-97F566E506A7}"/>
-    <hyperlink ref="E156" r:id="rId156" xr:uid="{EA741AE6-B64F-0842-A44B-740F4938D332}"/>
-    <hyperlink ref="E157" r:id="rId157" xr:uid="{C3B2F743-DB09-714F-AAC8-26F4A976F4A1}"/>
-    <hyperlink ref="E158" r:id="rId158" xr:uid="{70137826-5422-1C4D-A37B-0327C14D3857}"/>
-    <hyperlink ref="E159" r:id="rId159" xr:uid="{46E7F4C9-0590-A444-8193-8B0AC58635EE}"/>
-    <hyperlink ref="E160" r:id="rId160" xr:uid="{BDC3CFEC-C279-0B41-B8A7-2D91C2FCB48B}"/>
-    <hyperlink ref="E161" r:id="rId161" xr:uid="{C8C6F51C-9F6F-F147-AD5E-B2DFBC6A6960}"/>
-    <hyperlink ref="E162" r:id="rId162" xr:uid="{E23F1282-F310-404A-8BC8-72809081D656}"/>
-    <hyperlink ref="E163" r:id="rId163" xr:uid="{25A72527-A74D-554B-B744-7CAF5CF738D3}"/>
-    <hyperlink ref="E164" r:id="rId164" xr:uid="{3852AB45-A449-0B46-A645-E816FD4833C7}"/>
-    <hyperlink ref="E165" r:id="rId165" xr:uid="{59BB86E0-237D-A242-A8D8-783BB7FA770D}"/>
-    <hyperlink ref="E166" r:id="rId166" xr:uid="{9048782D-DBCF-FF40-B190-85A338EF33BE}"/>
-    <hyperlink ref="O137" r:id="rId167" xr:uid="{5D4F8162-7BF7-0848-A0E3-DDC6AC6D8CD2}"/>
-    <hyperlink ref="E167" r:id="rId168" xr:uid="{2D2F4347-A738-3645-BD9A-DA2BDF60521D}"/>
-    <hyperlink ref="E168" r:id="rId169" xr:uid="{1F6D9501-7AAC-1949-A011-4575FACD3228}"/>
-    <hyperlink ref="E169" r:id="rId170" xr:uid="{4D8E5BAE-3474-DF4D-83AC-BBA5D6093339}"/>
-    <hyperlink ref="E170" r:id="rId171" xr:uid="{B1CFAE22-B962-7144-8BA8-7B9C8FEF4F21}"/>
-    <hyperlink ref="E171" r:id="rId172" xr:uid="{23827968-B501-6044-91EA-C41A10FD97E2}"/>
-    <hyperlink ref="E172" r:id="rId173" xr:uid="{7586EF39-8E24-2049-8615-2BDEDA08B040}"/>
-    <hyperlink ref="E173" r:id="rId174" xr:uid="{25480771-A220-424E-9A7A-ECB3F448F852}"/>
-    <hyperlink ref="E174" r:id="rId175" xr:uid="{35EA372E-8453-BC4B-8D30-EC77DC9AFD64}"/>
-    <hyperlink ref="E175" r:id="rId176" xr:uid="{564333E0-EF82-D245-9B73-9EEB98BE4A9F}"/>
-    <hyperlink ref="E177" r:id="rId177" xr:uid="{4AA3291F-4910-0C45-B43D-E5EF9D9F5E1E}"/>
-    <hyperlink ref="E178" r:id="rId178" xr:uid="{CB8C5B4C-519C-BF4B-9409-2D83A14F474D}"/>
-    <hyperlink ref="E179" r:id="rId179" xr:uid="{6BCC74D9-2AEB-B948-B581-98EC57639A58}"/>
-    <hyperlink ref="F179" r:id="rId180" xr:uid="{30021178-E8B6-5347-8219-425E31675CB1}"/>
-    <hyperlink ref="F176" r:id="rId181" xr:uid="{A02C70D3-9943-9D44-8674-2C9548EC6D08}"/>
-    <hyperlink ref="F177" r:id="rId182" xr:uid="{1C405C9C-76F3-5042-8204-4C06FC8EE13E}"/>
-    <hyperlink ref="F175" r:id="rId183" xr:uid="{91D3BBA3-A9A6-184A-982D-DC3142D4BD24}"/>
-    <hyperlink ref="F174" r:id="rId184" xr:uid="{25DB828E-661F-0743-BD46-8586098A522A}"/>
-    <hyperlink ref="F172" r:id="rId185" xr:uid="{8FF9E64A-8AFD-C04F-901A-DD4100544DAC}"/>
-    <hyperlink ref="F170" r:id="rId186" xr:uid="{A13FFBE1-2DAB-5D44-A92C-90EBE6FFE92B}"/>
-    <hyperlink ref="F169" r:id="rId187" xr:uid="{E4A5C033-9B3E-1340-B6DB-577BA254604C}"/>
-    <hyperlink ref="F167" r:id="rId188" xr:uid="{752EFF80-B177-814D-9DBC-EC22B8E41178}"/>
-    <hyperlink ref="F165" r:id="rId189" xr:uid="{D26527CD-CF53-9341-A7F9-159C6B241A78}"/>
-    <hyperlink ref="F160" r:id="rId190" xr:uid="{54B63459-8183-0240-81FB-70D0E932BA97}"/>
-    <hyperlink ref="F154" r:id="rId191" xr:uid="{07D1BD9B-5E94-C84F-B86E-2FD80CD1FCF4}"/>
-    <hyperlink ref="F153" r:id="rId192" xr:uid="{507C6F65-3BA0-6641-9EAC-61FE04355A7F}"/>
-    <hyperlink ref="F152" r:id="rId193" xr:uid="{5FFE095B-3F77-5744-BECD-31EC12B2B037}"/>
-    <hyperlink ref="F150" r:id="rId194" xr:uid="{17CB3195-A407-2E48-84CB-34DA0B482335}"/>
-    <hyperlink ref="F145" r:id="rId195" xr:uid="{9268F6B8-A4C1-2842-BC36-117959EBB38B}"/>
-    <hyperlink ref="F143" r:id="rId196" xr:uid="{6815B05E-6A22-7343-B105-08DD88EC61E8}"/>
-    <hyperlink ref="F142" r:id="rId197" xr:uid="{05955A4C-E884-DE48-B55C-AD29DAC9FC67}"/>
-    <hyperlink ref="F138" r:id="rId198" display="https://github.com/jlezama/disentangling-jacobian" xr:uid="{A18116FB-E0A5-C14D-893C-40B692D43951}"/>
-    <hyperlink ref="F136" r:id="rId199" xr:uid="{92A2F4AC-865B-5047-B69D-F62C0646FC24}"/>
-    <hyperlink ref="F135" r:id="rId200" xr:uid="{25665C52-F56A-3F42-A203-CB46BF14632B}"/>
-    <hyperlink ref="F134" r:id="rId201" xr:uid="{F5A540A5-7396-E140-8CBD-0DF3B178880E}"/>
-    <hyperlink ref="F133" r:id="rId202" xr:uid="{4F74FA57-F366-8746-A68D-5881B72AD434}"/>
-    <hyperlink ref="F132" r:id="rId203" xr:uid="{5698F642-3569-3740-9873-3C723789100E}"/>
-    <hyperlink ref="F129" r:id="rId204" xr:uid="{BB756BB3-5B7A-2D43-B197-0544F36203A5}"/>
-    <hyperlink ref="F127" r:id="rId205" xr:uid="{46DE9D8D-E94E-044D-9FA6-339D2AE52F76}"/>
-    <hyperlink ref="F126" r:id="rId206" display="https://github.com/igul222/PixelVAE" xr:uid="{6DD5C674-BF8A-6C40-B174-E4B6FC5E822F}"/>
-    <hyperlink ref="F125" r:id="rId207" xr:uid="{019631D4-5C42-2445-B932-035406E75383}"/>
-    <hyperlink ref="F124" r:id="rId208" xr:uid="{9519A8E5-138D-2E45-BD00-DEDF52337DBD}"/>
-    <hyperlink ref="F123" r:id="rId209" xr:uid="{832C368D-A9D9-654D-A0EC-13ACA70D7C0D}"/>
-    <hyperlink ref="F122" r:id="rId210" xr:uid="{DFABD597-8CF9-E544-AF93-A7B3A1D44EBC}"/>
-    <hyperlink ref="F119" r:id="rId211" xr:uid="{E267EE55-210C-7242-8D76-A933B7A69AE5}"/>
-    <hyperlink ref="F118" r:id="rId212" xr:uid="{C1E66DD6-44D4-2F45-9CA1-2EE482D9DF10}"/>
-    <hyperlink ref="F117" r:id="rId213" xr:uid="{2037FA18-1906-2D4B-95BD-B55B95D4F8FD}"/>
-    <hyperlink ref="F116" r:id="rId214" xr:uid="{0B47C12A-CA6B-AE4C-B950-2A70C96FAEEB}"/>
-    <hyperlink ref="F115" r:id="rId215" xr:uid="{34750675-80F1-B643-A9E7-12BC84E9D993}"/>
-    <hyperlink ref="F114" r:id="rId216" xr:uid="{49D31527-E056-8042-92C1-90E259297B6D}"/>
-    <hyperlink ref="F113" r:id="rId217" xr:uid="{EF40F300-ECA2-6A4B-93DD-F36B6945A10F}"/>
-    <hyperlink ref="F112" r:id="rId218" xr:uid="{030E0451-3F1C-8143-A8A3-3D1F87FDD2DE}"/>
-    <hyperlink ref="F111" r:id="rId219" xr:uid="{EA1FADBE-D8EE-4D42-95DE-8E1ECE8153ED}"/>
-    <hyperlink ref="F109" r:id="rId220" xr:uid="{4350FA49-799B-AE44-839F-E8C4E2AAEA6F}"/>
-    <hyperlink ref="F108" r:id="rId221" xr:uid="{D537C659-1C90-4D44-9CAA-AF163033658F}"/>
-    <hyperlink ref="F105" r:id="rId222" display="https://github.com/nicola-decao/s-vae-pytorch" xr:uid="{7AA3230B-994B-B04D-8F1D-75159E3140BA}"/>
-    <hyperlink ref="F103" r:id="rId223" xr:uid="{507181E2-7E3D-FA4C-90AC-7F60C6198D6A}"/>
-    <hyperlink ref="F104" r:id="rId224" xr:uid="{CC350556-7119-2844-B2DF-9DE677A0C7FE}"/>
-    <hyperlink ref="F101" r:id="rId225" xr:uid="{CF23304F-10E2-4140-B938-11C04C6935DE}"/>
-    <hyperlink ref="F99" r:id="rId226" display="https://github.com/Nat-D/GMVAE" xr:uid="{34E94016-841B-D349-A16D-89D8D4307575}"/>
-    <hyperlink ref="F98" r:id="rId227" xr:uid="{6EBB3A28-7B97-F140-B6BF-BD8C772C02CE}"/>
-    <hyperlink ref="F96" r:id="rId228" xr:uid="{2E9BFB5A-A83E-5D47-98D5-BBE98C0FF336}"/>
-    <hyperlink ref="F94" r:id="rId229" xr:uid="{C7B64E48-F584-504D-9B87-8B4A714D090C}"/>
-    <hyperlink ref="F93" r:id="rId230" xr:uid="{44E98F32-E83C-C947-ABBF-9DBB28AF7B11}"/>
-    <hyperlink ref="F91" r:id="rId231" display="https://github.com/openai/glow" xr:uid="{1DBE124D-1DAE-174E-B04C-8F80B343CDA3}"/>
-    <hyperlink ref="F89" r:id="rId232" xr:uid="{5523F774-9C56-0742-9A76-2656ED2A68D4}"/>
-    <hyperlink ref="F88" r:id="rId233" display="https://github.com/mhw32/multimodal-vae-public" xr:uid="{A1970B9A-D68B-F746-8287-25C234F28B40}"/>
-    <hyperlink ref="F84" r:id="rId234" display="https://github.com/chrischute/real-nvp" xr:uid="{EF30F8DA-C501-E044-975F-3048079FBCCE}"/>
-    <hyperlink ref="F82" r:id="rId235" xr:uid="{2606F311-5873-8C4C-BFB5-2A07C8D0E931}"/>
-    <hyperlink ref="F81" r:id="rId236" xr:uid="{ED7CC48D-739A-1840-9D29-F2E00C286C88}"/>
-    <hyperlink ref="F80" r:id="rId237" xr:uid="{A2E96C1B-94E9-CD48-8AC8-9672CDA4A42A}"/>
-    <hyperlink ref="F79" r:id="rId238" xr:uid="{02566D8D-69B0-2B43-B657-D64089A231C5}"/>
-    <hyperlink ref="F78" r:id="rId239" xr:uid="{22BC1207-CF7B-A149-AB2B-9A8850526C85}"/>
-    <hyperlink ref="F77" r:id="rId240" display="https://github.com/yburda/iwae" xr:uid="{F11B23CE-9AF8-E84E-8E8D-9697BFA917CE}"/>
-    <hyperlink ref="F76" r:id="rId241" xr:uid="{BFCEEF79-BAA6-8942-9E98-7250B5BFEA9E}"/>
-    <hyperlink ref="F73" r:id="rId242" xr:uid="{FF95C5D3-250C-1F4F-93F2-9E0B9271DABE}"/>
-    <hyperlink ref="F68" r:id="rId243" xr:uid="{22E895CB-1358-8841-AFC6-18A86740A2C0}"/>
-    <hyperlink ref="F65" r:id="rId244" xr:uid="{88D6FE7F-ED03-CF40-9C0F-674E2CBD6528}"/>
-    <hyperlink ref="F63" r:id="rId245" xr:uid="{549ED092-15E2-5C4C-9EEF-F7318F7156BD}"/>
-    <hyperlink ref="F62" r:id="rId246" xr:uid="{366598C7-2E21-4A4B-920F-1FC271746C44}"/>
-    <hyperlink ref="F60" r:id="rId247" xr:uid="{9F209ECE-F69A-7641-9244-E7AB529EA232}"/>
-    <hyperlink ref="F58" r:id="rId248" display="https://github.com/wnhsu/FactorizedHierarchicalVAE" xr:uid="{B6C00FF8-FDC0-B944-8A5D-2ACD8FB377D0}"/>
-    <hyperlink ref="F59" r:id="rId249" xr:uid="{214A3334-5024-7744-89C3-6E5F72BC83C8}"/>
-    <hyperlink ref="F54" r:id="rId250" display="https://github.com/fungtion/DSN" xr:uid="{BC05BFA6-611C-584A-9047-EF1330B4AEF6}"/>
-    <hyperlink ref="F53" r:id="rId251" display="https://github.com/rosinality/vq-vae-2-pytorch" xr:uid="{089C6E7E-78FB-C842-81F9-CCA8E58E2BA8}"/>
-    <hyperlink ref="F52" r:id="rId252" display="https://github.com/1Konny/VQ-VAE" xr:uid="{39DE0799-A91E-304B-83DB-02426600498D}"/>
-    <hyperlink ref="F51" r:id="rId253" xr:uid="{60B80C1A-BB85-4046-9128-0B5144F9DA10}"/>
-    <hyperlink ref="F50" r:id="rId254" xr:uid="{A4F04DD6-6620-A04B-91F6-247C9C39674C}"/>
-    <hyperlink ref="F49" r:id="rId255" xr:uid="{79AB9171-282A-1C48-BDFD-ACDAB6B1509F}"/>
-    <hyperlink ref="F48" r:id="rId256" xr:uid="{402E243B-4180-A747-9F3B-523BC89B1835}"/>
-    <hyperlink ref="F47" r:id="rId257" xr:uid="{CB9E893B-46FD-6947-B8FC-5167576AF46C}"/>
-    <hyperlink ref="F46" r:id="rId258" display="https://github.com/saemundsson/semisupervised_vae" xr:uid="{0953DDD1-4A90-B345-9C5A-9818D081CF0B}"/>
-    <hyperlink ref="F45" r:id="rId259" xr:uid="{C2C9EAFD-78EC-084C-9A11-91BECC554E47}"/>
-    <hyperlink ref="F40" r:id="rId260" xr:uid="{36FFEC35-BD79-5840-A598-F3F2DD31FC95}"/>
-    <hyperlink ref="F22" r:id="rId261" xr:uid="{EDA5E2D0-6E27-5244-96D6-89317660FFF6}"/>
-    <hyperlink ref="F37" r:id="rId262" xr:uid="{14D90E5F-22BD-B94D-B7BF-824A165BF6A1}"/>
-    <hyperlink ref="F8" r:id="rId263" xr:uid="{368660BB-E385-5F44-91EF-427AF15B4572}"/>
-    <hyperlink ref="F3" r:id="rId264" xr:uid="{17BA9E2F-0E44-9D4B-BA4B-60FD7A9D890F}"/>
-    <hyperlink ref="F4" r:id="rId265" xr:uid="{B706F574-772A-174A-8A48-558A02ECE262}"/>
-    <hyperlink ref="F18" r:id="rId266" xr:uid="{65CA6B27-5A5F-8649-9F28-724C43981A95}"/>
-    <hyperlink ref="F26" r:id="rId267" xr:uid="{4324A6A0-5896-234F-AA46-43CD3C4DAD04}"/>
-    <hyperlink ref="F29" r:id="rId268" xr:uid="{4E5040F1-447E-2A4E-8566-046335E38894}"/>
-    <hyperlink ref="F30" r:id="rId269" xr:uid="{9F06BF2F-9AEA-1C40-9282-B795A7F70C1B}"/>
-    <hyperlink ref="F31" r:id="rId270" xr:uid="{55C783DC-4C82-974A-B72B-F4AD64D4B2BD}"/>
-    <hyperlink ref="F33" r:id="rId271" xr:uid="{7C34061E-2624-4A48-A17D-E932840ADD3D}"/>
-    <hyperlink ref="F34" r:id="rId272" display="https://github.com/denproc/Taming-VAEs" xr:uid="{5289C1AA-F21F-494E-8DFD-BFA106163A4E}"/>
-    <hyperlink ref="F35" r:id="rId273" xr:uid="{5BA7B533-C8C3-9F47-BC44-869C0E032AE3}"/>
-    <hyperlink ref="F36" r:id="rId274" xr:uid="{717C1B76-678D-414B-8B1F-3E0295755D6B}"/>
-    <hyperlink ref="E181" r:id="rId275" xr:uid="{C5392F38-D650-464D-852A-9136E43ABB5F}"/>
-    <hyperlink ref="F181" r:id="rId276" xr:uid="{68F74430-1E5D-3E40-A5AA-EEDB9415F3DB}"/>
-    <hyperlink ref="E182" r:id="rId277" xr:uid="{8DBF974D-3975-4748-9A90-3CB5D08AB215}"/>
-    <hyperlink ref="F182" r:id="rId278" xr:uid="{9DFC7C09-69C5-2249-9790-9217B5C67162}"/>
-    <hyperlink ref="E183" r:id="rId279" xr:uid="{96B0A2FD-1653-8548-8C5F-55EE50BAEA68}"/>
-    <hyperlink ref="F183" r:id="rId280" xr:uid="{33278A17-8F77-0D40-AEC2-CE4BEDCF6B4B}"/>
-    <hyperlink ref="E184" r:id="rId281" xr:uid="{02A3C0E3-14F1-B54B-8A98-3703BF41B9F3}"/>
-    <hyperlink ref="F184" r:id="rId282" xr:uid="{A78C4FE7-94FE-C040-9C3D-F757C06489E1}"/>
-    <hyperlink ref="E185" r:id="rId283" xr:uid="{BC40586C-8D20-3E45-805F-8B9E933EBAFC}"/>
-    <hyperlink ref="E176" r:id="rId284" xr:uid="{0FC84A87-7A41-0E4B-967A-5C6A39B7F220}"/>
-    <hyperlink ref="E186" r:id="rId285" xr:uid="{1F8C9667-CAAD-C242-AD5A-3C88ED0E9A02}"/>
-    <hyperlink ref="F186" r:id="rId286" xr:uid="{5430BEEB-5BDE-9943-954D-86B2B480C836}"/>
-    <hyperlink ref="E187" r:id="rId287" xr:uid="{E14C85A6-D6A7-D741-8069-64579BAE5566}"/>
-    <hyperlink ref="E188" r:id="rId288" xr:uid="{7E9981EB-E879-AB45-BB06-CE6FAB1E9DEB}"/>
-    <hyperlink ref="E189" r:id="rId289" xr:uid="{6992AA56-7575-B44A-931F-DD01FF969557}"/>
-    <hyperlink ref="E190" r:id="rId290" xr:uid="{C7BA2772-D75F-D749-82A8-2885402CAC6C}"/>
-    <hyperlink ref="E191" r:id="rId291" xr:uid="{42EDE8CB-7622-454D-ADEC-AAC170D57E73}"/>
-    <hyperlink ref="F191" r:id="rId292" xr:uid="{F2434C3A-8A54-8843-88D1-1D151762112C}"/>
-    <hyperlink ref="E192" r:id="rId293" xr:uid="{E7A6F36D-9B99-6A46-9FB2-875F8388D22B}"/>
-    <hyperlink ref="F192" r:id="rId294" xr:uid="{9D4E22D6-0A7B-B141-B1A4-10908F3526FB}"/>
-    <hyperlink ref="F168" r:id="rId295" xr:uid="{DA7336E7-7219-AA45-939E-BBE77997AADC}"/>
-    <hyperlink ref="E193" r:id="rId296" xr:uid="{B5D6E7D3-427A-1045-8918-FB2DAA768F5C}"/>
-    <hyperlink ref="F193" r:id="rId297" xr:uid="{4B3072FF-543A-574E-B2F7-95160C406893}"/>
-    <hyperlink ref="E194" r:id="rId298" xr:uid="{67007C84-0087-9340-AD9B-54DBDF01C5C2}"/>
-    <hyperlink ref="F194" r:id="rId299" xr:uid="{E17CDA46-BA2C-9148-B00A-A3D4DD054114}"/>
-    <hyperlink ref="E195" r:id="rId300" xr:uid="{CB01305B-37F1-FD45-989F-D551A845C95E}"/>
+    <hyperlink ref="F198" r:id="rId1" xr:uid="{72A5ED30-FD88-3040-88F0-53CB68BCD24D}"/>
+    <hyperlink ref="E198" r:id="rId2" xr:uid="{4F2C12F2-AFD2-1E43-8A1A-D70764464A7F}"/>
+    <hyperlink ref="F197" r:id="rId3" xr:uid="{463CE734-30CC-CE47-AB12-B7AA39800D55}"/>
+    <hyperlink ref="E197" r:id="rId4" xr:uid="{E9748771-AF8E-E245-90BB-E7FDFDE32590}"/>
+    <hyperlink ref="F196" r:id="rId5" xr:uid="{24BE949D-82E2-9C4A-BCF3-CDDD2A3AD27C}"/>
+    <hyperlink ref="E196" r:id="rId6" xr:uid="{E9636E45-1C0F-8348-85B0-36F0330B4CA5}"/>
+    <hyperlink ref="E195" r:id="rId7" xr:uid="{CB01305B-37F1-FD45-989F-D551A845C95E}"/>
+    <hyperlink ref="F194" r:id="rId8" xr:uid="{E17CDA46-BA2C-9148-B00A-A3D4DD054114}"/>
+    <hyperlink ref="E194" r:id="rId9" xr:uid="{67007C84-0087-9340-AD9B-54DBDF01C5C2}"/>
+    <hyperlink ref="F193" r:id="rId10" xr:uid="{4B3072FF-543A-574E-B2F7-95160C406893}"/>
+    <hyperlink ref="E193" r:id="rId11" xr:uid="{B5D6E7D3-427A-1045-8918-FB2DAA768F5C}"/>
+    <hyperlink ref="F168" r:id="rId12" xr:uid="{DA7336E7-7219-AA45-939E-BBE77997AADC}"/>
+    <hyperlink ref="F192" r:id="rId13" xr:uid="{9D4E22D6-0A7B-B141-B1A4-10908F3526FB}"/>
+    <hyperlink ref="E192" r:id="rId14" xr:uid="{E7A6F36D-9B99-6A46-9FB2-875F8388D22B}"/>
+    <hyperlink ref="F191" r:id="rId15" xr:uid="{F2434C3A-8A54-8843-88D1-1D151762112C}"/>
+    <hyperlink ref="E191" r:id="rId16" xr:uid="{42EDE8CB-7622-454D-ADEC-AAC170D57E73}"/>
+    <hyperlink ref="E190" r:id="rId17" xr:uid="{C7BA2772-D75F-D749-82A8-2885402CAC6C}"/>
+    <hyperlink ref="E189" r:id="rId18" xr:uid="{6992AA56-7575-B44A-931F-DD01FF969557}"/>
+    <hyperlink ref="E188" r:id="rId19" xr:uid="{7E9981EB-E879-AB45-BB06-CE6FAB1E9DEB}"/>
+    <hyperlink ref="E187" r:id="rId20" xr:uid="{E14C85A6-D6A7-D741-8069-64579BAE5566}"/>
+    <hyperlink ref="F186" r:id="rId21" xr:uid="{5430BEEB-5BDE-9943-954D-86B2B480C836}"/>
+    <hyperlink ref="E186" r:id="rId22" xr:uid="{1F8C9667-CAAD-C242-AD5A-3C88ED0E9A02}"/>
+    <hyperlink ref="E176" r:id="rId23" xr:uid="{0FC84A87-7A41-0E4B-967A-5C6A39B7F220}"/>
+    <hyperlink ref="E185" r:id="rId24" xr:uid="{BC40586C-8D20-3E45-805F-8B9E933EBAFC}"/>
+    <hyperlink ref="F184" r:id="rId25" xr:uid="{A78C4FE7-94FE-C040-9C3D-F757C06489E1}"/>
+    <hyperlink ref="E184" r:id="rId26" xr:uid="{02A3C0E3-14F1-B54B-8A98-3703BF41B9F3}"/>
+    <hyperlink ref="F183" r:id="rId27" xr:uid="{33278A17-8F77-0D40-AEC2-CE4BEDCF6B4B}"/>
+    <hyperlink ref="E183" r:id="rId28" xr:uid="{96B0A2FD-1653-8548-8C5F-55EE50BAEA68}"/>
+    <hyperlink ref="F182" r:id="rId29" xr:uid="{9DFC7C09-69C5-2249-9790-9217B5C67162}"/>
+    <hyperlink ref="E182" r:id="rId30" xr:uid="{8DBF974D-3975-4748-9A90-3CB5D08AB215}"/>
+    <hyperlink ref="F181" r:id="rId31" xr:uid="{68F74430-1E5D-3E40-A5AA-EEDB9415F3DB}"/>
+    <hyperlink ref="E181" r:id="rId32" xr:uid="{C5392F38-D650-464D-852A-9136E43ABB5F}"/>
+    <hyperlink ref="F36" r:id="rId33" xr:uid="{717C1B76-678D-414B-8B1F-3E0295755D6B}"/>
+    <hyperlink ref="F35" r:id="rId34" xr:uid="{5BA7B533-C8C3-9F47-BC44-869C0E032AE3}"/>
+    <hyperlink ref="F34" r:id="rId35" display="https://github.com/denproc/Taming-VAEs" xr:uid="{5289C1AA-F21F-494E-8DFD-BFA106163A4E}"/>
+    <hyperlink ref="F33" r:id="rId36" xr:uid="{7C34061E-2624-4A48-A17D-E932840ADD3D}"/>
+    <hyperlink ref="F31" r:id="rId37" xr:uid="{55C783DC-4C82-974A-B72B-F4AD64D4B2BD}"/>
+    <hyperlink ref="F30" r:id="rId38" xr:uid="{9F06BF2F-9AEA-1C40-9282-B795A7F70C1B}"/>
+    <hyperlink ref="F29" r:id="rId39" xr:uid="{4E5040F1-447E-2A4E-8566-046335E38894}"/>
+    <hyperlink ref="F26" r:id="rId40" xr:uid="{4324A6A0-5896-234F-AA46-43CD3C4DAD04}"/>
+    <hyperlink ref="F18" r:id="rId41" xr:uid="{65CA6B27-5A5F-8649-9F28-724C43981A95}"/>
+    <hyperlink ref="F4" r:id="rId42" xr:uid="{B706F574-772A-174A-8A48-558A02ECE262}"/>
+    <hyperlink ref="F3" r:id="rId43" xr:uid="{17BA9E2F-0E44-9D4B-BA4B-60FD7A9D890F}"/>
+    <hyperlink ref="F8" r:id="rId44" xr:uid="{368660BB-E385-5F44-91EF-427AF15B4572}"/>
+    <hyperlink ref="F37" r:id="rId45" xr:uid="{14D90E5F-22BD-B94D-B7BF-824A165BF6A1}"/>
+    <hyperlink ref="F22" r:id="rId46" xr:uid="{EDA5E2D0-6E27-5244-96D6-89317660FFF6}"/>
+    <hyperlink ref="F40" r:id="rId47" xr:uid="{36FFEC35-BD79-5840-A598-F3F2DD31FC95}"/>
+    <hyperlink ref="F45" r:id="rId48" xr:uid="{C2C9EAFD-78EC-084C-9A11-91BECC554E47}"/>
+    <hyperlink ref="F46" r:id="rId49" display="https://github.com/saemundsson/semisupervised_vae" xr:uid="{0953DDD1-4A90-B345-9C5A-9818D081CF0B}"/>
+    <hyperlink ref="F47" r:id="rId50" xr:uid="{CB9E893B-46FD-6947-B8FC-5167576AF46C}"/>
+    <hyperlink ref="F48" r:id="rId51" xr:uid="{402E243B-4180-A747-9F3B-523BC89B1835}"/>
+    <hyperlink ref="F49" r:id="rId52" xr:uid="{79AB9171-282A-1C48-BDFD-ACDAB6B1509F}"/>
+    <hyperlink ref="F50" r:id="rId53" xr:uid="{A4F04DD6-6620-A04B-91F6-247C9C39674C}"/>
+    <hyperlink ref="F51" r:id="rId54" xr:uid="{60B80C1A-BB85-4046-9128-0B5144F9DA10}"/>
+    <hyperlink ref="F52" r:id="rId55" display="https://github.com/1Konny/VQ-VAE" xr:uid="{39DE0799-A91E-304B-83DB-02426600498D}"/>
+    <hyperlink ref="F53" r:id="rId56" display="https://github.com/rosinality/vq-vae-2-pytorch" xr:uid="{089C6E7E-78FB-C842-81F9-CCA8E58E2BA8}"/>
+    <hyperlink ref="F54" r:id="rId57" display="https://github.com/fungtion/DSN" xr:uid="{BC05BFA6-611C-584A-9047-EF1330B4AEF6}"/>
+    <hyperlink ref="F59" r:id="rId58" xr:uid="{214A3334-5024-7744-89C3-6E5F72BC83C8}"/>
+    <hyperlink ref="F58" r:id="rId59" display="https://github.com/wnhsu/FactorizedHierarchicalVAE" xr:uid="{B6C00FF8-FDC0-B944-8A5D-2ACD8FB377D0}"/>
+    <hyperlink ref="F60" r:id="rId60" xr:uid="{9F209ECE-F69A-7641-9244-E7AB529EA232}"/>
+    <hyperlink ref="F62" r:id="rId61" xr:uid="{366598C7-2E21-4A4B-920F-1FC271746C44}"/>
+    <hyperlink ref="F63" r:id="rId62" xr:uid="{549ED092-15E2-5C4C-9EEF-F7318F7156BD}"/>
+    <hyperlink ref="F65" r:id="rId63" xr:uid="{88D6FE7F-ED03-CF40-9C0F-674E2CBD6528}"/>
+    <hyperlink ref="F68" r:id="rId64" xr:uid="{22E895CB-1358-8841-AFC6-18A86740A2C0}"/>
+    <hyperlink ref="F73" r:id="rId65" xr:uid="{FF95C5D3-250C-1F4F-93F2-9E0B9271DABE}"/>
+    <hyperlink ref="F76" r:id="rId66" xr:uid="{BFCEEF79-BAA6-8942-9E98-7250B5BFEA9E}"/>
+    <hyperlink ref="F77" r:id="rId67" display="https://github.com/yburda/iwae" xr:uid="{F11B23CE-9AF8-E84E-8E8D-9697BFA917CE}"/>
+    <hyperlink ref="F78" r:id="rId68" xr:uid="{22BC1207-CF7B-A149-AB2B-9A8850526C85}"/>
+    <hyperlink ref="F79" r:id="rId69" xr:uid="{02566D8D-69B0-2B43-B657-D64089A231C5}"/>
+    <hyperlink ref="F80" r:id="rId70" xr:uid="{A2E96C1B-94E9-CD48-8AC8-9672CDA4A42A}"/>
+    <hyperlink ref="F81" r:id="rId71" xr:uid="{ED7CC48D-739A-1840-9D29-F2E00C286C88}"/>
+    <hyperlink ref="F82" r:id="rId72" xr:uid="{2606F311-5873-8C4C-BFB5-2A07C8D0E931}"/>
+    <hyperlink ref="F84" r:id="rId73" display="https://github.com/chrischute/real-nvp" xr:uid="{EF30F8DA-C501-E044-975F-3048079FBCCE}"/>
+    <hyperlink ref="F88" r:id="rId74" display="https://github.com/mhw32/multimodal-vae-public" xr:uid="{A1970B9A-D68B-F746-8287-25C234F28B40}"/>
+    <hyperlink ref="F89" r:id="rId75" xr:uid="{5523F774-9C56-0742-9A76-2656ED2A68D4}"/>
+    <hyperlink ref="F91" r:id="rId76" display="https://github.com/openai/glow" xr:uid="{1DBE124D-1DAE-174E-B04C-8F80B343CDA3}"/>
+    <hyperlink ref="F93" r:id="rId77" xr:uid="{44E98F32-E83C-C947-ABBF-9DBB28AF7B11}"/>
+    <hyperlink ref="F94" r:id="rId78" xr:uid="{C7B64E48-F584-504D-9B87-8B4A714D090C}"/>
+    <hyperlink ref="F96" r:id="rId79" xr:uid="{2E9BFB5A-A83E-5D47-98D5-BBE98C0FF336}"/>
+    <hyperlink ref="F98" r:id="rId80" xr:uid="{6EBB3A28-7B97-F140-B6BF-BD8C772C02CE}"/>
+    <hyperlink ref="F99" r:id="rId81" display="https://github.com/Nat-D/GMVAE" xr:uid="{34E94016-841B-D349-A16D-89D8D4307575}"/>
+    <hyperlink ref="F101" r:id="rId82" xr:uid="{CF23304F-10E2-4140-B938-11C04C6935DE}"/>
+    <hyperlink ref="F104" r:id="rId83" xr:uid="{CC350556-7119-2844-B2DF-9DE677A0C7FE}"/>
+    <hyperlink ref="F103" r:id="rId84" xr:uid="{507181E2-7E3D-FA4C-90AC-7F60C6198D6A}"/>
+    <hyperlink ref="F105" r:id="rId85" display="https://github.com/nicola-decao/s-vae-pytorch" xr:uid="{7AA3230B-994B-B04D-8F1D-75159E3140BA}"/>
+    <hyperlink ref="F108" r:id="rId86" xr:uid="{D537C659-1C90-4D44-9CAA-AF163033658F}"/>
+    <hyperlink ref="F109" r:id="rId87" xr:uid="{4350FA49-799B-AE44-839F-E8C4E2AAEA6F}"/>
+    <hyperlink ref="F111" r:id="rId88" xr:uid="{EA1FADBE-D8EE-4D42-95DE-8E1ECE8153ED}"/>
+    <hyperlink ref="F112" r:id="rId89" xr:uid="{030E0451-3F1C-8143-A8A3-3D1F87FDD2DE}"/>
+    <hyperlink ref="F113" r:id="rId90" xr:uid="{EF40F300-ECA2-6A4B-93DD-F36B6945A10F}"/>
+    <hyperlink ref="F114" r:id="rId91" xr:uid="{49D31527-E056-8042-92C1-90E259297B6D}"/>
+    <hyperlink ref="F115" r:id="rId92" xr:uid="{34750675-80F1-B643-A9E7-12BC84E9D993}"/>
+    <hyperlink ref="F116" r:id="rId93" xr:uid="{0B47C12A-CA6B-AE4C-B950-2A70C96FAEEB}"/>
+    <hyperlink ref="F117" r:id="rId94" xr:uid="{2037FA18-1906-2D4B-95BD-B55B95D4F8FD}"/>
+    <hyperlink ref="F118" r:id="rId95" xr:uid="{C1E66DD6-44D4-2F45-9CA1-2EE482D9DF10}"/>
+    <hyperlink ref="F119" r:id="rId96" xr:uid="{E267EE55-210C-7242-8D76-A933B7A69AE5}"/>
+    <hyperlink ref="F122" r:id="rId97" xr:uid="{DFABD597-8CF9-E544-AF93-A7B3A1D44EBC}"/>
+    <hyperlink ref="F123" r:id="rId98" xr:uid="{832C368D-A9D9-654D-A0EC-13ACA70D7C0D}"/>
+    <hyperlink ref="F124" r:id="rId99" xr:uid="{9519A8E5-138D-2E45-BD00-DEDF52337DBD}"/>
+    <hyperlink ref="F125" r:id="rId100" xr:uid="{019631D4-5C42-2445-B932-035406E75383}"/>
+    <hyperlink ref="F126" r:id="rId101" display="https://github.com/igul222/PixelVAE" xr:uid="{6DD5C674-BF8A-6C40-B174-E4B6FC5E822F}"/>
+    <hyperlink ref="F127" r:id="rId102" xr:uid="{46DE9D8D-E94E-044D-9FA6-339D2AE52F76}"/>
+    <hyperlink ref="F129" r:id="rId103" xr:uid="{BB756BB3-5B7A-2D43-B197-0544F36203A5}"/>
+    <hyperlink ref="F132" r:id="rId104" xr:uid="{5698F642-3569-3740-9873-3C723789100E}"/>
+    <hyperlink ref="F133" r:id="rId105" xr:uid="{4F74FA57-F366-8746-A68D-5881B72AD434}"/>
+    <hyperlink ref="F134" r:id="rId106" xr:uid="{F5A540A5-7396-E140-8CBD-0DF3B178880E}"/>
+    <hyperlink ref="F135" r:id="rId107" xr:uid="{25665C52-F56A-3F42-A203-CB46BF14632B}"/>
+    <hyperlink ref="F136" r:id="rId108" xr:uid="{92A2F4AC-865B-5047-B69D-F62C0646FC24}"/>
+    <hyperlink ref="F138" r:id="rId109" display="https://github.com/jlezama/disentangling-jacobian" xr:uid="{A18116FB-E0A5-C14D-893C-40B692D43951}"/>
+    <hyperlink ref="F142" r:id="rId110" xr:uid="{05955A4C-E884-DE48-B55C-AD29DAC9FC67}"/>
+    <hyperlink ref="F143" r:id="rId111" xr:uid="{6815B05E-6A22-7343-B105-08DD88EC61E8}"/>
+    <hyperlink ref="F145" r:id="rId112" xr:uid="{9268F6B8-A4C1-2842-BC36-117959EBB38B}"/>
+    <hyperlink ref="F150" r:id="rId113" xr:uid="{17CB3195-A407-2E48-84CB-34DA0B482335}"/>
+    <hyperlink ref="F152" r:id="rId114" xr:uid="{5FFE095B-3F77-5744-BECD-31EC12B2B037}"/>
+    <hyperlink ref="F153" r:id="rId115" xr:uid="{507C6F65-3BA0-6641-9EAC-61FE04355A7F}"/>
+    <hyperlink ref="F154" r:id="rId116" xr:uid="{07D1BD9B-5E94-C84F-B86E-2FD80CD1FCF4}"/>
+    <hyperlink ref="F160" r:id="rId117" xr:uid="{54B63459-8183-0240-81FB-70D0E932BA97}"/>
+    <hyperlink ref="F165" r:id="rId118" xr:uid="{D26527CD-CF53-9341-A7F9-159C6B241A78}"/>
+    <hyperlink ref="F167" r:id="rId119" xr:uid="{752EFF80-B177-814D-9DBC-EC22B8E41178}"/>
+    <hyperlink ref="F169" r:id="rId120" xr:uid="{E4A5C033-9B3E-1340-B6DB-577BA254604C}"/>
+    <hyperlink ref="F170" r:id="rId121" xr:uid="{A13FFBE1-2DAB-5D44-A92C-90EBE6FFE92B}"/>
+    <hyperlink ref="F172" r:id="rId122" xr:uid="{8FF9E64A-8AFD-C04F-901A-DD4100544DAC}"/>
+    <hyperlink ref="F174" r:id="rId123" xr:uid="{25DB828E-661F-0743-BD46-8586098A522A}"/>
+    <hyperlink ref="F175" r:id="rId124" xr:uid="{91D3BBA3-A9A6-184A-982D-DC3142D4BD24}"/>
+    <hyperlink ref="F177" r:id="rId125" xr:uid="{1C405C9C-76F3-5042-8204-4C06FC8EE13E}"/>
+    <hyperlink ref="F176" r:id="rId126" xr:uid="{A02C70D3-9943-9D44-8674-2C9548EC6D08}"/>
+    <hyperlink ref="F179" r:id="rId127" xr:uid="{30021178-E8B6-5347-8219-425E31675CB1}"/>
+    <hyperlink ref="E179" r:id="rId128" xr:uid="{6BCC74D9-2AEB-B948-B581-98EC57639A58}"/>
+    <hyperlink ref="E178" r:id="rId129" xr:uid="{CB8C5B4C-519C-BF4B-9409-2D83A14F474D}"/>
+    <hyperlink ref="E177" r:id="rId130" xr:uid="{4AA3291F-4910-0C45-B43D-E5EF9D9F5E1E}"/>
+    <hyperlink ref="E175" r:id="rId131" xr:uid="{564333E0-EF82-D245-9B73-9EEB98BE4A9F}"/>
+    <hyperlink ref="E174" r:id="rId132" xr:uid="{35EA372E-8453-BC4B-8D30-EC77DC9AFD64}"/>
+    <hyperlink ref="E173" r:id="rId133" xr:uid="{25480771-A220-424E-9A7A-ECB3F448F852}"/>
+    <hyperlink ref="E172" r:id="rId134" xr:uid="{7586EF39-8E24-2049-8615-2BDEDA08B040}"/>
+    <hyperlink ref="E171" r:id="rId135" xr:uid="{23827968-B501-6044-91EA-C41A10FD97E2}"/>
+    <hyperlink ref="E170" r:id="rId136" xr:uid="{B1CFAE22-B962-7144-8BA8-7B9C8FEF4F21}"/>
+    <hyperlink ref="E169" r:id="rId137" xr:uid="{4D8E5BAE-3474-DF4D-83AC-BBA5D6093339}"/>
+    <hyperlink ref="E168" r:id="rId138" xr:uid="{1F6D9501-7AAC-1949-A011-4575FACD3228}"/>
+    <hyperlink ref="E167" r:id="rId139" xr:uid="{2D2F4347-A738-3645-BD9A-DA2BDF60521D}"/>
+    <hyperlink ref="O137" r:id="rId140" xr:uid="{5D4F8162-7BF7-0848-A0E3-DDC6AC6D8CD2}"/>
+    <hyperlink ref="E166" r:id="rId141" xr:uid="{9048782D-DBCF-FF40-B190-85A338EF33BE}"/>
+    <hyperlink ref="E165" r:id="rId142" xr:uid="{59BB86E0-237D-A242-A8D8-783BB7FA770D}"/>
+    <hyperlink ref="E164" r:id="rId143" xr:uid="{3852AB45-A449-0B46-A645-E816FD4833C7}"/>
+    <hyperlink ref="E163" r:id="rId144" xr:uid="{25A72527-A74D-554B-B744-7CAF5CF738D3}"/>
+    <hyperlink ref="E162" r:id="rId145" xr:uid="{E23F1282-F310-404A-8BC8-72809081D656}"/>
+    <hyperlink ref="E161" r:id="rId146" xr:uid="{C8C6F51C-9F6F-F147-AD5E-B2DFBC6A6960}"/>
+    <hyperlink ref="E160" r:id="rId147" xr:uid="{BDC3CFEC-C279-0B41-B8A7-2D91C2FCB48B}"/>
+    <hyperlink ref="E159" r:id="rId148" xr:uid="{46E7F4C9-0590-A444-8193-8B0AC58635EE}"/>
+    <hyperlink ref="E158" r:id="rId149" xr:uid="{70137826-5422-1C4D-A37B-0327C14D3857}"/>
+    <hyperlink ref="E157" r:id="rId150" xr:uid="{C3B2F743-DB09-714F-AAC8-26F4A976F4A1}"/>
+    <hyperlink ref="E156" r:id="rId151" xr:uid="{EA741AE6-B64F-0842-A44B-740F4938D332}"/>
+    <hyperlink ref="E155" r:id="rId152" xr:uid="{B77DFE6E-DF8B-6C40-9CC6-97F566E506A7}"/>
+    <hyperlink ref="E154" r:id="rId153" xr:uid="{2610CD40-58DA-3443-BCF3-0DDA57BF2EBF}"/>
+    <hyperlink ref="E153" r:id="rId154" xr:uid="{5B44294D-4F3B-F247-AA46-A5C128CCC7B1}"/>
+    <hyperlink ref="E152" r:id="rId155" xr:uid="{40848DF5-5697-654D-9768-823D16E96E17}"/>
+    <hyperlink ref="E151" r:id="rId156" xr:uid="{D072C7EE-2722-0945-9046-9728DFE828CB}"/>
+    <hyperlink ref="E150" r:id="rId157" xr:uid="{BEEC9054-91C6-A845-BB1C-3D18E3B01B3B}"/>
+    <hyperlink ref="E149" r:id="rId158" display="http://2017.ds3-datascience-polytechnique.fr/wp-content/uploads/2017/08/DS3_posterID_048.pdf" xr:uid="{D7DBC5A5-DD78-9A49-ACC3-278298EF2657}"/>
+    <hyperlink ref="E148" r:id="rId159" xr:uid="{902221B1-2DAB-034F-ABA5-F27372499274}"/>
+    <hyperlink ref="E147" r:id="rId160" xr:uid="{6DFCF6FC-28DF-4B4F-9C1A-6A3CB6A9F198}"/>
+    <hyperlink ref="E146" r:id="rId161" xr:uid="{257B33F0-3E19-994B-927D-39D66AB5E6FE}"/>
+    <hyperlink ref="E145" r:id="rId162" xr:uid="{7BBFA0E6-D261-2C47-B54A-EEC2A56EA4BC}"/>
+    <hyperlink ref="E144" r:id="rId163" xr:uid="{2A396368-4C6B-C546-AC33-C34CCE2D9C5D}"/>
+    <hyperlink ref="E143" r:id="rId164" xr:uid="{AC31FE78-95C0-614D-A7D7-ADB8CD5233BE}"/>
+    <hyperlink ref="E142" r:id="rId165" xr:uid="{C8D784F4-ADC7-C640-B063-4A9851B78236}"/>
+    <hyperlink ref="E141" r:id="rId166" display="../../Downloads/Life-Long_Disentangled_Representation_Learning_wit.pdf" xr:uid="{BA55ACDB-2C86-414A-9022-ADBB44542E11}"/>
+    <hyperlink ref="E140" r:id="rId167" xr:uid="{43EB408C-3B93-994A-8898-82238E8739F9}"/>
+    <hyperlink ref="E139" r:id="rId168" xr:uid="{C60401B6-D284-6C4E-84C3-1BDA6B7640B6}"/>
+    <hyperlink ref="E138" r:id="rId169" xr:uid="{76904A68-77E0-E84A-ABE2-B56CD32ADDAC}"/>
+    <hyperlink ref="E136" r:id="rId170" xr:uid="{FBD75AE4-0EB2-FD40-841D-368F3496C12F}"/>
+    <hyperlink ref="E135" r:id="rId171" xr:uid="{A73ADDDA-E55D-C642-A7B0-1C9733D25C90}"/>
+    <hyperlink ref="E134" r:id="rId172" xr:uid="{F493203C-B67A-A04C-B651-697767C0178D}"/>
+    <hyperlink ref="E133" r:id="rId173" xr:uid="{B1EC8237-12A7-3A40-BBB8-96E16CBC9DF5}"/>
+    <hyperlink ref="E132" r:id="rId174" xr:uid="{2E3CACB3-FC71-D74B-883C-3C51D1F9DBE4}"/>
+    <hyperlink ref="N2" r:id="rId175" display="https://github.com/youngleec/DeepGenerativeModels" xr:uid="{7C19B556-F84E-9548-9605-4F03B891A0CE}"/>
+    <hyperlink ref="E131" r:id="rId176" xr:uid="{73C29958-F4B1-6F4D-93B2-79B552DCC173}"/>
+    <hyperlink ref="E130" r:id="rId177" xr:uid="{7CCE2187-C43D-2242-AD18-AA309394F575}"/>
+    <hyperlink ref="E129" r:id="rId178" xr:uid="{A4775757-53F8-8B45-A9AB-F9FA216E5E7D}"/>
+    <hyperlink ref="E128" r:id="rId179" xr:uid="{21CBC9DE-D28B-F44A-92EB-F8634F1C8E38}"/>
+    <hyperlink ref="E127" r:id="rId180" xr:uid="{A2ACA7AD-6F8D-0D4C-8CA3-B9DD24FAFFFD}"/>
+    <hyperlink ref="E126" r:id="rId181" xr:uid="{1F435C60-1DB2-2045-87EB-3E7260719A00}"/>
+    <hyperlink ref="E125" r:id="rId182" display="https://arxiv.org/pdf/1807.09356.pdf" xr:uid="{47022A3F-BCFE-0F41-A4FD-71A0A5723034}"/>
+    <hyperlink ref="E124" r:id="rId183" xr:uid="{3CA89AC3-6C9E-F94A-8E36-55A9E9213956}"/>
+    <hyperlink ref="E123" r:id="rId184" xr:uid="{71581D31-D5D9-3C41-BBBE-C91547CD9BB5}"/>
+    <hyperlink ref="E122" r:id="rId185" xr:uid="{7AF8E4B5-20A3-914B-9FC1-65A6E9366D9F}"/>
+    <hyperlink ref="E121" r:id="rId186" xr:uid="{A231E325-CE15-7140-BE90-B16A05F79CEC}"/>
+    <hyperlink ref="E120" r:id="rId187" xr:uid="{45E16E6F-5876-7F4E-A651-C033578D1BF5}"/>
+    <hyperlink ref="E119" r:id="rId188" xr:uid="{63DA334F-C94A-E048-90C4-875223E78FC5}"/>
+    <hyperlink ref="E118" r:id="rId189" xr:uid="{C18394C9-4A26-E74D-9DC2-C0D9F976DADB}"/>
+    <hyperlink ref="E117" r:id="rId190" xr:uid="{D7AC6EC2-DB28-3741-A801-3A2C591F4372}"/>
+    <hyperlink ref="E116" r:id="rId191" xr:uid="{D2DAFDA3-8DA0-3A41-96F1-B984A9677C2C}"/>
+    <hyperlink ref="E115" r:id="rId192" xr:uid="{8F34129F-53F3-954B-A4F8-CAC1641CE73E}"/>
+    <hyperlink ref="E114" r:id="rId193" xr:uid="{1170A079-E568-984D-976D-7AE8038329A4}"/>
+    <hyperlink ref="E113" r:id="rId194" xr:uid="{B1B4AAC3-2EC0-A242-B03E-D3DD8CDD4D35}"/>
+    <hyperlink ref="E112" r:id="rId195" xr:uid="{E7286F66-EB9A-8A44-B020-368B51630404}"/>
+    <hyperlink ref="E111" r:id="rId196" xr:uid="{7C88A0B1-AB52-C74A-897A-E363A0D0760E}"/>
+    <hyperlink ref="E110" r:id="rId197" xr:uid="{8B59613E-4094-6A47-85CE-3930B922B05E}"/>
+    <hyperlink ref="E109" r:id="rId198" xr:uid="{FA49247A-4FCE-354A-9C19-9C470523BB9E}"/>
+    <hyperlink ref="E107" r:id="rId199" xr:uid="{CD3C7D2D-EEFE-2F4E-8931-74B5D8DF2E21}"/>
+    <hyperlink ref="E108" r:id="rId200" xr:uid="{B8B026B2-62AA-5246-9B24-694AB774E853}"/>
+    <hyperlink ref="E106" r:id="rId201" xr:uid="{E753D5F3-08CF-9246-9558-415DD1101F17}"/>
+    <hyperlink ref="E105" r:id="rId202" xr:uid="{05EA7040-AA80-1E42-A739-CD5C42969BE7}"/>
+    <hyperlink ref="E104" r:id="rId203" xr:uid="{A250D5D1-B878-7545-B73E-C6227C1D4A48}"/>
+    <hyperlink ref="E103" r:id="rId204" xr:uid="{A1420B55-22FD-9947-AC05-9689708F4724}"/>
+    <hyperlink ref="E102" r:id="rId205" xr:uid="{01F2916E-934C-E545-BA10-9732E4ED82E6}"/>
+    <hyperlink ref="E101" r:id="rId206" xr:uid="{D068A7A1-29ED-CD4E-96E0-3BA4B68000EC}"/>
+    <hyperlink ref="E100" r:id="rId207" xr:uid="{7BB2D929-A5A0-E145-A0D4-0AAE845F0F67}"/>
+    <hyperlink ref="E99" r:id="rId208" xr:uid="{87733583-A3A0-F540-93A3-4E32D7F6E240}"/>
+    <hyperlink ref="E98" r:id="rId209" xr:uid="{3222C550-264B-204A-B320-72C3DD3ACEA3}"/>
+    <hyperlink ref="E97" r:id="rId210" xr:uid="{ED598E9F-E756-FD4F-B307-2AEE261DD300}"/>
+    <hyperlink ref="E96" r:id="rId211" xr:uid="{3115AF41-F576-B146-BE2F-9752BCF8626F}"/>
+    <hyperlink ref="E95" r:id="rId212" xr:uid="{2C8DFE2B-C45F-F346-84D8-A58199075F40}"/>
+    <hyperlink ref="E94" r:id="rId213" xr:uid="{87928C87-2EC6-0D42-9A71-44D683A914F1}"/>
+    <hyperlink ref="E93" r:id="rId214" xr:uid="{DDED75B6-BC96-C34F-8A33-88B96B0C5D73}"/>
+    <hyperlink ref="E92" r:id="rId215" display="https://www.researchgate.net/profile/Andreas_Veit/publication/301837223_Disentangling_Nonlinear_Perceptual_Embeddings_With_Multi-Query_Triplet_Networks/links/57e2997308ae040ae3c2f3a3/Disentangling-Nonlinear-Perceptual-Embeddings-With-Multi-Query-Triplet-Networks.pdf" xr:uid="{9F93F0B1-2BC7-0C46-9C04-78ED319D0912}"/>
+    <hyperlink ref="E91" r:id="rId216" xr:uid="{C117CC20-124C-424E-8E09-9B812018D0A6}"/>
+    <hyperlink ref="E90" r:id="rId217" xr:uid="{2E904AC1-6EC8-7843-B843-2F15B94041BE}"/>
+    <hyperlink ref="E89" r:id="rId218" xr:uid="{56BE9458-7FB1-214C-A122-96DE97D87BD8}"/>
+    <hyperlink ref="E88" r:id="rId219" xr:uid="{C25E2D4B-2DFF-5846-A9DE-4F99442B561A}"/>
+    <hyperlink ref="E87" r:id="rId220" xr:uid="{5512ADAD-2EBC-9743-BB56-E814C7683FFD}"/>
+    <hyperlink ref="E85" r:id="rId221" xr:uid="{516C4FBA-663D-7E4B-ADDC-1980FE5F1238}"/>
+    <hyperlink ref="E86" r:id="rId222" xr:uid="{DAF248E7-438E-784E-AF8B-63EFAD89FF00}"/>
+    <hyperlink ref="E84" r:id="rId223" xr:uid="{62F4BB00-F5BB-CC45-9C26-8057F661D21F}"/>
+    <hyperlink ref="E83" r:id="rId224" xr:uid="{C6737A2F-5E00-1741-BFE7-0E0682A19E76}"/>
+    <hyperlink ref="E82" r:id="rId225" xr:uid="{44D0A2C5-1E52-8547-84E2-4DDA0FBCB105}"/>
+    <hyperlink ref="E81" r:id="rId226" display="https://vimeo.com/285802293" xr:uid="{622FBD58-DC08-7549-A44F-B632170B42D3}"/>
+    <hyperlink ref="E80" r:id="rId227" xr:uid="{E747A436-79A2-E54C-AB94-34BE18D12CEB}"/>
+    <hyperlink ref="E79" r:id="rId228" xr:uid="{A6C92A62-5828-EA40-A4D5-890445A0E38E}"/>
+    <hyperlink ref="E78" r:id="rId229" xr:uid="{CEE4C649-7F3D-444B-A11C-F796AE8CB7D4}"/>
+    <hyperlink ref="E77" r:id="rId230" xr:uid="{308058B2-9DF1-734D-9974-FBB843AABE16}"/>
+    <hyperlink ref="E76" r:id="rId231" xr:uid="{FAB704CB-68D8-B043-B640-98465F4A70EC}"/>
+    <hyperlink ref="E75" r:id="rId232" xr:uid="{3E40E21F-EF8D-5844-AEFE-D70E44AC940F}"/>
+    <hyperlink ref="E74" r:id="rId233" xr:uid="{984FFBFE-A91A-9046-BA1A-AE493EEE7D7D}"/>
+    <hyperlink ref="E69" r:id="rId234" xr:uid="{7CEACBFE-1656-8B48-B5B0-E925C95050C8}"/>
+    <hyperlink ref="E73" r:id="rId235" xr:uid="{D21E2177-3083-8C45-A177-363CD860E664}"/>
+    <hyperlink ref="E72" r:id="rId236" xr:uid="{768E9870-CFEF-F942-B847-02342E33FF4A}"/>
+    <hyperlink ref="E71" r:id="rId237" xr:uid="{FE8783B1-4D44-054D-BDDE-D18425980D94}"/>
+    <hyperlink ref="E70" r:id="rId238" xr:uid="{C4F062B0-E20C-B046-AE17-CF48CF1FD846}"/>
+    <hyperlink ref="E68" r:id="rId239" xr:uid="{A39FA1F0-5A74-214D-8F5C-6E4E0C021C35}"/>
+    <hyperlink ref="E67" r:id="rId240" xr:uid="{213949E7-9053-B84F-9132-E709B82FB93A}"/>
+    <hyperlink ref="E66" r:id="rId241" xr:uid="{AA0452C5-98EC-F043-8D90-6F4B87260C50}"/>
+    <hyperlink ref="E65" r:id="rId242" xr:uid="{9A781361-CF96-C14C-AFDA-69BECEA920B0}"/>
+    <hyperlink ref="E64" r:id="rId243" xr:uid="{8B166347-F3A4-0C4C-8C9F-57F08F678D86}"/>
+    <hyperlink ref="E63" r:id="rId244" xr:uid="{C0D8BD5C-0D3E-6F4C-82D3-DE299A46B1B6}"/>
+    <hyperlink ref="E62" r:id="rId245" xr:uid="{4A20FE83-D8FF-1F40-AF95-9AF006962CE4}"/>
+    <hyperlink ref="E61" r:id="rId246" xr:uid="{90B1D2EE-F4FE-C249-9554-AF6607CE2982}"/>
+    <hyperlink ref="E60" r:id="rId247" xr:uid="{0420C41B-A23E-284B-ADA0-DD11DC75C1E5}"/>
+    <hyperlink ref="E59" r:id="rId248" xr:uid="{EA47B403-405E-5243-980A-DCA6D68D4BCB}"/>
+    <hyperlink ref="E58" r:id="rId249" xr:uid="{07102C24-5D5C-1146-BADD-8B8B8C5D90ED}"/>
+    <hyperlink ref="E57" r:id="rId250" xr:uid="{A89499A2-AC73-AD4A-AB36-D06C3409177D}"/>
+    <hyperlink ref="E56" r:id="rId251" xr:uid="{0A12411D-23E4-744D-B562-D70FCC8AF978}"/>
+    <hyperlink ref="E55" r:id="rId252" xr:uid="{4F1A2511-4676-8947-B560-B304B8EE6342}"/>
+    <hyperlink ref="E54" r:id="rId253" xr:uid="{79CD9A80-6156-3146-B151-529C578C6654}"/>
+    <hyperlink ref="E53" r:id="rId254" xr:uid="{18860AEB-B914-D749-8897-DE464124F923}"/>
+    <hyperlink ref="E52" r:id="rId255" xr:uid="{A22FE584-5BEB-2044-8C54-5A209668F44A}"/>
+    <hyperlink ref="E51" r:id="rId256" xr:uid="{79E2163C-4A10-2E48-A958-B3E9A50695D8}"/>
+    <hyperlink ref="E50" r:id="rId257" xr:uid="{E4508A09-2999-C14B-BAD5-5E1D600C23D8}"/>
+    <hyperlink ref="E49" r:id="rId258" xr:uid="{33D63C2C-A122-0B41-B539-74187DA5C153}"/>
+    <hyperlink ref="E48" r:id="rId259" xr:uid="{1B1C1524-635F-654E-B016-AB1E1DFE0BD4}"/>
+    <hyperlink ref="E47" r:id="rId260" xr:uid="{AFF39D95-E577-EE4B-A025-8C0018E3ADC1}"/>
+    <hyperlink ref="E46" r:id="rId261" xr:uid="{E63017F7-D5F5-284E-991A-982F8EB606FD}"/>
+    <hyperlink ref="E45" r:id="rId262" xr:uid="{5F648001-98EB-3B45-AE26-196D439188D5}"/>
+    <hyperlink ref="E44" r:id="rId263" xr:uid="{5B554A1C-E84F-5F4A-8ED9-0A8A3458D5C8}"/>
+    <hyperlink ref="E43" r:id="rId264" xr:uid="{45F76E88-4B74-5E4B-A6D1-5B6B3848F560}"/>
+    <hyperlink ref="E42" r:id="rId265" xr:uid="{D223B593-B41D-C946-ADC3-FCF06ED17F5A}"/>
+    <hyperlink ref="E41" r:id="rId266" xr:uid="{3BDD0579-BD1A-A84A-81E0-CEA058339000}"/>
+    <hyperlink ref="E40" r:id="rId267" xr:uid="{DC8AC94E-6F60-C349-9C1C-55CD8606E658}"/>
+    <hyperlink ref="E180" r:id="rId268" xr:uid="{F82D0D5D-52FF-C648-985B-52F280F4C0B1}"/>
+    <hyperlink ref="E39" r:id="rId269" xr:uid="{7778B0B2-93E7-A245-8B4E-1F0756236DD3}"/>
+    <hyperlink ref="E38" r:id="rId270" xr:uid="{9DA57912-5201-914E-B610-3DFEBA61DF13}"/>
+    <hyperlink ref="E37" r:id="rId271" xr:uid="{89D276A0-9111-5C49-808B-037C83656A4B}"/>
+    <hyperlink ref="E36" r:id="rId272" xr:uid="{F8DAEB65-529C-1B4D-A0BD-7875BD428FFF}"/>
+    <hyperlink ref="E35" r:id="rId273" xr:uid="{8AE40189-A24F-364E-9C6F-9535A15F6207}"/>
+    <hyperlink ref="E34" r:id="rId274" xr:uid="{CD85543D-0F45-B442-8056-59A5D0CAC591}"/>
+    <hyperlink ref="E33" r:id="rId275" xr:uid="{F7877987-A307-9E4C-AC0F-4B7AD496EC66}"/>
+    <hyperlink ref="E32" r:id="rId276" xr:uid="{43AD3320-5419-134A-B915-5E7933289A5D}"/>
+    <hyperlink ref="E31" r:id="rId277" xr:uid="{527988F4-D96C-C446-A104-5289059D7AA9}"/>
+    <hyperlink ref="E30" r:id="rId278" xr:uid="{27D1D7C0-ED6E-2441-93D3-68A56636571B}"/>
+    <hyperlink ref="E29" r:id="rId279" xr:uid="{2E248752-89B7-3E41-8B9F-A87AD5816AE7}"/>
+    <hyperlink ref="E28" r:id="rId280" xr:uid="{121BDBA0-0A98-4A44-8386-EF2307896247}"/>
+    <hyperlink ref="E27" r:id="rId281" xr:uid="{F3877792-5EF0-E345-858E-9EAA5A02137E}"/>
+    <hyperlink ref="E26" r:id="rId282" xr:uid="{F86BE994-C6B8-BC4C-A3B3-7E75B1F72A04}"/>
+    <hyperlink ref="E25" r:id="rId283" xr:uid="{A7A50C8F-6111-A240-AF6D-EA48457572B0}"/>
+    <hyperlink ref="E24" r:id="rId284" xr:uid="{9176E768-ED83-FC49-A193-03365BCB5AD6}"/>
+    <hyperlink ref="E23" r:id="rId285" xr:uid="{1F64D28C-2A7E-D64A-95BA-6DDD80260DD6}"/>
+    <hyperlink ref="E22" r:id="rId286" xr:uid="{C5E08AA4-6E8B-3845-A98E-E2E9BD0B9E75}"/>
+    <hyperlink ref="E21" r:id="rId287" xr:uid="{D12AD687-5E1E-4E43-9911-0AE159A13C23}"/>
+    <hyperlink ref="E20" r:id="rId288" xr:uid="{6812D194-9452-854D-889F-C774620D4163}"/>
+    <hyperlink ref="E19" r:id="rId289" xr:uid="{56EC5D00-AC89-E542-B267-3A54495A9BA3}"/>
+    <hyperlink ref="E18" r:id="rId290" xr:uid="{BDE9D707-C6B9-0343-8C72-908B7FCB3689}"/>
+    <hyperlink ref="E17" r:id="rId291" xr:uid="{9EED600A-C6CD-1F4D-A52A-42BF5958B7EA}"/>
+    <hyperlink ref="E16" r:id="rId292" xr:uid="{66867570-F699-574F-94A0-A5D227BBEB86}"/>
+    <hyperlink ref="E15" r:id="rId293" xr:uid="{9E226031-1A93-7042-A53A-CE51DD9ABC65}"/>
+    <hyperlink ref="E14" r:id="rId294" xr:uid="{4FF6750B-469D-4C48-8700-7D71E2270C9A}"/>
+    <hyperlink ref="E13" r:id="rId295" xr:uid="{7AF440A2-1DBA-5C43-AC27-82BDE286168A}"/>
+    <hyperlink ref="E12" r:id="rId296" xr:uid="{0F4ABD6D-A0FB-044B-8F74-208BDFB0CC4A}"/>
+    <hyperlink ref="E11" r:id="rId297" xr:uid="{A2039981-9D1F-4042-BF05-5FAFF0F426E8}"/>
+    <hyperlink ref="E10" r:id="rId298" xr:uid="{710816D4-97E6-004F-B089-E1ABD789F089}"/>
+    <hyperlink ref="E9" r:id="rId299" xr:uid="{F3BAFF5B-3AA5-AF48-AE58-1178FD304899}"/>
+    <hyperlink ref="E8" r:id="rId300" xr:uid="{75736402-73CE-5647-AEB0-0C935EB06D4B}"/>
+    <hyperlink ref="E7" r:id="rId301" xr:uid="{241DAD7E-25A8-1A43-BF01-91CE111377CE}"/>
+    <hyperlink ref="E6" r:id="rId302" xr:uid="{748E930A-EA16-E44D-96D5-C065BBB5ACC9}"/>
+    <hyperlink ref="E5" r:id="rId303" xr:uid="{762BBD67-35EB-C648-8785-2882DE807AB4}"/>
+    <hyperlink ref="E4" r:id="rId304" xr:uid="{7CF8C55D-B082-7A4A-B16A-0379FC5F862C}"/>
+    <hyperlink ref="E3" r:id="rId305" xr:uid="{3D68445D-29DA-B64C-97CE-ACF8027E5FF6}"/>
+    <hyperlink ref="E2" r:id="rId306" xr:uid="{287684C2-8B7E-5848-A893-933142CE627C}"/>
+    <hyperlink ref="E200" r:id="rId307" xr:uid="{7993D877-CA9E-DD40-A813-4E18192CE47E}"/>
+    <hyperlink ref="E199" r:id="rId308" xr:uid="{BCCA6948-18C5-4E48-9249-AB77C10C7304}"/>
+    <hyperlink ref="F200" r:id="rId309" xr:uid="{AA1D75B7-7944-B24C-9169-57DBD79D9641}"/>
+    <hyperlink ref="E201" r:id="rId310" xr:uid="{E05994ED-2705-894D-9DD4-AB3EBF14A824}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -12972,10 +13561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFC51FA-4B42-B247-AFC0-29136BEB1948}">
-  <dimension ref="A1:AL63"/>
+  <dimension ref="A1:AL65"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="P1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13013,7 +13602,7 @@
         <v>1414</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1436</v>
@@ -13360,6 +13949,9 @@
       <c r="C4">
         <v>54</v>
       </c>
+      <c r="D4">
+        <v>188</v>
+      </c>
       <c r="H4">
         <v>160</v>
       </c>
@@ -13767,6 +14359,9 @@
       <c r="AI8">
         <v>29</v>
       </c>
+      <c r="AK8">
+        <v>188</v>
+      </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -13840,6 +14435,9 @@
       <c r="H10">
         <v>181</v>
       </c>
+      <c r="I10" t="s">
+        <v>1767</v>
+      </c>
       <c r="K10">
         <v>93</v>
       </c>
@@ -13899,6 +14497,9 @@
       <c r="A11" t="s">
         <v>1482</v>
       </c>
+      <c r="I11">
+        <v>190</v>
+      </c>
       <c r="K11">
         <v>98</v>
       </c>
@@ -13917,6 +14518,9 @@
       <c r="Q11">
         <v>98</v>
       </c>
+      <c r="R11">
+        <v>195</v>
+      </c>
       <c r="V11">
         <v>167</v>
       </c>
@@ -13946,6 +14550,9 @@
       </c>
       <c r="AH11">
         <v>159</v>
+      </c>
+      <c r="AI11">
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
@@ -13970,6 +14577,9 @@
       <c r="Q12">
         <v>106</v>
       </c>
+      <c r="R12">
+        <v>172</v>
+      </c>
       <c r="W12">
         <v>134</v>
       </c>
@@ -14005,6 +14615,9 @@
       <c r="K13">
         <v>104</v>
       </c>
+      <c r="L13">
+        <v>190</v>
+      </c>
       <c r="N13">
         <v>116</v>
       </c>
@@ -14185,7 +14798,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="K17">
         <v>189</v>
@@ -14199,6 +14812,9 @@
       <c r="P17">
         <v>53</v>
       </c>
+      <c r="Q17">
+        <v>190</v>
+      </c>
       <c r="W17">
         <v>105</v>
       </c>
@@ -14225,6 +14841,9 @@
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1766</v>
+      </c>
       <c r="N18">
         <v>92</v>
       </c>
@@ -14491,7 +15110,7 @@
         <v>149</v>
       </c>
       <c r="Y26" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="AA26">
         <v>56</v>
@@ -14519,6 +15138,9 @@
       <c r="P27" t="s">
         <v>1483</v>
       </c>
+      <c r="Y27" t="s">
+        <v>1765</v>
+      </c>
       <c r="AA27">
         <v>142</v>
       </c>
@@ -14557,6 +15179,9 @@
       <c r="AG28">
         <v>62</v>
       </c>
+      <c r="AH28">
+        <v>195</v>
+      </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="N29">
@@ -14580,6 +15205,9 @@
       <c r="AG29">
         <v>4</v>
       </c>
+      <c r="AH29">
+        <v>198</v>
+      </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="N30">
@@ -14603,6 +15231,9 @@
       <c r="AG30">
         <v>75</v>
       </c>
+      <c r="AH30">
+        <v>186</v>
+      </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="N31">
@@ -14677,6 +15308,9 @@
       <c r="N34">
         <v>142</v>
       </c>
+      <c r="O34">
+        <v>194</v>
+      </c>
       <c r="P34">
         <v>41</v>
       </c>
@@ -14697,6 +15331,9 @@
       <c r="N35">
         <v>138</v>
       </c>
+      <c r="O35">
+        <v>172</v>
+      </c>
       <c r="P35">
         <v>4</v>
       </c>
@@ -14717,6 +15354,9 @@
       <c r="N36">
         <v>136</v>
       </c>
+      <c r="O36">
+        <v>195</v>
+      </c>
       <c r="P36">
         <v>50</v>
       </c>
@@ -14728,6 +15368,9 @@
       </c>
       <c r="AD36">
         <v>142</v>
+      </c>
+      <c r="AG36">
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="14:33" x14ac:dyDescent="0.2">
@@ -14746,6 +15389,9 @@
       <c r="AD37">
         <v>138</v>
       </c>
+      <c r="AG37">
+        <v>183</v>
+      </c>
     </row>
     <row r="38" spans="14:33" x14ac:dyDescent="0.2">
       <c r="N38">
@@ -14763,6 +15409,9 @@
       <c r="AD38">
         <v>136</v>
       </c>
+      <c r="AG38">
+        <v>192</v>
+      </c>
     </row>
     <row r="39" spans="14:33" x14ac:dyDescent="0.2">
       <c r="N39">
@@ -14780,6 +15429,9 @@
       <c r="AD39">
         <v>134</v>
       </c>
+      <c r="AG39">
+        <v>190</v>
+      </c>
     </row>
     <row r="40" spans="14:33" x14ac:dyDescent="0.2">
       <c r="N40">
@@ -14910,6 +15562,9 @@
       <c r="AA47">
         <v>60</v>
       </c>
+      <c r="AC47">
+        <v>194</v>
+      </c>
       <c r="AD47">
         <v>4</v>
       </c>
@@ -15030,6 +15685,12 @@
       <c r="N56">
         <v>176</v>
       </c>
+      <c r="P56">
+        <v>186</v>
+      </c>
+      <c r="AA56">
+        <v>199</v>
+      </c>
       <c r="AD56">
         <v>105</v>
       </c>
@@ -15073,6 +15734,16 @@
     <row r="63" spans="14:30" x14ac:dyDescent="0.2">
       <c r="AD63">
         <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="14:30" x14ac:dyDescent="0.2">
+      <c r="AD64">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="30:30" x14ac:dyDescent="0.2">
+      <c r="AD65">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/VAE_literature.xlsx
+++ b/VAE_literature.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewvowels/Desktop/PhD/Awesome-VAEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A37ED2A-7357-D141-8AA2-E67000D2B772}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D3E982-FAC0-7943-84E9-655CF3F01B5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="25620" windowHeight="17460" xr2:uid="{E4269A26-9BAE-F54F-8C24-CC08A7F9F2AA}"/>
+    <workbookView xWindow="40" yWindow="7260" windowWidth="25620" windowHeight="17460" xr2:uid="{E4269A26-9BAE-F54F-8C24-CC08A7F9F2AA}"/>
   </bookViews>
   <sheets>
     <sheet name="by paper" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="1778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="1817">
   <si>
     <t>Title</t>
   </si>
@@ -5389,6 +5389,123 @@
   </si>
   <si>
     <t>Representation disentanglement  for multi-task learning with application to fetal ultrasound</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>Variational Inference II</t>
+  </si>
+  <si>
+    <t>Xing, Zheng, Hu, Deng</t>
+  </si>
+  <si>
+    <t>https://www.cs.cmu.edu/~epxing/Class/10708-15/notes/10708_scribe_lecture13.pdf</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>Learning deep latent-variable MRFs with amortized Bethe free-energy minimization</t>
+  </si>
+  <si>
+    <t>Wiseman</t>
+  </si>
+  <si>
+    <t>https://openreview.net/pdf?id=ByeMHULt_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present an alternative to the ELBO VAE objective that uses the Bethe free-energy approximation to the LL based on mean-field approximation. Their results on text are promising. Paper requires understanding of the maths of mean-field etc. </t>
+  </si>
+  <si>
+    <t>MF VAE (mean field VAE)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>perplexity</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Contrastive variational autoencoder enhances salient features</t>
+  </si>
+  <si>
+    <t>Abid, Zou</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1902.04601.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/abidlabs/contrastive_vae</t>
+  </si>
+  <si>
+    <t>cVAE (contrastive VAE)</t>
+  </si>
+  <si>
+    <t>The information bottleneck method</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Tishby, Pereira, Bialek</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/physics/0004057.pdf</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>M^2VAE - derivation of a multi-modal variational autoencoder objective from the marginal joint log-likelihood</t>
+  </si>
+  <si>
+    <t>Korthals</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1903.07303.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clear presentation maths for the derivation of the ELBO for the uni, bi and tri (joint and multimodal) versions of the VAE  </t>
+  </si>
+  <si>
+    <t>M2VAE</t>
+  </si>
+  <si>
+    <t>Rate distortion theory</t>
+  </si>
+  <si>
+    <t>They explain how Shannon was concerned with the theory communication, not about how to determine relevancy of the actual transmitted information. They argue that the relevancy of information can be inferred by determining a label or other source of information which needs to be retained. Math heavy.</t>
+  </si>
+  <si>
+    <t>http://ruishu.io/2018/03/14/vae/</t>
+  </si>
+  <si>
+    <t>Density estimation: Variational autoencoders</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>Rui Shu</t>
+  </si>
+  <si>
+    <t>laconic blog post on vaes and accompanying code. Useful jupyter e.g. https://nbviewer.jupyter.org/github/RuiShu/vae-clustering/blob/master/experiments.ipynb</t>
+  </si>
+  <si>
+    <t>They combine Mutual information penalty on two encodings and split dataset into 'clean' images and those without the salient features and only the disturbance features. The images from each dataset are UNPAIRED. They have a useful derivation of the lower bound for their arrangement.</t>
+  </si>
+  <si>
+    <t>celebA, MNIST, RNA-Seq</t>
+  </si>
+  <si>
+    <t>t-sne, samples/traversals</t>
   </si>
 </sst>
 </file>
@@ -5809,10 +5926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8920E9C9-067C-A145-84FD-2821C51037F0}">
-  <dimension ref="A1:O201"/>
+  <dimension ref="A1:O207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="116" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="75" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="C207" sqref="C207:E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13235,6 +13352,186 @@
       </c>
       <c r="E201" s="1" t="s">
         <v>1776</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A203" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>1787</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="K203" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="M203" s="3" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="L204" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M204" s="3" t="s">
+        <v>1814</v>
+      </c>
+      <c r="N204" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A205" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>1807</v>
+      </c>
+      <c r="M205" s="3" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A206" s="3" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>1806</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J206" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="L206" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="M206" s="3" t="s">
+        <v>1805</v>
+      </c>
+      <c r="N206" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A207" s="3" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="M207" s="3" t="s">
+        <v>1813</v>
       </c>
     </row>
   </sheetData>
@@ -13553,6 +13850,13 @@
     <hyperlink ref="E199" r:id="rId308" xr:uid="{BCCA6948-18C5-4E48-9249-AB77C10C7304}"/>
     <hyperlink ref="F200" r:id="rId309" xr:uid="{AA1D75B7-7944-B24C-9169-57DBD79D9641}"/>
     <hyperlink ref="E201" r:id="rId310" xr:uid="{E05994ED-2705-894D-9DD4-AB3EBF14A824}"/>
+    <hyperlink ref="E202" r:id="rId311" xr:uid="{3E7CD4A7-8E4E-6342-9F75-755A08F92E84}"/>
+    <hyperlink ref="E203" r:id="rId312" xr:uid="{65C41358-E16D-3B43-9AF6-0DD61B3BAC58}"/>
+    <hyperlink ref="E204" r:id="rId313" xr:uid="{4A1A7F92-6EDA-E449-AEFD-53C1C59440B2}"/>
+    <hyperlink ref="F204" r:id="rId314" xr:uid="{0DFF4DEB-BA1B-6F47-9A19-765A3D5C9E99}"/>
+    <hyperlink ref="E205" r:id="rId315" xr:uid="{2BC17AB9-F52C-5A48-875C-5920A8ACB0EA}"/>
+    <hyperlink ref="E206" r:id="rId316" xr:uid="{FE47C1EF-2477-A54A-97FE-D13FCE63D4C5}"/>
+    <hyperlink ref="E207" r:id="rId317" xr:uid="{43A08E32-39A8-9B42-AFD0-0BBBF1454F3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/VAE_literature.xlsx
+++ b/VAE_literature.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewvowels/Desktop/PhD/Awesome-VAEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D3E982-FAC0-7943-84E9-655CF3F01B5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B570CAD9-1179-1F43-B82B-F434890BEDC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="7260" windowWidth="25620" windowHeight="17460" xr2:uid="{E4269A26-9BAE-F54F-8C24-CC08A7F9F2AA}"/>
+    <workbookView xWindow="1920" yWindow="460" windowWidth="25620" windowHeight="17460" xr2:uid="{E4269A26-9BAE-F54F-8C24-CC08A7F9F2AA}"/>
   </bookViews>
   <sheets>
     <sheet name="by paper" sheetId="1" r:id="rId1"/>
     <sheet name="by topic" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="1817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="1835">
   <si>
     <t>Title</t>
   </si>
@@ -2279,9 +2280,6 @@
   </si>
   <si>
     <t>Beta-VAE, PixelCNN++, MADE, VAmpPrior,  w/ and w/o KL annealing and other variants.</t>
-  </si>
-  <si>
-    <t>Very good exposition of VAEs from information theoretic viewpoint, using rate, distortion, MI and entropy and relating it back to beta-VAE. The demonstrate that the usual ELBO objective can result in a z distribution that perfectly caputres the true data distribution but which failes to learn a useful representtion. Imposing a rate-distrotion constraint, however, yields a much more meaningful latent distribution. Quite a thorough test of models (209 runs across 12 architectures). Compares settings for beta against whether the architecture ends up being an 'autodecoder' when B =1.10 (i.e. the network ingnores the input), or an autoencoder when B =0.1 (i.e. the network learns to map but not encode useful embeddings. When beta = 1 then there is some semantically meaningful information and they call it a 'semantic encoder', or when B = 0.15 achieving 'syntactic encoder' which retains both semantica and syntactic information. If our decoder is too powerful, then using a B &lt; 1 can help compensate. THe work illustrats the tradeoffs between encoder/decoder complexity, beta, and learning semantic embeddings vs. quality reconstructions. They encourage people to present RATE DISTORTION values instead of just NLL.</t>
   </si>
   <si>
     <t>MNIST, synthetic</t>
@@ -4092,9 +4090,6 @@
     <t>https://arxiv.org/pdf/1811.00007.pdf</t>
   </si>
   <si>
-    <t>Same as paper 157 below. Takes a causal perspective on VAE disentanglement to derive a new metric for disentanglement. They have some useful definitions of disentanglement in this regard, as well as in relation to equivariance and invariance. They compare their new metrics against those of Easter and Williams (which we used) as well as mutual information by Ridgeway and Mozer. They call their metric Interventional Robustness. They explain how it may sometimes be useful to have multiple latents for a single generative factor.</t>
-  </si>
-  <si>
     <t>Same as paper 156</t>
   </si>
   <si>
@@ -5349,9 +5344,6 @@
     <t>Follows variational encoder decoder network with LSTMs for iteratively attending to different parts of the intput image whilst reconstructing it bit by bit in the decoder. Includes selective attention.</t>
   </si>
   <si>
-    <t>Non variational and non autoencoder BUT a great example of how to inforporate 'self' supervision to encode important information for representation learning, both on audio and on video. Extensive evaluation.</t>
-  </si>
-  <si>
     <t>199 self</t>
   </si>
   <si>
@@ -5506,6 +5498,69 @@
   </si>
   <si>
     <t>t-sne, samples/traversals</t>
+  </si>
+  <si>
+    <t>They formalise rate, classification error, entropy and distortion in terms of analogous terms in thermodynamics, and explain how the process of representation learning is the process of minimising the distortion 'introduced when we project the real world onto the world we desire' (and they have PGMs for these models.</t>
+  </si>
+  <si>
+    <t>TherML</t>
+  </si>
+  <si>
+    <t>identify sequential VAEs as being used as state-space models (encoding state z for a given observation at time t, x) where the posterior is decomposed autoregressively. Impressive results and impressive network able to predict e.g. sinusoids into future. Mainly indented for use with reinforcement learning, but can be applied to other tasks too. Less about VAE and more about predictions from sequences.</t>
+  </si>
+  <si>
+    <t>Reweighted expectation maximization</t>
+  </si>
+  <si>
+    <t>Dieng, Paisley</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1906.05850.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/adjidieng/REM</t>
+  </si>
+  <si>
+    <t>REM (reweighted expectation maximization)</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>Deep learning and the information bottleneck principle</t>
+  </si>
+  <si>
+    <t>Tishby, Zaslavsky</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1503.02406.pdf</t>
+  </si>
+  <si>
+    <t>Same as paper 157 below. Takes a causal perspective on VAE disentanglement to derive a new metric for disentanglement. They have some useful definitions of disentanglement in this regard, as well as in relation to equivariance and invariance. They compare their new metrics against those of Eastwood and Williams (which we used) as well as mutual information by Ridgeway and Mozer. They call their metric Interventional Robustness. They explain how it may sometimes be useful to have multiple latents for a single generative factor.</t>
+  </si>
+  <si>
+    <t>Non variational and non autoencoder BUT a great example of how to incorporate 'self' supervision to encode important information for representation learning, both on audio and on video. Extensive evaluation.</t>
+  </si>
+  <si>
+    <t>Very good exposition of VAEs from information theoretic viewpoint, using rate, distortion, MI and entropy and relating it back to beta-VAE. The demonstrate that the usual ELBO objective can result in a z distribution that perfectly caputres the true data distribution but which failes to learn a useful representtion. Imposing a rate-distrotion constraint, however, yields a much more meaningful latent distribution. Quite a thorough test of models (209 runs across 12 architectures). Compares settings for beta against whether the architecture ends up being an 'autodecoder' when B =1.10 (i.e. the network ingnores the input), or an autoencoder when B =0.1 (i.e. the network learns to map but not encode useful embeddings. When beta = 1 then there is some semantically meaningful information and they call it a 'semantic encoder', or when B = 0.15 achieving 'syntactic encoder' which retains both semantica and syntactic information. If our decoder is too powerful, then using a B &lt; 1 can help compensate. THe work illustrates the tradeoffs between encoder/decoder complexity, beta, and learning semantic embeddings vs. quality reconstructions. They encourage people to present RATE DISTORTION values instead of just NLL.</t>
+  </si>
+  <si>
+    <t>samples before and after</t>
+  </si>
+  <si>
+    <t xml:space="preserve">they link optimal representation learning with dropout via information bottleneck principle. Their method reduces to the VAE in the case when the task is reconstruction of the input. They review the variational dropout proposal by Kingma, who explain it a per-layer-activation local reparameterisation trick. Use log normal distribution for the noise. They show how it can be used to remove nuisance / noise by applying the information dropout in an image-specific way (using the variational maths to derive it). Their introduction is very broad and interesting and relates to representation learning in general. </t>
+  </si>
+  <si>
+    <t>A means to utilise VAEs to achieve high compression rates</t>
+  </si>
+  <si>
+    <t>Extends the IB principal from Tishby's earlier paper to deep learning, explaining how,through each layer, the mutual information required (e.g. for a classification task) changes.</t>
+  </si>
+  <si>
+    <t>Results indicate that an adaptation of the EM for scale applications gives better results than IWAE or VAE. Their analysis indicates that their REM becomes equivalent to IWAE.</t>
   </si>
 </sst>
 </file>
@@ -5926,10 +5981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8920E9C9-067C-A145-84FD-2821C51037F0}">
-  <dimension ref="A1:O207"/>
+  <dimension ref="A1:O209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="75" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="C207" sqref="C207:E207"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6032,7 +6087,7 @@
         <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>640</v>
@@ -6135,7 +6190,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>37</v>
@@ -6378,13 +6433,13 @@
         <v>82</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>40</v>
@@ -6504,7 +6559,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>19</v>
@@ -6522,7 +6577,7 @@
         <v>13</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -6601,7 +6656,7 @@
         <v>114</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>640</v>
@@ -6674,7 +6729,7 @@
         <v>129</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>640</v>
@@ -7287,7 +7342,7 @@
         <v>415</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -7743,7 +7798,7 @@
         <v>526</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>640</v>
@@ -7789,7 +7844,7 @@
         <v>532</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>534</v>
@@ -8137,7 +8192,7 @@
         <v>16</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>610</v>
@@ -8275,7 +8330,7 @@
         <v>637</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>640</v>
@@ -8301,7 +8356,7 @@
         <v>644</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>640</v>
@@ -8719,7 +8774,7 @@
         <v>20</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="N71" s="3" t="s">
         <v>640</v>
@@ -8874,16 +8929,16 @@
         <v>20</v>
       </c>
       <c r="J75" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="K75" s="3" t="s">
         <v>750</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>751</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>748</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>749</v>
+        <v>1829</v>
       </c>
       <c r="N75" s="3" t="s">
         <v>640</v>
@@ -8906,16 +8961,16 @@
         <v>746</v>
       </c>
       <c r="F76" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>752</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>753</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>640</v>
@@ -8929,19 +8984,19 @@
         <v>71</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="E77" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="3" t="s">
         <v>758</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>759</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>40</v>
@@ -8950,16 +9005,16 @@
         <v>20</v>
       </c>
       <c r="J77" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="K77" s="3" t="s">
         <v>760</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>761</v>
       </c>
       <c r="L77" s="3" t="s">
         <v>55</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="N77" s="3" t="s">
         <v>640</v>
@@ -8973,19 +9028,19 @@
         <v>71</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="E78" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="G78" s="3" t="s">
         <v>765</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>766</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>622</v>
@@ -8994,16 +9049,16 @@
         <v>20</v>
       </c>
       <c r="J78" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="K78" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="K78" s="3" t="s">
+      <c r="L78" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="L78" s="3" t="s">
-        <v>770</v>
-      </c>
       <c r="M78" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -9014,19 +9069,19 @@
         <v>28</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="E79" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>774</v>
-      </c>
       <c r="G79" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>40</v>
@@ -9038,13 +9093,13 @@
         <v>73</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -9055,19 +9110,19 @@
         <v>38</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="E80" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" s="3" t="s">
         <v>782</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>783</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>40</v>
@@ -9076,16 +9131,16 @@
         <v>20</v>
       </c>
       <c r="J80" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="K80" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="K80" s="3" t="s">
+      <c r="L80" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="L80" s="3" t="s">
+      <c r="M80" s="3" t="s">
         <v>786</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="153" x14ac:dyDescent="0.2">
@@ -9096,19 +9151,19 @@
         <v>28</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="F81" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>791</v>
-      </c>
       <c r="G81" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>40</v>
@@ -9117,16 +9172,16 @@
         <v>20</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>477</v>
       </c>
       <c r="L81" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="M81" s="3" t="s">
         <v>881</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -9137,19 +9192,19 @@
         <v>38</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>794</v>
-      </c>
       <c r="E82" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>798</v>
-      </c>
       <c r="G82" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>40</v>
@@ -9167,7 +9222,7 @@
         <v>20</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="N82" s="3" t="s">
         <v>640</v>
@@ -9181,16 +9236,16 @@
         <v>16</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="E83" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>801</v>
-      </c>
       <c r="G83" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>40</v>
@@ -9199,16 +9254,16 @@
         <v>20</v>
       </c>
       <c r="J83" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="L83" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>809</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -9219,22 +9274,22 @@
         <v>38</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>803</v>
-      </c>
       <c r="G84" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="M84" s="3" t="s">
         <v>851</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>852</v>
       </c>
       <c r="N84" s="3" t="s">
         <v>640</v>
@@ -9248,13 +9303,13 @@
         <v>16</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>814</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>495</v>
@@ -9263,16 +9318,16 @@
         <v>20</v>
       </c>
       <c r="J85" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="K85" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="K85" s="3" t="s">
+      <c r="L85" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="L85" s="3" t="s">
-        <v>818</v>
-      </c>
       <c r="M85" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N85" s="3" t="s">
         <v>640</v>
@@ -9286,25 +9341,25 @@
         <v>28</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J86" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="L86" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="K86" s="3" t="s">
+      <c r="M86" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="M86" s="3" t="s">
-        <v>826</v>
       </c>
       <c r="N86" s="3" t="s">
         <v>640</v>
@@ -9318,31 +9373,31 @@
         <v>38</v>
       </c>
       <c r="C87" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="D87" t="s">
+        <v>821</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="D87" t="s">
-        <v>822</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>821</v>
-      </c>
       <c r="H87" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J87" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="L87" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="K87" s="3" t="s">
+      <c r="M87" s="3" t="s">
         <v>839</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>840</v>
       </c>
       <c r="N87" s="3" t="s">
         <v>640</v>
@@ -9356,34 +9411,34 @@
         <v>28</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="E88" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>830</v>
-      </c>
       <c r="G88" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>495</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K88" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="L88" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="L88" s="3" t="s">
+      <c r="M88" s="3" t="s">
         <v>835</v>
-      </c>
-      <c r="M88" s="3" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -9394,22 +9449,22 @@
         <v>38</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="E89" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="H89" s="3" t="s">
         <v>846</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>847</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>20</v>
@@ -9418,13 +9473,13 @@
         <v>552</v>
       </c>
       <c r="K89" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="L89" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="L89" s="3" t="s">
+      <c r="M89" s="3" t="s">
         <v>849</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -9435,13 +9490,13 @@
         <v>28</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>854</v>
-      </c>
       <c r="E90" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>20</v>
@@ -9453,16 +9508,16 @@
         <v>20</v>
       </c>
       <c r="J90" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="L90" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="K90" s="3" t="s">
+      <c r="M90" s="3" t="s">
         <v>855</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="M90" s="3" t="s">
-        <v>856</v>
       </c>
       <c r="N90" s="3" t="s">
         <v>640</v>
@@ -9476,19 +9531,19 @@
         <v>28</v>
       </c>
       <c r="C91" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="E91" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="G91" s="3" t="s">
         <v>863</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>864</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>40</v>
@@ -9497,16 +9552,16 @@
         <v>20</v>
       </c>
       <c r="J91" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>867</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -9517,22 +9572,22 @@
         <v>71</v>
       </c>
       <c r="C92" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="E92" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="G92" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="J92" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="J92" s="3" t="s">
-        <v>873</v>
-      </c>
       <c r="M92" s="3" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -9543,37 +9598,37 @@
         <v>38</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="3" t="s">
         <v>876</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>877</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I93" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="K93" s="3" t="s">
         <v>879</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>880</v>
       </c>
       <c r="L93" s="3" t="s">
         <v>55</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="N93" s="3" t="s">
         <v>640</v>
@@ -9587,34 +9642,34 @@
         <v>16</v>
       </c>
       <c r="C94" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="E94" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="G94" s="3" t="s">
         <v>886</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>887</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J94" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="M94" s="3" t="s">
         <v>889</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>890</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>640</v>
@@ -9628,19 +9683,19 @@
         <v>16</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="E95" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="G95" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="M95" s="3" t="s">
         <v>893</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -9651,19 +9706,19 @@
         <v>28</v>
       </c>
       <c r="C96" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="M96" s="3" t="s">
         <v>896</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="M96" s="3" t="s">
-        <v>897</v>
       </c>
       <c r="N96" s="3" t="s">
         <v>640</v>
@@ -9677,34 +9732,34 @@
         <v>16</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="E97" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="G97" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="H97" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="M97" s="3" t="s">
         <v>904</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>905</v>
       </c>
       <c r="N97" s="3" t="s">
         <v>640</v>
@@ -9718,28 +9773,28 @@
         <v>16</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="E98" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>913</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L98" s="3" t="s">
         <v>55</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="N98" s="3" t="s">
         <v>640</v>
@@ -9753,28 +9808,28 @@
         <v>38</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D99" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="F99" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>917</v>
-      </c>
       <c r="I99" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L99" s="3" t="s">
         <v>55</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -9785,22 +9840,22 @@
         <v>71</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="M100" s="3" t="s">
         <v>921</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -9811,22 +9866,22 @@
         <v>28</v>
       </c>
       <c r="C101" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="E101" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="I101" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="M101" s="3" t="s">
         <v>929</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -9837,34 +9892,34 @@
         <v>16</v>
       </c>
       <c r="C102" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="E102" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="G102" s="3" t="s">
         <v>933</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>934</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J102" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="K102" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>937</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>938</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>640</v>
@@ -9878,28 +9933,28 @@
         <v>28</v>
       </c>
       <c r="C103" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="E103" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="G103" s="3" t="s">
         <v>940</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>941</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -9910,34 +9965,34 @@
         <v>28</v>
       </c>
       <c r="C104" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="E104" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>947</v>
-      </c>
       <c r="G104" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="N104" s="3" t="s">
         <v>640</v>
@@ -9951,19 +10006,19 @@
         <v>28</v>
       </c>
       <c r="C105" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="E105" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="G105" s="3" t="s">
         <v>955</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>956</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>78</v>
@@ -9972,13 +10027,13 @@
         <v>73</v>
       </c>
       <c r="K105" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="M105" s="3" t="s">
         <v>958</v>
-      </c>
-      <c r="L105" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="M105" s="3" t="s">
-        <v>959</v>
       </c>
       <c r="N105" s="3" t="s">
         <v>640</v>
@@ -9992,31 +10047,31 @@
         <v>16</v>
       </c>
       <c r="C106" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>962</v>
-      </c>
       <c r="E106" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="N106" s="3" t="s">
         <v>640</v>
@@ -10030,16 +10085,16 @@
         <v>16</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D107" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="M107" s="3" t="s">
         <v>980</v>
-      </c>
-      <c r="M107" s="3" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -10050,37 +10105,37 @@
         <v>28</v>
       </c>
       <c r="C108" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="E108" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="G108" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="M108" s="3" t="s">
         <v>970</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>974</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>976</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>972</v>
-      </c>
-      <c r="L108" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="M108" s="3" t="s">
-        <v>971</v>
       </c>
       <c r="N108" s="3" t="s">
         <v>640</v>
@@ -10094,28 +10149,28 @@
         <v>28</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>691</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>984</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="136" x14ac:dyDescent="0.2">
@@ -10126,34 +10181,34 @@
         <v>71</v>
       </c>
       <c r="C110" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="E110" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="G110" s="3" t="s">
         <v>988</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>989</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>516</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J110" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="K110" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="K110" s="3" t="s">
+      <c r="L110" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="M110" s="3" t="s">
         <v>992</v>
-      </c>
-      <c r="L110" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="M110" s="3" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -10164,34 +10219,34 @@
         <v>38</v>
       </c>
       <c r="C111" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="E111" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>999</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="N111" s="3" t="s">
         <v>640</v>
@@ -10205,37 +10260,37 @@
         <v>28</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="E112" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="F112" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="G112" s="3" t="s">
         <v>1007</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>1008</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>495</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J112" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K112" s="3" t="s">
         <v>1009</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>1010</v>
       </c>
       <c r="L112" s="3" t="s">
         <v>55</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N112" s="3" t="s">
         <v>640</v>
@@ -10249,34 +10304,34 @@
         <v>28</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="E113" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G113" s="3" t="s">
         <v>1013</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>1014</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J113" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M113" s="3" t="s">
         <v>1018</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M113" s="3" t="s">
-        <v>1019</v>
       </c>
       <c r="N113" s="3" t="s">
         <v>640</v>
@@ -10290,37 +10345,37 @@
         <v>71</v>
       </c>
       <c r="C114" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="E114" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="F114" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="G114" s="3" t="s">
         <v>1023</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>1024</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K114" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M114" s="3" t="s">
         <v>1026</v>
-      </c>
-      <c r="L114" s="3" t="s">
-        <v>1025</v>
-      </c>
-      <c r="M114" s="3" t="s">
-        <v>1027</v>
       </c>
       <c r="N114" s="3" t="s">
         <v>640</v>
@@ -10334,28 +10389,28 @@
         <v>508</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="E115" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="F115" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="G115" s="3" t="s">
         <v>1031</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>1032</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -10366,34 +10421,34 @@
         <v>38</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="F116" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="G116" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M116" s="3" t="s">
         <v>1037</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>1039</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>1040</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L116" s="3" t="s">
-        <v>1041</v>
-      </c>
-      <c r="M116" s="3" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="153" x14ac:dyDescent="0.2">
@@ -10404,37 +10459,37 @@
         <v>71</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="F117" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G117" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G117" s="3" t="s">
+      <c r="H117" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J117" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="H117" s="3" t="s">
-        <v>1039</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J117" s="3" t="s">
+      <c r="K117" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L117" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="K117" s="3" t="s">
+      <c r="M117" s="3" t="s">
         <v>1050</v>
-      </c>
-      <c r="L117" s="3" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M117" s="3" t="s">
-        <v>1051</v>
       </c>
       <c r="N117" s="3" t="s">
         <v>640</v>
@@ -10448,37 +10503,37 @@
         <v>38</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="E118" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="F118" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="G118" s="3" t="s">
         <v>1055</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>1056</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J118" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K118" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="K118" s="3" t="s">
-        <v>1059</v>
-      </c>
       <c r="L118" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -10489,37 +10544,37 @@
         <v>16</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="E119" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="F119" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="G119" s="3" t="s">
         <v>1064</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>1065</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="K119" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="M119" s="3" t="s">
         <v>1067</v>
-      </c>
-      <c r="L119" s="3" t="s">
-        <v>1066</v>
-      </c>
-      <c r="M119" s="3" t="s">
-        <v>1068</v>
       </c>
       <c r="N119" s="3" t="s">
         <v>640</v>
@@ -10533,25 +10588,25 @@
         <v>71</v>
       </c>
       <c r="C120" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="E120" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="G120" s="3" t="s">
         <v>1072</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>1073</v>
       </c>
       <c r="J120" s="3" t="s">
         <v>713</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -10562,19 +10617,19 @@
         <v>16</v>
       </c>
       <c r="C121" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G121" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="M121" s="3" t="s">
         <v>1079</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="M121" s="3" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -10585,37 +10640,37 @@
         <v>38</v>
       </c>
       <c r="C122" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="E122" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="F122" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="G122" s="3" t="s">
         <v>1084</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>1085</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J122" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="L122" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="K122" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="L122" s="3" t="s">
+      <c r="M122" s="3" t="s">
         <v>1087</v>
-      </c>
-      <c r="M122" s="3" t="s">
-        <v>1088</v>
       </c>
       <c r="N122" s="3" t="s">
         <v>640</v>
@@ -10629,34 +10684,34 @@
         <v>16</v>
       </c>
       <c r="C123" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="F123" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G123" s="3" t="s">
         <v>1093</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>1094</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>516</v>
       </c>
       <c r="J123" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L123" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="K123" s="3" t="s">
-        <v>1098</v>
-      </c>
-      <c r="L123" s="3" t="s">
-        <v>1097</v>
-      </c>
       <c r="M123" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -10667,37 +10722,37 @@
         <v>16</v>
       </c>
       <c r="C124" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="E124" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="G124" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="G124" s="3" t="s">
-        <v>1103</v>
-      </c>
       <c r="H124" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="M124" s="3" t="s">
         <v>1107</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>1105</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="L124" s="3" t="s">
-        <v>1109</v>
-      </c>
-      <c r="M124" s="3" t="s">
-        <v>1108</v>
       </c>
       <c r="N124" s="3" t="s">
         <v>640</v>
@@ -10711,31 +10766,31 @@
         <v>28</v>
       </c>
       <c r="C125" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="E125" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>1112</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J125" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="K125" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="K125" s="3" t="s">
-        <v>1114</v>
-      </c>
       <c r="M125" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="N125" s="3" t="s">
         <v>640</v>
@@ -10749,37 +10804,37 @@
         <v>71</v>
       </c>
       <c r="C126" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="E126" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>1120</v>
-      </c>
       <c r="G126" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J126" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K126" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="K126" s="3" t="s">
-        <v>1124</v>
-      </c>
       <c r="L126" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -10790,37 +10845,37 @@
         <v>38</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="E127" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="F127" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>1128</v>
-      </c>
       <c r="G127" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J127" s="3" t="s">
         <v>434</v>
       </c>
       <c r="K127" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="M127" s="3" t="s">
         <v>1130</v>
-      </c>
-      <c r="L127" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="M127" s="3" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -10831,22 +10886,22 @@
         <v>16</v>
       </c>
       <c r="C128" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="E128" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="H128" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="H128" s="3" t="s">
-        <v>1137</v>
-      </c>
       <c r="I128" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -10857,37 +10912,37 @@
         <v>38</v>
       </c>
       <c r="C129" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="E129" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="G129" s="3" t="s">
         <v>1141</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>1142</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J129" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K129" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="K129" s="3" t="s">
+      <c r="L129" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="L129" s="3" t="s">
+      <c r="M129" s="3" t="s">
         <v>1145</v>
-      </c>
-      <c r="M129" s="3" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="119" x14ac:dyDescent="0.2">
@@ -10898,28 +10953,28 @@
         <v>16</v>
       </c>
       <c r="C130" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="E130" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="G130" s="3" t="s">
         <v>1149</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>1150</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K130" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="L130" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="L130" s="3" t="s">
+      <c r="M130" s="3" t="s">
         <v>1152</v>
-      </c>
-      <c r="M130" s="3" t="s">
-        <v>1153</v>
       </c>
       <c r="N130" s="3" t="s">
         <v>640</v>
@@ -10933,31 +10988,31 @@
         <v>28</v>
       </c>
       <c r="C131" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="E131" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>1156</v>
-      </c>
       <c r="H131" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J131" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="K131" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="K131" s="3" t="s">
+      <c r="L131" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="M131" s="3" t="s">
         <v>1159</v>
-      </c>
-      <c r="L131" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="M131" s="3" t="s">
-        <v>1160</v>
       </c>
       <c r="N131" s="3" t="s">
         <v>640</v>
@@ -10971,34 +11026,34 @@
         <v>16</v>
       </c>
       <c r="C132" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D132" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="E132" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="F132" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>1166</v>
-      </c>
       <c r="H132" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>552</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="N132" s="3" t="s">
         <v>640</v>
@@ -11012,37 +11067,37 @@
         <v>28</v>
       </c>
       <c r="C133" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="E133" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="G133" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="H133" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="I133" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="L133" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="I133" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>1177</v>
-      </c>
-      <c r="K133" s="3" t="s">
+      <c r="M133" s="3" t="s">
         <v>1178</v>
-      </c>
-      <c r="L133" s="3" t="s">
-        <v>1176</v>
-      </c>
-      <c r="M133" s="3" t="s">
-        <v>1179</v>
       </c>
       <c r="N133" s="3" t="s">
         <v>640</v>
@@ -11056,37 +11111,37 @@
         <v>38</v>
       </c>
       <c r="C134" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="E134" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="G134" s="3" t="s">
         <v>1183</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>1184</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J134" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K134" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="K134" s="3" t="s">
-        <v>1187</v>
-      </c>
       <c r="L134" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="N134" s="3" t="s">
         <v>640</v>
@@ -11100,37 +11155,37 @@
         <v>28</v>
       </c>
       <c r="C135" s="10" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="E135" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="F135" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>1195</v>
-      </c>
       <c r="G135" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J135" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="K135" s="3" t="s">
         <v>1188</v>
       </c>
-      <c r="K135" s="3" t="s">
+      <c r="L135" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="L135" s="3" t="s">
-        <v>1190</v>
-      </c>
       <c r="M135" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="N135" s="3" t="s">
         <v>640</v>
@@ -11144,37 +11199,37 @@
         <v>16</v>
       </c>
       <c r="C136" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="E136" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="F136" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="G136" s="3" t="s">
         <v>1200</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>1201</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="M136" s="7" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="N136" s="3" t="s">
         <v>640</v>
@@ -11185,19 +11240,19 @@
         <v>273</v>
       </c>
       <c r="B137" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="M137" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>1202</v>
-      </c>
-      <c r="M137" s="3" t="s">
-        <v>1205</v>
-      </c>
       <c r="O137" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -11208,34 +11263,34 @@
         <v>16</v>
       </c>
       <c r="C138" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="E138" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="F138" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="H138" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="K138" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="H138" s="3" t="s">
+      <c r="L138" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="I138" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J138" s="3" t="s">
+      <c r="M138" s="3" t="s">
         <v>1213</v>
-      </c>
-      <c r="K138" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="L138" s="3" t="s">
-        <v>1216</v>
-      </c>
-      <c r="M138" s="3" t="s">
-        <v>1214</v>
       </c>
       <c r="N138" s="3" t="s">
         <v>640</v>
@@ -11249,31 +11304,31 @@
         <v>16</v>
       </c>
       <c r="C139" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="E139" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="H139" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="I139" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J139" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="I139" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J139" s="3" t="s">
+      <c r="K139" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L139" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="K139" s="3" t="s">
+      <c r="M139" s="3" t="s">
         <v>1223</v>
-      </c>
-      <c r="L139" s="3" t="s">
-        <v>1222</v>
-      </c>
-      <c r="M139" s="3" t="s">
-        <v>1224</v>
       </c>
       <c r="N139" s="3" t="s">
         <v>640</v>
@@ -11287,31 +11342,31 @@
         <v>28</v>
       </c>
       <c r="C140" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="E140" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="H140" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="M140" s="3" t="s">
         <v>1227</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>1229</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>1229</v>
-      </c>
-      <c r="K140" s="3" t="s">
-        <v>1229</v>
-      </c>
-      <c r="L140" s="3" t="s">
-        <v>1229</v>
-      </c>
-      <c r="M140" s="3" t="s">
-        <v>1228</v>
       </c>
       <c r="N140" s="3" t="s">
         <v>640</v>
@@ -11325,31 +11380,31 @@
         <v>28</v>
       </c>
       <c r="C141" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="E141" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="G141" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H141" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="G141" s="3" t="s">
+      <c r="I141" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J141" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="H141" s="3" t="s">
-        <v>1234</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J141" s="3" t="s">
+      <c r="L141" s="3" t="s">
         <v>1236</v>
       </c>
-      <c r="L141" s="3" t="s">
+      <c r="M141" s="3" t="s">
         <v>1237</v>
-      </c>
-      <c r="M141" s="3" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -11360,25 +11415,25 @@
         <v>16</v>
       </c>
       <c r="C142" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="E142" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="F142" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="H142" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="M142" s="3" t="s">
         <v>1242</v>
-      </c>
-      <c r="H142" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="M142" s="3" t="s">
-        <v>1243</v>
       </c>
       <c r="N142" s="3" t="s">
         <v>640</v>
@@ -11392,34 +11447,34 @@
         <v>28</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D143" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H143" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="H143" s="3" t="s">
+      <c r="I143" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J143" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="I143" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J143" s="3" t="s">
+      <c r="K143" s="3" t="s">
         <v>1252</v>
-      </c>
-      <c r="K143" s="3" t="s">
-        <v>1253</v>
       </c>
       <c r="L143" s="3" t="s">
         <v>13</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -11430,34 +11485,34 @@
         <v>28</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D144" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="G144" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H144" s="3" t="s">
         <v>1257</v>
       </c>
-      <c r="G144" s="3" t="s">
-        <v>1255</v>
-      </c>
-      <c r="H144" s="3" t="s">
+      <c r="I144" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J144" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="I144" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J144" s="3" t="s">
+      <c r="K144" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="K144" s="3" t="s">
+      <c r="L144" s="3" t="s">
         <v>1260</v>
       </c>
-      <c r="L144" s="3" t="s">
+      <c r="M144" s="3" t="s">
         <v>1261</v>
-      </c>
-      <c r="M144" s="3" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="170" x14ac:dyDescent="0.2">
@@ -11468,34 +11523,34 @@
         <v>28</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="G145" s="3" t="s">
         <v>1266</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>1267</v>
       </c>
       <c r="H145" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="N145" s="3" t="s">
         <v>640</v>
@@ -11509,19 +11564,19 @@
         <v>28</v>
       </c>
       <c r="C146" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E146" s="1" t="s">
+      <c r="G146" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="M146" s="3" t="s">
         <v>1272</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>1267</v>
-      </c>
-      <c r="M146" s="3" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -11532,34 +11587,34 @@
         <v>16</v>
       </c>
       <c r="C147" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>1274</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="E147" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="G147" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H147" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="G147" s="3" t="s">
+      <c r="I147" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J147" s="3" t="s">
         <v>1278</v>
       </c>
-      <c r="H147" s="3" t="s">
-        <v>1277</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J147" s="3" t="s">
-        <v>1279</v>
-      </c>
       <c r="K147" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="L147" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="L147" s="3" t="s">
+      <c r="M147" s="3" t="s">
         <v>1282</v>
-      </c>
-      <c r="M147" s="3" t="s">
-        <v>1283</v>
       </c>
       <c r="N147" s="3" t="s">
         <v>640</v>
@@ -11573,31 +11628,31 @@
         <v>38</v>
       </c>
       <c r="C148" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>1284</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="E148" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>1286</v>
-      </c>
       <c r="G148" s="3" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H148" s="3" t="s">
         <v>40</v>
       </c>
       <c r="J148" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K148" s="3" t="s">
         <v>1288</v>
       </c>
-      <c r="K148" s="3" t="s">
-        <v>1289</v>
-      </c>
       <c r="L148" s="3" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="170" x14ac:dyDescent="0.2">
@@ -11608,31 +11663,31 @@
         <v>28</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D149" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G149" s="3" t="s">
         <v>1294</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>1518</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>1295</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="N149" s="3" t="s">
         <v>640</v>
@@ -11646,37 +11701,37 @@
         <v>71</v>
       </c>
       <c r="C150" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>1299</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="E150" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="F150" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="G150" s="3" t="s">
         <v>1302</v>
       </c>
-      <c r="G150" s="3" t="s">
+      <c r="H150" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K150" s="3" t="s">
         <v>1303</v>
       </c>
-      <c r="H150" s="3" t="s">
+      <c r="L150" s="3" t="s">
         <v>1306</v>
       </c>
-      <c r="I150" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J150" s="3" t="s">
-        <v>1305</v>
-      </c>
-      <c r="K150" s="3" t="s">
-        <v>1304</v>
-      </c>
-      <c r="L150" s="3" t="s">
+      <c r="M150" s="3" t="s">
         <v>1307</v>
-      </c>
-      <c r="M150" s="3" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -11687,13 +11742,13 @@
         <v>16</v>
       </c>
       <c r="C151" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="E151" s="1" t="s">
         <v>1310</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>1311</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>55</v>
@@ -11702,10 +11757,10 @@
         <v>40</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="N151" s="3" t="s">
         <v>640</v>
@@ -11719,31 +11774,31 @@
         <v>317</v>
       </c>
       <c r="C152" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>1313</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="E152" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="F152" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="G152" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J152" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="G152" s="3" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J152" s="3" t="s">
+      <c r="K152" s="3" t="s">
         <v>1317</v>
       </c>
-      <c r="K152" s="3" t="s">
+      <c r="L152" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="L152" s="3" t="s">
+      <c r="M152" s="3" t="s">
         <v>1319</v>
-      </c>
-      <c r="M152" s="3" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="136" x14ac:dyDescent="0.2">
@@ -11754,37 +11809,37 @@
         <v>28</v>
       </c>
       <c r="C153" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D153" s="3" t="s">
         <v>1321</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="E153" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="F153" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="G153" s="3" t="s">
         <v>1324</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>1325</v>
       </c>
       <c r="H153" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="K153" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="M153" s="8" t="s">
         <v>1326</v>
-      </c>
-      <c r="L153" s="3" t="s">
-        <v>1328</v>
-      </c>
-      <c r="M153" s="8" t="s">
-        <v>1327</v>
       </c>
       <c r="N153" s="3" t="s">
         <v>640</v>
@@ -11798,22 +11853,22 @@
         <v>38</v>
       </c>
       <c r="C154" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D154" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="E154" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="F154" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="H154" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="M154" s="3" t="s">
         <v>1333</v>
-      </c>
-      <c r="H154" s="3" t="s">
-        <v>974</v>
-      </c>
-      <c r="M154" s="3" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -11824,16 +11879,16 @@
         <v>38</v>
       </c>
       <c r="C155" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="M155" s="3" t="s">
         <v>1337</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="M155" s="3" t="s">
-        <v>1338</v>
       </c>
       <c r="N155" s="3" t="s">
         <v>640</v>
@@ -11847,16 +11902,16 @@
         <v>28</v>
       </c>
       <c r="C156" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="E156" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>1341</v>
-      </c>
       <c r="M156" s="3" t="s">
-        <v>1345</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -11867,16 +11922,16 @@
         <v>16</v>
       </c>
       <c r="C157" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>1342</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="E157" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="M157" s="3" t="s">
         <v>1344</v>
-      </c>
-      <c r="M157" s="3" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -11887,16 +11942,16 @@
         <v>317</v>
       </c>
       <c r="C158" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="M158" s="3" t="s">
         <v>1348</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="M158" s="3" t="s">
-        <v>1350</v>
       </c>
       <c r="N158" s="3" t="s">
         <v>640</v>
@@ -11910,31 +11965,31 @@
         <v>28</v>
       </c>
       <c r="C159" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>1351</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>1353</v>
       </c>
       <c r="H159" s="3" t="s">
         <v>495</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="L159" s="3" t="s">
         <v>134</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="N159" s="3" t="s">
         <v>640</v>
@@ -11948,37 +12003,37 @@
         <v>38</v>
       </c>
       <c r="C160" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="F160" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H160" s="3" t="s">
         <v>1358</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>1359</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="G160" s="3" t="s">
+      <c r="I160" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="M160" s="3" t="s">
         <v>1361</v>
-      </c>
-      <c r="H160" s="3" t="s">
-        <v>1360</v>
-      </c>
-      <c r="I160" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J160" s="3" t="s">
-        <v>1362</v>
-      </c>
-      <c r="K160" s="3" t="s">
-        <v>1364</v>
-      </c>
-      <c r="L160" s="3" t="s">
-        <v>1365</v>
-      </c>
-      <c r="M160" s="3" t="s">
-        <v>1363</v>
       </c>
       <c r="N160" s="3" t="s">
         <v>640</v>
@@ -11992,16 +12047,16 @@
         <v>71</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="D161" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>1369</v>
-      </c>
       <c r="M161" s="3" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -12012,22 +12067,22 @@
         <v>38</v>
       </c>
       <c r="C162" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="K162" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="M162" s="3" t="s">
         <v>1372</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="K162" s="3" t="s">
-        <v>1375</v>
-      </c>
-      <c r="L162" s="3" t="s">
-        <v>1376</v>
-      </c>
-      <c r="M162" s="3" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -12038,16 +12093,16 @@
         <v>16</v>
       </c>
       <c r="C163" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="M163" s="3" t="s">
         <v>1421</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>1422</v>
-      </c>
-      <c r="M163" s="3" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -12058,22 +12113,22 @@
         <v>71</v>
       </c>
       <c r="C164" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="G164" s="3" t="s">
         <v>1430</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>1431</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>1432</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>516</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -12084,37 +12139,37 @@
         <v>28</v>
       </c>
       <c r="C165" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>1446</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="F165" s="1" t="s">
         <v>1447</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="G165" s="3" t="s">
         <v>1448</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="H165" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J165" s="3" t="s">
         <v>1449</v>
       </c>
-      <c r="G165" s="3" t="s">
+      <c r="K165" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="L165" s="3" t="s">
         <v>1450</v>
       </c>
-      <c r="H165" s="3" t="s">
-        <v>974</v>
-      </c>
-      <c r="I165" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J165" s="3" t="s">
-        <v>1451</v>
-      </c>
-      <c r="K165" s="3" t="s">
-        <v>1453</v>
-      </c>
-      <c r="L165" s="3" t="s">
+      <c r="M165" s="3" t="s">
         <v>1452</v>
-      </c>
-      <c r="M165" s="3" t="s">
-        <v>1454</v>
       </c>
       <c r="N165" s="3" t="s">
         <v>640</v>
@@ -12128,16 +12183,16 @@
         <v>28</v>
       </c>
       <c r="C166" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="M166" s="3" t="s">
         <v>1461</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>1462</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>1465</v>
-      </c>
-      <c r="M166" s="3" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -12148,22 +12203,22 @@
         <v>71</v>
       </c>
       <c r="C167" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>1500</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="F167" s="1" t="s">
         <v>1501</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="G167" s="3" t="s">
         <v>1502</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="M167" s="3" t="s">
         <v>1503</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>1504</v>
-      </c>
-      <c r="M167" s="3" t="s">
-        <v>1505</v>
       </c>
       <c r="N167" s="3" t="s">
         <v>640</v>
@@ -12177,19 +12232,19 @@
         <v>28</v>
       </c>
       <c r="C168" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="D168" s="3" t="s">
-        <v>1507</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>1508</v>
-      </c>
       <c r="F168" s="1" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>40</v>
@@ -12201,7 +12256,7 @@
         <v>85</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -12212,75 +12267,75 @@
         <v>38</v>
       </c>
       <c r="C169" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="F169" s="1" t="s">
         <v>1510</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>1512</v>
-      </c>
       <c r="G169" s="3" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="H169" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C170" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>1514</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="F170" s="1" t="s">
         <v>1515</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>1517</v>
       </c>
       <c r="H170" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J170" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L170" s="3" t="s">
         <v>1523</v>
       </c>
-      <c r="K170" s="3" t="s">
+      <c r="M170" s="3" t="s">
         <v>1524</v>
-      </c>
-      <c r="L170" s="3" t="s">
-        <v>1525</v>
-      </c>
-      <c r="M170" s="3" t="s">
-        <v>1526</v>
       </c>
       <c r="N170" s="3" t="s">
         <v>640</v>
@@ -12288,63 +12343,63 @@
     </row>
     <row r="171" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>508</v>
       </c>
       <c r="C171" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="M171" s="3" t="s">
         <v>1528</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>1529</v>
-      </c>
-      <c r="M171" s="3" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C172" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>1534</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="F172" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="G172" s="3" t="s">
         <v>1536</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>1537</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>1538</v>
       </c>
       <c r="H172" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J172" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="K172" s="3" t="s">
         <v>1700</v>
       </c>
-      <c r="K172" s="3" t="s">
-        <v>1702</v>
-      </c>
       <c r="L172" s="3" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="M172" s="7" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="N172" s="3" t="s">
         <v>640</v>
@@ -12352,40 +12407,40 @@
     </row>
     <row r="173" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C173" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="D173" s="3" t="s">
-        <v>1541</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>1542</v>
-      </c>
       <c r="G173" s="3" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="H173" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K173" s="3" t="s">
         <v>1580</v>
       </c>
-      <c r="I173" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J173" s="3" t="s">
-        <v>1583</v>
-      </c>
-      <c r="K173" s="3" t="s">
-        <v>1582</v>
-      </c>
       <c r="L173" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="M173" s="3" t="s">
         <v>1579</v>
-      </c>
-      <c r="M173" s="3" t="s">
-        <v>1581</v>
       </c>
       <c r="N173" s="3" t="s">
         <v>640</v>
@@ -12393,71 +12448,77 @@
     </row>
     <row r="174" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C174" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E174" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="F174" s="1" t="s">
         <v>1545</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="G174" s="3" t="s">
         <v>1546</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>1547</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>1548</v>
+      <c r="M174" s="3" t="s">
+        <v>1832</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C175" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="F175" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="G175" s="3" t="s">
         <v>1552</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="G175" s="3" t="s">
-        <v>1554</v>
+      <c r="M175" s="3" t="s">
+        <v>1832</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="N176" s="3" t="s">
         <v>640</v>
@@ -12465,34 +12526,34 @@
     </row>
     <row r="177" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C177" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>1559</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="F177" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="G177" s="3" t="s">
         <v>1561</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>1562</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>1563</v>
-      </c>
       <c r="H177" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="M177" s="3" t="s">
         <v>1635</v>
-      </c>
-      <c r="J177" s="3" t="s">
-        <v>1634</v>
-      </c>
-      <c r="M177" s="3" t="s">
-        <v>1637</v>
       </c>
       <c r="N177" s="3" t="s">
         <v>640</v>
@@ -12500,37 +12561,37 @@
     </row>
     <row r="178" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D178" s="3" t="s">
         <v>1565</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="E178" s="1" t="s">
         <v>1566</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="G178" s="3" t="s">
         <v>1567</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>1568</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>1569</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J178" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="M178" s="3" t="s">
         <v>1614</v>
-      </c>
-      <c r="K178" s="3" t="s">
-        <v>1613</v>
-      </c>
-      <c r="L178" s="3" t="s">
-        <v>1615</v>
-      </c>
-      <c r="M178" s="3" t="s">
-        <v>1616</v>
       </c>
       <c r="N178" s="3" t="s">
         <v>640</v>
@@ -12538,45 +12599,45 @@
     </row>
     <row r="179" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C179" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="F179" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="H179" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J179" s="3" t="s">
         <v>1573</v>
       </c>
-      <c r="F179" s="1" t="s">
+      <c r="K179" s="3" t="s">
         <v>1574</v>
       </c>
-      <c r="H179" s="3" t="s">
-        <v>974</v>
-      </c>
-      <c r="I179" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J179" s="3" t="s">
+      <c r="L179" s="3" t="s">
         <v>1575</v>
       </c>
-      <c r="K179" s="3" t="s">
+      <c r="M179" s="3" t="s">
         <v>1576</v>
-      </c>
-      <c r="L179" s="3" t="s">
-        <v>1577</v>
-      </c>
-      <c r="M179" s="3" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>71</v>
@@ -12590,81 +12651,96 @@
       <c r="E180" s="1" t="s">
         <v>476</v>
       </c>
+      <c r="H180" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="M180" s="3" t="s">
+        <v>1831</v>
+      </c>
     </row>
     <row r="181" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C181" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E181" s="1" t="s">
         <v>1586</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="F181" s="1" t="s">
         <v>1587</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="G181" s="3" t="s">
         <v>1588</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>1589</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>1590</v>
-      </c>
       <c r="I181" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J181" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="L181" s="3" t="s">
         <v>1690</v>
       </c>
-      <c r="K181" s="3" t="s">
+      <c r="M181" s="3" t="s">
         <v>1691</v>
-      </c>
-      <c r="L181" s="3" t="s">
-        <v>1692</v>
-      </c>
-      <c r="M181" s="3" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C182" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>1591</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="E182" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>1593</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>1594</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>1595</v>
       </c>
       <c r="H182" s="3" t="s">
         <v>495</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J182" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="K182" s="3" t="s">
         <v>1625</v>
       </c>
-      <c r="K182" s="3" t="s">
-        <v>1627</v>
-      </c>
       <c r="L182" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="M182" s="3" t="s">
         <v>1626</v>
-      </c>
-      <c r="M182" s="3" t="s">
-        <v>1628</v>
       </c>
       <c r="N182" s="3" t="s">
         <v>640</v>
@@ -12672,43 +12748,43 @@
     </row>
     <row r="183" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C183" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>1597</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="F183" s="1" t="s">
         <v>1598</v>
       </c>
-      <c r="E183" s="1" t="s">
-        <v>1599</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>1600</v>
-      </c>
       <c r="G183" s="3" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="H183" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J183" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="K183" s="3" t="s">
         <v>1677</v>
       </c>
-      <c r="K183" s="3" t="s">
-        <v>1679</v>
-      </c>
       <c r="L183" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="M183" s="3" t="s">
         <v>1678</v>
-      </c>
-      <c r="M183" s="3" t="s">
-        <v>1680</v>
       </c>
       <c r="N183" s="3" t="s">
         <v>640</v>
@@ -12716,43 +12792,43 @@
     </row>
     <row r="184" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C184" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>1602</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="F184" s="1" t="s">
         <v>1603</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>1604</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>1605</v>
-      </c>
       <c r="G184" s="3" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="H184" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="K184" s="3" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="N184" s="3" t="s">
         <v>640</v>
@@ -12760,28 +12836,28 @@
     </row>
     <row r="185" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C185" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="M185" s="3" t="s">
         <v>1607</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>1462</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>1608</v>
-      </c>
-      <c r="K185" s="3" t="s">
-        <v>1611</v>
-      </c>
-      <c r="L185" s="3" t="s">
-        <v>1610</v>
-      </c>
-      <c r="M185" s="3" t="s">
-        <v>1609</v>
       </c>
       <c r="N185" s="3" t="s">
         <v>640</v>
@@ -12789,148 +12865,148 @@
     </row>
     <row r="186" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C186" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>1618</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="F186" s="1" t="s">
         <v>1619</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="G186" s="3" t="s">
         <v>1620</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>1621</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>1622</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J186" s="3" t="s">
         <v>73</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="187" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>317</v>
       </c>
       <c r="C187" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>1631</v>
       </c>
-      <c r="D187" s="3" t="s">
-        <v>1632</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>1633</v>
-      </c>
       <c r="G187" s="3" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="H187" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="188" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>508</v>
       </c>
       <c r="C188" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="D188" s="3" t="s">
-        <v>1640</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>1641</v>
-      </c>
       <c r="I188" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="189" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C189" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>1643</v>
       </c>
-      <c r="D189" s="3" t="s">
-        <v>1644</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>1645</v>
-      </c>
       <c r="G189" s="3" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="H189" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J189" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="K189" s="3" t="s">
         <v>1757</v>
       </c>
-      <c r="K189" s="3" t="s">
-        <v>1759</v>
-      </c>
       <c r="L189" s="3" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="N189" s="3" t="s">
         <v>640</v>
@@ -12938,34 +13014,34 @@
     </row>
     <row r="190" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C190" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>1647</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>1648</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>1649</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J190" s="3" t="s">
+        <v>1664</v>
+      </c>
+      <c r="K190" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="M190" s="3" t="s">
         <v>1666</v>
-      </c>
-      <c r="K190" s="3" t="s">
-        <v>1667</v>
-      </c>
-      <c r="M190" s="3" t="s">
-        <v>1668</v>
       </c>
       <c r="N190" s="3" t="s">
         <v>640</v>
@@ -12973,43 +13049,43 @@
     </row>
     <row r="191" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C191" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="F191" s="1" t="s">
         <v>1652</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>1654</v>
-      </c>
       <c r="G191" s="3" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="H191" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="N191" s="3" t="s">
         <v>640</v>
@@ -13017,125 +13093,131 @@
     </row>
     <row r="192" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C192" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>1657</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="G192" s="3" t="s">
         <v>1658</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>1659</v>
-      </c>
-      <c r="G192" s="3" t="s">
-        <v>1660</v>
+      <c r="M192" s="3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="N192" s="3" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="193" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>317</v>
       </c>
       <c r="C193" s="3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>1672</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="F193" s="1" t="s">
         <v>1673</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>1674</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>1675</v>
-      </c>
       <c r="G193" s="3" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="H193" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="K193" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="L193" s="3" t="s">
+        <v>1760</v>
+      </c>
+      <c r="M193" s="3" t="s">
         <v>1761</v>
-      </c>
-      <c r="L193" s="3" t="s">
-        <v>1762</v>
-      </c>
-      <c r="M193" s="3" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="194" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C194" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>1682</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="F194" s="1" t="s">
         <v>1683</v>
       </c>
-      <c r="E194" s="1" t="s">
+      <c r="G194" s="3" t="s">
         <v>1684</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>1686</v>
       </c>
       <c r="H194" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="195" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C195" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E195" s="1" t="s">
         <v>1695</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>1696</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>1697</v>
       </c>
       <c r="F195" s="1"/>
       <c r="M195" s="3" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="N195" s="3" t="s">
         <v>640</v>
@@ -13143,37 +13225,37 @@
     </row>
     <row r="196" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C196" s="3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="F196" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="G196" s="3" t="s">
         <v>1706</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>1708</v>
       </c>
       <c r="H196" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J196" s="3" t="s">
         <v>375</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="N196" s="3" t="s">
         <v>640</v>
@@ -13181,43 +13263,43 @@
     </row>
     <row r="197" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C197" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>1710</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="F197" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="E197" s="1" t="s">
-        <v>1712</v>
-      </c>
-      <c r="F197" s="1" t="s">
+      <c r="G197" s="3" t="s">
         <v>1713</v>
-      </c>
-      <c r="G197" s="3" t="s">
-        <v>1715</v>
       </c>
       <c r="H197" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J197" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="K197" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="L197" s="3" t="s">
         <v>1716</v>
       </c>
-      <c r="K197" s="3" t="s">
+      <c r="M197" s="3" t="s">
         <v>1717</v>
-      </c>
-      <c r="L197" s="3" t="s">
-        <v>1718</v>
-      </c>
-      <c r="M197" s="3" t="s">
-        <v>1719</v>
       </c>
       <c r="N197" s="3" t="s">
         <v>640</v>
@@ -13225,226 +13307,250 @@
     </row>
     <row r="198" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C198" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>1726</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="F198" s="1" t="s">
         <v>1727</v>
       </c>
-      <c r="E198" s="1" t="s">
+      <c r="G198" s="3" t="s">
         <v>1728</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G198" s="3" t="s">
-        <v>1730</v>
       </c>
       <c r="H198" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J198" s="3" t="s">
+        <v>1730</v>
+      </c>
+      <c r="K198" s="3" t="s">
         <v>1732</v>
       </c>
-      <c r="K198" s="3" t="s">
-        <v>1734</v>
-      </c>
       <c r="L198" s="3" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="H199" s="3" t="s">
         <v>495</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J199" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="K199" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="M199" s="3" t="s">
         <v>1741</v>
-      </c>
-      <c r="K199" s="3" t="s">
-        <v>1742</v>
-      </c>
-      <c r="M199" s="3" t="s">
-        <v>1743</v>
       </c>
     </row>
     <row r="200" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C200" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E200" s="1" t="s">
         <v>1745</v>
       </c>
-      <c r="D200" s="3" t="s">
-        <v>1746</v>
-      </c>
-      <c r="E200" s="1" t="s">
+      <c r="F200" s="1" t="s">
         <v>1747</v>
       </c>
-      <c r="F200" s="1" t="s">
+      <c r="G200" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="H200" s="3" t="s">
         <v>1749</v>
       </c>
-      <c r="G200" s="3" t="s">
+      <c r="I200" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="K200" s="3" t="s">
         <v>1750</v>
       </c>
-      <c r="H200" s="3" t="s">
-        <v>1751</v>
-      </c>
-      <c r="I200" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J200" s="3" t="s">
-        <v>1753</v>
-      </c>
-      <c r="K200" s="3" t="s">
+      <c r="L200" s="3" t="s">
         <v>1752</v>
       </c>
-      <c r="L200" s="3" t="s">
-        <v>1754</v>
-      </c>
       <c r="M200" s="3" t="s">
-        <v>1764</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="201" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1776</v>
+        <v>1773</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J201" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="K201" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="L201" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="M201" s="3" t="s">
+        <v>1814</v>
+      </c>
+      <c r="N201" s="3" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="202" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>317</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="203" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="D203" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G203" s="3" t="s">
         <v>1784</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>1785</v>
-      </c>
-      <c r="G203" s="3" t="s">
-        <v>1787</v>
       </c>
       <c r="H203" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="K203" s="3" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="204" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C204" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F204" s="1" t="s">
         <v>1791</v>
       </c>
-      <c r="D204" s="3" t="s">
+      <c r="G204" s="3" t="s">
         <v>1792</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>1794</v>
-      </c>
-      <c r="G204" s="3" t="s">
-        <v>1795</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>495</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="K204" s="3" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="L204" s="3" t="s">
         <v>55</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="N204" s="3" t="s">
         <v>640</v>
@@ -13452,63 +13558,78 @@
     </row>
     <row r="205" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B205" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E205" s="1" t="s">
         <v>1797</v>
       </c>
-      <c r="C205" s="3" t="s">
-        <v>1796</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>1799</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>1800</v>
-      </c>
       <c r="G205" s="3" t="s">
-        <v>1807</v>
+        <v>1804</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="L205" s="3" t="s">
+        <v>878</v>
       </c>
       <c r="M205" s="3" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="206" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C206" s="3" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J206" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="L206" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="M206" s="3" t="s">
         <v>1802</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>1803</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>1804</v>
-      </c>
-      <c r="G206" s="3" t="s">
-        <v>1806</v>
-      </c>
-      <c r="H206" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="I206" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J206" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="K206" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="L206" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="M206" s="3" t="s">
-        <v>1805</v>
       </c>
       <c r="N206" s="3" t="s">
         <v>640</v>
@@ -13516,22 +13637,92 @@
     </row>
     <row r="207" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C207" s="3" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="M207" s="3" t="s">
         <v>1810</v>
       </c>
-      <c r="D207" s="3" t="s">
-        <v>1812</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="M207" s="3" t="s">
-        <v>1813</v>
+    </row>
+    <row r="208" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A208" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>1822</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M208" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="N208" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="J209" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="K209" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="L209" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="M209" s="3" t="s">
+        <v>1833</v>
       </c>
     </row>
   </sheetData>
@@ -13857,6 +14048,9 @@
     <hyperlink ref="E205" r:id="rId315" xr:uid="{2BC17AB9-F52C-5A48-875C-5920A8ACB0EA}"/>
     <hyperlink ref="E206" r:id="rId316" xr:uid="{FE47C1EF-2477-A54A-97FE-D13FCE63D4C5}"/>
     <hyperlink ref="E207" r:id="rId317" xr:uid="{43A08E32-39A8-9B42-AFD0-0BBBF1454F3B}"/>
+    <hyperlink ref="E208" r:id="rId318" xr:uid="{A67675B5-50BF-054F-85AA-CE49DD09D05C}"/>
+    <hyperlink ref="F208" r:id="rId319" xr:uid="{A3069929-30AA-734F-B6A2-309A0E36FDCF}"/>
+    <hyperlink ref="E209" r:id="rId320" xr:uid="{CEB657D1-0A3E-1F46-8FFA-645247356189}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -13903,123 +14097,123 @@
   <sheetData>
     <row r="1" spans="1:38" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1409</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1408</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1403</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1384</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>1398</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>1404</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>1399</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>1391</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>1413</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>1412</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>1396</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>1377</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>1425</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>1400</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="W1" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>1378</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>1388</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>1387</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>1379</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>1386</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>1380</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>1385</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>1389</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>1407</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>1390</v>
-      </c>
       <c r="AK1" s="2" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B2">
         <v>168</v>
@@ -14052,13 +14246,13 @@
         <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="M2">
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="O2">
         <v>20</v>
@@ -14082,13 +14276,13 @@
         <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="W2">
         <v>22</v>
       </c>
       <c r="X2" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="Y2">
         <v>44</v>
@@ -14100,13 +14294,13 @@
         <v>43</v>
       </c>
       <c r="AB2" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="AC2">
         <v>46</v>
       </c>
       <c r="AD2" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="AE2">
         <v>161</v>
@@ -14135,7 +14329,7 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B3">
         <v>189</v>
@@ -14171,7 +14365,7 @@
         <v>126</v>
       </c>
       <c r="N3" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="O3">
         <v>9</v>
@@ -14195,13 +14389,13 @@
         <v>44</v>
       </c>
       <c r="V3" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="W3">
         <v>9</v>
       </c>
       <c r="X3" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="Y3">
         <v>24</v>
@@ -14248,7 +14442,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C4">
         <v>54</v>
@@ -14275,7 +14469,7 @@
         <v>153</v>
       </c>
       <c r="N4" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="O4">
         <v>101</v>
@@ -14287,7 +14481,7 @@
         <v>78</v>
       </c>
       <c r="R4" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="S4">
         <v>155</v>
@@ -14299,13 +14493,13 @@
         <v>164</v>
       </c>
       <c r="V4" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="W4">
         <v>116</v>
       </c>
       <c r="X4" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="Y4">
         <v>9</v>
@@ -14347,12 +14541,12 @@
         <v>35</v>
       </c>
       <c r="AL4" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -14373,7 +14567,7 @@
         <v>96</v>
       </c>
       <c r="N5" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="O5">
         <v>109</v>
@@ -14385,7 +14579,7 @@
         <v>10</v>
       </c>
       <c r="R5" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="S5">
         <v>149</v>
@@ -14400,10 +14594,10 @@
         <v>164</v>
       </c>
       <c r="X5" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="Y5" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="Z5">
         <v>49</v>
@@ -14421,7 +14615,7 @@
         <v>33</v>
       </c>
       <c r="AE5" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="AG5">
         <v>45</v>
@@ -14441,7 +14635,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="H6">
         <v>33</v>
@@ -14456,7 +14650,7 @@
         <v>162</v>
       </c>
       <c r="L6" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="N6">
         <v>38</v>
@@ -14471,7 +14665,7 @@
         <v>145</v>
       </c>
       <c r="R6" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="S6">
         <v>136</v>
@@ -14519,12 +14713,12 @@
         <v>41</v>
       </c>
       <c r="AL6" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -14598,7 +14792,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="H8">
         <v>108</v>
@@ -14625,7 +14819,7 @@
         <v>131</v>
       </c>
       <c r="R8" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="T8">
         <v>40</v>
@@ -14634,13 +14828,13 @@
         <v>7</v>
       </c>
       <c r="W8" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="Y8">
         <v>25</v>
       </c>
       <c r="AA8" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="AB8">
         <v>147</v>
@@ -14669,7 +14863,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="H9">
         <v>61</v>
@@ -14702,7 +14896,7 @@
         <v>2</v>
       </c>
       <c r="W9" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="Y9">
         <v>144</v>
@@ -14720,7 +14914,7 @@
         <v>9</v>
       </c>
       <c r="AE9" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="AG9">
         <v>101</v>
@@ -14734,13 +14928,13 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H10">
         <v>181</v>
       </c>
       <c r="I10" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="K10">
         <v>93</v>
@@ -14749,7 +14943,7 @@
         <v>142</v>
       </c>
       <c r="N10" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="O10">
         <v>84</v>
@@ -14770,7 +14964,7 @@
         <v>150</v>
       </c>
       <c r="Y10" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="AA10">
         <v>55</v>
@@ -14799,7 +14993,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="I11">
         <v>190</v>
@@ -14847,7 +15041,7 @@
         <v>103</v>
       </c>
       <c r="AE11" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="AG11">
         <v>164</v>
@@ -14861,7 +15055,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="K12">
         <v>102</v>
@@ -14897,7 +15091,7 @@
         <v>62</v>
       </c>
       <c r="AC12" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="AD12">
         <v>109</v>
@@ -14914,7 +15108,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="K13">
         <v>104</v>
@@ -14964,7 +15158,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="K14">
         <v>105</v>
@@ -15011,13 +15205,13 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="K15">
         <v>111</v>
       </c>
       <c r="N15" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="O15">
         <v>11</v>
@@ -15032,7 +15226,7 @@
         <v>12</v>
       </c>
       <c r="Y15" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="AA15">
         <v>13</v>
@@ -15058,13 +15252,13 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="K16">
         <v>173</v>
       </c>
       <c r="N16" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="O16">
         <v>22</v>
@@ -15102,13 +15296,13 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="K17">
         <v>189</v>
       </c>
       <c r="N17" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="O17">
         <v>158</v>
@@ -15123,7 +15317,7 @@
         <v>105</v>
       </c>
       <c r="Y17" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="AA17">
         <v>1</v>
@@ -15146,7 +15340,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="N18">
         <v>92</v>
@@ -15161,7 +15355,7 @@
         <v>106</v>
       </c>
       <c r="Y18" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="AA18">
         <v>140</v>
@@ -15219,7 +15413,7 @@
         <v>53</v>
       </c>
       <c r="O20" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="P20">
         <v>6</v>
@@ -15289,10 +15483,10 @@
         <v>51</v>
       </c>
       <c r="W22" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="Y22" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="AA22">
         <v>159</v>
@@ -15301,7 +15495,7 @@
         <v>21</v>
       </c>
       <c r="AD22" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="AG22">
         <v>149</v>
@@ -15318,7 +15512,7 @@
         <v>131</v>
       </c>
       <c r="P23" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="W23">
         <v>122</v>
@@ -15376,7 +15570,7 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="N25" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="O25">
         <v>75</v>
@@ -15385,7 +15579,7 @@
         <v>150</v>
       </c>
       <c r="Y25" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="AA25">
         <v>144</v>
@@ -15405,7 +15599,7 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="N26" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="O26">
         <v>12</v>
@@ -15414,13 +15608,13 @@
         <v>149</v>
       </c>
       <c r="Y26" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="AA26">
         <v>56</v>
       </c>
       <c r="AC26" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="AD26">
         <v>11</v>
@@ -15440,10 +15634,10 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="Y27" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="AA27">
         <v>142</v>
@@ -15587,7 +15781,7 @@
     </row>
     <row r="33" spans="14:33" x14ac:dyDescent="0.2">
       <c r="N33" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="O33">
         <v>189</v>
@@ -15648,7 +15842,7 @@
         <v>4</v>
       </c>
       <c r="AD35" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="AG35">
         <v>185</v>
@@ -15833,7 +16027,7 @@
         <v>62</v>
       </c>
       <c r="AC45" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="AD45">
         <v>2</v>
@@ -15906,7 +16100,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="AA50">
         <v>87</v>
@@ -15931,7 +16125,7 @@
     </row>
     <row r="52" spans="14:30" x14ac:dyDescent="0.2">
       <c r="N52" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="P52">
         <v>124</v>
@@ -16022,7 +16216,7 @@
     </row>
     <row r="60" spans="14:30" x14ac:dyDescent="0.2">
       <c r="AD60" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="61" spans="14:30" x14ac:dyDescent="0.2">

--- a/VAE_literature.xlsx
+++ b/VAE_literature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewvowels/Desktop/PhD/Awesome-VAEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D517074-D8D0-664E-99A4-4A6835F5951A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787C81E3-70EA-3E40-A8AB-CDB57174C43D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="28400" windowHeight="11200" xr2:uid="{E4269A26-9BAE-F54F-8C24-CC08A7F9F2AA}"/>
+    <workbookView xWindow="1220" yWindow="7480" windowWidth="28400" windowHeight="9520" xr2:uid="{E4269A26-9BAE-F54F-8C24-CC08A7F9F2AA}"/>
   </bookViews>
   <sheets>
     <sheet name="by paper" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="2128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="2180">
   <si>
     <t>Title</t>
   </si>
@@ -3744,9 +3744,6 @@
     <t>Achille, Eccles, Matthey, Burgess, Watters, Lerchner,  Higgins</t>
   </si>
   <si>
-    <t>file:///Users/matthewvowels/Downloads/Life-Long_Disentangled_Representation_Learning_wit.pdf</t>
-  </si>
-  <si>
     <t>unsupervised cross domain</t>
   </si>
   <si>
@@ -6439,6 +6436,165 @@
   </si>
   <si>
     <t>vmf-VAE, Lagging-VAE, non-diag-VAE, VAE, LSTM-LM</t>
+  </si>
+  <si>
+    <t>VAD (variational auto-decoder)</t>
+  </si>
+  <si>
+    <t>A seemingly obvious idea to do away with the encoder and simply infer the latent space directly from the target. They demonstrate that this method is particularly effective for inpainting and achieves a good LL (they measure as MSE). Limited evaluation - is the latent space useful? etc.</t>
+  </si>
+  <si>
+    <t>FashionMNIST, Toy Synthetic, Menpo Facial landmark, CMU-MOSEI</t>
+  </si>
+  <si>
+    <t>MSE, MSE missing/incomplete, inpainting samples</t>
+  </si>
+  <si>
+    <t>https://github.com/M-Nauta/TCDF</t>
+  </si>
+  <si>
+    <t>DCGAN, VAE, beta-VAE,</t>
+  </si>
+  <si>
+    <t>clustering,  'influence map clustering'</t>
+  </si>
+  <si>
+    <t>They take a causal perspective to look at disentanglement of VAEs and GANs but don't just consider the latent variables but the endogenous variables of subsequent layers too. The paper is quite theoretic but may provide useful resource relating causality to disentanglement. They propose the 'influece map clustering' metric.</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>Varitional attention using articulatory priors for generating code mixed speech using monolingual corpora</t>
+  </si>
+  <si>
+    <t>Rallabandi, Black</t>
+  </si>
+  <si>
+    <t>https://www.isca-speech.org/archive/Interspeech_2019/pdfs/1103.pdf</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>One-class collaborative filtering with the queryable variational autoencoder</t>
+  </si>
+  <si>
+    <t>Wu, Bouadjenek, Sanner</t>
+  </si>
+  <si>
+    <t>https://people.eng.unimelb.edu.au/mbouadjenek/papers/SIGIR_Short_2019.pdf</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>Predictive auxiliary variational autoencoder for representation learning of global speech characteristics</t>
+  </si>
+  <si>
+    <t>Springenberg, Lakomkin, Weber, Wermter</t>
+  </si>
+  <si>
+    <t>https://www.isca-speech.org/archive/Interspeech_2019/pdfs/2845.pdf</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>One-shot voice conversion with disentangled representations by leveraging phonetic posteriograms</t>
+  </si>
+  <si>
+    <t>https://www.isca-speech.org/archive/Interspeech_2019/pdfs/1798.pdf</t>
+  </si>
+  <si>
+    <t>Mohammadi, Kim</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>Mutual information neural estimation</t>
+  </si>
+  <si>
+    <t>Belghazi, Baratin, Rajeswar, Ozair, Bengio, Hjelm</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1801.04062.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/sungyubkim/MINE-Mutual-Information-Neural-Estimation- https://github.com/mzgubic/MINE</t>
+  </si>
+  <si>
+    <t>Important work showing how (using dualities) we can compute a practical estimate of mutual information via sampling.</t>
+  </si>
+  <si>
+    <t>Stacked MNIST, synthetic</t>
+  </si>
+  <si>
+    <t>MINE</t>
+  </si>
+  <si>
+    <t>GAN, ALI, ALICE, VEEGAN, PasGAN, DCGAN</t>
+  </si>
+  <si>
+    <t>Samples, modes , KL</t>
+  </si>
+  <si>
+    <t>Bottleneck VAE, Annealed VAE, DIPVAE, betaTCVAE, beta VAE, FactorVAE</t>
+  </si>
+  <si>
+    <t>FactorVAE metric, SAP score, DCI, IRS, MIG</t>
+  </si>
+  <si>
+    <t>https://www.aicrowd.com/challenges/neurips-2019-disentanglement-challenge#further-rules</t>
+  </si>
+  <si>
+    <t>A strange paper showing some results for disentanglement of a number of models using the various disentanglement metrics. Note the link for the neurips disentanglement challenge!</t>
+  </si>
+  <si>
+    <t>CHALLENGE!</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Explorations in homeomorphic variational auto-encoding</t>
+  </si>
+  <si>
+    <t>Falorsi, de Haan, Davidson, Cao, Weiler, Forre, Cohen</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1807.04689.pdf</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>On variational lower bounds of mutual information</t>
+  </si>
+  <si>
+    <t>Poole, Ozair, van den Oord, Alemi, Tucker</t>
+  </si>
+  <si>
+    <t>http://bayesiandeeplearning.org/2018/papers/136.pdf</t>
+  </si>
+  <si>
+    <t>A strange paper that seems to summarise a algorithm entered for the disentanglement challenge. He metnions the usefulness of a spherical prior in light of rotations that wrap.</t>
+  </si>
+  <si>
+    <t>https://github.com/pimdh/lie-vae</t>
+  </si>
+  <si>
+    <t>Lie-VAE (VAEs for Lie symmetry groups)</t>
+  </si>
+  <si>
+    <t>synthetic</t>
+  </si>
+  <si>
+    <t>They develop a posterior family capable of representing Lie symmetry groups (e.g. rotation), motivated by the fact that rotations are wrapped and cannot therefore be represented using the usual normal distributions.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1808.06508.pdf</t>
   </si>
 </sst>
 </file>
@@ -6859,10 +7015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8920E9C9-067C-A145-84FD-2821C51037F0}">
-  <dimension ref="A1:O257"/>
+  <dimension ref="A1:O264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="75" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="C253" sqref="C253:E257"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="110" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="C264" sqref="C264:E264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6886,7 +7042,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -6965,7 +7121,7 @@
         <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>638</v>
@@ -7455,7 +7611,7 @@
         <v>13</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -7534,7 +7690,7 @@
         <v>114</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>638</v>
@@ -7607,7 +7763,7 @@
         <v>129</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>638</v>
@@ -8261,7 +8417,7 @@
         <v>425</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -8676,7 +8832,7 @@
         <v>524</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>638</v>
@@ -9070,7 +9226,7 @@
         <v>16</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>608</v>
@@ -9208,7 +9364,7 @@
         <v>635</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>638</v>
@@ -9234,7 +9390,7 @@
         <v>642</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>638</v>
@@ -9380,7 +9536,7 @@
         <v>669</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>670</v>
@@ -9652,7 +9808,7 @@
         <v>20</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="N71" s="3" t="s">
         <v>638</v>
@@ -9816,7 +9972,7 @@
         <v>745</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="N75" s="3" t="s">
         <v>638</v>
@@ -10465,7 +10621,7 @@
         <v>869</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -10506,7 +10662,7 @@
         <v>55</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="N93" s="3" t="s">
         <v>638</v>
@@ -11779,7 +11935,7 @@
         <v>875</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -11931,7 +12087,7 @@
         <v>1163</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="N132" s="3" t="s">
         <v>638</v>
@@ -12107,7 +12263,7 @@
         <v>1202</v>
       </c>
       <c r="M136" s="7" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="N136" s="3" t="s">
         <v>638</v>
@@ -12264,25 +12420,25 @@
         <v>1228</v>
       </c>
       <c r="E141" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H141" s="3" t="s">
         <v>1229</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>1231</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>1230</v>
       </c>
       <c r="I141" s="3" t="s">
         <v>875</v>
       </c>
       <c r="J141" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="L141" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="L141" s="3" t="s">
+      <c r="M141" s="3" t="s">
         <v>1233</v>
-      </c>
-      <c r="M141" s="3" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -12293,25 +12449,25 @@
         <v>16</v>
       </c>
       <c r="C142" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="E142" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="F142" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>1238</v>
-      </c>
       <c r="H142" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I142" s="3" t="s">
         <v>875</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="N142" s="3" t="s">
         <v>638</v>
@@ -12325,34 +12481,34 @@
         <v>28</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D143" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H143" s="3" t="s">
         <v>1246</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>1247</v>
       </c>
       <c r="I143" s="3" t="s">
         <v>875</v>
       </c>
       <c r="J143" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="K143" s="3" t="s">
         <v>1248</v>
-      </c>
-      <c r="K143" s="3" t="s">
-        <v>1249</v>
       </c>
       <c r="L143" s="3" t="s">
         <v>13</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -12363,34 +12519,34 @@
         <v>28</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D144" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="G144" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H144" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="I144" s="3" t="s">
         <v>875</v>
       </c>
       <c r="J144" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K144" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="K144" s="3" t="s">
+      <c r="L144" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="L144" s="3" t="s">
+      <c r="M144" s="3" t="s">
         <v>1257</v>
-      </c>
-      <c r="M144" s="3" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="170" x14ac:dyDescent="0.2">
@@ -12401,16 +12557,16 @@
         <v>28</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="G145" s="3" t="s">
         <v>1262</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>1263</v>
       </c>
       <c r="H145" s="3" t="s">
         <v>40</v>
@@ -12419,16 +12575,16 @@
         <v>875</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="N145" s="3" t="s">
         <v>638</v>
@@ -12442,19 +12598,19 @@
         <v>28</v>
       </c>
       <c r="C146" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E146" s="1" t="s">
+      <c r="G146" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="M146" s="3" t="s">
         <v>1268</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="M146" s="3" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -12465,34 +12621,34 @@
         <v>16</v>
       </c>
       <c r="C147" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="E147" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="G147" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H147" s="3" t="s">
         <v>1272</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>1274</v>
-      </c>
-      <c r="H147" s="3" t="s">
-        <v>1273</v>
       </c>
       <c r="I147" s="3" t="s">
         <v>875</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="K147" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="L147" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="L147" s="3" t="s">
+      <c r="M147" s="3" t="s">
         <v>1278</v>
-      </c>
-      <c r="M147" s="3" t="s">
-        <v>1279</v>
       </c>
       <c r="N147" s="3" t="s">
         <v>638</v>
@@ -12506,31 +12662,31 @@
         <v>38</v>
       </c>
       <c r="C148" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="E148" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>1282</v>
-      </c>
       <c r="G148" s="3" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H148" s="3" t="s">
         <v>40</v>
       </c>
       <c r="J148" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K148" s="3" t="s">
         <v>1284</v>
       </c>
-      <c r="K148" s="3" t="s">
-        <v>1285</v>
-      </c>
       <c r="L148" s="3" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="170" x14ac:dyDescent="0.2">
@@ -12541,16 +12697,16 @@
         <v>28</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D149" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G149" s="3" t="s">
         <v>1290</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>1513</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>1291</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>40</v>
@@ -12559,13 +12715,13 @@
         <v>875</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="N149" s="3" t="s">
         <v>638</v>
@@ -12579,37 +12735,37 @@
         <v>71</v>
       </c>
       <c r="C150" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="E150" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="F150" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="G150" s="3" t="s">
         <v>1298</v>
       </c>
-      <c r="G150" s="3" t="s">
-        <v>1299</v>
-      </c>
       <c r="H150" s="3" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I150" s="3" t="s">
         <v>875</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="L150" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="M150" s="3" t="s">
         <v>1303</v>
-      </c>
-      <c r="M150" s="3" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -12620,13 +12776,13 @@
         <v>16</v>
       </c>
       <c r="C151" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>1305</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="E151" s="1" t="s">
         <v>1306</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>1307</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>55</v>
@@ -12638,7 +12794,7 @@
         <v>875</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="N151" s="3" t="s">
         <v>638</v>
@@ -12652,31 +12808,31 @@
         <v>316</v>
       </c>
       <c r="C152" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="E152" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="F152" s="1" t="s">
         <v>1311</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>1312</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>1071</v>
       </c>
       <c r="J152" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="K152" s="3" t="s">
         <v>1313</v>
       </c>
-      <c r="K152" s="3" t="s">
+      <c r="L152" s="3" t="s">
         <v>1314</v>
       </c>
-      <c r="L152" s="3" t="s">
+      <c r="M152" s="3" t="s">
         <v>1315</v>
-      </c>
-      <c r="M152" s="3" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="136" x14ac:dyDescent="0.2">
@@ -12687,19 +12843,19 @@
         <v>28</v>
       </c>
       <c r="C153" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D153" s="3" t="s">
         <v>1317</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="E153" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="F153" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="G153" s="3" t="s">
         <v>1320</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>1321</v>
       </c>
       <c r="H153" s="3" t="s">
         <v>40</v>
@@ -12708,16 +12864,16 @@
         <v>875</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="K153" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="M153" s="8" t="s">
         <v>1322</v>
-      </c>
-      <c r="L153" s="3" t="s">
-        <v>1324</v>
-      </c>
-      <c r="M153" s="8" t="s">
-        <v>1323</v>
       </c>
       <c r="N153" s="3" t="s">
         <v>638</v>
@@ -12731,22 +12887,22 @@
         <v>38</v>
       </c>
       <c r="C154" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D154" s="3" t="s">
         <v>1326</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="E154" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="F154" s="1" t="s">
         <v>1328</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>1329</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>970</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -12757,16 +12913,16 @@
         <v>38</v>
       </c>
       <c r="C155" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="M155" s="3" t="s">
         <v>1333</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="M155" s="3" t="s">
-        <v>1334</v>
       </c>
       <c r="N155" s="3" t="s">
         <v>638</v>
@@ -12780,16 +12936,16 @@
         <v>28</v>
       </c>
       <c r="C156" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="E156" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>1337</v>
-      </c>
       <c r="M156" s="3" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -12800,16 +12956,16 @@
         <v>16</v>
       </c>
       <c r="C157" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>1338</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="E157" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="M157" s="3" t="s">
         <v>1340</v>
-      </c>
-      <c r="M157" s="3" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -12820,16 +12976,16 @@
         <v>316</v>
       </c>
       <c r="C158" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>1342</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="E158" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="M158" s="3" t="s">
         <v>1344</v>
-      </c>
-      <c r="M158" s="3" t="s">
-        <v>1345</v>
       </c>
       <c r="N158" s="3" t="s">
         <v>638</v>
@@ -12843,13 +12999,13 @@
         <v>28</v>
       </c>
       <c r="C159" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D159" s="3" t="s">
         <v>1346</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="E159" s="1" t="s">
         <v>1347</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>1348</v>
       </c>
       <c r="H159" s="3" t="s">
         <v>493</v>
@@ -12858,16 +13014,16 @@
         <v>875</v>
       </c>
       <c r="J159" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="K159" s="3" t="s">
         <v>1349</v>
-      </c>
-      <c r="K159" s="3" t="s">
-        <v>1350</v>
       </c>
       <c r="L159" s="3" t="s">
         <v>134</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="N159" s="3" t="s">
         <v>638</v>
@@ -12881,37 +13037,37 @@
         <v>38</v>
       </c>
       <c r="C160" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D160" s="3" t="s">
         <v>1352</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="E160" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="F160" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H160" s="3" t="s">
         <v>1354</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="H160" s="3" t="s">
-        <v>1355</v>
       </c>
       <c r="I160" s="3" t="s">
         <v>875</v>
       </c>
       <c r="J160" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="M160" s="3" t="s">
         <v>1357</v>
-      </c>
-      <c r="K160" s="3" t="s">
-        <v>1359</v>
-      </c>
-      <c r="L160" s="3" t="s">
-        <v>1360</v>
-      </c>
-      <c r="M160" s="3" t="s">
-        <v>1358</v>
       </c>
       <c r="N160" s="3" t="s">
         <v>638</v>
@@ -12925,16 +13081,16 @@
         <v>71</v>
       </c>
       <c r="C161" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D161" s="3" t="s">
         <v>1361</v>
       </c>
-      <c r="D161" s="3" t="s">
-        <v>1362</v>
-      </c>
       <c r="E161" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="M161" s="3" t="s">
         <v>1364</v>
-      </c>
-      <c r="M161" s="3" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -12945,22 +13101,22 @@
         <v>38</v>
       </c>
       <c r="C162" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D162" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="E162" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="K162" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="M162" s="3" t="s">
         <v>1368</v>
-      </c>
-      <c r="K162" s="3" t="s">
-        <v>1370</v>
-      </c>
-      <c r="L162" s="3" t="s">
-        <v>1371</v>
-      </c>
-      <c r="M162" s="3" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -12971,16 +13127,16 @@
         <v>16</v>
       </c>
       <c r="C163" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D163" s="3" t="s">
         <v>1415</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="E163" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="M163" s="3" t="s">
         <v>1417</v>
-      </c>
-      <c r="M163" s="3" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -12991,22 +13147,22 @@
         <v>71</v>
       </c>
       <c r="C164" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>1424</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="E164" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="G164" s="3" t="s">
         <v>1426</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>1427</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>514</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -13017,19 +13173,19 @@
         <v>28</v>
       </c>
       <c r="C165" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D165" s="3" t="s">
         <v>1441</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="E165" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="F165" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="G165" s="3" t="s">
         <v>1444</v>
-      </c>
-      <c r="G165" s="3" t="s">
-        <v>1445</v>
       </c>
       <c r="H165" s="3" t="s">
         <v>970</v>
@@ -13038,16 +13194,16 @@
         <v>875</v>
       </c>
       <c r="J165" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="L165" s="3" t="s">
         <v>1446</v>
       </c>
-      <c r="K165" s="3" t="s">
+      <c r="M165" s="3" t="s">
         <v>1448</v>
-      </c>
-      <c r="L165" s="3" t="s">
-        <v>1447</v>
-      </c>
-      <c r="M165" s="3" t="s">
-        <v>1449</v>
       </c>
       <c r="N165" s="3" t="s">
         <v>638</v>
@@ -13061,16 +13217,16 @@
         <v>28</v>
       </c>
       <c r="C166" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D166" s="3" t="s">
         <v>1456</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="E166" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="M166" s="3" t="s">
         <v>1457</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>1460</v>
-      </c>
-      <c r="M166" s="3" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -13081,22 +13237,22 @@
         <v>71</v>
       </c>
       <c r="C167" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D167" s="3" t="s">
         <v>1495</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="E167" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="F167" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="G167" s="3" t="s">
         <v>1498</v>
       </c>
-      <c r="G167" s="3" t="s">
+      <c r="M167" s="3" t="s">
         <v>1499</v>
-      </c>
-      <c r="M167" s="3" t="s">
-        <v>1500</v>
       </c>
       <c r="N167" s="3" t="s">
         <v>638</v>
@@ -13110,19 +13266,19 @@
         <v>28</v>
       </c>
       <c r="C168" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D168" s="3" t="s">
         <v>1501</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="E168" s="1" t="s">
         <v>1502</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>1503</v>
-      </c>
       <c r="F168" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G168" s="3" t="s">
         <v>1664</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>1665</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>40</v>
@@ -13134,7 +13290,7 @@
         <v>85</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -13145,19 +13301,19 @@
         <v>38</v>
       </c>
       <c r="C169" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D169" s="3" t="s">
         <v>1504</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="E169" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="F169" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>1507</v>
-      </c>
       <c r="G169" s="3" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H169" s="3" t="s">
         <v>40</v>
@@ -13166,36 +13322,36 @@
         <v>875</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C170" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D170" s="3" t="s">
         <v>1509</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="E170" s="1" t="s">
         <v>1510</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>1511</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>1512</v>
       </c>
       <c r="H170" s="3" t="s">
         <v>40</v>
@@ -13204,16 +13360,16 @@
         <v>875</v>
       </c>
       <c r="J170" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="K170" s="3" t="s">
         <v>1518</v>
       </c>
-      <c r="K170" s="3" t="s">
+      <c r="L170" s="3" t="s">
         <v>1519</v>
       </c>
-      <c r="L170" s="3" t="s">
+      <c r="M170" s="3" t="s">
         <v>1520</v>
-      </c>
-      <c r="M170" s="3" t="s">
-        <v>1521</v>
       </c>
       <c r="N170" s="3" t="s">
         <v>638</v>
@@ -13221,45 +13377,45 @@
     </row>
     <row r="171" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>506</v>
       </c>
       <c r="C171" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D171" s="3" t="s">
         <v>1522</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="E171" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="M171" s="3" t="s">
         <v>1524</v>
-      </c>
-      <c r="M171" s="3" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C172" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D172" s="3" t="s">
         <v>1529</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="E172" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="F172" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="G172" s="3" t="s">
         <v>1532</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>1533</v>
       </c>
       <c r="H172" s="3" t="s">
         <v>40</v>
@@ -13268,16 +13424,16 @@
         <v>875</v>
       </c>
       <c r="J172" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L172" s="3" t="s">
         <v>1695</v>
       </c>
-      <c r="K172" s="3" t="s">
-        <v>1697</v>
-      </c>
-      <c r="L172" s="3" t="s">
-        <v>1696</v>
-      </c>
       <c r="M172" s="7" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="N172" s="3" t="s">
         <v>638</v>
@@ -13285,40 +13441,40 @@
     </row>
     <row r="173" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C173" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D173" s="3" t="s">
         <v>1535</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="E173" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>1537</v>
-      </c>
       <c r="G173" s="3" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="I173" s="3" t="s">
         <v>875</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="N173" s="3" t="s">
         <v>638</v>
@@ -13326,77 +13482,77 @@
     </row>
     <row r="174" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C174" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D174" s="3" t="s">
         <v>1539</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="E174" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="F174" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="F174" s="1" t="s">
+      <c r="G174" s="3" t="s">
         <v>1542</v>
       </c>
-      <c r="G174" s="3" t="s">
-        <v>1543</v>
-      </c>
       <c r="M174" s="3" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C175" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D175" s="3" t="s">
         <v>1545</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="E175" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="F175" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="F175" s="1" t="s">
+      <c r="G175" s="3" t="s">
         <v>1548</v>
       </c>
-      <c r="G175" s="3" t="s">
-        <v>1549</v>
-      </c>
       <c r="M175" s="3" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C176" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>1551</v>
       </c>
-      <c r="D176" s="3" t="s">
-        <v>1552</v>
-      </c>
       <c r="E176" s="1" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="N176" s="3" t="s">
         <v>638</v>
@@ -13404,34 +13560,34 @@
     </row>
     <row r="177" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C177" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D177" s="3" t="s">
         <v>1554</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="E177" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="F177" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="G177" s="3" t="s">
         <v>1557</v>
       </c>
-      <c r="G177" s="3" t="s">
-        <v>1558</v>
-      </c>
       <c r="H177" s="3" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="N177" s="3" t="s">
         <v>638</v>
@@ -13439,19 +13595,19 @@
     </row>
     <row r="178" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>1560</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="D178" s="3" t="s">
         <v>1561</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="E178" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="G178" s="3" t="s">
         <v>1563</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>1564</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>40</v>
@@ -13460,16 +13616,16 @@
         <v>875</v>
       </c>
       <c r="J178" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="L178" s="3" t="s">
         <v>1609</v>
       </c>
-      <c r="K178" s="3" t="s">
-        <v>1608</v>
-      </c>
-      <c r="L178" s="3" t="s">
+      <c r="M178" s="3" t="s">
         <v>1610</v>
-      </c>
-      <c r="M178" s="3" t="s">
-        <v>1611</v>
       </c>
       <c r="N178" s="3" t="s">
         <v>638</v>
@@ -13477,22 +13633,22 @@
     </row>
     <row r="179" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C179" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>1566</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="E179" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="F179" s="1" t="s">
         <v>1568</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>1569</v>
       </c>
       <c r="H179" s="3" t="s">
         <v>970</v>
@@ -13501,21 +13657,21 @@
         <v>875</v>
       </c>
       <c r="J179" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K179" s="3" t="s">
         <v>1570</v>
       </c>
-      <c r="K179" s="3" t="s">
+      <c r="L179" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="L179" s="3" t="s">
+      <c r="M179" s="3" t="s">
         <v>1572</v>
-      </c>
-      <c r="M179" s="3" t="s">
-        <v>1573</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>71</v>
@@ -13539,68 +13695,68 @@
         <v>91</v>
       </c>
       <c r="K180" s="3" t="s">
+        <v>1826</v>
+      </c>
+      <c r="M180" s="3" t="s">
         <v>1827</v>
-      </c>
-      <c r="M180" s="3" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="181" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C181" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D181" s="3" t="s">
         <v>1581</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="E181" s="1" t="s">
         <v>1582</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="F181" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="F181" s="1" t="s">
+      <c r="G181" s="3" t="s">
         <v>1584</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>1585</v>
       </c>
       <c r="I181" s="3" t="s">
         <v>875</v>
       </c>
       <c r="J181" s="3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="K181" s="3" t="s">
         <v>1685</v>
       </c>
-      <c r="K181" s="3" t="s">
+      <c r="L181" s="3" t="s">
         <v>1686</v>
       </c>
-      <c r="L181" s="3" t="s">
+      <c r="M181" s="3" t="s">
         <v>1687</v>
-      </c>
-      <c r="M181" s="3" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D182" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>1588</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="F182" s="1" t="s">
         <v>1589</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>1590</v>
       </c>
       <c r="H182" s="3" t="s">
         <v>493</v>
@@ -13609,16 +13765,16 @@
         <v>875</v>
       </c>
       <c r="J182" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L182" s="3" t="s">
         <v>1620</v>
       </c>
-      <c r="K182" s="3" t="s">
+      <c r="M182" s="3" t="s">
         <v>1622</v>
-      </c>
-      <c r="L182" s="3" t="s">
-        <v>1621</v>
-      </c>
-      <c r="M182" s="3" t="s">
-        <v>1623</v>
       </c>
       <c r="N182" s="3" t="s">
         <v>638</v>
@@ -13626,25 +13782,25 @@
     </row>
     <row r="183" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C183" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>1592</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="E183" s="1" t="s">
         <v>1593</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="F183" s="1" t="s">
         <v>1594</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>1595</v>
-      </c>
       <c r="G183" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H183" s="3" t="s">
         <v>40</v>
@@ -13653,16 +13809,16 @@
         <v>875</v>
       </c>
       <c r="J183" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="L183" s="3" t="s">
         <v>1672</v>
       </c>
-      <c r="K183" s="3" t="s">
+      <c r="M183" s="3" t="s">
         <v>1674</v>
-      </c>
-      <c r="L183" s="3" t="s">
-        <v>1673</v>
-      </c>
-      <c r="M183" s="3" t="s">
-        <v>1675</v>
       </c>
       <c r="N183" s="3" t="s">
         <v>638</v>
@@ -13670,25 +13826,25 @@
     </row>
     <row r="184" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C184" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D184" s="3" t="s">
         <v>1597</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="E184" s="1" t="s">
         <v>1598</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="F184" s="1" t="s">
         <v>1599</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>1600</v>
-      </c>
       <c r="G184" s="3" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H184" s="3" t="s">
         <v>40</v>
@@ -13697,16 +13853,16 @@
         <v>875</v>
       </c>
       <c r="J184" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="L184" s="3" t="s">
         <v>1715</v>
       </c>
-      <c r="K184" s="3" t="s">
+      <c r="M184" s="3" t="s">
         <v>1718</v>
-      </c>
-      <c r="L184" s="3" t="s">
-        <v>1716</v>
-      </c>
-      <c r="M184" s="3" t="s">
-        <v>1719</v>
       </c>
       <c r="N184" s="3" t="s">
         <v>638</v>
@@ -13714,28 +13870,28 @@
     </row>
     <row r="185" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C185" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>1602</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>1457</v>
-      </c>
-      <c r="E185" s="1" t="s">
+      <c r="K185" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="M185" s="3" t="s">
         <v>1603</v>
-      </c>
-      <c r="K185" s="3" t="s">
-        <v>1606</v>
-      </c>
-      <c r="L185" s="3" t="s">
-        <v>1605</v>
-      </c>
-      <c r="M185" s="3" t="s">
-        <v>1604</v>
       </c>
       <c r="N185" s="3" t="s">
         <v>638</v>
@@ -13743,25 +13899,25 @@
     </row>
     <row r="186" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C186" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>1613</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="E186" s="1" t="s">
         <v>1614</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="F186" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="F186" s="1" t="s">
+      <c r="G186" s="3" t="s">
         <v>1616</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>1617</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>40</v>
@@ -13773,33 +13929,33 @@
         <v>73</v>
       </c>
       <c r="K186" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="M186" s="3" t="s">
         <v>1618</v>
-      </c>
-      <c r="L186" s="3" t="s">
-        <v>1605</v>
-      </c>
-      <c r="M186" s="3" t="s">
-        <v>1619</v>
       </c>
     </row>
     <row r="187" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C187" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D187" s="3" t="s">
         <v>1626</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="E187" s="1" t="s">
         <v>1627</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>1628</v>
-      </c>
       <c r="G187" s="3" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="H187" s="3" t="s">
         <v>40</v>
@@ -13808,65 +13964,65 @@
         <v>875</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="188" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>506</v>
       </c>
       <c r="C188" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D188" s="3" t="s">
         <v>1634</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="E188" s="1" t="s">
         <v>1635</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>1636</v>
       </c>
       <c r="I188" s="3" t="s">
         <v>875</v>
       </c>
       <c r="J188" s="3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M188" s="3" t="s">
         <v>1657</v>
-      </c>
-      <c r="K188" s="3" t="s">
-        <v>1408</v>
-      </c>
-      <c r="M188" s="3" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="189" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C189" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D189" s="3" t="s">
         <v>1638</v>
       </c>
-      <c r="D189" s="3" t="s">
+      <c r="E189" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>1640</v>
-      </c>
       <c r="G189" s="3" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H189" s="3" t="s">
         <v>40</v>
@@ -13875,16 +14031,16 @@
         <v>875</v>
       </c>
       <c r="J189" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="L189" s="3" t="s">
         <v>1752</v>
       </c>
-      <c r="K189" s="3" t="s">
-        <v>1754</v>
-      </c>
-      <c r="L189" s="3" t="s">
-        <v>1753</v>
-      </c>
       <c r="M189" s="3" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="N189" s="3" t="s">
         <v>638</v>
@@ -13892,19 +14048,19 @@
     </row>
     <row r="190" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C190" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D190" s="3" t="s">
         <v>1642</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="E190" s="1" t="s">
         <v>1643</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>1644</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>40</v>
@@ -13913,13 +14069,13 @@
         <v>875</v>
       </c>
       <c r="J190" s="3" t="s">
+        <v>1660</v>
+      </c>
+      <c r="K190" s="3" t="s">
         <v>1661</v>
       </c>
-      <c r="K190" s="3" t="s">
+      <c r="M190" s="3" t="s">
         <v>1662</v>
-      </c>
-      <c r="M190" s="3" t="s">
-        <v>1663</v>
       </c>
       <c r="N190" s="3" t="s">
         <v>638</v>
@@ -13927,25 +14083,25 @@
     </row>
     <row r="191" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C191" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D191" s="3" t="s">
         <v>1646</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="E191" s="1" t="s">
         <v>1647</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="F191" s="1" t="s">
         <v>1648</v>
       </c>
-      <c r="F191" s="1" t="s">
-        <v>1649</v>
-      </c>
       <c r="G191" s="3" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="H191" s="3" t="s">
         <v>40</v>
@@ -13954,16 +14110,16 @@
         <v>875</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="K191" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="L191" s="3" t="s">
         <v>1764</v>
       </c>
-      <c r="L191" s="3" t="s">
-        <v>1765</v>
-      </c>
       <c r="M191" s="3" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="N191" s="3" t="s">
         <v>638</v>
@@ -13971,28 +14127,28 @@
     </row>
     <row r="192" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C192" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D192" s="3" t="s">
         <v>1652</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="E192" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="F192" s="1" t="s">
+      <c r="G192" s="3" t="s">
         <v>1654</v>
       </c>
-      <c r="G192" s="3" t="s">
-        <v>1655</v>
-      </c>
       <c r="M192" s="3" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="N192" s="3" t="s">
         <v>638</v>
@@ -14000,25 +14156,25 @@
     </row>
     <row r="193" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C193" s="3" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D193" s="3" t="s">
         <v>1667</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="E193" s="1" t="s">
         <v>1668</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="F193" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="F193" s="1" t="s">
-        <v>1670</v>
-      </c>
       <c r="G193" s="3" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H193" s="3" t="s">
         <v>40</v>
@@ -14030,36 +14186,36 @@
         <v>1154</v>
       </c>
       <c r="K193" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="L193" s="3" t="s">
         <v>1756</v>
       </c>
-      <c r="L193" s="3" t="s">
+      <c r="M193" s="3" t="s">
         <v>1757</v>
-      </c>
-      <c r="M193" s="3" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="194" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C194" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D194" s="3" t="s">
         <v>1677</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="E194" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="E194" s="1" t="s">
+      <c r="F194" s="1" t="s">
         <v>1679</v>
       </c>
-      <c r="F194" s="1" t="s">
+      <c r="G194" s="3" t="s">
         <v>1680</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>1681</v>
       </c>
       <c r="H194" s="3" t="s">
         <v>40</v>
@@ -14068,34 +14224,34 @@
         <v>875</v>
       </c>
       <c r="J194" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K194" s="3" t="s">
         <v>1683</v>
       </c>
-      <c r="K194" s="3" t="s">
-        <v>1684</v>
-      </c>
       <c r="M194" s="3" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="195" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C195" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D195" s="3" t="s">
         <v>1690</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="E195" s="1" t="s">
         <v>1691</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>1692</v>
       </c>
       <c r="F195" s="1"/>
       <c r="M195" s="3" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="N195" s="3" t="s">
         <v>638</v>
@@ -14103,25 +14259,25 @@
     </row>
     <row r="196" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C196" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D196" s="3" t="s">
         <v>1699</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="E196" s="1" t="s">
         <v>1700</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="F196" s="1" t="s">
         <v>1701</v>
       </c>
-      <c r="F196" s="1" t="s">
+      <c r="G196" s="3" t="s">
         <v>1702</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>1703</v>
       </c>
       <c r="H196" s="3" t="s">
         <v>40</v>
@@ -14133,7 +14289,7 @@
         <v>374</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="N196" s="3" t="s">
         <v>638</v>
@@ -14141,25 +14297,25 @@
     </row>
     <row r="197" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C197" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D197" s="3" t="s">
         <v>1705</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="E197" s="1" t="s">
         <v>1706</v>
       </c>
-      <c r="E197" s="1" t="s">
+      <c r="F197" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="F197" s="1" t="s">
-        <v>1708</v>
-      </c>
       <c r="G197" s="3" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H197" s="3" t="s">
         <v>40</v>
@@ -14168,16 +14324,16 @@
         <v>875</v>
       </c>
       <c r="J197" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="K197" s="3" t="s">
         <v>1711</v>
       </c>
-      <c r="K197" s="3" t="s">
+      <c r="L197" s="3" t="s">
         <v>1712</v>
       </c>
-      <c r="L197" s="3" t="s">
+      <c r="M197" s="3" t="s">
         <v>1713</v>
-      </c>
-      <c r="M197" s="3" t="s">
-        <v>1714</v>
       </c>
       <c r="N197" s="3" t="s">
         <v>638</v>
@@ -14185,25 +14341,25 @@
     </row>
     <row r="198" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C198" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D198" s="3" t="s">
         <v>1721</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="E198" s="1" t="s">
         <v>1722</v>
       </c>
-      <c r="E198" s="1" t="s">
+      <c r="F198" s="1" t="s">
         <v>1723</v>
       </c>
-      <c r="F198" s="1" t="s">
+      <c r="G198" s="3" t="s">
         <v>1724</v>
-      </c>
-      <c r="G198" s="3" t="s">
-        <v>1725</v>
       </c>
       <c r="H198" s="3" t="s">
         <v>40</v>
@@ -14212,33 +14368,33 @@
         <v>875</v>
       </c>
       <c r="J198" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="L198" s="3" t="s">
         <v>1727</v>
       </c>
-      <c r="K198" s="3" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L198" s="3" t="s">
-        <v>1728</v>
-      </c>
       <c r="M198" s="3" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="H199" s="3" t="s">
         <v>493</v>
@@ -14247,74 +14403,74 @@
         <v>875</v>
       </c>
       <c r="J199" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="K199" s="3" t="s">
         <v>1736</v>
       </c>
-      <c r="K199" s="3" t="s">
+      <c r="M199" s="3" t="s">
         <v>1737</v>
-      </c>
-      <c r="M199" s="3" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="200" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C200" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D200" s="3" t="s">
         <v>1740</v>
       </c>
-      <c r="D200" s="3" t="s">
+      <c r="E200" s="1" t="s">
         <v>1741</v>
       </c>
-      <c r="E200" s="1" t="s">
-        <v>1742</v>
-      </c>
       <c r="F200" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="G200" s="3" t="s">
         <v>1744</v>
       </c>
-      <c r="G200" s="3" t="s">
+      <c r="H200" s="3" t="s">
         <v>1745</v>
-      </c>
-      <c r="H200" s="3" t="s">
-        <v>1746</v>
       </c>
       <c r="I200" s="3" t="s">
         <v>875</v>
       </c>
       <c r="J200" s="3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="L200" s="3" t="s">
         <v>1748</v>
       </c>
-      <c r="K200" s="3" t="s">
-        <v>1747</v>
-      </c>
-      <c r="L200" s="3" t="s">
-        <v>1749</v>
-      </c>
       <c r="M200" s="3" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="201" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C201" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D201" s="3" t="s">
         <v>1768</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="E201" s="1" t="s">
         <v>1769</v>
       </c>
-      <c r="E201" s="1" t="s">
-        <v>1770</v>
-      </c>
       <c r="G201" s="3" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="H201" s="3" t="s">
         <v>40</v>
@@ -14332,7 +14488,7 @@
         <v>875</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="N201" s="3" t="s">
         <v>638</v>
@@ -14340,39 +14496,39 @@
     </row>
     <row r="202" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C202" s="3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D202" s="3" t="s">
         <v>1773</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="E202" s="1" t="s">
         <v>1774</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="203" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C203" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D203" s="3" t="s">
         <v>1777</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="E203" s="1" t="s">
         <v>1778</v>
       </c>
-      <c r="E203" s="1" t="s">
-        <v>1779</v>
-      </c>
       <c r="G203" s="3" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="H203" s="3" t="s">
         <v>40</v>
@@ -14381,36 +14537,36 @@
         <v>875</v>
       </c>
       <c r="J203" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="K203" s="3" t="s">
         <v>1782</v>
       </c>
-      <c r="K203" s="3" t="s">
-        <v>1783</v>
-      </c>
       <c r="M203" s="3" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="204" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C204" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D204" s="3" t="s">
         <v>1785</v>
       </c>
-      <c r="D204" s="3" t="s">
+      <c r="E204" s="1" t="s">
         <v>1786</v>
       </c>
-      <c r="E204" s="1" t="s">
+      <c r="F204" s="1" t="s">
         <v>1787</v>
       </c>
-      <c r="F204" s="1" t="s">
+      <c r="G204" s="3" t="s">
         <v>1788</v>
-      </c>
-      <c r="G204" s="3" t="s">
-        <v>1789</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>493</v>
@@ -14419,16 +14575,16 @@
         <v>875</v>
       </c>
       <c r="J204" s="3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="K204" s="3" t="s">
         <v>1809</v>
-      </c>
-      <c r="K204" s="3" t="s">
-        <v>1810</v>
       </c>
       <c r="L204" s="3" t="s">
         <v>55</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="N204" s="3" t="s">
         <v>638</v>
@@ -14436,22 +14592,22 @@
     </row>
     <row r="205" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>1792</v>
       </c>
-      <c r="B205" s="3" t="s">
-        <v>1791</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D205" s="3" t="s">
+      <c r="E205" s="1" t="s">
         <v>1793</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>1794</v>
-      </c>
       <c r="G205" s="3" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="H205" s="3" t="s">
         <v>875</v>
@@ -14469,27 +14625,27 @@
         <v>875</v>
       </c>
       <c r="M205" s="3" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="206" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C206" s="3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D206" s="3" t="s">
         <v>1796</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="E206" s="1" t="s">
         <v>1797</v>
       </c>
-      <c r="E206" s="1" t="s">
-        <v>1798</v>
-      </c>
       <c r="G206" s="3" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="H206" s="3" t="s">
         <v>875</v>
@@ -14507,7 +14663,7 @@
         <v>875</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="N206" s="3" t="s">
         <v>638</v>
@@ -14515,51 +14671,51 @@
     </row>
     <row r="207" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D207" s="3" t="s">
+        <v>1805</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="M207" s="3" t="s">
         <v>1806</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>1803</v>
-      </c>
-      <c r="M207" s="3" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="208" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C208" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D208" s="3" t="s">
         <v>1814</v>
       </c>
-      <c r="D208" s="3" t="s">
-        <v>1815</v>
-      </c>
       <c r="E208" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>1817</v>
       </c>
-      <c r="F208" s="1" t="s">
+      <c r="G208" s="3" t="s">
         <v>1818</v>
-      </c>
-      <c r="G208" s="3" t="s">
-        <v>1819</v>
       </c>
       <c r="H208" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="N208" s="3" t="s">
         <v>638</v>
@@ -14567,19 +14723,19 @@
     </row>
     <row r="209" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C209" s="3" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D209" s="3" t="s">
         <v>1821</v>
       </c>
-      <c r="D209" s="3" t="s">
+      <c r="E209" s="1" t="s">
         <v>1822</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>1823</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>875</v>
@@ -14600,30 +14756,30 @@
         <v>875</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="210" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C210" s="3" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D210" s="3" t="s">
         <v>1833</v>
       </c>
-      <c r="D210" s="3" t="s">
+      <c r="E210" s="1" t="s">
         <v>1834</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="F210" s="1" t="s">
         <v>1835</v>
       </c>
-      <c r="F210" s="1" t="s">
-        <v>1836</v>
-      </c>
       <c r="G210" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="H210" s="3" t="s">
         <v>545</v>
@@ -14632,16 +14788,16 @@
         <v>875</v>
       </c>
       <c r="J210" s="3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="K210" s="3" t="s">
         <v>1851</v>
       </c>
-      <c r="K210" s="3" t="s">
+      <c r="L210" s="3" t="s">
         <v>1852</v>
       </c>
-      <c r="L210" s="3" t="s">
-        <v>1853</v>
-      </c>
       <c r="M210" s="3" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="N210" s="3" t="s">
         <v>638</v>
@@ -14649,85 +14805,85 @@
     </row>
     <row r="211" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C211" s="3" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D211" s="3" t="s">
         <v>1838</v>
       </c>
-      <c r="D211" s="3" t="s">
+      <c r="E211" s="1" t="s">
         <v>1839</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>1840</v>
       </c>
     </row>
     <row r="212" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C212" s="3" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D212" s="3" t="s">
         <v>1842</v>
       </c>
-      <c r="D212" s="3" t="s">
+      <c r="E212" s="1" t="s">
         <v>1843</v>
       </c>
-      <c r="E212" s="1" t="s">
-        <v>1844</v>
-      </c>
       <c r="G212" s="3" t="s">
+        <v>1928</v>
+      </c>
+      <c r="M212" s="3" t="s">
         <v>1929</v>
-      </c>
-      <c r="M212" s="3" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="213" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C213" s="3" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D213" s="3" t="s">
         <v>1846</v>
       </c>
-      <c r="D213" s="3" t="s">
+      <c r="E213" s="1" t="s">
         <v>1847</v>
       </c>
-      <c r="E213" s="1" t="s">
-        <v>1848</v>
-      </c>
       <c r="G213" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="M213" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="214" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C214" s="3" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D214" s="3" t="s">
         <v>1855</v>
       </c>
-      <c r="D214" s="3" t="s">
-        <v>1856</v>
-      </c>
       <c r="E214" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>875</v>
@@ -14739,13 +14895,13 @@
         <v>73</v>
       </c>
       <c r="K214" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="L214" s="3" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="N214" s="3" t="s">
         <v>638</v>
@@ -14753,48 +14909,48 @@
     </row>
     <row r="215" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C215" s="3" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D215" s="3" t="s">
         <v>1859</v>
       </c>
-      <c r="D215" s="3" t="s">
+      <c r="E215" s="1" t="s">
         <v>1860</v>
       </c>
-      <c r="E215" s="1" t="s">
-        <v>1861</v>
-      </c>
       <c r="G215" s="3" t="s">
+        <v>2093</v>
+      </c>
+      <c r="H215" s="3" t="s">
         <v>2094</v>
-      </c>
-      <c r="H215" s="3" t="s">
-        <v>2095</v>
       </c>
       <c r="I215" s="3" t="s">
         <v>875</v>
       </c>
       <c r="M215" s="3" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="216" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C216" s="3" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D216" s="3" t="s">
         <v>1863</v>
       </c>
-      <c r="D216" s="3" t="s">
+      <c r="E216" s="1" t="s">
         <v>1864</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>1865</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>875</v>
@@ -14806,13 +14962,13 @@
         <v>875</v>
       </c>
       <c r="J216" s="3" t="s">
+        <v>1866</v>
+      </c>
+      <c r="K216" s="3" t="s">
         <v>1867</v>
       </c>
-      <c r="K216" s="3" t="s">
-        <v>1868</v>
-      </c>
       <c r="M216" s="3" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="N216" s="3" t="s">
         <v>638</v>
@@ -14820,28 +14976,28 @@
     </row>
     <row r="217" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C217" s="3" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D217" s="3" t="s">
         <v>1870</v>
       </c>
-      <c r="D217" s="3" t="s">
+      <c r="E217" s="1" t="s">
         <v>1871</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="F217" s="1" t="s">
         <v>1872</v>
       </c>
-      <c r="F217" s="1" t="s">
+      <c r="G217" s="3" t="s">
         <v>1873</v>
       </c>
-      <c r="G217" s="3" t="s">
+      <c r="H217" s="3" t="s">
         <v>1874</v>
-      </c>
-      <c r="H217" s="3" t="s">
-        <v>1875</v>
       </c>
       <c r="I217" s="3" t="s">
         <v>875</v>
@@ -14856,7 +15012,7 @@
         <v>875</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="N217" s="3" t="s">
         <v>638</v>
@@ -14864,22 +15020,22 @@
     </row>
     <row r="218" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C218" s="3" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D218" s="3" t="s">
         <v>1882</v>
       </c>
-      <c r="D218" s="3" t="s">
+      <c r="E218" s="1" t="s">
         <v>1883</v>
       </c>
-      <c r="E218" s="1" t="s">
-        <v>1884</v>
-      </c>
       <c r="G218" s="3" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="I218" s="3" t="s">
         <v>875</v>
@@ -14888,30 +15044,30 @@
         <v>73</v>
       </c>
       <c r="K218" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="219" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C219" s="3" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D219" s="3" t="s">
         <v>1889</v>
       </c>
-      <c r="D219" s="3" t="s">
+      <c r="E219" s="1" t="s">
         <v>1890</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="M219" s="3" t="s">
         <v>1891</v>
-      </c>
-      <c r="M219" s="3" t="s">
-        <v>1892</v>
       </c>
       <c r="N219" s="3" t="s">
         <v>638</v>
@@ -14919,28 +15075,28 @@
     </row>
     <row r="220" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C220" s="3" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D220" s="3" t="s">
         <v>1897</v>
       </c>
-      <c r="D220" s="3" t="s">
+      <c r="E220" s="1" t="s">
         <v>1898</v>
       </c>
-      <c r="E220" s="1" t="s">
+      <c r="F220" s="1" t="s">
         <v>1899</v>
       </c>
-      <c r="F220" s="1" t="s">
+      <c r="G220" s="3" t="s">
         <v>1900</v>
       </c>
-      <c r="G220" s="3" t="s">
+      <c r="M220" s="3" t="s">
         <v>1901</v>
-      </c>
-      <c r="M220" s="3" t="s">
-        <v>1902</v>
       </c>
       <c r="N220" s="3" t="s">
         <v>638</v>
@@ -14948,28 +15104,28 @@
     </row>
     <row r="221" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C221" s="3" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D221" s="3" t="s">
         <v>1904</v>
       </c>
-      <c r="D221" s="3" t="s">
+      <c r="E221" s="1" t="s">
         <v>1905</v>
       </c>
-      <c r="E221" s="1" t="s">
+      <c r="F221" s="1" t="s">
         <v>1906</v>
       </c>
-      <c r="F221" s="1" t="s">
+      <c r="G221" s="3" t="s">
         <v>1907</v>
       </c>
-      <c r="G221" s="3" t="s">
+      <c r="M221" s="3" t="s">
         <v>1908</v>
-      </c>
-      <c r="M221" s="3" t="s">
-        <v>1909</v>
       </c>
       <c r="N221" s="3" t="s">
         <v>638</v>
@@ -14977,22 +15133,22 @@
     </row>
     <row r="222" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C222" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D222" s="3" t="s">
         <v>1911</v>
       </c>
-      <c r="D222" s="3" t="s">
+      <c r="E222" s="1" t="s">
         <v>1912</v>
       </c>
-      <c r="E222" s="1" t="s">
-        <v>1913</v>
-      </c>
       <c r="M222" s="3" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="N222" s="3" t="s">
         <v>638</v>
@@ -15000,71 +15156,71 @@
     </row>
     <row r="223" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C223" s="3" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D223" s="3" t="s">
         <v>1915</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="E223" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>1917</v>
       </c>
     </row>
     <row r="224" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C224" s="3" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D224" s="3" t="s">
         <v>1919</v>
       </c>
-      <c r="D224" s="3" t="s">
+      <c r="E224" s="1" t="s">
         <v>1920</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>1921</v>
       </c>
       <c r="I224" s="3" t="s">
         <v>875</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="K224" s="3" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="M224" s="3" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="225" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C225" s="3" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E225" s="1" t="s">
         <v>1923</v>
       </c>
-      <c r="D225" s="3" t="s">
+      <c r="F225" s="1" t="s">
         <v>1925</v>
       </c>
-      <c r="E225" s="1" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F225" s="1" t="s">
+      <c r="G225" s="3" t="s">
         <v>1926</v>
-      </c>
-      <c r="G225" s="3" t="s">
-        <v>1927</v>
       </c>
       <c r="I225" s="3" t="s">
         <v>875</v>
@@ -15072,43 +15228,43 @@
     </row>
     <row r="226" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C226" s="3" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D226" s="3" t="s">
         <v>1932</v>
       </c>
-      <c r="D226" s="3" t="s">
+      <c r="E226" s="1" t="s">
         <v>1933</v>
       </c>
-      <c r="E226" s="1" t="s">
+      <c r="F226" s="4" t="s">
+        <v>1936</v>
+      </c>
+      <c r="G226" s="3" t="s">
         <v>1934</v>
       </c>
-      <c r="F226" s="4" t="s">
-        <v>1937</v>
-      </c>
-      <c r="G226" s="3" t="s">
-        <v>1935</v>
-      </c>
       <c r="H226" s="3" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="I226" s="3" t="s">
         <v>875</v>
       </c>
       <c r="J226" s="3" t="s">
+        <v>1939</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>1938</v>
+      </c>
+      <c r="L226" s="3" t="s">
         <v>1940</v>
       </c>
-      <c r="K226" s="3" t="s">
-        <v>1939</v>
-      </c>
-      <c r="L226" s="3" t="s">
-        <v>1941</v>
-      </c>
       <c r="M226" s="3" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="N226" s="3" t="s">
         <v>638</v>
@@ -15116,48 +15272,48 @@
     </row>
     <row r="227" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C227" s="3" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D227" s="3" t="s">
         <v>1947</v>
       </c>
-      <c r="D227" s="3" t="s">
+      <c r="E227" s="1" t="s">
         <v>1948</v>
       </c>
-      <c r="E227" s="1" t="s">
-        <v>1949</v>
-      </c>
       <c r="G227" s="3" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="M227" s="3" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="228" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C228" s="3" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>2081</v>
+      </c>
+      <c r="E228" s="1" t="s">
         <v>1951</v>
       </c>
-      <c r="D228" s="3" t="s">
-        <v>2082</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>1952</v>
-      </c>
       <c r="F228" s="1" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="H228" s="3" t="s">
         <v>40</v>
@@ -15169,13 +15325,13 @@
         <v>73</v>
       </c>
       <c r="K228" s="3" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="L228" s="3" t="s">
         <v>55</v>
       </c>
       <c r="M228" s="3" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="N228" s="3" t="s">
         <v>638</v>
@@ -15183,25 +15339,25 @@
     </row>
     <row r="229" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C229" s="3" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D229" s="3" t="s">
         <v>1953</v>
       </c>
-      <c r="D229" s="3" t="s">
+      <c r="E229" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F229" s="1" t="s">
         <v>1954</v>
       </c>
-      <c r="E229" s="1" t="s">
-        <v>1956</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>1955</v>
-      </c>
       <c r="G229" s="3" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="H229" s="3" t="s">
         <v>40</v>
@@ -15210,73 +15366,73 @@
         <v>875</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="K229" s="3" t="s">
+        <v>2054</v>
+      </c>
+      <c r="L229" s="3" t="s">
         <v>2055</v>
       </c>
-      <c r="L229" s="3" t="s">
+      <c r="M229" s="3" t="s">
         <v>2056</v>
-      </c>
-      <c r="M229" s="3" t="s">
-        <v>2057</v>
       </c>
     </row>
     <row r="230" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C230" s="3" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D230" s="3" t="s">
         <v>1962</v>
       </c>
-      <c r="D230" s="3" t="s">
+      <c r="E230" s="1" t="s">
         <v>1963</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>1964</v>
       </c>
     </row>
     <row r="231" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>473</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="M231" s="3" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="232" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C232" s="3" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D232" s="3" t="s">
         <v>1969</v>
       </c>
-      <c r="D232" s="3" t="s">
+      <c r="E232" s="1" t="s">
         <v>1970</v>
       </c>
-      <c r="E232" s="1" t="s">
-        <v>1971</v>
-      </c>
       <c r="G232" s="3" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="H232" s="3" t="s">
         <v>40</v>
@@ -15285,39 +15441,39 @@
         <v>875</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="K232" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="L232" s="3" t="s">
+        <v>2013</v>
+      </c>
+      <c r="M232" s="3" t="s">
         <v>2012</v>
-      </c>
-      <c r="L232" s="3" t="s">
-        <v>2014</v>
-      </c>
-      <c r="M232" s="3" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="233" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C233" s="3" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E233" s="1" t="s">
         <v>1973</v>
       </c>
-      <c r="D233" s="3" t="s">
-        <v>1975</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>1974</v>
-      </c>
       <c r="G233" s="3" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="I233" s="3" t="s">
         <v>875</v>
@@ -15326,13 +15482,13 @@
         <v>550</v>
       </c>
       <c r="K233" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="L233" s="3" t="s">
+        <v>2038</v>
+      </c>
+      <c r="M233" s="3" t="s">
         <v>2039</v>
-      </c>
-      <c r="M233" s="3" t="s">
-        <v>2040</v>
       </c>
       <c r="N233" s="3" t="s">
         <v>638</v>
@@ -15340,22 +15496,22 @@
     </row>
     <row r="234" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C234" s="3" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D234" s="3" t="s">
         <v>1977</v>
       </c>
-      <c r="D234" s="3" t="s">
+      <c r="E234" s="1" t="s">
         <v>1978</v>
       </c>
-      <c r="E234" s="1" t="s">
-        <v>1979</v>
-      </c>
       <c r="G234" s="3" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="H234" s="3" t="s">
         <v>40</v>
@@ -15364,56 +15520,80 @@
         <v>875</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L234" s="3" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="M234" s="3" t="s">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="235" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C235" s="3" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E235" s="1" t="s">
         <v>1980</v>
       </c>
-      <c r="D235" s="3" t="s">
-        <v>1982</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>1981</v>
+      <c r="G235" s="3" t="s">
+        <v>2127</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="K235" s="3" t="s">
+        <v>2130</v>
+      </c>
+      <c r="L235" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M235" s="3" t="s">
+        <v>2128</v>
+      </c>
+      <c r="N235" s="3" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="236" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C236" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D236" s="3" t="s">
         <v>1986</v>
       </c>
-      <c r="D236" s="3" t="s">
+      <c r="E236" s="1" t="s">
         <v>1987</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>1988</v>
       </c>
       <c r="I236" s="3" t="s">
         <v>875</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="M236" s="3" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="N236" s="3" t="s">
         <v>638</v>
@@ -15421,181 +15601,235 @@
     </row>
     <row r="237" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C237" s="3" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D237" s="3" t="s">
         <v>1990</v>
       </c>
-      <c r="D237" s="3" t="s">
+      <c r="E237" s="3" t="s">
         <v>1991</v>
       </c>
-      <c r="E237" s="3" t="s">
-        <v>1992</v>
+      <c r="F237" s="1" t="s">
+        <v>2131</v>
       </c>
     </row>
     <row r="238" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C238" s="3" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D238" s="3" t="s">
         <v>1994</v>
       </c>
-      <c r="D238" s="3" t="s">
+      <c r="E238" s="1" t="s">
         <v>1995</v>
       </c>
-      <c r="E238" s="1" t="s">
-        <v>1996</v>
+      <c r="H238" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="K238" s="3" t="s">
+        <v>2133</v>
+      </c>
+      <c r="L238" s="3" t="s">
+        <v>2132</v>
+      </c>
+      <c r="M238" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="N238" s="3" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="239" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D239" s="3" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="M239" s="3" t="s">
         <v>2002</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>2005</v>
-      </c>
-      <c r="M239" s="3" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="240" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C240" s="3" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D240" s="3" t="s">
         <v>2000</v>
       </c>
-      <c r="D240" s="3" t="s">
-        <v>2001</v>
-      </c>
       <c r="E240" s="1" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="M240" s="3" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="241" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C241" s="3" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D241" s="3" t="s">
         <v>2018</v>
       </c>
-      <c r="D241" s="3" t="s">
+      <c r="E241" s="1" t="s">
         <v>2019</v>
       </c>
-      <c r="E241" s="1" t="s">
-        <v>2020</v>
+      <c r="F241" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>2165</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="K241" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="L241" s="3" t="s">
+        <v>2161</v>
+      </c>
+      <c r="M241" s="3" t="s">
+        <v>2164</v>
       </c>
     </row>
     <row r="242" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C242" s="3" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D242" s="3" t="s">
         <v>2022</v>
       </c>
-      <c r="D242" s="3" t="s">
+      <c r="E242" s="1" t="s">
         <v>2023</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>2024</v>
       </c>
     </row>
     <row r="243" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C243" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D243" s="3" t="s">
         <v>2026</v>
       </c>
-      <c r="D243" s="3" t="s">
+      <c r="E243" s="1" t="s">
         <v>2027</v>
       </c>
-      <c r="E243" s="1" t="s">
-        <v>2028</v>
+      <c r="H243" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="M243" s="3" t="s">
+        <v>2174</v>
       </c>
     </row>
     <row r="244" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C244" s="3" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D244" s="3" t="s">
         <v>2031</v>
       </c>
-      <c r="D244" s="3" t="s">
-        <v>2032</v>
-      </c>
       <c r="E244" s="1" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="245" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C245" s="3" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D245" s="3" t="s">
         <v>2034</v>
       </c>
-      <c r="D245" s="3" t="s">
+      <c r="E245" s="1" t="s">
         <v>2035</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>2036</v>
       </c>
     </row>
     <row r="246" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C246" s="3" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D246" s="3" t="s">
         <v>2043</v>
       </c>
-      <c r="D246" s="3" t="s">
+      <c r="E246" s="1" t="s">
         <v>2044</v>
       </c>
-      <c r="E246" s="1" t="s">
-        <v>2045</v>
-      </c>
       <c r="G246" s="3" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="H246" s="3" t="s">
         <v>514</v>
@@ -15607,27 +15841,27 @@
         <v>374</v>
       </c>
       <c r="L246" s="3" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="M246" s="3" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="247" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C247" s="3" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D247" s="3" t="s">
         <v>2060</v>
       </c>
-      <c r="D247" s="3" t="s">
-        <v>2061</v>
-      </c>
       <c r="E247" s="1" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="H247" s="3" t="s">
         <v>40</v>
@@ -15636,90 +15870,90 @@
         <v>875</v>
       </c>
       <c r="M247" s="3" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="248" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C248" s="3" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D248" s="3" t="s">
         <v>2064</v>
       </c>
-      <c r="D248" s="3" t="s">
+      <c r="E248" s="1" t="s">
         <v>2065</v>
       </c>
-      <c r="E248" s="1" t="s">
-        <v>2066</v>
-      </c>
       <c r="G248" s="3" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="249" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C249" s="3" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D249" s="3" t="s">
         <v>2070</v>
       </c>
-      <c r="D249" s="3" t="s">
+      <c r="E249" s="1" t="s">
         <v>2071</v>
       </c>
-      <c r="E249" s="1" t="s">
+      <c r="G249" s="3" t="s">
         <v>2072</v>
-      </c>
-      <c r="G249" s="3" t="s">
-        <v>2073</v>
       </c>
     </row>
     <row r="250" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C250" s="3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D250" s="3" t="s">
         <v>2076</v>
       </c>
-      <c r="D250" s="3" t="s">
+      <c r="E250" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="G250" s="3" t="s">
         <v>2077</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>2074</v>
-      </c>
-      <c r="G250" s="3" t="s">
-        <v>2078</v>
       </c>
     </row>
     <row r="251" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C251" s="3" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D251" s="3" t="s">
         <v>2084</v>
       </c>
-      <c r="D251" s="3" t="s">
+      <c r="E251" s="1" t="s">
         <v>2085</v>
       </c>
-      <c r="E251" s="1" t="s">
+      <c r="F251" s="1" t="s">
         <v>2086</v>
       </c>
-      <c r="F251" s="1" t="s">
+      <c r="G251" s="3" t="s">
         <v>2087</v>
-      </c>
-      <c r="G251" s="3" t="s">
-        <v>2088</v>
       </c>
       <c r="H251" s="3" t="s">
         <v>40</v>
@@ -15728,16 +15962,16 @@
         <v>875</v>
       </c>
       <c r="J251" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="K251" s="3" t="s">
         <v>2090</v>
       </c>
-      <c r="K251" s="3" t="s">
+      <c r="L251" s="3" t="s">
         <v>2091</v>
       </c>
-      <c r="L251" s="3" t="s">
-        <v>2092</v>
-      </c>
       <c r="M251" s="3" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="N251" s="3" t="s">
         <v>638</v>
@@ -15745,22 +15979,22 @@
     </row>
     <row r="252" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C252" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D252" s="3" t="s">
         <v>2097</v>
       </c>
-      <c r="D252" s="3" t="s">
+      <c r="E252" s="1" t="s">
         <v>2098</v>
       </c>
-      <c r="E252" s="1" t="s">
+      <c r="G252" s="3" t="s">
         <v>2099</v>
-      </c>
-      <c r="G252" s="3" t="s">
-        <v>2100</v>
       </c>
       <c r="H252" s="3" t="s">
         <v>970</v>
@@ -15769,13 +16003,13 @@
         <v>875</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="K252" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="M252" s="3" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="N252" s="3" t="s">
         <v>638</v>
@@ -15783,56 +16017,56 @@
     </row>
     <row r="253" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C253" s="3" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D253" s="3" t="s">
         <v>2104</v>
       </c>
-      <c r="D253" s="3" t="s">
+      <c r="E253" s="1" t="s">
         <v>2105</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>2106</v>
       </c>
     </row>
     <row r="254" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="255" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D255" s="3" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E255" s="1" t="s">
         <v>2113</v>
       </c>
-      <c r="E255" s="1" t="s">
-        <v>2114</v>
-      </c>
       <c r="G255" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="H255" s="3" t="s">
         <v>40</v>
@@ -15841,53 +16075,211 @@
         <v>875</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="K255" s="3" t="s">
+        <v>2125</v>
+      </c>
+      <c r="L255" s="3" t="s">
         <v>2126</v>
       </c>
-      <c r="L255" s="3" t="s">
-        <v>2127</v>
-      </c>
       <c r="M255" s="3" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="256" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C256" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D256" s="3" t="s">
         <v>2117</v>
       </c>
-      <c r="D256" s="3" t="s">
+      <c r="E256" s="1" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A257" s="3" t="s">
         <v>2118</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A257" s="3" t="s">
-        <v>2119</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C257" s="3" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E257" s="1" t="s">
         <v>2120</v>
       </c>
-      <c r="D257" s="3" t="s">
-        <v>2113</v>
-      </c>
-      <c r="E257" s="1" t="s">
+      <c r="F257" s="1" t="s">
         <v>2121</v>
       </c>
-      <c r="F257" s="1" t="s">
-        <v>2122</v>
+    </row>
+    <row r="258" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A258" s="3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A259" s="3" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A260" s="3" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>2145</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A261" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A262" s="3" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="J262" s="3" t="s">
+        <v>2157</v>
+      </c>
+      <c r="K262" s="3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="L262" s="3" t="s">
+        <v>2159</v>
+      </c>
+      <c r="M262" s="3" t="s">
+        <v>2156</v>
+      </c>
+      <c r="N262" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A263" s="3" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="J263" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="M263" s="3" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A264" s="3" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>2172</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>2173</v>
       </c>
     </row>
   </sheetData>
@@ -16061,219 +16453,230 @@
     <hyperlink ref="E144" r:id="rId163" xr:uid="{2A396368-4C6B-C546-AC33-C34CCE2D9C5D}"/>
     <hyperlink ref="E143" r:id="rId164" xr:uid="{AC31FE78-95C0-614D-A7D7-ADB8CD5233BE}"/>
     <hyperlink ref="E142" r:id="rId165" xr:uid="{C8D784F4-ADC7-C640-B063-4A9851B78236}"/>
-    <hyperlink ref="E141" r:id="rId166" display="../../Downloads/Life-Long_Disentangled_Representation_Learning_wit.pdf" xr:uid="{BA55ACDB-2C86-414A-9022-ADBB44542E11}"/>
-    <hyperlink ref="E140" r:id="rId167" xr:uid="{43EB408C-3B93-994A-8898-82238E8739F9}"/>
-    <hyperlink ref="E139" r:id="rId168" xr:uid="{C60401B6-D284-6C4E-84C3-1BDA6B7640B6}"/>
-    <hyperlink ref="E138" r:id="rId169" xr:uid="{76904A68-77E0-E84A-ABE2-B56CD32ADDAC}"/>
-    <hyperlink ref="E136" r:id="rId170" xr:uid="{FBD75AE4-0EB2-FD40-841D-368F3496C12F}"/>
-    <hyperlink ref="E135" r:id="rId171" xr:uid="{A73ADDDA-E55D-C642-A7B0-1C9733D25C90}"/>
-    <hyperlink ref="E134" r:id="rId172" xr:uid="{F493203C-B67A-A04C-B651-697767C0178D}"/>
-    <hyperlink ref="E133" r:id="rId173" xr:uid="{B1EC8237-12A7-3A40-BBB8-96E16CBC9DF5}"/>
-    <hyperlink ref="E132" r:id="rId174" xr:uid="{2E3CACB3-FC71-D74B-883C-3C51D1F9DBE4}"/>
-    <hyperlink ref="N2" r:id="rId175" display="https://github.com/youngleec/DeepGenerativeModels" xr:uid="{7C19B556-F84E-9548-9605-4F03B891A0CE}"/>
-    <hyperlink ref="E131" r:id="rId176" xr:uid="{73C29958-F4B1-6F4D-93B2-79B552DCC173}"/>
-    <hyperlink ref="E130" r:id="rId177" xr:uid="{7CCE2187-C43D-2242-AD18-AA309394F575}"/>
-    <hyperlink ref="E129" r:id="rId178" xr:uid="{A4775757-53F8-8B45-A9AB-F9FA216E5E7D}"/>
-    <hyperlink ref="E128" r:id="rId179" xr:uid="{21CBC9DE-D28B-F44A-92EB-F8634F1C8E38}"/>
-    <hyperlink ref="E127" r:id="rId180" xr:uid="{A2ACA7AD-6F8D-0D4C-8CA3-B9DD24FAFFFD}"/>
-    <hyperlink ref="E126" r:id="rId181" xr:uid="{1F435C60-1DB2-2045-87EB-3E7260719A00}"/>
-    <hyperlink ref="E125" r:id="rId182" display="https://arxiv.org/pdf/1807.09356.pdf" xr:uid="{47022A3F-BCFE-0F41-A4FD-71A0A5723034}"/>
-    <hyperlink ref="E124" r:id="rId183" xr:uid="{3CA89AC3-6C9E-F94A-8E36-55A9E9213956}"/>
-    <hyperlink ref="E123" r:id="rId184" xr:uid="{71581D31-D5D9-3C41-BBBE-C91547CD9BB5}"/>
-    <hyperlink ref="E122" r:id="rId185" xr:uid="{7AF8E4B5-20A3-914B-9FC1-65A6E9366D9F}"/>
-    <hyperlink ref="E121" r:id="rId186" xr:uid="{A231E325-CE15-7140-BE90-B16A05F79CEC}"/>
-    <hyperlink ref="E120" r:id="rId187" xr:uid="{45E16E6F-5876-7F4E-A651-C033578D1BF5}"/>
-    <hyperlink ref="E119" r:id="rId188" xr:uid="{63DA334F-C94A-E048-90C4-875223E78FC5}"/>
-    <hyperlink ref="E118" r:id="rId189" xr:uid="{C18394C9-4A26-E74D-9DC2-C0D9F976DADB}"/>
-    <hyperlink ref="E117" r:id="rId190" xr:uid="{D7AC6EC2-DB28-3741-A801-3A2C591F4372}"/>
-    <hyperlink ref="E116" r:id="rId191" xr:uid="{D2DAFDA3-8DA0-3A41-96F1-B984A9677C2C}"/>
-    <hyperlink ref="E115" r:id="rId192" xr:uid="{8F34129F-53F3-954B-A4F8-CAC1641CE73E}"/>
-    <hyperlink ref="E114" r:id="rId193" xr:uid="{1170A079-E568-984D-976D-7AE8038329A4}"/>
-    <hyperlink ref="E113" r:id="rId194" xr:uid="{B1B4AAC3-2EC0-A242-B03E-D3DD8CDD4D35}"/>
-    <hyperlink ref="E112" r:id="rId195" xr:uid="{E7286F66-EB9A-8A44-B020-368B51630404}"/>
-    <hyperlink ref="E111" r:id="rId196" xr:uid="{7C88A0B1-AB52-C74A-897A-E363A0D0760E}"/>
-    <hyperlink ref="E110" r:id="rId197" xr:uid="{8B59613E-4094-6A47-85CE-3930B922B05E}"/>
-    <hyperlink ref="E109" r:id="rId198" xr:uid="{FA49247A-4FCE-354A-9C19-9C470523BB9E}"/>
-    <hyperlink ref="E107" r:id="rId199" xr:uid="{CD3C7D2D-EEFE-2F4E-8931-74B5D8DF2E21}"/>
-    <hyperlink ref="E108" r:id="rId200" xr:uid="{B8B026B2-62AA-5246-9B24-694AB774E853}"/>
-    <hyperlink ref="E106" r:id="rId201" xr:uid="{E753D5F3-08CF-9246-9558-415DD1101F17}"/>
-    <hyperlink ref="E105" r:id="rId202" xr:uid="{05EA7040-AA80-1E42-A739-CD5C42969BE7}"/>
-    <hyperlink ref="E104" r:id="rId203" xr:uid="{A250D5D1-B878-7545-B73E-C6227C1D4A48}"/>
-    <hyperlink ref="E103" r:id="rId204" xr:uid="{A1420B55-22FD-9947-AC05-9689708F4724}"/>
-    <hyperlink ref="E102" r:id="rId205" xr:uid="{01F2916E-934C-E545-BA10-9732E4ED82E6}"/>
-    <hyperlink ref="E101" r:id="rId206" xr:uid="{D068A7A1-29ED-CD4E-96E0-3BA4B68000EC}"/>
-    <hyperlink ref="E100" r:id="rId207" xr:uid="{7BB2D929-A5A0-E145-A0D4-0AAE845F0F67}"/>
-    <hyperlink ref="E99" r:id="rId208" xr:uid="{87733583-A3A0-F540-93A3-4E32D7F6E240}"/>
-    <hyperlink ref="E98" r:id="rId209" xr:uid="{3222C550-264B-204A-B320-72C3DD3ACEA3}"/>
-    <hyperlink ref="E97" r:id="rId210" xr:uid="{ED598E9F-E756-FD4F-B307-2AEE261DD300}"/>
-    <hyperlink ref="E96" r:id="rId211" xr:uid="{3115AF41-F576-B146-BE2F-9752BCF8626F}"/>
-    <hyperlink ref="E95" r:id="rId212" xr:uid="{2C8DFE2B-C45F-F346-84D8-A58199075F40}"/>
-    <hyperlink ref="E94" r:id="rId213" xr:uid="{87928C87-2EC6-0D42-9A71-44D683A914F1}"/>
-    <hyperlink ref="E93" r:id="rId214" xr:uid="{DDED75B6-BC96-C34F-8A33-88B96B0C5D73}"/>
-    <hyperlink ref="E92" r:id="rId215" display="https://www.researchgate.net/profile/Andreas_Veit/publication/301837223_Disentangling_Nonlinear_Perceptual_Embeddings_With_Multi-Query_Triplet_Networks/links/57e2997308ae040ae3c2f3a3/Disentangling-Nonlinear-Perceptual-Embeddings-With-Multi-Query-Triplet-Networks.pdf" xr:uid="{9F93F0B1-2BC7-0C46-9C04-78ED319D0912}"/>
-    <hyperlink ref="E91" r:id="rId216" xr:uid="{C117CC20-124C-424E-8E09-9B812018D0A6}"/>
-    <hyperlink ref="E90" r:id="rId217" xr:uid="{2E904AC1-6EC8-7843-B843-2F15B94041BE}"/>
-    <hyperlink ref="E89" r:id="rId218" xr:uid="{56BE9458-7FB1-214C-A122-96DE97D87BD8}"/>
-    <hyperlink ref="E88" r:id="rId219" xr:uid="{C25E2D4B-2DFF-5846-A9DE-4F99442B561A}"/>
-    <hyperlink ref="E87" r:id="rId220" xr:uid="{5512ADAD-2EBC-9743-BB56-E814C7683FFD}"/>
-    <hyperlink ref="E85" r:id="rId221" xr:uid="{516C4FBA-663D-7E4B-ADDC-1980FE5F1238}"/>
-    <hyperlink ref="E86" r:id="rId222" xr:uid="{DAF248E7-438E-784E-AF8B-63EFAD89FF00}"/>
-    <hyperlink ref="E84" r:id="rId223" xr:uid="{62F4BB00-F5BB-CC45-9C26-8057F661D21F}"/>
-    <hyperlink ref="E83" r:id="rId224" xr:uid="{C6737A2F-5E00-1741-BFE7-0E0682A19E76}"/>
-    <hyperlink ref="E82" r:id="rId225" xr:uid="{44D0A2C5-1E52-8547-84E2-4DDA0FBCB105}"/>
-    <hyperlink ref="E81" r:id="rId226" display="https://vimeo.com/285802293" xr:uid="{622FBD58-DC08-7549-A44F-B632170B42D3}"/>
-    <hyperlink ref="E80" r:id="rId227" xr:uid="{E747A436-79A2-E54C-AB94-34BE18D12CEB}"/>
-    <hyperlink ref="E79" r:id="rId228" xr:uid="{A6C92A62-5828-EA40-A4D5-890445A0E38E}"/>
-    <hyperlink ref="E78" r:id="rId229" xr:uid="{CEE4C649-7F3D-444B-A11C-F796AE8CB7D4}"/>
-    <hyperlink ref="E77" r:id="rId230" xr:uid="{308058B2-9DF1-734D-9974-FBB843AABE16}"/>
-    <hyperlink ref="E76" r:id="rId231" xr:uid="{FAB704CB-68D8-B043-B640-98465F4A70EC}"/>
-    <hyperlink ref="E75" r:id="rId232" xr:uid="{3E40E21F-EF8D-5844-AEFE-D70E44AC940F}"/>
-    <hyperlink ref="E74" r:id="rId233" xr:uid="{984FFBFE-A91A-9046-BA1A-AE493EEE7D7D}"/>
-    <hyperlink ref="E69" r:id="rId234" xr:uid="{7CEACBFE-1656-8B48-B5B0-E925C95050C8}"/>
-    <hyperlink ref="E73" r:id="rId235" xr:uid="{D21E2177-3083-8C45-A177-363CD860E664}"/>
-    <hyperlink ref="E72" r:id="rId236" xr:uid="{768E9870-CFEF-F942-B847-02342E33FF4A}"/>
-    <hyperlink ref="E71" r:id="rId237" xr:uid="{FE8783B1-4D44-054D-BDDE-D18425980D94}"/>
-    <hyperlink ref="E70" r:id="rId238" xr:uid="{C4F062B0-E20C-B046-AE17-CF48CF1FD846}"/>
-    <hyperlink ref="E68" r:id="rId239" xr:uid="{A39FA1F0-5A74-214D-8F5C-6E4E0C021C35}"/>
-    <hyperlink ref="E67" r:id="rId240" xr:uid="{213949E7-9053-B84F-9132-E709B82FB93A}"/>
-    <hyperlink ref="E66" r:id="rId241" xr:uid="{AA0452C5-98EC-F043-8D90-6F4B87260C50}"/>
-    <hyperlink ref="E65" r:id="rId242" xr:uid="{9A781361-CF96-C14C-AFDA-69BECEA920B0}"/>
-    <hyperlink ref="E64" r:id="rId243" display="https://arxiv.org/pdf/1603.02514.pdf " xr:uid="{8B166347-F3A4-0C4C-8C9F-57F08F678D86}"/>
-    <hyperlink ref="E63" r:id="rId244" xr:uid="{C0D8BD5C-0D3E-6F4C-82D3-DE299A46B1B6}"/>
-    <hyperlink ref="E62" r:id="rId245" xr:uid="{4A20FE83-D8FF-1F40-AF95-9AF006962CE4}"/>
-    <hyperlink ref="E61" r:id="rId246" xr:uid="{90B1D2EE-F4FE-C249-9554-AF6607CE2982}"/>
-    <hyperlink ref="E60" r:id="rId247" xr:uid="{0420C41B-A23E-284B-ADA0-DD11DC75C1E5}"/>
-    <hyperlink ref="E59" r:id="rId248" xr:uid="{EA47B403-405E-5243-980A-DCA6D68D4BCB}"/>
-    <hyperlink ref="E58" r:id="rId249" xr:uid="{07102C24-5D5C-1146-BADD-8B8B8C5D90ED}"/>
-    <hyperlink ref="E57" r:id="rId250" xr:uid="{A89499A2-AC73-AD4A-AB36-D06C3409177D}"/>
-    <hyperlink ref="E56" r:id="rId251" xr:uid="{0A12411D-23E4-744D-B562-D70FCC8AF978}"/>
-    <hyperlink ref="E55" r:id="rId252" xr:uid="{4F1A2511-4676-8947-B560-B304B8EE6342}"/>
-    <hyperlink ref="E54" r:id="rId253" xr:uid="{79CD9A80-6156-3146-B151-529C578C6654}"/>
-    <hyperlink ref="E53" r:id="rId254" xr:uid="{18860AEB-B914-D749-8897-DE464124F923}"/>
-    <hyperlink ref="E52" r:id="rId255" xr:uid="{A22FE584-5BEB-2044-8C54-5A209668F44A}"/>
-    <hyperlink ref="E51" r:id="rId256" xr:uid="{79E2163C-4A10-2E48-A958-B3E9A50695D8}"/>
-    <hyperlink ref="E50" r:id="rId257" xr:uid="{E4508A09-2999-C14B-BAD5-5E1D600C23D8}"/>
-    <hyperlink ref="E49" r:id="rId258" xr:uid="{33D63C2C-A122-0B41-B539-74187DA5C153}"/>
-    <hyperlink ref="E48" r:id="rId259" xr:uid="{1B1C1524-635F-654E-B016-AB1E1DFE0BD4}"/>
-    <hyperlink ref="E47" r:id="rId260" xr:uid="{AFF39D95-E577-EE4B-A025-8C0018E3ADC1}"/>
-    <hyperlink ref="E46" r:id="rId261" xr:uid="{E63017F7-D5F5-284E-991A-982F8EB606FD}"/>
-    <hyperlink ref="E45" r:id="rId262" xr:uid="{5F648001-98EB-3B45-AE26-196D439188D5}"/>
-    <hyperlink ref="E44" r:id="rId263" xr:uid="{5B554A1C-E84F-5F4A-8ED9-0A8A3458D5C8}"/>
-    <hyperlink ref="E43" r:id="rId264" xr:uid="{45F76E88-4B74-5E4B-A6D1-5B6B3848F560}"/>
-    <hyperlink ref="E42" r:id="rId265" xr:uid="{D223B593-B41D-C946-ADC3-FCF06ED17F5A}"/>
-    <hyperlink ref="E41" r:id="rId266" xr:uid="{3BDD0579-BD1A-A84A-81E0-CEA058339000}"/>
-    <hyperlink ref="E40" r:id="rId267" xr:uid="{DC8AC94E-6F60-C349-9C1C-55CD8606E658}"/>
-    <hyperlink ref="E180" r:id="rId268" xr:uid="{F82D0D5D-52FF-C648-985B-52F280F4C0B1}"/>
-    <hyperlink ref="E39" r:id="rId269" xr:uid="{7778B0B2-93E7-A245-8B4E-1F0756236DD3}"/>
-    <hyperlink ref="E38" r:id="rId270" xr:uid="{9DA57912-5201-914E-B610-3DFEBA61DF13}"/>
-    <hyperlink ref="E37" r:id="rId271" xr:uid="{89D276A0-9111-5C49-808B-037C83656A4B}"/>
-    <hyperlink ref="E36" r:id="rId272" xr:uid="{F8DAEB65-529C-1B4D-A0BD-7875BD428FFF}"/>
-    <hyperlink ref="E35" r:id="rId273" xr:uid="{8AE40189-A24F-364E-9C6F-9535A15F6207}"/>
-    <hyperlink ref="E34" r:id="rId274" xr:uid="{CD85543D-0F45-B442-8056-59A5D0CAC591}"/>
-    <hyperlink ref="E33" r:id="rId275" xr:uid="{F7877987-A307-9E4C-AC0F-4B7AD496EC66}"/>
-    <hyperlink ref="E32" r:id="rId276" xr:uid="{43AD3320-5419-134A-B915-5E7933289A5D}"/>
-    <hyperlink ref="E31" r:id="rId277" xr:uid="{527988F4-D96C-C446-A104-5289059D7AA9}"/>
-    <hyperlink ref="E30" r:id="rId278" xr:uid="{27D1D7C0-ED6E-2441-93D3-68A56636571B}"/>
-    <hyperlink ref="E29" r:id="rId279" xr:uid="{2E248752-89B7-3E41-8B9F-A87AD5816AE7}"/>
-    <hyperlink ref="E28" r:id="rId280" xr:uid="{121BDBA0-0A98-4A44-8386-EF2307896247}"/>
-    <hyperlink ref="E27" r:id="rId281" xr:uid="{F3877792-5EF0-E345-858E-9EAA5A02137E}"/>
-    <hyperlink ref="E26" r:id="rId282" xr:uid="{F86BE994-C6B8-BC4C-A3B3-7E75B1F72A04}"/>
-    <hyperlink ref="E25" r:id="rId283" xr:uid="{A7A50C8F-6111-A240-AF6D-EA48457572B0}"/>
-    <hyperlink ref="E24" r:id="rId284" xr:uid="{9176E768-ED83-FC49-A193-03365BCB5AD6}"/>
-    <hyperlink ref="E23" r:id="rId285" xr:uid="{1F64D28C-2A7E-D64A-95BA-6DDD80260DD6}"/>
-    <hyperlink ref="E22" r:id="rId286" xr:uid="{C5E08AA4-6E8B-3845-A98E-E2E9BD0B9E75}"/>
-    <hyperlink ref="E21" r:id="rId287" xr:uid="{D12AD687-5E1E-4E43-9911-0AE159A13C23}"/>
-    <hyperlink ref="E20" r:id="rId288" xr:uid="{6812D194-9452-854D-889F-C774620D4163}"/>
-    <hyperlink ref="E19" r:id="rId289" xr:uid="{56EC5D00-AC89-E542-B267-3A54495A9BA3}"/>
-    <hyperlink ref="E18" r:id="rId290" xr:uid="{BDE9D707-C6B9-0343-8C72-908B7FCB3689}"/>
-    <hyperlink ref="E17" r:id="rId291" xr:uid="{9EED600A-C6CD-1F4D-A52A-42BF5958B7EA}"/>
-    <hyperlink ref="E16" r:id="rId292" xr:uid="{66867570-F699-574F-94A0-A5D227BBEB86}"/>
-    <hyperlink ref="E15" r:id="rId293" xr:uid="{9E226031-1A93-7042-A53A-CE51DD9ABC65}"/>
-    <hyperlink ref="E14" r:id="rId294" xr:uid="{4FF6750B-469D-4C48-8700-7D71E2270C9A}"/>
-    <hyperlink ref="E13" r:id="rId295" xr:uid="{7AF440A2-1DBA-5C43-AC27-82BDE286168A}"/>
-    <hyperlink ref="E12" r:id="rId296" xr:uid="{0F4ABD6D-A0FB-044B-8F74-208BDFB0CC4A}"/>
-    <hyperlink ref="E11" r:id="rId297" xr:uid="{A2039981-9D1F-4042-BF05-5FAFF0F426E8}"/>
-    <hyperlink ref="E10" r:id="rId298" xr:uid="{710816D4-97E6-004F-B089-E1ABD789F089}"/>
-    <hyperlink ref="E9" r:id="rId299" xr:uid="{F3BAFF5B-3AA5-AF48-AE58-1178FD304899}"/>
-    <hyperlink ref="E8" r:id="rId300" xr:uid="{75736402-73CE-5647-AEB0-0C935EB06D4B}"/>
-    <hyperlink ref="E7" r:id="rId301" xr:uid="{241DAD7E-25A8-1A43-BF01-91CE111377CE}"/>
-    <hyperlink ref="E6" r:id="rId302" xr:uid="{748E930A-EA16-E44D-96D5-C065BBB5ACC9}"/>
-    <hyperlink ref="E5" r:id="rId303" xr:uid="{762BBD67-35EB-C648-8785-2882DE807AB4}"/>
-    <hyperlink ref="E4" r:id="rId304" xr:uid="{7CF8C55D-B082-7A4A-B16A-0379FC5F862C}"/>
-    <hyperlink ref="E3" r:id="rId305" xr:uid="{3D68445D-29DA-B64C-97CE-ACF8027E5FF6}"/>
-    <hyperlink ref="E2" r:id="rId306" xr:uid="{287684C2-8B7E-5848-A893-933142CE627C}"/>
-    <hyperlink ref="E200" r:id="rId307" xr:uid="{7993D877-CA9E-DD40-A813-4E18192CE47E}"/>
-    <hyperlink ref="E199" r:id="rId308" xr:uid="{BCCA6948-18C5-4E48-9249-AB77C10C7304}"/>
-    <hyperlink ref="F200" r:id="rId309" xr:uid="{AA1D75B7-7944-B24C-9169-57DBD79D9641}"/>
-    <hyperlink ref="E201" r:id="rId310" xr:uid="{E05994ED-2705-894D-9DD4-AB3EBF14A824}"/>
-    <hyperlink ref="E202" r:id="rId311" xr:uid="{3E7CD4A7-8E4E-6342-9F75-755A08F92E84}"/>
-    <hyperlink ref="E203" r:id="rId312" xr:uid="{65C41358-E16D-3B43-9AF6-0DD61B3BAC58}"/>
-    <hyperlink ref="E204" r:id="rId313" xr:uid="{4A1A7F92-6EDA-E449-AEFD-53C1C59440B2}"/>
-    <hyperlink ref="F204" r:id="rId314" xr:uid="{0DFF4DEB-BA1B-6F47-9A19-765A3D5C9E99}"/>
-    <hyperlink ref="E205" r:id="rId315" xr:uid="{2BC17AB9-F52C-5A48-875C-5920A8ACB0EA}"/>
-    <hyperlink ref="E206" r:id="rId316" xr:uid="{FE47C1EF-2477-A54A-97FE-D13FCE63D4C5}"/>
-    <hyperlink ref="E207" r:id="rId317" xr:uid="{43A08E32-39A8-9B42-AFD0-0BBBF1454F3B}"/>
-    <hyperlink ref="E208" r:id="rId318" xr:uid="{A67675B5-50BF-054F-85AA-CE49DD09D05C}"/>
-    <hyperlink ref="F208" r:id="rId319" xr:uid="{A3069929-30AA-734F-B6A2-309A0E36FDCF}"/>
-    <hyperlink ref="E209" r:id="rId320" xr:uid="{CEB657D1-0A3E-1F46-8FFA-645247356189}"/>
-    <hyperlink ref="E210" r:id="rId321" xr:uid="{002E91AF-A8B0-5B4D-8D24-DBA65AB5B61D}"/>
-    <hyperlink ref="F210" r:id="rId322" xr:uid="{F32AD366-8B24-2A4E-A881-442F3711B0EE}"/>
-    <hyperlink ref="E211" r:id="rId323" xr:uid="{37E068A2-8EEC-F549-B1EC-615A0BD6550F}"/>
-    <hyperlink ref="E212" r:id="rId324" xr:uid="{2C461F2A-FAA2-604B-B245-F8CCBCA49A5D}"/>
-    <hyperlink ref="E213" r:id="rId325" xr:uid="{25D8FE57-C24E-C345-BC6F-81F591A042DC}"/>
-    <hyperlink ref="E214" r:id="rId326" xr:uid="{21A45BE6-D947-EF41-9D3A-36570621AD86}"/>
-    <hyperlink ref="E215" r:id="rId327" xr:uid="{C2B9C176-43C4-854C-B6E2-97DF662242C6}"/>
-    <hyperlink ref="E216" r:id="rId328" xr:uid="{E60CD47F-463E-8C42-B330-6C4F765777C7}"/>
-    <hyperlink ref="E217" r:id="rId329" xr:uid="{8D2655CB-46F8-584C-A915-65E112A35A87}"/>
-    <hyperlink ref="F217" r:id="rId330" xr:uid="{136290C0-5DA6-8946-AF76-09C5DCD26019}"/>
-    <hyperlink ref="F214" r:id="rId331" xr:uid="{B2850A1C-1237-4248-BB16-A36454B5B96A}"/>
-    <hyperlink ref="E218" r:id="rId332" xr:uid="{A07AAC98-008D-9D47-87BD-DE2ADA4E4ED8}"/>
-    <hyperlink ref="E219" r:id="rId333" xr:uid="{084EA629-4980-7248-A2C6-EBFC76ECCF23}"/>
-    <hyperlink ref="E220" r:id="rId334" xr:uid="{C3AF3E87-D154-D24C-A825-7946DAB3E1E4}"/>
-    <hyperlink ref="F220" r:id="rId335" xr:uid="{659F2739-CBE4-384C-9E2D-3A4BB4A921F3}"/>
-    <hyperlink ref="E221" r:id="rId336" xr:uid="{B80534F2-8E2B-D344-A514-1FC28D9D03C5}"/>
-    <hyperlink ref="F221" r:id="rId337" xr:uid="{32E4F664-79EA-8F4C-9747-CBCA6080E915}"/>
-    <hyperlink ref="E222" r:id="rId338" xr:uid="{F1856C82-0001-A943-826B-F45114EBC3E0}"/>
-    <hyperlink ref="E223" r:id="rId339" xr:uid="{479CA383-00FC-1042-A4B7-5C902E2D3F29}"/>
-    <hyperlink ref="E224" r:id="rId340" xr:uid="{A66E28D7-A82F-F543-BC9C-EC1C4DAD9629}"/>
-    <hyperlink ref="E225" r:id="rId341" xr:uid="{17DD2431-2275-9F42-8916-0537BED613A9}"/>
-    <hyperlink ref="F225" r:id="rId342" xr:uid="{35F67E82-B585-ED4B-9DFF-957A1998F99C}"/>
-    <hyperlink ref="E226" r:id="rId343" xr:uid="{673FA506-028B-4240-A69D-5594EE18254A}"/>
-    <hyperlink ref="F226" r:id="rId344" xr:uid="{8B5B9AF9-E986-A84B-915A-D767AFA04F4C}"/>
-    <hyperlink ref="E227" r:id="rId345" xr:uid="{A95B14D6-4A79-734B-846B-1A2D08CB771B}"/>
-    <hyperlink ref="E228" r:id="rId346" xr:uid="{760E3794-BEF9-0C43-9651-F3A7E09E0753}"/>
-    <hyperlink ref="F229" r:id="rId347" xr:uid="{EFC37890-8F4B-6442-BCA0-91C8FBB3E462}"/>
-    <hyperlink ref="E229" r:id="rId348" xr:uid="{99873E87-BA69-2545-A5FF-ECB84628112E}"/>
-    <hyperlink ref="E230" r:id="rId349" xr:uid="{19625D7C-B58C-E348-8E0E-AA619E2C66A1}"/>
-    <hyperlink ref="E231" r:id="rId350" xr:uid="{9F256A76-B505-3341-AC27-9A25239AD866}"/>
-    <hyperlink ref="E232" r:id="rId351" xr:uid="{3899558B-9CEE-0944-8DD3-EE334EF6CF09}"/>
-    <hyperlink ref="E233" r:id="rId352" xr:uid="{73DD404D-CEC1-F54C-9F03-B2A34724E23A}"/>
-    <hyperlink ref="E234" r:id="rId353" xr:uid="{877CF798-E247-3342-ACE5-88899282305E}"/>
-    <hyperlink ref="E235" r:id="rId354" xr:uid="{CC8C52AA-4614-5D41-9D21-84392BB44722}"/>
-    <hyperlink ref="E236" r:id="rId355" xr:uid="{0FA88743-4B78-2042-B2A8-510DD699564B}"/>
-    <hyperlink ref="E238" r:id="rId356" xr:uid="{12E3E19E-C9BF-0F48-94B0-769EC2CE4FA9}"/>
-    <hyperlink ref="E239" r:id="rId357" xr:uid="{9F625FC2-A47B-784F-910E-7AEB9E9AF570}"/>
-    <hyperlink ref="E240" r:id="rId358" xr:uid="{EAF78CBA-F022-CE40-948E-5B86EE454CBD}"/>
-    <hyperlink ref="E241" r:id="rId359" xr:uid="{C8342FBE-5462-E64D-9D5D-0BD5BC188BD4}"/>
-    <hyperlink ref="E242" r:id="rId360" xr:uid="{A9E4FCC9-EF6E-544C-A5E5-493CBEA58013}"/>
-    <hyperlink ref="E243" r:id="rId361" xr:uid="{DAE81838-D6D6-694F-8D66-2B582E5866C8}"/>
-    <hyperlink ref="E244" r:id="rId362" xr:uid="{C17E9F31-B71E-2441-841C-F1FD09C00AE5}"/>
-    <hyperlink ref="E245" r:id="rId363" xr:uid="{894688A6-D52A-984F-9FEC-F482A58AE130}"/>
-    <hyperlink ref="E246" r:id="rId364" xr:uid="{FA18624B-43FB-CC44-ACC7-2AB750612FE5}"/>
-    <hyperlink ref="E247" r:id="rId365" xr:uid="{4D9F5CD1-A9FE-674E-BC58-9D04172B5CC3}"/>
-    <hyperlink ref="E248" r:id="rId366" xr:uid="{33479A30-184A-1544-B64A-2DDA510FE3C3}"/>
-    <hyperlink ref="E249" r:id="rId367" xr:uid="{4E2F460E-2AAB-9443-83DE-450E3725DF5E}"/>
-    <hyperlink ref="E250" r:id="rId368" xr:uid="{CE08CEA9-9E41-264E-81B6-39BDE2151C59}"/>
-    <hyperlink ref="F228" r:id="rId369" xr:uid="{060B88CB-B8C4-004D-9435-DD9F26E1E832}"/>
-    <hyperlink ref="E251" r:id="rId370" xr:uid="{B0CB209A-232A-5C46-A377-71FF2451C1EA}"/>
-    <hyperlink ref="F251" r:id="rId371" xr:uid="{0485845A-7AE7-C54D-94EB-AED9B7560C3D}"/>
-    <hyperlink ref="E252" r:id="rId372" xr:uid="{600D9EDE-E4A4-3343-8139-BD6C010DDD64}"/>
-    <hyperlink ref="E253" r:id="rId373" xr:uid="{3ECE4E72-E087-2945-B237-D046C560912D}"/>
-    <hyperlink ref="E254" r:id="rId374" display="https://www.researchgate.net/profile/Luzheng_Bi2/publication/335619300_EEG-Based_Adaptive_Driver-Vehicle_Interface_Using_Variational_Autoencoder_and_PI-TSVM/links/5d70bb234585151ee49e5a30/EEG-Based-Adaptive-Driver-Vehicle-Interface-Using-Variational-Autoencoder-and-PI-TSVM.pdf" xr:uid="{9CAFCCFE-6691-3944-8791-30CD32616A84}"/>
-    <hyperlink ref="E255" r:id="rId375" xr:uid="{712E7D56-9BFF-844B-856F-74D6C4EF3AAB}"/>
-    <hyperlink ref="E256" r:id="rId376" xr:uid="{10F166E0-EBBE-2F4C-9B72-4C1EB7956DDA}"/>
-    <hyperlink ref="E257" r:id="rId377" xr:uid="{ED964185-550D-FB40-8874-991477476028}"/>
-    <hyperlink ref="F257" r:id="rId378" xr:uid="{91B849B0-AEAE-DE41-B84A-5F6005A9ED3E}"/>
+    <hyperlink ref="E140" r:id="rId166" xr:uid="{43EB408C-3B93-994A-8898-82238E8739F9}"/>
+    <hyperlink ref="E139" r:id="rId167" xr:uid="{C60401B6-D284-6C4E-84C3-1BDA6B7640B6}"/>
+    <hyperlink ref="E138" r:id="rId168" xr:uid="{76904A68-77E0-E84A-ABE2-B56CD32ADDAC}"/>
+    <hyperlink ref="E136" r:id="rId169" xr:uid="{FBD75AE4-0EB2-FD40-841D-368F3496C12F}"/>
+    <hyperlink ref="E135" r:id="rId170" xr:uid="{A73ADDDA-E55D-C642-A7B0-1C9733D25C90}"/>
+    <hyperlink ref="E134" r:id="rId171" xr:uid="{F493203C-B67A-A04C-B651-697767C0178D}"/>
+    <hyperlink ref="E133" r:id="rId172" xr:uid="{B1EC8237-12A7-3A40-BBB8-96E16CBC9DF5}"/>
+    <hyperlink ref="E132" r:id="rId173" xr:uid="{2E3CACB3-FC71-D74B-883C-3C51D1F9DBE4}"/>
+    <hyperlink ref="N2" r:id="rId174" display="https://github.com/youngleec/DeepGenerativeModels" xr:uid="{7C19B556-F84E-9548-9605-4F03B891A0CE}"/>
+    <hyperlink ref="E131" r:id="rId175" xr:uid="{73C29958-F4B1-6F4D-93B2-79B552DCC173}"/>
+    <hyperlink ref="E130" r:id="rId176" xr:uid="{7CCE2187-C43D-2242-AD18-AA309394F575}"/>
+    <hyperlink ref="E129" r:id="rId177" xr:uid="{A4775757-53F8-8B45-A9AB-F9FA216E5E7D}"/>
+    <hyperlink ref="E128" r:id="rId178" xr:uid="{21CBC9DE-D28B-F44A-92EB-F8634F1C8E38}"/>
+    <hyperlink ref="E127" r:id="rId179" xr:uid="{A2ACA7AD-6F8D-0D4C-8CA3-B9DD24FAFFFD}"/>
+    <hyperlink ref="E126" r:id="rId180" xr:uid="{1F435C60-1DB2-2045-87EB-3E7260719A00}"/>
+    <hyperlink ref="E125" r:id="rId181" display="https://arxiv.org/pdf/1807.09356.pdf" xr:uid="{47022A3F-BCFE-0F41-A4FD-71A0A5723034}"/>
+    <hyperlink ref="E124" r:id="rId182" xr:uid="{3CA89AC3-6C9E-F94A-8E36-55A9E9213956}"/>
+    <hyperlink ref="E123" r:id="rId183" xr:uid="{71581D31-D5D9-3C41-BBBE-C91547CD9BB5}"/>
+    <hyperlink ref="E122" r:id="rId184" xr:uid="{7AF8E4B5-20A3-914B-9FC1-65A6E9366D9F}"/>
+    <hyperlink ref="E121" r:id="rId185" xr:uid="{A231E325-CE15-7140-BE90-B16A05F79CEC}"/>
+    <hyperlink ref="E120" r:id="rId186" xr:uid="{45E16E6F-5876-7F4E-A651-C033578D1BF5}"/>
+    <hyperlink ref="E119" r:id="rId187" xr:uid="{63DA334F-C94A-E048-90C4-875223E78FC5}"/>
+    <hyperlink ref="E118" r:id="rId188" xr:uid="{C18394C9-4A26-E74D-9DC2-C0D9F976DADB}"/>
+    <hyperlink ref="E117" r:id="rId189" xr:uid="{D7AC6EC2-DB28-3741-A801-3A2C591F4372}"/>
+    <hyperlink ref="E116" r:id="rId190" xr:uid="{D2DAFDA3-8DA0-3A41-96F1-B984A9677C2C}"/>
+    <hyperlink ref="E115" r:id="rId191" xr:uid="{8F34129F-53F3-954B-A4F8-CAC1641CE73E}"/>
+    <hyperlink ref="E114" r:id="rId192" xr:uid="{1170A079-E568-984D-976D-7AE8038329A4}"/>
+    <hyperlink ref="E113" r:id="rId193" xr:uid="{B1B4AAC3-2EC0-A242-B03E-D3DD8CDD4D35}"/>
+    <hyperlink ref="E112" r:id="rId194" xr:uid="{E7286F66-EB9A-8A44-B020-368B51630404}"/>
+    <hyperlink ref="E111" r:id="rId195" xr:uid="{7C88A0B1-AB52-C74A-897A-E363A0D0760E}"/>
+    <hyperlink ref="E110" r:id="rId196" xr:uid="{8B59613E-4094-6A47-85CE-3930B922B05E}"/>
+    <hyperlink ref="E109" r:id="rId197" xr:uid="{FA49247A-4FCE-354A-9C19-9C470523BB9E}"/>
+    <hyperlink ref="E107" r:id="rId198" xr:uid="{CD3C7D2D-EEFE-2F4E-8931-74B5D8DF2E21}"/>
+    <hyperlink ref="E108" r:id="rId199" xr:uid="{B8B026B2-62AA-5246-9B24-694AB774E853}"/>
+    <hyperlink ref="E106" r:id="rId200" xr:uid="{E753D5F3-08CF-9246-9558-415DD1101F17}"/>
+    <hyperlink ref="E105" r:id="rId201" xr:uid="{05EA7040-AA80-1E42-A739-CD5C42969BE7}"/>
+    <hyperlink ref="E104" r:id="rId202" xr:uid="{A250D5D1-B878-7545-B73E-C6227C1D4A48}"/>
+    <hyperlink ref="E103" r:id="rId203" xr:uid="{A1420B55-22FD-9947-AC05-9689708F4724}"/>
+    <hyperlink ref="E102" r:id="rId204" xr:uid="{01F2916E-934C-E545-BA10-9732E4ED82E6}"/>
+    <hyperlink ref="E101" r:id="rId205" xr:uid="{D068A7A1-29ED-CD4E-96E0-3BA4B68000EC}"/>
+    <hyperlink ref="E100" r:id="rId206" xr:uid="{7BB2D929-A5A0-E145-A0D4-0AAE845F0F67}"/>
+    <hyperlink ref="E99" r:id="rId207" xr:uid="{87733583-A3A0-F540-93A3-4E32D7F6E240}"/>
+    <hyperlink ref="E98" r:id="rId208" xr:uid="{3222C550-264B-204A-B320-72C3DD3ACEA3}"/>
+    <hyperlink ref="E97" r:id="rId209" xr:uid="{ED598E9F-E756-FD4F-B307-2AEE261DD300}"/>
+    <hyperlink ref="E96" r:id="rId210" xr:uid="{3115AF41-F576-B146-BE2F-9752BCF8626F}"/>
+    <hyperlink ref="E95" r:id="rId211" xr:uid="{2C8DFE2B-C45F-F346-84D8-A58199075F40}"/>
+    <hyperlink ref="E94" r:id="rId212" xr:uid="{87928C87-2EC6-0D42-9A71-44D683A914F1}"/>
+    <hyperlink ref="E93" r:id="rId213" xr:uid="{DDED75B6-BC96-C34F-8A33-88B96B0C5D73}"/>
+    <hyperlink ref="E92" r:id="rId214" display="https://www.researchgate.net/profile/Andreas_Veit/publication/301837223_Disentangling_Nonlinear_Perceptual_Embeddings_With_Multi-Query_Triplet_Networks/links/57e2997308ae040ae3c2f3a3/Disentangling-Nonlinear-Perceptual-Embeddings-With-Multi-Query-Triplet-Networks.pdf" xr:uid="{9F93F0B1-2BC7-0C46-9C04-78ED319D0912}"/>
+    <hyperlink ref="E91" r:id="rId215" xr:uid="{C117CC20-124C-424E-8E09-9B812018D0A6}"/>
+    <hyperlink ref="E90" r:id="rId216" xr:uid="{2E904AC1-6EC8-7843-B843-2F15B94041BE}"/>
+    <hyperlink ref="E89" r:id="rId217" xr:uid="{56BE9458-7FB1-214C-A122-96DE97D87BD8}"/>
+    <hyperlink ref="E88" r:id="rId218" xr:uid="{C25E2D4B-2DFF-5846-A9DE-4F99442B561A}"/>
+    <hyperlink ref="E87" r:id="rId219" xr:uid="{5512ADAD-2EBC-9743-BB56-E814C7683FFD}"/>
+    <hyperlink ref="E85" r:id="rId220" xr:uid="{516C4FBA-663D-7E4B-ADDC-1980FE5F1238}"/>
+    <hyperlink ref="E86" r:id="rId221" xr:uid="{DAF248E7-438E-784E-AF8B-63EFAD89FF00}"/>
+    <hyperlink ref="E84" r:id="rId222" xr:uid="{62F4BB00-F5BB-CC45-9C26-8057F661D21F}"/>
+    <hyperlink ref="E83" r:id="rId223" xr:uid="{C6737A2F-5E00-1741-BFE7-0E0682A19E76}"/>
+    <hyperlink ref="E82" r:id="rId224" xr:uid="{44D0A2C5-1E52-8547-84E2-4DDA0FBCB105}"/>
+    <hyperlink ref="E81" r:id="rId225" display="https://vimeo.com/285802293" xr:uid="{622FBD58-DC08-7549-A44F-B632170B42D3}"/>
+    <hyperlink ref="E80" r:id="rId226" xr:uid="{E747A436-79A2-E54C-AB94-34BE18D12CEB}"/>
+    <hyperlink ref="E79" r:id="rId227" xr:uid="{A6C92A62-5828-EA40-A4D5-890445A0E38E}"/>
+    <hyperlink ref="E78" r:id="rId228" xr:uid="{CEE4C649-7F3D-444B-A11C-F796AE8CB7D4}"/>
+    <hyperlink ref="E77" r:id="rId229" xr:uid="{308058B2-9DF1-734D-9974-FBB843AABE16}"/>
+    <hyperlink ref="E76" r:id="rId230" xr:uid="{FAB704CB-68D8-B043-B640-98465F4A70EC}"/>
+    <hyperlink ref="E75" r:id="rId231" xr:uid="{3E40E21F-EF8D-5844-AEFE-D70E44AC940F}"/>
+    <hyperlink ref="E74" r:id="rId232" xr:uid="{984FFBFE-A91A-9046-BA1A-AE493EEE7D7D}"/>
+    <hyperlink ref="E69" r:id="rId233" xr:uid="{7CEACBFE-1656-8B48-B5B0-E925C95050C8}"/>
+    <hyperlink ref="E73" r:id="rId234" xr:uid="{D21E2177-3083-8C45-A177-363CD860E664}"/>
+    <hyperlink ref="E72" r:id="rId235" xr:uid="{768E9870-CFEF-F942-B847-02342E33FF4A}"/>
+    <hyperlink ref="E71" r:id="rId236" xr:uid="{FE8783B1-4D44-054D-BDDE-D18425980D94}"/>
+    <hyperlink ref="E70" r:id="rId237" xr:uid="{C4F062B0-E20C-B046-AE17-CF48CF1FD846}"/>
+    <hyperlink ref="E68" r:id="rId238" xr:uid="{A39FA1F0-5A74-214D-8F5C-6E4E0C021C35}"/>
+    <hyperlink ref="E67" r:id="rId239" xr:uid="{213949E7-9053-B84F-9132-E709B82FB93A}"/>
+    <hyperlink ref="E66" r:id="rId240" xr:uid="{AA0452C5-98EC-F043-8D90-6F4B87260C50}"/>
+    <hyperlink ref="E65" r:id="rId241" xr:uid="{9A781361-CF96-C14C-AFDA-69BECEA920B0}"/>
+    <hyperlink ref="E64" r:id="rId242" display="https://arxiv.org/pdf/1603.02514.pdf " xr:uid="{8B166347-F3A4-0C4C-8C9F-57F08F678D86}"/>
+    <hyperlink ref="E63" r:id="rId243" xr:uid="{C0D8BD5C-0D3E-6F4C-82D3-DE299A46B1B6}"/>
+    <hyperlink ref="E62" r:id="rId244" xr:uid="{4A20FE83-D8FF-1F40-AF95-9AF006962CE4}"/>
+    <hyperlink ref="E61" r:id="rId245" xr:uid="{90B1D2EE-F4FE-C249-9554-AF6607CE2982}"/>
+    <hyperlink ref="E60" r:id="rId246" xr:uid="{0420C41B-A23E-284B-ADA0-DD11DC75C1E5}"/>
+    <hyperlink ref="E59" r:id="rId247" xr:uid="{EA47B403-405E-5243-980A-DCA6D68D4BCB}"/>
+    <hyperlink ref="E58" r:id="rId248" xr:uid="{07102C24-5D5C-1146-BADD-8B8B8C5D90ED}"/>
+    <hyperlink ref="E57" r:id="rId249" xr:uid="{A89499A2-AC73-AD4A-AB36-D06C3409177D}"/>
+    <hyperlink ref="E56" r:id="rId250" xr:uid="{0A12411D-23E4-744D-B562-D70FCC8AF978}"/>
+    <hyperlink ref="E55" r:id="rId251" xr:uid="{4F1A2511-4676-8947-B560-B304B8EE6342}"/>
+    <hyperlink ref="E54" r:id="rId252" xr:uid="{79CD9A80-6156-3146-B151-529C578C6654}"/>
+    <hyperlink ref="E53" r:id="rId253" xr:uid="{18860AEB-B914-D749-8897-DE464124F923}"/>
+    <hyperlink ref="E52" r:id="rId254" xr:uid="{A22FE584-5BEB-2044-8C54-5A209668F44A}"/>
+    <hyperlink ref="E51" r:id="rId255" xr:uid="{79E2163C-4A10-2E48-A958-B3E9A50695D8}"/>
+    <hyperlink ref="E50" r:id="rId256" xr:uid="{E4508A09-2999-C14B-BAD5-5E1D600C23D8}"/>
+    <hyperlink ref="E49" r:id="rId257" xr:uid="{33D63C2C-A122-0B41-B539-74187DA5C153}"/>
+    <hyperlink ref="E48" r:id="rId258" xr:uid="{1B1C1524-635F-654E-B016-AB1E1DFE0BD4}"/>
+    <hyperlink ref="E47" r:id="rId259" xr:uid="{AFF39D95-E577-EE4B-A025-8C0018E3ADC1}"/>
+    <hyperlink ref="E46" r:id="rId260" xr:uid="{E63017F7-D5F5-284E-991A-982F8EB606FD}"/>
+    <hyperlink ref="E45" r:id="rId261" xr:uid="{5F648001-98EB-3B45-AE26-196D439188D5}"/>
+    <hyperlink ref="E44" r:id="rId262" xr:uid="{5B554A1C-E84F-5F4A-8ED9-0A8A3458D5C8}"/>
+    <hyperlink ref="E43" r:id="rId263" xr:uid="{45F76E88-4B74-5E4B-A6D1-5B6B3848F560}"/>
+    <hyperlink ref="E42" r:id="rId264" xr:uid="{D223B593-B41D-C946-ADC3-FCF06ED17F5A}"/>
+    <hyperlink ref="E41" r:id="rId265" xr:uid="{3BDD0579-BD1A-A84A-81E0-CEA058339000}"/>
+    <hyperlink ref="E40" r:id="rId266" xr:uid="{DC8AC94E-6F60-C349-9C1C-55CD8606E658}"/>
+    <hyperlink ref="E180" r:id="rId267" xr:uid="{F82D0D5D-52FF-C648-985B-52F280F4C0B1}"/>
+    <hyperlink ref="E39" r:id="rId268" xr:uid="{7778B0B2-93E7-A245-8B4E-1F0756236DD3}"/>
+    <hyperlink ref="E38" r:id="rId269" xr:uid="{9DA57912-5201-914E-B610-3DFEBA61DF13}"/>
+    <hyperlink ref="E37" r:id="rId270" xr:uid="{89D276A0-9111-5C49-808B-037C83656A4B}"/>
+    <hyperlink ref="E36" r:id="rId271" xr:uid="{F8DAEB65-529C-1B4D-A0BD-7875BD428FFF}"/>
+    <hyperlink ref="E35" r:id="rId272" xr:uid="{8AE40189-A24F-364E-9C6F-9535A15F6207}"/>
+    <hyperlink ref="E34" r:id="rId273" xr:uid="{CD85543D-0F45-B442-8056-59A5D0CAC591}"/>
+    <hyperlink ref="E33" r:id="rId274" xr:uid="{F7877987-A307-9E4C-AC0F-4B7AD496EC66}"/>
+    <hyperlink ref="E32" r:id="rId275" xr:uid="{43AD3320-5419-134A-B915-5E7933289A5D}"/>
+    <hyperlink ref="E31" r:id="rId276" xr:uid="{527988F4-D96C-C446-A104-5289059D7AA9}"/>
+    <hyperlink ref="E30" r:id="rId277" xr:uid="{27D1D7C0-ED6E-2441-93D3-68A56636571B}"/>
+    <hyperlink ref="E29" r:id="rId278" xr:uid="{2E248752-89B7-3E41-8B9F-A87AD5816AE7}"/>
+    <hyperlink ref="E28" r:id="rId279" xr:uid="{121BDBA0-0A98-4A44-8386-EF2307896247}"/>
+    <hyperlink ref="E27" r:id="rId280" xr:uid="{F3877792-5EF0-E345-858E-9EAA5A02137E}"/>
+    <hyperlink ref="E26" r:id="rId281" xr:uid="{F86BE994-C6B8-BC4C-A3B3-7E75B1F72A04}"/>
+    <hyperlink ref="E25" r:id="rId282" xr:uid="{A7A50C8F-6111-A240-AF6D-EA48457572B0}"/>
+    <hyperlink ref="E24" r:id="rId283" xr:uid="{9176E768-ED83-FC49-A193-03365BCB5AD6}"/>
+    <hyperlink ref="E23" r:id="rId284" xr:uid="{1F64D28C-2A7E-D64A-95BA-6DDD80260DD6}"/>
+    <hyperlink ref="E22" r:id="rId285" xr:uid="{C5E08AA4-6E8B-3845-A98E-E2E9BD0B9E75}"/>
+    <hyperlink ref="E21" r:id="rId286" xr:uid="{D12AD687-5E1E-4E43-9911-0AE159A13C23}"/>
+    <hyperlink ref="E20" r:id="rId287" xr:uid="{6812D194-9452-854D-889F-C774620D4163}"/>
+    <hyperlink ref="E19" r:id="rId288" xr:uid="{56EC5D00-AC89-E542-B267-3A54495A9BA3}"/>
+    <hyperlink ref="E18" r:id="rId289" xr:uid="{BDE9D707-C6B9-0343-8C72-908B7FCB3689}"/>
+    <hyperlink ref="E17" r:id="rId290" xr:uid="{9EED600A-C6CD-1F4D-A52A-42BF5958B7EA}"/>
+    <hyperlink ref="E16" r:id="rId291" xr:uid="{66867570-F699-574F-94A0-A5D227BBEB86}"/>
+    <hyperlink ref="E15" r:id="rId292" xr:uid="{9E226031-1A93-7042-A53A-CE51DD9ABC65}"/>
+    <hyperlink ref="E14" r:id="rId293" xr:uid="{4FF6750B-469D-4C48-8700-7D71E2270C9A}"/>
+    <hyperlink ref="E13" r:id="rId294" xr:uid="{7AF440A2-1DBA-5C43-AC27-82BDE286168A}"/>
+    <hyperlink ref="E12" r:id="rId295" xr:uid="{0F4ABD6D-A0FB-044B-8F74-208BDFB0CC4A}"/>
+    <hyperlink ref="E11" r:id="rId296" xr:uid="{A2039981-9D1F-4042-BF05-5FAFF0F426E8}"/>
+    <hyperlink ref="E10" r:id="rId297" xr:uid="{710816D4-97E6-004F-B089-E1ABD789F089}"/>
+    <hyperlink ref="E9" r:id="rId298" xr:uid="{F3BAFF5B-3AA5-AF48-AE58-1178FD304899}"/>
+    <hyperlink ref="E8" r:id="rId299" xr:uid="{75736402-73CE-5647-AEB0-0C935EB06D4B}"/>
+    <hyperlink ref="E7" r:id="rId300" xr:uid="{241DAD7E-25A8-1A43-BF01-91CE111377CE}"/>
+    <hyperlink ref="E6" r:id="rId301" xr:uid="{748E930A-EA16-E44D-96D5-C065BBB5ACC9}"/>
+    <hyperlink ref="E5" r:id="rId302" xr:uid="{762BBD67-35EB-C648-8785-2882DE807AB4}"/>
+    <hyperlink ref="E4" r:id="rId303" xr:uid="{7CF8C55D-B082-7A4A-B16A-0379FC5F862C}"/>
+    <hyperlink ref="E3" r:id="rId304" xr:uid="{3D68445D-29DA-B64C-97CE-ACF8027E5FF6}"/>
+    <hyperlink ref="E2" r:id="rId305" xr:uid="{287684C2-8B7E-5848-A893-933142CE627C}"/>
+    <hyperlink ref="E200" r:id="rId306" xr:uid="{7993D877-CA9E-DD40-A813-4E18192CE47E}"/>
+    <hyperlink ref="E199" r:id="rId307" xr:uid="{BCCA6948-18C5-4E48-9249-AB77C10C7304}"/>
+    <hyperlink ref="F200" r:id="rId308" xr:uid="{AA1D75B7-7944-B24C-9169-57DBD79D9641}"/>
+    <hyperlink ref="E201" r:id="rId309" xr:uid="{E05994ED-2705-894D-9DD4-AB3EBF14A824}"/>
+    <hyperlink ref="E202" r:id="rId310" xr:uid="{3E7CD4A7-8E4E-6342-9F75-755A08F92E84}"/>
+    <hyperlink ref="E203" r:id="rId311" xr:uid="{65C41358-E16D-3B43-9AF6-0DD61B3BAC58}"/>
+    <hyperlink ref="E204" r:id="rId312" xr:uid="{4A1A7F92-6EDA-E449-AEFD-53C1C59440B2}"/>
+    <hyperlink ref="F204" r:id="rId313" xr:uid="{0DFF4DEB-BA1B-6F47-9A19-765A3D5C9E99}"/>
+    <hyperlink ref="E205" r:id="rId314" xr:uid="{2BC17AB9-F52C-5A48-875C-5920A8ACB0EA}"/>
+    <hyperlink ref="E206" r:id="rId315" xr:uid="{FE47C1EF-2477-A54A-97FE-D13FCE63D4C5}"/>
+    <hyperlink ref="E207" r:id="rId316" xr:uid="{43A08E32-39A8-9B42-AFD0-0BBBF1454F3B}"/>
+    <hyperlink ref="E208" r:id="rId317" xr:uid="{A67675B5-50BF-054F-85AA-CE49DD09D05C}"/>
+    <hyperlink ref="F208" r:id="rId318" xr:uid="{A3069929-30AA-734F-B6A2-309A0E36FDCF}"/>
+    <hyperlink ref="E209" r:id="rId319" xr:uid="{CEB657D1-0A3E-1F46-8FFA-645247356189}"/>
+    <hyperlink ref="E210" r:id="rId320" xr:uid="{002E91AF-A8B0-5B4D-8D24-DBA65AB5B61D}"/>
+    <hyperlink ref="F210" r:id="rId321" xr:uid="{F32AD366-8B24-2A4E-A881-442F3711B0EE}"/>
+    <hyperlink ref="E211" r:id="rId322" xr:uid="{37E068A2-8EEC-F549-B1EC-615A0BD6550F}"/>
+    <hyperlink ref="E212" r:id="rId323" xr:uid="{2C461F2A-FAA2-604B-B245-F8CCBCA49A5D}"/>
+    <hyperlink ref="E213" r:id="rId324" xr:uid="{25D8FE57-C24E-C345-BC6F-81F591A042DC}"/>
+    <hyperlink ref="E214" r:id="rId325" xr:uid="{21A45BE6-D947-EF41-9D3A-36570621AD86}"/>
+    <hyperlink ref="E215" r:id="rId326" xr:uid="{C2B9C176-43C4-854C-B6E2-97DF662242C6}"/>
+    <hyperlink ref="E216" r:id="rId327" xr:uid="{E60CD47F-463E-8C42-B330-6C4F765777C7}"/>
+    <hyperlink ref="E217" r:id="rId328" xr:uid="{8D2655CB-46F8-584C-A915-65E112A35A87}"/>
+    <hyperlink ref="F217" r:id="rId329" xr:uid="{136290C0-5DA6-8946-AF76-09C5DCD26019}"/>
+    <hyperlink ref="F214" r:id="rId330" xr:uid="{B2850A1C-1237-4248-BB16-A36454B5B96A}"/>
+    <hyperlink ref="E218" r:id="rId331" xr:uid="{A07AAC98-008D-9D47-87BD-DE2ADA4E4ED8}"/>
+    <hyperlink ref="E219" r:id="rId332" xr:uid="{084EA629-4980-7248-A2C6-EBFC76ECCF23}"/>
+    <hyperlink ref="E220" r:id="rId333" xr:uid="{C3AF3E87-D154-D24C-A825-7946DAB3E1E4}"/>
+    <hyperlink ref="F220" r:id="rId334" xr:uid="{659F2739-CBE4-384C-9E2D-3A4BB4A921F3}"/>
+    <hyperlink ref="E221" r:id="rId335" xr:uid="{B80534F2-8E2B-D344-A514-1FC28D9D03C5}"/>
+    <hyperlink ref="F221" r:id="rId336" xr:uid="{32E4F664-79EA-8F4C-9747-CBCA6080E915}"/>
+    <hyperlink ref="E222" r:id="rId337" xr:uid="{F1856C82-0001-A943-826B-F45114EBC3E0}"/>
+    <hyperlink ref="E223" r:id="rId338" xr:uid="{479CA383-00FC-1042-A4B7-5C902E2D3F29}"/>
+    <hyperlink ref="E224" r:id="rId339" xr:uid="{A66E28D7-A82F-F543-BC9C-EC1C4DAD9629}"/>
+    <hyperlink ref="E225" r:id="rId340" xr:uid="{17DD2431-2275-9F42-8916-0537BED613A9}"/>
+    <hyperlink ref="F225" r:id="rId341" xr:uid="{35F67E82-B585-ED4B-9DFF-957A1998F99C}"/>
+    <hyperlink ref="E226" r:id="rId342" xr:uid="{673FA506-028B-4240-A69D-5594EE18254A}"/>
+    <hyperlink ref="F226" r:id="rId343" xr:uid="{8B5B9AF9-E986-A84B-915A-D767AFA04F4C}"/>
+    <hyperlink ref="E227" r:id="rId344" xr:uid="{A95B14D6-4A79-734B-846B-1A2D08CB771B}"/>
+    <hyperlink ref="E228" r:id="rId345" xr:uid="{760E3794-BEF9-0C43-9651-F3A7E09E0753}"/>
+    <hyperlink ref="F229" r:id="rId346" xr:uid="{EFC37890-8F4B-6442-BCA0-91C8FBB3E462}"/>
+    <hyperlink ref="E229" r:id="rId347" xr:uid="{99873E87-BA69-2545-A5FF-ECB84628112E}"/>
+    <hyperlink ref="E230" r:id="rId348" xr:uid="{19625D7C-B58C-E348-8E0E-AA619E2C66A1}"/>
+    <hyperlink ref="E231" r:id="rId349" xr:uid="{9F256A76-B505-3341-AC27-9A25239AD866}"/>
+    <hyperlink ref="E232" r:id="rId350" xr:uid="{3899558B-9CEE-0944-8DD3-EE334EF6CF09}"/>
+    <hyperlink ref="E233" r:id="rId351" xr:uid="{73DD404D-CEC1-F54C-9F03-B2A34724E23A}"/>
+    <hyperlink ref="E234" r:id="rId352" xr:uid="{877CF798-E247-3342-ACE5-88899282305E}"/>
+    <hyperlink ref="E235" r:id="rId353" xr:uid="{CC8C52AA-4614-5D41-9D21-84392BB44722}"/>
+    <hyperlink ref="E236" r:id="rId354" xr:uid="{0FA88743-4B78-2042-B2A8-510DD699564B}"/>
+    <hyperlink ref="E238" r:id="rId355" xr:uid="{12E3E19E-C9BF-0F48-94B0-769EC2CE4FA9}"/>
+    <hyperlink ref="E239" r:id="rId356" xr:uid="{9F625FC2-A47B-784F-910E-7AEB9E9AF570}"/>
+    <hyperlink ref="E240" r:id="rId357" xr:uid="{EAF78CBA-F022-CE40-948E-5B86EE454CBD}"/>
+    <hyperlink ref="E241" r:id="rId358" xr:uid="{C8342FBE-5462-E64D-9D5D-0BD5BC188BD4}"/>
+    <hyperlink ref="E242" r:id="rId359" xr:uid="{A9E4FCC9-EF6E-544C-A5E5-493CBEA58013}"/>
+    <hyperlink ref="E243" r:id="rId360" xr:uid="{DAE81838-D6D6-694F-8D66-2B582E5866C8}"/>
+    <hyperlink ref="E244" r:id="rId361" xr:uid="{C17E9F31-B71E-2441-841C-F1FD09C00AE5}"/>
+    <hyperlink ref="E245" r:id="rId362" xr:uid="{894688A6-D52A-984F-9FEC-F482A58AE130}"/>
+    <hyperlink ref="E246" r:id="rId363" xr:uid="{FA18624B-43FB-CC44-ACC7-2AB750612FE5}"/>
+    <hyperlink ref="E247" r:id="rId364" xr:uid="{4D9F5CD1-A9FE-674E-BC58-9D04172B5CC3}"/>
+    <hyperlink ref="E248" r:id="rId365" xr:uid="{33479A30-184A-1544-B64A-2DDA510FE3C3}"/>
+    <hyperlink ref="E249" r:id="rId366" xr:uid="{4E2F460E-2AAB-9443-83DE-450E3725DF5E}"/>
+    <hyperlink ref="E250" r:id="rId367" xr:uid="{CE08CEA9-9E41-264E-81B6-39BDE2151C59}"/>
+    <hyperlink ref="F228" r:id="rId368" xr:uid="{060B88CB-B8C4-004D-9435-DD9F26E1E832}"/>
+    <hyperlink ref="E251" r:id="rId369" xr:uid="{B0CB209A-232A-5C46-A377-71FF2451C1EA}"/>
+    <hyperlink ref="F251" r:id="rId370" xr:uid="{0485845A-7AE7-C54D-94EB-AED9B7560C3D}"/>
+    <hyperlink ref="E252" r:id="rId371" xr:uid="{600D9EDE-E4A4-3343-8139-BD6C010DDD64}"/>
+    <hyperlink ref="E253" r:id="rId372" xr:uid="{3ECE4E72-E087-2945-B237-D046C560912D}"/>
+    <hyperlink ref="E254" r:id="rId373" display="https://www.researchgate.net/profile/Luzheng_Bi2/publication/335619300_EEG-Based_Adaptive_Driver-Vehicle_Interface_Using_Variational_Autoencoder_and_PI-TSVM/links/5d70bb234585151ee49e5a30/EEG-Based-Adaptive-Driver-Vehicle-Interface-Using-Variational-Autoencoder-and-PI-TSVM.pdf" xr:uid="{9CAFCCFE-6691-3944-8791-30CD32616A84}"/>
+    <hyperlink ref="E255" r:id="rId374" xr:uid="{712E7D56-9BFF-844B-856F-74D6C4EF3AAB}"/>
+    <hyperlink ref="E256" r:id="rId375" xr:uid="{10F166E0-EBBE-2F4C-9B72-4C1EB7956DDA}"/>
+    <hyperlink ref="E257" r:id="rId376" xr:uid="{ED964185-550D-FB40-8874-991477476028}"/>
+    <hyperlink ref="F257" r:id="rId377" xr:uid="{91B849B0-AEAE-DE41-B84A-5F6005A9ED3E}"/>
+    <hyperlink ref="F237" r:id="rId378" xr:uid="{0024C9C5-AE5C-7D4C-8334-D1709E5D070D}"/>
+    <hyperlink ref="E258" r:id="rId379" xr:uid="{E4F9C98D-F073-BC4D-B6B3-8B766F10ABCC}"/>
+    <hyperlink ref="E259" r:id="rId380" xr:uid="{4494AD4A-9F8F-E445-8B77-1F0FAFA9CABC}"/>
+    <hyperlink ref="E260" r:id="rId381" xr:uid="{15CEFA17-FEF9-DC4E-91D6-39749AFD677F}"/>
+    <hyperlink ref="E261" r:id="rId382" xr:uid="{94412141-4204-8E4A-AC7F-14B97B60D879}"/>
+    <hyperlink ref="E262" r:id="rId383" xr:uid="{08D65C89-2792-9C4F-811D-92A691E17C0F}"/>
+    <hyperlink ref="F262" r:id="rId384" display="https://github.com/sungyubkim/MINE-Mutual-Information-Neural-Estimation-" xr:uid="{A3C9CC1B-7426-CE48-8F72-C5812F92A3F5}"/>
+    <hyperlink ref="F241" r:id="rId385" location="further-rules" display="https://www.aicrowd.com/challenges/neurips-2019-disentanglement-challenge - further-rules" xr:uid="{D313F98E-A4FB-C04D-B5E3-CB5EB0C081FE}"/>
+    <hyperlink ref="E263" r:id="rId386" xr:uid="{01206444-B58F-BE44-A22E-25AB9E07CC34}"/>
+    <hyperlink ref="E264" r:id="rId387" xr:uid="{28F055E3-D626-7E40-8055-502A8C933D0D}"/>
+    <hyperlink ref="F263" r:id="rId388" xr:uid="{F429FF2F-DA24-E84E-99DC-FBCBE21A6E39}"/>
+    <hyperlink ref="E141" r:id="rId389" xr:uid="{587F3BF6-8DD3-424A-A1DF-3E08E991D6BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -16284,8 +16687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFC51FA-4B42-B247-AFC0-29136BEB1948}">
   <dimension ref="A1:AL66"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16320,123 +16723,123 @@
   <sheetData>
     <row r="1" spans="1:38" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>1379</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>1378</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>1401</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>1399</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>1394</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>1386</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>1408</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>1407</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>1414</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>1391</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>1372</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>1420</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>1395</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="W1" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>1373</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>1383</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>1375</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>1376</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>1377</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>1423</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>1380</v>
-      </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>1384</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>1402</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>1385</v>
-      </c>
       <c r="AK1" s="2" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B2">
         <v>168</v>
@@ -16469,13 +16872,13 @@
         <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="M2">
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="O2">
         <v>20</v>
@@ -16499,13 +16902,13 @@
         <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="W2">
         <v>22</v>
       </c>
       <c r="X2" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="Y2">
         <v>44</v>
@@ -16517,13 +16920,13 @@
         <v>43</v>
       </c>
       <c r="AB2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="AC2">
         <v>46</v>
       </c>
       <c r="AD2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="AE2">
         <v>161</v>
@@ -16552,7 +16955,7 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B3">
         <v>189</v>
@@ -16588,7 +16991,7 @@
         <v>126</v>
       </c>
       <c r="N3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="O3">
         <v>9</v>
@@ -16612,13 +17015,13 @@
         <v>44</v>
       </c>
       <c r="V3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="W3">
         <v>9</v>
       </c>
       <c r="X3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="Y3">
         <v>24</v>
@@ -16665,7 +17068,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C4">
         <v>54</v>
@@ -16692,7 +17095,7 @@
         <v>153</v>
       </c>
       <c r="N4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="O4">
         <v>101</v>
@@ -16704,7 +17107,7 @@
         <v>78</v>
       </c>
       <c r="R4" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="S4">
         <v>155</v>
@@ -16716,13 +17119,13 @@
         <v>164</v>
       </c>
       <c r="V4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="W4">
         <v>116</v>
       </c>
       <c r="X4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="Y4">
         <v>9</v>
@@ -16764,12 +17167,12 @@
         <v>35</v>
       </c>
       <c r="AL4" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -16790,7 +17193,7 @@
         <v>96</v>
       </c>
       <c r="N5" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="O5">
         <v>109</v>
@@ -16802,7 +17205,7 @@
         <v>10</v>
       </c>
       <c r="R5" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="S5">
         <v>149</v>
@@ -16817,10 +17220,10 @@
         <v>164</v>
       </c>
       <c r="X5" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="Y5" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="Z5">
         <v>49</v>
@@ -16838,7 +17241,7 @@
         <v>33</v>
       </c>
       <c r="AE5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="AG5">
         <v>45</v>
@@ -16858,7 +17261,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H6">
         <v>33</v>
@@ -16873,7 +17276,7 @@
         <v>162</v>
       </c>
       <c r="L6" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="N6">
         <v>38</v>
@@ -16888,7 +17291,7 @@
         <v>145</v>
       </c>
       <c r="R6" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="S6">
         <v>136</v>
@@ -16903,7 +17306,7 @@
         <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="Y6">
         <v>160</v>
@@ -16939,12 +17342,12 @@
         <v>41</v>
       </c>
       <c r="AL6" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -16986,7 +17389,7 @@
         <v>84</v>
       </c>
       <c r="X7" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="Y7">
         <v>147</v>
@@ -17024,7 +17427,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H8">
         <v>108</v>
@@ -17054,7 +17457,7 @@
         <v>131</v>
       </c>
       <c r="R8" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="T8">
         <v>40</v>
@@ -17063,13 +17466,13 @@
         <v>7</v>
       </c>
       <c r="W8" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="Y8">
         <v>25</v>
       </c>
       <c r="AA8" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="AB8">
         <v>147</v>
@@ -17098,7 +17501,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H9">
         <v>61</v>
@@ -17137,7 +17540,7 @@
         <v>2</v>
       </c>
       <c r="W9" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="Y9">
         <v>144</v>
@@ -17155,7 +17558,7 @@
         <v>9</v>
       </c>
       <c r="AE9" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="AG9">
         <v>101</v>
@@ -17169,13 +17572,13 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H10">
         <v>181</v>
       </c>
       <c r="I10" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="J10">
         <v>255</v>
@@ -17187,7 +17590,7 @@
         <v>142</v>
       </c>
       <c r="N10" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="O10">
         <v>84</v>
@@ -17208,7 +17611,7 @@
         <v>150</v>
       </c>
       <c r="Y10" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="AA10">
         <v>55</v>
@@ -17237,7 +17640,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="I11">
         <v>190</v>
@@ -17285,7 +17688,7 @@
         <v>103</v>
       </c>
       <c r="AE11" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="AG11">
         <v>164</v>
@@ -17299,7 +17702,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="K12">
         <v>102</v>
@@ -17335,7 +17738,7 @@
         <v>62</v>
       </c>
       <c r="AC12" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="AD12">
         <v>109</v>
@@ -17355,7 +17758,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="K13">
         <v>104</v>
@@ -17405,7 +17808,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="K14">
         <v>105</v>
@@ -17452,13 +17855,13 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="K15">
         <v>111</v>
       </c>
       <c r="N15" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="O15">
         <v>11</v>
@@ -17473,7 +17876,7 @@
         <v>12</v>
       </c>
       <c r="Y15" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="AA15">
         <v>13</v>
@@ -17499,13 +17902,13 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="K16">
         <v>173</v>
       </c>
       <c r="N16" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="O16">
         <v>22</v>
@@ -17546,13 +17949,13 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="K17">
         <v>189</v>
       </c>
       <c r="N17" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="O17">
         <v>158</v>
@@ -17567,7 +17970,7 @@
         <v>105</v>
       </c>
       <c r="Y17" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="AA17">
         <v>1</v>
@@ -17590,7 +17993,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="K18">
         <v>255</v>
@@ -17608,7 +18011,7 @@
         <v>106</v>
       </c>
       <c r="Y18" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AA18">
         <v>140</v>
@@ -17631,7 +18034,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="N19">
         <v>52</v>
@@ -17666,13 +18069,13 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="N20">
         <v>53</v>
       </c>
       <c r="O20" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="P20">
         <v>6</v>
@@ -17742,10 +18145,10 @@
         <v>51</v>
       </c>
       <c r="W22" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="Y22" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AA22">
         <v>159</v>
@@ -17754,7 +18157,7 @@
         <v>21</v>
       </c>
       <c r="AD22" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="AG22">
         <v>149</v>
@@ -17771,7 +18174,7 @@
         <v>131</v>
       </c>
       <c r="P23" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="W23">
         <v>122</v>
@@ -17829,7 +18232,7 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="N25" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="O25">
         <v>75</v>
@@ -17838,7 +18241,7 @@
         <v>150</v>
       </c>
       <c r="Y25" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="AA25">
         <v>144</v>
@@ -17858,7 +18261,7 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="N26" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="O26">
         <v>12</v>
@@ -17867,13 +18270,13 @@
         <v>149</v>
       </c>
       <c r="Y26" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="AA26">
         <v>56</v>
       </c>
       <c r="AC26" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="AD26">
         <v>11</v>
@@ -17893,10 +18296,10 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="Y27" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="AA27">
         <v>142</v>
@@ -18043,7 +18446,7 @@
     </row>
     <row r="33" spans="14:33" x14ac:dyDescent="0.2">
       <c r="N33" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="O33">
         <v>189</v>
@@ -18104,7 +18507,7 @@
         <v>4</v>
       </c>
       <c r="AD35" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="AG35">
         <v>185</v>
@@ -18295,7 +18698,7 @@
         <v>62</v>
       </c>
       <c r="AC45" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AD45">
         <v>2</v>
@@ -18368,7 +18771,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AA50">
         <v>87</v>
@@ -18393,7 +18796,7 @@
     </row>
     <row r="52" spans="14:30" x14ac:dyDescent="0.2">
       <c r="N52" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="P52">
         <v>124</v>
@@ -18490,7 +18893,7 @@
     </row>
     <row r="60" spans="14:30" x14ac:dyDescent="0.2">
       <c r="AD60" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="61" spans="14:30" x14ac:dyDescent="0.2">

--- a/VAE_literature.xlsx
+++ b/VAE_literature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewvowels/Desktop/PhD/Awesome-VAEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB0A487-11A3-F445-8E80-2CB6EE7D9CC1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E444A030-5957-CC43-85DD-8DC64FE1A814}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="2680" windowWidth="28800" windowHeight="15940" xr2:uid="{E4269A26-9BAE-F54F-8C24-CC08A7F9F2AA}"/>
+    <workbookView xWindow="1280" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{E4269A26-9BAE-F54F-8C24-CC08A7F9F2AA}"/>
   </bookViews>
   <sheets>
     <sheet name="by paper" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3567" uniqueCount="2550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3657" uniqueCount="2612">
   <si>
     <t>Title</t>
   </si>
@@ -4060,9 +4060,6 @@
     <t>Suter, Miladinovic, Bauer, Scholkopf</t>
   </si>
   <si>
-    <t>https://pdfs.semanticscholar.org/8028/a56d6f9d2179416d86837b447c6310bd371d.pdf?_ga=2.190184363.1450484303.1564569882-397935340.1548854421</t>
-  </si>
-  <si>
     <t xml:space="preserve">Robustly disentangled causal mechanisms: validating deep representations for interventional robustness </t>
   </si>
   <si>
@@ -7639,9 +7636,6 @@
     <t>295</t>
   </si>
   <si>
-    <t>Variational adversarial acive learning</t>
-  </si>
-  <si>
     <t>Sinha, Ebrahimi, Darrell</t>
   </si>
   <si>
@@ -7706,6 +7700,198 @@
   </si>
   <si>
     <t>Kim, Wang, Sahu, Pavlovic</t>
+  </si>
+  <si>
+    <t>Variational adversarial active learning</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>Exploiting video sequences for unsupervised disentangling in generative adversarial networks</t>
+  </si>
+  <si>
+    <t>Tuesca, Uzal</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1910.11104.pdf</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>Couple-VAE: mitigating the encoder-decoder incompatibility in variational text modeling with coupled deterministic networks</t>
+  </si>
+  <si>
+    <t>https://openreview.net/pdf?id=SJlo_TVKwS</t>
+  </si>
+  <si>
+    <t>https://ift6266h17.files.wordpress.com/2017/03/vae1.pdf</t>
+  </si>
+  <si>
+    <t>Variational Autoencoder and extensions</t>
+  </si>
+  <si>
+    <t>Courville</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>Useful slideshow, particularly for VAE-RNNs and other details that are hard to come by elsewhere.</t>
+  </si>
+  <si>
+    <t>They address the posterior collapse problem by twinning a VAE with an AE, and couple the latent space learned  by the VAE to the one learned by the encoder and prevent gradients from affecting the AE. Nice idea, nice explanation, and good results.</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>Don't blame the ELBO! A linear VAE perspective on posterior collapse</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1910.13181.pdf</t>
+  </si>
+  <si>
+    <t>Bridging the ELBO and MMD</t>
+  </si>
+  <si>
+    <t>Ucar</t>
+  </si>
+  <si>
+    <t>https://128.84.21.199/pdf/1911.02469.pdf</t>
+  </si>
+  <si>
+    <t>https://sites.google.com/view/dont-blame-the-elbo</t>
+  </si>
+  <si>
+    <t>They use linear vaes to show that posterior collapse occurs somewhat independently of the KL weight term. An interesting test and provides a useful way of measuring posterior collapse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">betaVAE, VAE, </t>
+  </si>
+  <si>
+    <t>Couple-VAE</t>
+  </si>
+  <si>
+    <t>mu-VAE</t>
+  </si>
+  <si>
+    <t>traversals, classification, samples, reconstructions, t-sne</t>
+  </si>
+  <si>
+    <t>A very simple proposal of a new objective function based on MMD that allows the means to vary whilst ensuring the average across all means is still zero, and clips them within a range. Surprisingly good results on disentanglement and classification, despite disentanglement not being a target. Very clearly written.</t>
+  </si>
+  <si>
+    <t>MNIST, MNIST fashion</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/1df4/204e14da51b05a14781e2a4dc3e0d7da562d.pdf</t>
+  </si>
+  <si>
+    <t>Learning disentangled representations for counterfactual regression</t>
+  </si>
+  <si>
+    <t>Hassanpour, Greiner</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>Learning disentangled representations for recommendation</t>
+  </si>
+  <si>
+    <t>Ma, Zhou, Cui, Yang, Zhu</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1910.14238.pdf</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8884734</t>
+  </si>
+  <si>
+    <t>A vector quantized variational autoencoder (VQ-VAE) autoregressive neural F0 model for statistical parametric speech synthesis</t>
+  </si>
+  <si>
+    <t>Wang, Takaki, Yamagishi, King, Tokuda</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/D19-6014.pdf</t>
+  </si>
+  <si>
+    <t>Diversity-aware event prediction based on a conditional variational autoencoder with reconstruction</t>
+  </si>
+  <si>
+    <t>Kiyomaru, Omura, Murawaki, Kawahara, Kurohashi</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/7416/6384ad391513e8e8bf48cbeaff2516b8c332.pdf</t>
+  </si>
+  <si>
+    <t>Learning multimodal representations with factorized deep generative models</t>
+  </si>
+  <si>
+    <t>Tsai, Liang, Zadeh, Morency, Salakhutdinov</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1911.00482.pdf</t>
+  </si>
+  <si>
+    <t>High-dimensional nonlinear profile monitoring based on deep probabilistic autoencoders</t>
+  </si>
+  <si>
+    <t>Sergin, Yan</t>
+  </si>
+  <si>
+    <t>Leveraging directed causal discovery to detect latent common causes</t>
+  </si>
+  <si>
+    <t>Lee, Hart, Richens, Johri</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1910.10174.pdf</t>
+  </si>
+  <si>
+    <t>Robust discrimination and generation of faces using compact, disentangled embeddings</t>
+  </si>
+  <si>
+    <t>Browatzki, Wallraven</t>
+  </si>
+  <si>
+    <t>http://openaccess.thecvf.com/content_ICCVW_2019/papers/RSL-CV/Browatzki_Robust_Discrimination_and_Generation_of_Faces_using_Compact_Disentangled_Embeddings_ICCVW_2019_paper.pdf</t>
+  </si>
+  <si>
+    <t>CelebA, AffectNet VGG, LFW</t>
+  </si>
+  <si>
+    <t>Nice idea which combines (about 10) loss functions (advesarial generative, adversarial reconstruction, adversarial prior, adversarial latent as well as L1 losses for reconstruction and latent partition similarity) to disentangle pose, identity, expression and style with cycle consistency in the latent space. Gets good results and good quality recon/sampling. But requires a large amount of supervision.</t>
+  </si>
+  <si>
+    <t>recognition acc.,  verification acc., style transfer, traversals, interpolations, reconstruction error</t>
+  </si>
+  <si>
+    <t>ATL, RN, VGG,</t>
+  </si>
+  <si>
+    <t>cycle-VAE, atsdm, drnet, Vunet</t>
+  </si>
+  <si>
+    <t>Comes up with a clever way of computing mutual information in order to minimise it between partitions of the latent space. Uses pairs and triplets of images to infer and distinguish pose from appearance. Gets good results!</t>
+  </si>
+  <si>
+    <t>Market 1501, Deepfashion, BBC Pose, NTU</t>
   </si>
 </sst>
 </file>
@@ -8199,10 +8385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8920E9C9-067C-A145-84FD-2821C51037F0}">
-  <dimension ref="A1:O300"/>
+  <dimension ref="A1:O313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" zoomScale="89" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="C281" sqref="C281:E300"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="75" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8226,7 +8412,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="34">
       <c r="A1" s="2" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -8305,7 +8491,7 @@
         <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>637</v>
@@ -8795,7 +8981,7 @@
         <v>13</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="34">
@@ -8947,7 +9133,7 @@
         <v>129</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>637</v>
@@ -9601,7 +9787,7 @@
         <v>425</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="102">
@@ -9750,7 +9936,7 @@
         <v>465</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>40</v>
@@ -10019,7 +10205,7 @@
         <v>523</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>637</v>
@@ -10551,7 +10737,7 @@
         <v>634</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>637</v>
@@ -10577,7 +10763,7 @@
         <v>641</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>637</v>
@@ -10723,7 +10909,7 @@
         <v>668</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>669</v>
@@ -10995,7 +11181,7 @@
         <v>20</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="N71" s="3" t="s">
         <v>637</v>
@@ -11159,7 +11345,7 @@
         <v>744</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="N75" s="3" t="s">
         <v>637</v>
@@ -11808,7 +11994,7 @@
         <v>868</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="102">
@@ -11849,7 +12035,7 @@
         <v>55</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="N93" s="3" t="s">
         <v>637</v>
@@ -13122,7 +13308,7 @@
         <v>874</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="85">
@@ -13274,7 +13460,7 @@
         <v>1162</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="N132" s="3" t="s">
         <v>637</v>
@@ -13447,7 +13633,7 @@
         <v>1201</v>
       </c>
       <c r="M136" s="7" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="N136" s="3" t="s">
         <v>637</v>
@@ -13604,7 +13790,7 @@
         <v>1227</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>1229</v>
@@ -13887,7 +14073,7 @@
         <v>1288</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>1289</v>
@@ -14030,7 +14216,7 @@
         <v>1315</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>1316</v>
@@ -14126,10 +14312,10 @@
         <v>1333</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="85">
@@ -14140,16 +14326,16 @@
         <v>16</v>
       </c>
       <c r="C157" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="E157" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="M157" s="3" t="s">
         <v>1337</v>
-      </c>
-      <c r="M157" s="3" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="51">
@@ -14160,16 +14346,16 @@
         <v>316</v>
       </c>
       <c r="C158" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="E158" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="M158" s="3" t="s">
         <v>1341</v>
-      </c>
-      <c r="M158" s="3" t="s">
-        <v>1342</v>
       </c>
       <c r="N158" s="3" t="s">
         <v>637</v>
@@ -14183,13 +14369,13 @@
         <v>28</v>
       </c>
       <c r="C159" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D159" s="3" t="s">
         <v>1343</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="E159" s="1" t="s">
         <v>1344</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>1345</v>
       </c>
       <c r="H159" s="3" t="s">
         <v>492</v>
@@ -14198,16 +14384,16 @@
         <v>874</v>
       </c>
       <c r="J159" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="K159" s="3" t="s">
         <v>1346</v>
-      </c>
-      <c r="K159" s="3" t="s">
-        <v>1347</v>
       </c>
       <c r="L159" s="3" t="s">
         <v>134</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="N159" s="3" t="s">
         <v>637</v>
@@ -14221,37 +14407,37 @@
         <v>38</v>
       </c>
       <c r="C160" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D160" s="3" t="s">
         <v>1349</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="E160" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="F160" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H160" s="3" t="s">
         <v>1351</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>1353</v>
-      </c>
-      <c r="H160" s="3" t="s">
-        <v>1352</v>
       </c>
       <c r="I160" s="3" t="s">
         <v>874</v>
       </c>
       <c r="J160" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="M160" s="3" t="s">
         <v>1354</v>
-      </c>
-      <c r="K160" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="L160" s="3" t="s">
-        <v>1357</v>
-      </c>
-      <c r="M160" s="3" t="s">
-        <v>1355</v>
       </c>
       <c r="N160" s="3" t="s">
         <v>637</v>
@@ -14265,16 +14451,16 @@
         <v>71</v>
       </c>
       <c r="C161" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D161" s="3" t="s">
         <v>1358</v>
       </c>
-      <c r="D161" s="3" t="s">
-        <v>1359</v>
-      </c>
       <c r="E161" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="M161" s="3" t="s">
         <v>1361</v>
-      </c>
-      <c r="M161" s="3" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="68">
@@ -14285,22 +14471,22 @@
         <v>38</v>
       </c>
       <c r="C162" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D162" s="3" t="s">
         <v>1363</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="E162" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="K162" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="M162" s="3" t="s">
         <v>1365</v>
-      </c>
-      <c r="K162" s="3" t="s">
-        <v>1367</v>
-      </c>
-      <c r="L162" s="3" t="s">
-        <v>1368</v>
-      </c>
-      <c r="M162" s="3" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="34">
@@ -14311,16 +14497,16 @@
         <v>16</v>
       </c>
       <c r="C163" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D163" s="3" t="s">
         <v>1412</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="E163" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="M163" s="3" t="s">
         <v>1414</v>
-      </c>
-      <c r="M163" s="3" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="51">
@@ -14331,22 +14517,22 @@
         <v>71</v>
       </c>
       <c r="C164" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>1421</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="E164" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="G164" s="3" t="s">
         <v>1423</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>1424</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>513</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="68">
@@ -14357,19 +14543,19 @@
         <v>28</v>
       </c>
       <c r="C165" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D165" s="3" t="s">
         <v>1438</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="E165" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="F165" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="G165" s="3" t="s">
         <v>1441</v>
-      </c>
-      <c r="G165" s="3" t="s">
-        <v>1442</v>
       </c>
       <c r="H165" s="3" t="s">
         <v>969</v>
@@ -14378,16 +14564,16 @@
         <v>874</v>
       </c>
       <c r="J165" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="L165" s="3" t="s">
         <v>1443</v>
       </c>
-      <c r="K165" s="3" t="s">
+      <c r="M165" s="3" t="s">
         <v>1445</v>
-      </c>
-      <c r="L165" s="3" t="s">
-        <v>1444</v>
-      </c>
-      <c r="M165" s="3" t="s">
-        <v>1446</v>
       </c>
       <c r="N165" s="3" t="s">
         <v>637</v>
@@ -14401,16 +14587,16 @@
         <v>28</v>
       </c>
       <c r="C166" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D166" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="E166" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="M166" s="3" t="s">
         <v>1454</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>1457</v>
-      </c>
-      <c r="M166" s="3" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="68">
@@ -14421,22 +14607,22 @@
         <v>71</v>
       </c>
       <c r="C167" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D167" s="3" t="s">
         <v>1492</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="E167" s="1" t="s">
         <v>1493</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="F167" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="G167" s="3" t="s">
         <v>1495</v>
       </c>
-      <c r="G167" s="3" t="s">
+      <c r="M167" s="3" t="s">
         <v>1496</v>
-      </c>
-      <c r="M167" s="3" t="s">
-        <v>1497</v>
       </c>
       <c r="N167" s="3" t="s">
         <v>637</v>
@@ -14450,19 +14636,19 @@
         <v>28</v>
       </c>
       <c r="C168" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D168" s="3" t="s">
         <v>1498</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="E168" s="1" t="s">
         <v>1499</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>1500</v>
-      </c>
       <c r="F168" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="G168" s="3" t="s">
         <v>1661</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>1662</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>40</v>
@@ -14474,7 +14660,7 @@
         <v>85</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="51">
@@ -14485,19 +14671,19 @@
         <v>38</v>
       </c>
       <c r="C169" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D169" s="3" t="s">
         <v>1501</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="E169" s="1" t="s">
         <v>1502</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="F169" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>1504</v>
-      </c>
       <c r="G169" s="3" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H169" s="3" t="s">
         <v>40</v>
@@ -14506,36 +14692,36 @@
         <v>874</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="85">
       <c r="A170" s="3" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C170" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D170" s="3" t="s">
         <v>1506</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="E170" s="1" t="s">
         <v>1507</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>1508</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>1509</v>
       </c>
       <c r="H170" s="3" t="s">
         <v>40</v>
@@ -14544,16 +14730,16 @@
         <v>874</v>
       </c>
       <c r="J170" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="K170" s="3" t="s">
         <v>1515</v>
       </c>
-      <c r="K170" s="3" t="s">
+      <c r="L170" s="3" t="s">
         <v>1516</v>
       </c>
-      <c r="L170" s="3" t="s">
+      <c r="M170" s="3" t="s">
         <v>1517</v>
-      </c>
-      <c r="M170" s="3" t="s">
-        <v>1518</v>
       </c>
       <c r="N170" s="3" t="s">
         <v>637</v>
@@ -14561,45 +14747,45 @@
     </row>
     <row r="171" spans="1:14" ht="51">
       <c r="A171" s="3" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>505</v>
       </c>
       <c r="C171" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D171" s="3" t="s">
         <v>1519</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="E171" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="M171" s="3" t="s">
         <v>1521</v>
-      </c>
-      <c r="M171" s="3" t="s">
-        <v>1522</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="136">
       <c r="A172" s="3" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C172" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D172" s="3" t="s">
         <v>1526</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="E172" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="F172" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="G172" s="3" t="s">
         <v>1529</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>1530</v>
       </c>
       <c r="H172" s="3" t="s">
         <v>40</v>
@@ -14608,16 +14794,16 @@
         <v>874</v>
       </c>
       <c r="J172" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="L172" s="3" t="s">
         <v>1692</v>
       </c>
-      <c r="K172" s="3" t="s">
-        <v>1694</v>
-      </c>
-      <c r="L172" s="3" t="s">
-        <v>1693</v>
-      </c>
       <c r="M172" s="7" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="N172" s="3" t="s">
         <v>637</v>
@@ -14625,40 +14811,40 @@
     </row>
     <row r="173" spans="1:14" ht="85">
       <c r="A173" s="3" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C173" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D173" s="3" t="s">
         <v>1532</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="E173" s="1" t="s">
         <v>1533</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>1534</v>
-      </c>
       <c r="G173" s="3" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="I173" s="3" t="s">
         <v>874</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="N173" s="3" t="s">
         <v>637</v>
@@ -14666,77 +14852,77 @@
     </row>
     <row r="174" spans="1:14" ht="68">
       <c r="A174" s="3" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C174" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D174" s="3" t="s">
         <v>1536</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="E174" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="F174" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="F174" s="1" t="s">
+      <c r="G174" s="3" t="s">
         <v>1539</v>
       </c>
-      <c r="G174" s="3" t="s">
-        <v>1540</v>
-      </c>
       <c r="M174" s="3" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="68">
       <c r="A175" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C175" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D175" s="3" t="s">
         <v>1542</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="E175" s="1" t="s">
         <v>1543</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="F175" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="F175" s="1" t="s">
+      <c r="G175" s="3" t="s">
         <v>1545</v>
       </c>
-      <c r="G175" s="3" t="s">
-        <v>1546</v>
-      </c>
       <c r="M175" s="3" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="68">
       <c r="A176" s="3" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C176" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>1548</v>
       </c>
-      <c r="D176" s="3" t="s">
-        <v>1549</v>
-      </c>
       <c r="E176" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="N176" s="3" t="s">
         <v>637</v>
@@ -14744,34 +14930,34 @@
     </row>
     <row r="177" spans="1:14" ht="85">
       <c r="A177" s="3" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C177" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D177" s="3" t="s">
         <v>1551</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="E177" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="F177" s="1" t="s">
         <v>1553</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="G177" s="3" t="s">
         <v>1554</v>
       </c>
-      <c r="G177" s="3" t="s">
-        <v>1555</v>
-      </c>
       <c r="H177" s="3" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="N177" s="3" t="s">
         <v>637</v>
@@ -14779,19 +14965,19 @@
     </row>
     <row r="178" spans="1:14" ht="51">
       <c r="A178" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>1557</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="D178" s="3" t="s">
         <v>1558</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="E178" s="1" t="s">
         <v>1559</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="G178" s="3" t="s">
         <v>1560</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>1561</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>40</v>
@@ -14800,16 +14986,16 @@
         <v>874</v>
       </c>
       <c r="J178" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="L178" s="3" t="s">
         <v>1606</v>
       </c>
-      <c r="K178" s="3" t="s">
-        <v>1605</v>
-      </c>
-      <c r="L178" s="3" t="s">
+      <c r="M178" s="3" t="s">
         <v>1607</v>
-      </c>
-      <c r="M178" s="3" t="s">
-        <v>1608</v>
       </c>
       <c r="N178" s="3" t="s">
         <v>637</v>
@@ -14817,22 +15003,22 @@
     </row>
     <row r="179" spans="1:14" ht="85">
       <c r="A179" s="3" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C179" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>1563</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="E179" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="F179" s="1" t="s">
         <v>1565</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>1566</v>
       </c>
       <c r="H179" s="3" t="s">
         <v>969</v>
@@ -14841,21 +15027,21 @@
         <v>874</v>
       </c>
       <c r="J179" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="K179" s="3" t="s">
         <v>1567</v>
       </c>
-      <c r="K179" s="3" t="s">
+      <c r="L179" s="3" t="s">
         <v>1568</v>
       </c>
-      <c r="L179" s="3" t="s">
+      <c r="M179" s="3" t="s">
         <v>1569</v>
-      </c>
-      <c r="M179" s="3" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="68">
       <c r="A180" s="3" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>71</v>
@@ -14879,68 +15065,68 @@
         <v>91</v>
       </c>
       <c r="K180" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="M180" s="3" t="s">
         <v>1824</v>
-      </c>
-      <c r="M180" s="3" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="181" spans="1:14" ht="85">
       <c r="A181" s="3" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C181" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D181" s="3" t="s">
         <v>1578</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="E181" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="F181" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="F181" s="1" t="s">
+      <c r="G181" s="3" t="s">
         <v>1581</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>1582</v>
       </c>
       <c r="I181" s="3" t="s">
         <v>874</v>
       </c>
       <c r="J181" s="3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="K181" s="3" t="s">
         <v>1682</v>
       </c>
-      <c r="K181" s="3" t="s">
+      <c r="L181" s="3" t="s">
         <v>1683</v>
       </c>
-      <c r="L181" s="3" t="s">
+      <c r="M181" s="3" t="s">
         <v>1684</v>
-      </c>
-      <c r="M181" s="3" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="68">
       <c r="A182" s="3" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D182" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>1585</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="F182" s="1" t="s">
         <v>1586</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>1587</v>
       </c>
       <c r="H182" s="3" t="s">
         <v>492</v>
@@ -14949,16 +15135,16 @@
         <v>874</v>
       </c>
       <c r="J182" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L182" s="3" t="s">
         <v>1617</v>
       </c>
-      <c r="K182" s="3" t="s">
+      <c r="M182" s="3" t="s">
         <v>1619</v>
-      </c>
-      <c r="L182" s="3" t="s">
-        <v>1618</v>
-      </c>
-      <c r="M182" s="3" t="s">
-        <v>1620</v>
       </c>
       <c r="N182" s="3" t="s">
         <v>637</v>
@@ -14966,25 +15152,25 @@
     </row>
     <row r="183" spans="1:14" ht="68">
       <c r="A183" s="3" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C183" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>1589</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="E183" s="1" t="s">
         <v>1590</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="F183" s="1" t="s">
         <v>1591</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>1592</v>
-      </c>
       <c r="G183" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H183" s="3" t="s">
         <v>40</v>
@@ -14993,16 +15179,16 @@
         <v>874</v>
       </c>
       <c r="J183" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="L183" s="3" t="s">
         <v>1669</v>
       </c>
-      <c r="K183" s="3" t="s">
+      <c r="M183" s="3" t="s">
         <v>1671</v>
-      </c>
-      <c r="L183" s="3" t="s">
-        <v>1670</v>
-      </c>
-      <c r="M183" s="3" t="s">
-        <v>1672</v>
       </c>
       <c r="N183" s="3" t="s">
         <v>637</v>
@@ -15010,25 +15196,25 @@
     </row>
     <row r="184" spans="1:14" ht="68">
       <c r="A184" s="3" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C184" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D184" s="3" t="s">
         <v>1594</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="E184" s="1" t="s">
         <v>1595</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="F184" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>1597</v>
-      </c>
       <c r="G184" s="3" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H184" s="3" t="s">
         <v>40</v>
@@ -15037,16 +15223,16 @@
         <v>874</v>
       </c>
       <c r="J184" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="L184" s="3" t="s">
         <v>1712</v>
       </c>
-      <c r="K184" s="3" t="s">
+      <c r="M184" s="3" t="s">
         <v>1715</v>
-      </c>
-      <c r="L184" s="3" t="s">
-        <v>1713</v>
-      </c>
-      <c r="M184" s="3" t="s">
-        <v>1716</v>
       </c>
       <c r="N184" s="3" t="s">
         <v>637</v>
@@ -15054,28 +15240,28 @@
     </row>
     <row r="185" spans="1:14" ht="34">
       <c r="A185" s="3" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C185" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>1599</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>1454</v>
-      </c>
-      <c r="E185" s="1" t="s">
+      <c r="K185" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="M185" s="3" t="s">
         <v>1600</v>
-      </c>
-      <c r="K185" s="3" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L185" s="3" t="s">
-        <v>1602</v>
-      </c>
-      <c r="M185" s="3" t="s">
-        <v>1601</v>
       </c>
       <c r="N185" s="3" t="s">
         <v>637</v>
@@ -15083,25 +15269,25 @@
     </row>
     <row r="186" spans="1:14" ht="153">
       <c r="A186" s="3" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C186" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>1610</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="E186" s="1" t="s">
         <v>1611</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="F186" s="1" t="s">
         <v>1612</v>
       </c>
-      <c r="F186" s="1" t="s">
+      <c r="G186" s="3" t="s">
         <v>1613</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>1614</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>40</v>
@@ -15113,33 +15299,33 @@
         <v>73</v>
       </c>
       <c r="K186" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="M186" s="3" t="s">
         <v>1615</v>
-      </c>
-      <c r="L186" s="3" t="s">
-        <v>1602</v>
-      </c>
-      <c r="M186" s="3" t="s">
-        <v>1616</v>
       </c>
     </row>
     <row r="187" spans="1:14" ht="68">
       <c r="A187" s="3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C187" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D187" s="3" t="s">
         <v>1623</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="E187" s="1" t="s">
         <v>1624</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>1625</v>
-      </c>
       <c r="G187" s="3" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H187" s="3" t="s">
         <v>40</v>
@@ -15151,62 +15337,62 @@
         <v>1299</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="188" spans="1:14" ht="34">
       <c r="A188" s="3" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>505</v>
       </c>
       <c r="C188" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D188" s="3" t="s">
         <v>1631</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="E188" s="1" t="s">
         <v>1632</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>1633</v>
       </c>
       <c r="I188" s="3" t="s">
         <v>874</v>
       </c>
       <c r="J188" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="M188" s="3" t="s">
         <v>1654</v>
-      </c>
-      <c r="K188" s="3" t="s">
-        <v>1405</v>
-      </c>
-      <c r="M188" s="3" t="s">
-        <v>1655</v>
       </c>
     </row>
     <row r="189" spans="1:14" ht="85">
       <c r="A189" s="3" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C189" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D189" s="3" t="s">
         <v>1635</v>
       </c>
-      <c r="D189" s="3" t="s">
+      <c r="E189" s="1" t="s">
         <v>1636</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>1637</v>
-      </c>
       <c r="G189" s="3" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="H189" s="3" t="s">
         <v>40</v>
@@ -15215,16 +15401,16 @@
         <v>874</v>
       </c>
       <c r="J189" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="L189" s="3" t="s">
         <v>1749</v>
       </c>
-      <c r="K189" s="3" t="s">
-        <v>1751</v>
-      </c>
-      <c r="L189" s="3" t="s">
-        <v>1750</v>
-      </c>
       <c r="M189" s="3" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="N189" s="3" t="s">
         <v>637</v>
@@ -15232,19 +15418,19 @@
     </row>
     <row r="190" spans="1:14" ht="68">
       <c r="A190" s="3" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C190" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D190" s="3" t="s">
         <v>1639</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="E190" s="1" t="s">
         <v>1640</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>1641</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>40</v>
@@ -15253,13 +15439,13 @@
         <v>874</v>
       </c>
       <c r="J190" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="K190" s="3" t="s">
         <v>1658</v>
       </c>
-      <c r="K190" s="3" t="s">
+      <c r="M190" s="3" t="s">
         <v>1659</v>
-      </c>
-      <c r="M190" s="3" t="s">
-        <v>1660</v>
       </c>
       <c r="N190" s="3" t="s">
         <v>637</v>
@@ -15267,25 +15453,25 @@
     </row>
     <row r="191" spans="1:14" ht="85">
       <c r="A191" s="3" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C191" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D191" s="3" t="s">
         <v>1643</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="E191" s="1" t="s">
         <v>1644</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="F191" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="F191" s="1" t="s">
-        <v>1646</v>
-      </c>
       <c r="G191" s="3" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="H191" s="3" t="s">
         <v>40</v>
@@ -15294,16 +15480,16 @@
         <v>874</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="K191" s="3" t="s">
+        <v>1760</v>
+      </c>
+      <c r="L191" s="3" t="s">
         <v>1761</v>
       </c>
-      <c r="L191" s="3" t="s">
-        <v>1762</v>
-      </c>
       <c r="M191" s="3" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="N191" s="3" t="s">
         <v>637</v>
@@ -15311,28 +15497,28 @@
     </row>
     <row r="192" spans="1:14" ht="68">
       <c r="A192" s="3" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C192" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D192" s="3" t="s">
         <v>1649</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="E192" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>1647</v>
-      </c>
-      <c r="F192" s="1" t="s">
+      <c r="G192" s="3" t="s">
         <v>1651</v>
       </c>
-      <c r="G192" s="3" t="s">
-        <v>1652</v>
-      </c>
       <c r="M192" s="3" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="N192" s="3" t="s">
         <v>637</v>
@@ -15340,25 +15526,25 @@
     </row>
     <row r="193" spans="1:14" ht="68">
       <c r="A193" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C193" s="3" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D193" s="3" t="s">
         <v>1664</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="E193" s="1" t="s">
         <v>1665</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="F193" s="1" t="s">
         <v>1666</v>
       </c>
-      <c r="F193" s="1" t="s">
-        <v>1667</v>
-      </c>
       <c r="G193" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H193" s="3" t="s">
         <v>40</v>
@@ -15370,36 +15556,36 @@
         <v>1153</v>
       </c>
       <c r="K193" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="L193" s="3" t="s">
         <v>1753</v>
       </c>
-      <c r="L193" s="3" t="s">
+      <c r="M193" s="3" t="s">
         <v>1754</v>
-      </c>
-      <c r="M193" s="3" t="s">
-        <v>1755</v>
       </c>
     </row>
     <row r="194" spans="1:14" ht="68">
       <c r="A194" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C194" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D194" s="3" t="s">
         <v>1674</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="E194" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="E194" s="1" t="s">
+      <c r="F194" s="1" t="s">
         <v>1676</v>
       </c>
-      <c r="F194" s="1" t="s">
+      <c r="G194" s="3" t="s">
         <v>1677</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>1678</v>
       </c>
       <c r="H194" s="3" t="s">
         <v>40</v>
@@ -15408,34 +15594,34 @@
         <v>874</v>
       </c>
       <c r="J194" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="K194" s="3" t="s">
         <v>1680</v>
       </c>
-      <c r="K194" s="3" t="s">
-        <v>1681</v>
-      </c>
       <c r="M194" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="195" spans="1:14" ht="34">
       <c r="A195" s="3" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C195" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D195" s="3" t="s">
         <v>1687</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="E195" s="1" t="s">
         <v>1688</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>1689</v>
       </c>
       <c r="F195" s="1"/>
       <c r="M195" s="3" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="N195" s="3" t="s">
         <v>637</v>
@@ -15443,25 +15629,25 @@
     </row>
     <row r="196" spans="1:14" ht="68">
       <c r="A196" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C196" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D196" s="3" t="s">
         <v>1696</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="E196" s="1" t="s">
         <v>1697</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="F196" s="1" t="s">
         <v>1698</v>
       </c>
-      <c r="F196" s="1" t="s">
+      <c r="G196" s="3" t="s">
         <v>1699</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>1700</v>
       </c>
       <c r="H196" s="3" t="s">
         <v>40</v>
@@ -15473,7 +15659,7 @@
         <v>374</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="N196" s="3" t="s">
         <v>637</v>
@@ -15481,25 +15667,25 @@
     </row>
     <row r="197" spans="1:14" ht="85">
       <c r="A197" s="3" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C197" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D197" s="3" t="s">
         <v>1702</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="E197" s="1" t="s">
         <v>1703</v>
       </c>
-      <c r="E197" s="1" t="s">
+      <c r="F197" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="F197" s="1" t="s">
-        <v>1705</v>
-      </c>
       <c r="G197" s="3" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H197" s="3" t="s">
         <v>40</v>
@@ -15508,16 +15694,16 @@
         <v>874</v>
       </c>
       <c r="J197" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="K197" s="3" t="s">
         <v>1708</v>
       </c>
-      <c r="K197" s="3" t="s">
+      <c r="L197" s="3" t="s">
         <v>1709</v>
       </c>
-      <c r="L197" s="3" t="s">
+      <c r="M197" s="3" t="s">
         <v>1710</v>
-      </c>
-      <c r="M197" s="3" t="s">
-        <v>1711</v>
       </c>
       <c r="N197" s="3" t="s">
         <v>637</v>
@@ -15525,25 +15711,25 @@
     </row>
     <row r="198" spans="1:14" ht="85">
       <c r="A198" s="3" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C198" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D198" s="3" t="s">
         <v>1718</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="E198" s="1" t="s">
         <v>1719</v>
       </c>
-      <c r="E198" s="1" t="s">
+      <c r="F198" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="F198" s="1" t="s">
+      <c r="G198" s="3" t="s">
         <v>1721</v>
-      </c>
-      <c r="G198" s="3" t="s">
-        <v>1722</v>
       </c>
       <c r="H198" s="3" t="s">
         <v>40</v>
@@ -15552,33 +15738,33 @@
         <v>874</v>
       </c>
       <c r="J198" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="L198" s="3" t="s">
         <v>1724</v>
       </c>
-      <c r="K198" s="3" t="s">
-        <v>1726</v>
-      </c>
-      <c r="L198" s="3" t="s">
-        <v>1725</v>
-      </c>
       <c r="M198" s="3" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="85">
       <c r="A199" s="3" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="H199" s="3" t="s">
         <v>492</v>
@@ -15587,74 +15773,74 @@
         <v>874</v>
       </c>
       <c r="J199" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="K199" s="3" t="s">
         <v>1733</v>
       </c>
-      <c r="K199" s="3" t="s">
+      <c r="M199" s="3" t="s">
         <v>1734</v>
-      </c>
-      <c r="M199" s="3" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="200" spans="1:14" ht="136">
       <c r="A200" s="3" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C200" s="3" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D200" s="3" t="s">
         <v>1737</v>
       </c>
-      <c r="D200" s="3" t="s">
+      <c r="E200" s="1" t="s">
         <v>1738</v>
       </c>
-      <c r="E200" s="1" t="s">
-        <v>1739</v>
-      </c>
       <c r="F200" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G200" s="3" t="s">
         <v>1741</v>
       </c>
-      <c r="G200" s="3" t="s">
+      <c r="H200" s="3" t="s">
         <v>1742</v>
-      </c>
-      <c r="H200" s="3" t="s">
-        <v>1743</v>
       </c>
       <c r="I200" s="3" t="s">
         <v>874</v>
       </c>
       <c r="J200" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="L200" s="3" t="s">
         <v>1745</v>
       </c>
-      <c r="K200" s="3" t="s">
-        <v>1744</v>
-      </c>
-      <c r="L200" s="3" t="s">
-        <v>1746</v>
-      </c>
       <c r="M200" s="3" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="201" spans="1:14" ht="51">
       <c r="A201" s="3" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C201" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D201" s="3" t="s">
         <v>1765</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="E201" s="1" t="s">
         <v>1766</v>
       </c>
-      <c r="E201" s="1" t="s">
-        <v>1767</v>
-      </c>
       <c r="G201" s="3" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="H201" s="3" t="s">
         <v>40</v>
@@ -15672,7 +15858,7 @@
         <v>874</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="N201" s="3" t="s">
         <v>637</v>
@@ -15680,39 +15866,39 @@
     </row>
     <row r="202" spans="1:14" ht="34">
       <c r="A202" s="3" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C202" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D202" s="3" t="s">
         <v>1770</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="E202" s="1" t="s">
         <v>1771</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="203" spans="1:14" ht="68">
       <c r="A203" s="3" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C203" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D203" s="3" t="s">
         <v>1774</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="E203" s="1" t="s">
         <v>1775</v>
       </c>
-      <c r="E203" s="1" t="s">
-        <v>1776</v>
-      </c>
       <c r="G203" s="3" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="H203" s="3" t="s">
         <v>40</v>
@@ -15721,36 +15907,36 @@
         <v>874</v>
       </c>
       <c r="J203" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="K203" s="3" t="s">
         <v>1779</v>
       </c>
-      <c r="K203" s="3" t="s">
-        <v>1780</v>
-      </c>
       <c r="M203" s="3" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="204" spans="1:14" ht="51">
       <c r="A204" s="3" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C204" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D204" s="3" t="s">
         <v>1782</v>
       </c>
-      <c r="D204" s="3" t="s">
+      <c r="E204" s="1" t="s">
         <v>1783</v>
       </c>
-      <c r="E204" s="1" t="s">
+      <c r="F204" s="1" t="s">
         <v>1784</v>
       </c>
-      <c r="F204" s="1" t="s">
+      <c r="G204" s="3" t="s">
         <v>1785</v>
-      </c>
-      <c r="G204" s="3" t="s">
-        <v>1786</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>492</v>
@@ -15759,16 +15945,16 @@
         <v>874</v>
       </c>
       <c r="J204" s="3" t="s">
+        <v>1805</v>
+      </c>
+      <c r="K204" s="3" t="s">
         <v>1806</v>
-      </c>
-      <c r="K204" s="3" t="s">
-        <v>1807</v>
       </c>
       <c r="L204" s="3" t="s">
         <v>55</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="N204" s="3" t="s">
         <v>637</v>
@@ -15776,22 +15962,22 @@
     </row>
     <row r="205" spans="1:14" ht="51">
       <c r="A205" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>1789</v>
       </c>
-      <c r="B205" s="3" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>1787</v>
-      </c>
-      <c r="D205" s="3" t="s">
+      <c r="E205" s="1" t="s">
         <v>1790</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>1791</v>
-      </c>
       <c r="G205" s="3" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="H205" s="3" t="s">
         <v>874</v>
@@ -15809,27 +15995,27 @@
         <v>874</v>
       </c>
       <c r="M205" s="3" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="206" spans="1:14" ht="85">
       <c r="A206" s="3" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C206" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D206" s="3" t="s">
         <v>1793</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="E206" s="1" t="s">
         <v>1794</v>
       </c>
-      <c r="E206" s="1" t="s">
-        <v>1795</v>
-      </c>
       <c r="G206" s="3" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="H206" s="3" t="s">
         <v>874</v>
@@ -15847,7 +16033,7 @@
         <v>874</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="N206" s="3" t="s">
         <v>637</v>
@@ -15855,51 +16041,51 @@
     </row>
     <row r="207" spans="1:14" ht="34">
       <c r="A207" s="3" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D207" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="M207" s="3" t="s">
         <v>1803</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>1800</v>
-      </c>
-      <c r="M207" s="3" t="s">
-        <v>1804</v>
       </c>
     </row>
     <row r="208" spans="1:14" ht="85">
       <c r="A208" s="3" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C208" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D208" s="3" t="s">
         <v>1811</v>
       </c>
-      <c r="D208" s="3" t="s">
-        <v>1812</v>
-      </c>
       <c r="E208" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>1814</v>
       </c>
-      <c r="F208" s="1" t="s">
+      <c r="G208" s="3" t="s">
         <v>1815</v>
-      </c>
-      <c r="G208" s="3" t="s">
-        <v>1816</v>
       </c>
       <c r="H208" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="N208" s="3" t="s">
         <v>637</v>
@@ -15907,19 +16093,19 @@
     </row>
     <row r="209" spans="1:14" ht="51">
       <c r="A209" s="3" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C209" s="3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D209" s="3" t="s">
         <v>1818</v>
       </c>
-      <c r="D209" s="3" t="s">
+      <c r="E209" s="1" t="s">
         <v>1819</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>1820</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>874</v>
@@ -15940,30 +16126,30 @@
         <v>874</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="210" spans="1:14" ht="102">
       <c r="A210" s="3" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C210" s="3" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D210" s="3" t="s">
         <v>1830</v>
       </c>
-      <c r="D210" s="3" t="s">
+      <c r="E210" s="1" t="s">
         <v>1831</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="F210" s="1" t="s">
         <v>1832</v>
       </c>
-      <c r="F210" s="1" t="s">
-        <v>1833</v>
-      </c>
       <c r="G210" s="3" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="H210" s="3" t="s">
         <v>544</v>
@@ -15972,16 +16158,16 @@
         <v>874</v>
       </c>
       <c r="J210" s="3" t="s">
+        <v>1847</v>
+      </c>
+      <c r="K210" s="3" t="s">
         <v>1848</v>
       </c>
-      <c r="K210" s="3" t="s">
+      <c r="L210" s="3" t="s">
         <v>1849</v>
       </c>
-      <c r="L210" s="3" t="s">
-        <v>1850</v>
-      </c>
       <c r="M210" s="3" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="N210" s="3" t="s">
         <v>637</v>
@@ -15989,85 +16175,85 @@
     </row>
     <row r="211" spans="1:14" ht="51">
       <c r="A211" s="3" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C211" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D211" s="3" t="s">
         <v>1835</v>
       </c>
-      <c r="D211" s="3" t="s">
+      <c r="E211" s="1" t="s">
         <v>1836</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="212" spans="1:14" ht="102">
       <c r="A212" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C212" s="3" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D212" s="3" t="s">
         <v>1839</v>
       </c>
-      <c r="D212" s="3" t="s">
+      <c r="E212" s="1" t="s">
         <v>1840</v>
       </c>
-      <c r="E212" s="1" t="s">
-        <v>1841</v>
-      </c>
       <c r="G212" s="3" t="s">
+        <v>1925</v>
+      </c>
+      <c r="M212" s="3" t="s">
         <v>1926</v>
-      </c>
-      <c r="M212" s="3" t="s">
-        <v>1927</v>
       </c>
     </row>
     <row r="213" spans="1:14" ht="51">
       <c r="A213" s="3" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C213" s="3" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D213" s="3" t="s">
         <v>1843</v>
       </c>
-      <c r="D213" s="3" t="s">
+      <c r="E213" s="1" t="s">
         <v>1844</v>
       </c>
-      <c r="E213" s="1" t="s">
-        <v>1845</v>
-      </c>
       <c r="G213" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="M213" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="214" spans="1:14" ht="68">
       <c r="A214" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C214" s="3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D214" s="3" t="s">
         <v>1852</v>
       </c>
-      <c r="D214" s="3" t="s">
-        <v>1853</v>
-      </c>
       <c r="E214" s="1" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>874</v>
@@ -16079,13 +16265,13 @@
         <v>73</v>
       </c>
       <c r="K214" s="3" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="L214" s="3" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="N214" s="3" t="s">
         <v>637</v>
@@ -16093,31 +16279,31 @@
     </row>
     <row r="215" spans="1:14" ht="102">
       <c r="A215" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C215" s="3" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D215" s="3" t="s">
         <v>1856</v>
       </c>
-      <c r="D215" s="3" t="s">
+      <c r="E215" s="1" t="s">
         <v>1857</v>
       </c>
-      <c r="E215" s="1" t="s">
-        <v>1858</v>
-      </c>
       <c r="G215" s="3" t="s">
+        <v>2090</v>
+      </c>
+      <c r="H215" s="3" t="s">
         <v>2091</v>
-      </c>
-      <c r="H215" s="3" t="s">
-        <v>2092</v>
       </c>
       <c r="I215" s="3" t="s">
         <v>874</v>
       </c>
       <c r="M215" s="3" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="N215" s="3" t="s">
         <v>637</v>
@@ -16125,19 +16311,19 @@
     </row>
     <row r="216" spans="1:14" ht="68">
       <c r="A216" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C216" s="3" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D216" s="3" t="s">
         <v>1860</v>
       </c>
-      <c r="D216" s="3" t="s">
+      <c r="E216" s="1" t="s">
         <v>1861</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>1862</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>874</v>
@@ -16149,13 +16335,13 @@
         <v>874</v>
       </c>
       <c r="J216" s="3" t="s">
+        <v>1863</v>
+      </c>
+      <c r="K216" s="3" t="s">
         <v>1864</v>
       </c>
-      <c r="K216" s="3" t="s">
-        <v>1865</v>
-      </c>
       <c r="M216" s="3" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="N216" s="3" t="s">
         <v>637</v>
@@ -16163,28 +16349,28 @@
     </row>
     <row r="217" spans="1:14" ht="119">
       <c r="A217" s="3" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C217" s="3" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D217" s="3" t="s">
         <v>1867</v>
       </c>
-      <c r="D217" s="3" t="s">
+      <c r="E217" s="1" t="s">
         <v>1868</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="F217" s="1" t="s">
         <v>1869</v>
       </c>
-      <c r="F217" s="1" t="s">
+      <c r="G217" s="3" t="s">
         <v>1870</v>
       </c>
-      <c r="G217" s="3" t="s">
+      <c r="H217" s="3" t="s">
         <v>1871</v>
-      </c>
-      <c r="H217" s="3" t="s">
-        <v>1872</v>
       </c>
       <c r="I217" s="3" t="s">
         <v>874</v>
@@ -16199,7 +16385,7 @@
         <v>874</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="N217" s="3" t="s">
         <v>637</v>
@@ -16207,22 +16393,22 @@
     </row>
     <row r="218" spans="1:14" ht="68">
       <c r="A218" s="3" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C218" s="3" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D218" s="3" t="s">
         <v>1879</v>
       </c>
-      <c r="D218" s="3" t="s">
+      <c r="E218" s="1" t="s">
         <v>1880</v>
       </c>
-      <c r="E218" s="1" t="s">
-        <v>1881</v>
-      </c>
       <c r="G218" s="3" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I218" s="3" t="s">
         <v>874</v>
@@ -16231,30 +16417,30 @@
         <v>73</v>
       </c>
       <c r="K218" s="3" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="219" spans="1:14" ht="51">
       <c r="A219" s="3" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C219" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D219" s="3" t="s">
         <v>1886</v>
       </c>
-      <c r="D219" s="3" t="s">
+      <c r="E219" s="1" t="s">
         <v>1887</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="M219" s="3" t="s">
         <v>1888</v>
-      </c>
-      <c r="M219" s="3" t="s">
-        <v>1889</v>
       </c>
       <c r="N219" s="3" t="s">
         <v>637</v>
@@ -16262,28 +16448,28 @@
     </row>
     <row r="220" spans="1:14" ht="51">
       <c r="A220" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C220" s="3" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D220" s="3" t="s">
         <v>1894</v>
       </c>
-      <c r="D220" s="3" t="s">
+      <c r="E220" s="1" t="s">
         <v>1895</v>
       </c>
-      <c r="E220" s="1" t="s">
+      <c r="F220" s="1" t="s">
         <v>1896</v>
       </c>
-      <c r="F220" s="1" t="s">
+      <c r="G220" s="3" t="s">
         <v>1897</v>
       </c>
-      <c r="G220" s="3" t="s">
+      <c r="M220" s="3" t="s">
         <v>1898</v>
-      </c>
-      <c r="M220" s="3" t="s">
-        <v>1899</v>
       </c>
       <c r="N220" s="3" t="s">
         <v>637</v>
@@ -16291,28 +16477,28 @@
     </row>
     <row r="221" spans="1:14" ht="68">
       <c r="A221" s="3" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C221" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D221" s="3" t="s">
         <v>1901</v>
       </c>
-      <c r="D221" s="3" t="s">
+      <c r="E221" s="1" t="s">
         <v>1902</v>
       </c>
-      <c r="E221" s="1" t="s">
+      <c r="F221" s="1" t="s">
         <v>1903</v>
       </c>
-      <c r="F221" s="1" t="s">
+      <c r="G221" s="3" t="s">
         <v>1904</v>
       </c>
-      <c r="G221" s="3" t="s">
+      <c r="M221" s="3" t="s">
         <v>1905</v>
-      </c>
-      <c r="M221" s="3" t="s">
-        <v>1906</v>
       </c>
       <c r="N221" s="3" t="s">
         <v>637</v>
@@ -16320,22 +16506,22 @@
     </row>
     <row r="222" spans="1:14" ht="68">
       <c r="A222" s="3" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C222" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D222" s="3" t="s">
         <v>1908</v>
       </c>
-      <c r="D222" s="3" t="s">
+      <c r="E222" s="1" t="s">
         <v>1909</v>
       </c>
-      <c r="E222" s="1" t="s">
-        <v>1910</v>
-      </c>
       <c r="M222" s="3" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="N222" s="3" t="s">
         <v>637</v>
@@ -16343,86 +16529,86 @@
     </row>
     <row r="223" spans="1:14" ht="34">
       <c r="A223" s="3" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C223" s="3" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D223" s="3" t="s">
         <v>1912</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="E223" s="1" t="s">
         <v>1913</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>1914</v>
       </c>
     </row>
     <row r="224" spans="1:14" ht="51">
       <c r="A224" s="3" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C224" s="3" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D224" s="3" t="s">
         <v>1916</v>
       </c>
-      <c r="D224" s="3" t="s">
+      <c r="E224" s="1" t="s">
         <v>1917</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>1918</v>
       </c>
       <c r="I224" s="3" t="s">
         <v>874</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="K224" s="3" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="M224" s="3" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="225" spans="1:14" ht="85">
       <c r="A225" s="3" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C225" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E225" s="1" t="s">
         <v>1920</v>
       </c>
-      <c r="D225" s="3" t="s">
+      <c r="F225" s="1" t="s">
         <v>1922</v>
       </c>
-      <c r="E225" s="1" t="s">
-        <v>1921</v>
-      </c>
-      <c r="F225" s="1" t="s">
+      <c r="G225" s="3" t="s">
         <v>1923</v>
-      </c>
-      <c r="G225" s="3" t="s">
-        <v>1924</v>
       </c>
       <c r="I225" s="3" t="s">
         <v>874</v>
       </c>
       <c r="J225" s="3" t="s">
+        <v>2206</v>
+      </c>
+      <c r="K225" s="3" t="s">
         <v>2207</v>
       </c>
-      <c r="K225" s="3" t="s">
+      <c r="L225" s="3" t="s">
         <v>2208</v>
       </c>
-      <c r="L225" s="3" t="s">
-        <v>2209</v>
-      </c>
       <c r="M225" s="3" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="N225" s="3" t="s">
         <v>637</v>
@@ -16430,43 +16616,43 @@
     </row>
     <row r="226" spans="1:14" ht="85">
       <c r="A226" s="3" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C226" s="3" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D226" s="3" t="s">
         <v>1929</v>
       </c>
-      <c r="D226" s="3" t="s">
+      <c r="E226" s="1" t="s">
         <v>1930</v>
       </c>
-      <c r="E226" s="1" t="s">
+      <c r="F226" s="4" t="s">
+        <v>1933</v>
+      </c>
+      <c r="G226" s="3" t="s">
         <v>1931</v>
       </c>
-      <c r="F226" s="4" t="s">
-        <v>1934</v>
-      </c>
-      <c r="G226" s="3" t="s">
-        <v>1932</v>
-      </c>
       <c r="H226" s="3" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="I226" s="3" t="s">
         <v>874</v>
       </c>
       <c r="J226" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>1935</v>
+      </c>
+      <c r="L226" s="3" t="s">
         <v>1937</v>
       </c>
-      <c r="K226" s="3" t="s">
-        <v>1936</v>
-      </c>
-      <c r="L226" s="3" t="s">
-        <v>1938</v>
-      </c>
       <c r="M226" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="N226" s="3" t="s">
         <v>637</v>
@@ -16474,48 +16660,48 @@
     </row>
     <row r="227" spans="1:14" ht="51">
       <c r="A227" s="3" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C227" s="3" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D227" s="3" t="s">
         <v>1944</v>
       </c>
-      <c r="D227" s="3" t="s">
+      <c r="E227" s="1" t="s">
         <v>1945</v>
       </c>
-      <c r="E227" s="1" t="s">
-        <v>1946</v>
-      </c>
       <c r="G227" s="3" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="M227" s="3" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="228" spans="1:14" ht="102">
       <c r="A228" s="3" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C228" s="3" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E228" s="1" t="s">
         <v>1948</v>
       </c>
-      <c r="D228" s="3" t="s">
-        <v>2079</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>1949</v>
-      </c>
       <c r="F228" s="1" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="H228" s="3" t="s">
         <v>40</v>
@@ -16527,13 +16713,13 @@
         <v>73</v>
       </c>
       <c r="K228" s="3" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="L228" s="3" t="s">
         <v>55</v>
       </c>
       <c r="M228" s="3" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="N228" s="3" t="s">
         <v>637</v>
@@ -16541,25 +16727,25 @@
     </row>
     <row r="229" spans="1:14" ht="85">
       <c r="A229" s="3" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C229" s="3" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D229" s="3" t="s">
         <v>1950</v>
       </c>
-      <c r="D229" s="3" t="s">
+      <c r="E229" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F229" s="1" t="s">
         <v>1951</v>
       </c>
-      <c r="E229" s="1" t="s">
-        <v>1953</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>1952</v>
-      </c>
       <c r="G229" s="3" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="H229" s="3" t="s">
         <v>40</v>
@@ -16571,70 +16757,70 @@
         <v>1322</v>
       </c>
       <c r="K229" s="3" t="s">
+        <v>2051</v>
+      </c>
+      <c r="L229" s="3" t="s">
         <v>2052</v>
       </c>
-      <c r="L229" s="3" t="s">
+      <c r="M229" s="3" t="s">
         <v>2053</v>
-      </c>
-      <c r="M229" s="3" t="s">
-        <v>2054</v>
       </c>
     </row>
     <row r="230" spans="1:14" ht="68">
       <c r="A230" s="3" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C230" s="3" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D230" s="3" t="s">
         <v>1959</v>
       </c>
-      <c r="D230" s="3" t="s">
+      <c r="E230" s="1" t="s">
         <v>1960</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>1961</v>
       </c>
     </row>
     <row r="231" spans="1:14" ht="68">
       <c r="A231" s="3" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>472</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="M231" s="3" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="232" spans="1:14" ht="102">
       <c r="A232" s="3" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C232" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D232" s="3" t="s">
         <v>1966</v>
       </c>
-      <c r="D232" s="3" t="s">
+      <c r="E232" s="1" t="s">
         <v>1967</v>
       </c>
-      <c r="E232" s="1" t="s">
-        <v>1968</v>
-      </c>
       <c r="G232" s="3" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="H232" s="3" t="s">
         <v>40</v>
@@ -16643,39 +16829,39 @@
         <v>874</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="K232" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="L232" s="3" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M232" s="3" t="s">
         <v>2009</v>
-      </c>
-      <c r="L232" s="3" t="s">
-        <v>2011</v>
-      </c>
-      <c r="M232" s="3" t="s">
-        <v>2010</v>
       </c>
     </row>
     <row r="233" spans="1:14" ht="51">
       <c r="A233" s="3" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C233" s="3" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E233" s="1" t="s">
         <v>1970</v>
       </c>
-      <c r="D233" s="3" t="s">
-        <v>1972</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>1971</v>
-      </c>
       <c r="G233" s="3" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="I233" s="3" t="s">
         <v>874</v>
@@ -16684,13 +16870,13 @@
         <v>549</v>
       </c>
       <c r="K233" s="3" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="L233" s="3" t="s">
+        <v>2035</v>
+      </c>
+      <c r="M233" s="3" t="s">
         <v>2036</v>
-      </c>
-      <c r="M233" s="3" t="s">
-        <v>2037</v>
       </c>
       <c r="N233" s="3" t="s">
         <v>637</v>
@@ -16698,22 +16884,22 @@
     </row>
     <row r="234" spans="1:14" ht="68">
       <c r="A234" s="3" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C234" s="3" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D234" s="3" t="s">
         <v>1974</v>
       </c>
-      <c r="D234" s="3" t="s">
+      <c r="E234" s="1" t="s">
         <v>1975</v>
       </c>
-      <c r="E234" s="1" t="s">
-        <v>1976</v>
-      </c>
       <c r="G234" s="3" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="H234" s="3" t="s">
         <v>40</v>
@@ -16722,33 +16908,33 @@
         <v>874</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="L234" s="3" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="M234" s="3" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="235" spans="1:14" ht="85">
       <c r="A235" s="3" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C235" s="3" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E235" s="1" t="s">
         <v>1977</v>
       </c>
-      <c r="D235" s="3" t="s">
-        <v>1979</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>1978</v>
-      </c>
       <c r="G235" s="3" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="H235" s="3" t="s">
         <v>40</v>
@@ -16757,16 +16943,16 @@
         <v>874</v>
       </c>
       <c r="J235" s="3" t="s">
+        <v>2126</v>
+      </c>
+      <c r="K235" s="3" t="s">
         <v>2127</v>
-      </c>
-      <c r="K235" s="3" t="s">
-        <v>2128</v>
       </c>
       <c r="L235" s="3" t="s">
         <v>55</v>
       </c>
       <c r="M235" s="3" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="N235" s="3" t="s">
         <v>637</v>
@@ -16774,28 +16960,28 @@
     </row>
     <row r="236" spans="1:14" ht="102">
       <c r="A236" s="3" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C236" s="3" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D236" s="3" t="s">
         <v>1983</v>
       </c>
-      <c r="D236" s="3" t="s">
+      <c r="E236" s="1" t="s">
         <v>1984</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>1985</v>
       </c>
       <c r="I236" s="3" t="s">
         <v>874</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="M236" s="3" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="N236" s="3" t="s">
         <v>637</v>
@@ -16803,39 +16989,39 @@
     </row>
     <row r="237" spans="1:14" ht="68">
       <c r="A237" s="3" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C237" s="3" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D237" s="3" t="s">
         <v>1987</v>
       </c>
-      <c r="D237" s="3" t="s">
+      <c r="E237" s="3" t="s">
         <v>1988</v>
       </c>
-      <c r="E237" s="3" t="s">
-        <v>1989</v>
-      </c>
       <c r="F237" s="1" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="238" spans="1:14" ht="51">
       <c r="A238" s="3" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C238" s="3" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D238" s="3" t="s">
         <v>1991</v>
       </c>
-      <c r="D238" s="3" t="s">
+      <c r="E238" s="1" t="s">
         <v>1992</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>1993</v>
       </c>
       <c r="H238" s="3" t="s">
         <v>40</v>
@@ -16847,13 +17033,13 @@
         <v>549</v>
       </c>
       <c r="K238" s="3" t="s">
+        <v>2130</v>
+      </c>
+      <c r="L238" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="M238" s="3" t="s">
         <v>2131</v>
-      </c>
-      <c r="L238" s="3" t="s">
-        <v>2130</v>
-      </c>
-      <c r="M238" s="3" t="s">
-        <v>2132</v>
       </c>
       <c r="N238" s="3" t="s">
         <v>637</v>
@@ -16861,65 +17047,65 @@
     </row>
     <row r="239" spans="1:14" ht="51">
       <c r="A239" s="3" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D239" s="3" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="M239" s="3" t="s">
         <v>1999</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>2002</v>
-      </c>
-      <c r="M239" s="3" t="s">
-        <v>2000</v>
       </c>
     </row>
     <row r="240" spans="1:14" ht="51">
       <c r="A240" s="3" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C240" s="3" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D240" s="3" t="s">
         <v>1997</v>
       </c>
-      <c r="D240" s="3" t="s">
-        <v>1998</v>
-      </c>
       <c r="E240" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="M240" s="3" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="241" spans="1:14" ht="85">
       <c r="A241" s="3" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C241" s="3" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D241" s="3" t="s">
         <v>2015</v>
       </c>
-      <c r="D241" s="3" t="s">
+      <c r="E241" s="1" t="s">
         <v>2016</v>
       </c>
-      <c r="E241" s="1" t="s">
-        <v>2017</v>
-      </c>
       <c r="F241" s="1" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="H241" s="3" t="s">
         <v>40</v>
@@ -16928,47 +17114,47 @@
         <v>874</v>
       </c>
       <c r="K241" s="3" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="L241" s="3" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="M241" s="3" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="242" spans="1:14" ht="51">
       <c r="A242" s="3" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C242" s="3" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D242" s="3" t="s">
         <v>2019</v>
       </c>
-      <c r="D242" s="3" t="s">
+      <c r="E242" s="1" t="s">
         <v>2020</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>2021</v>
       </c>
     </row>
     <row r="243" spans="1:14" ht="68">
       <c r="A243" s="3" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C243" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D243" s="3" t="s">
         <v>2023</v>
       </c>
-      <c r="D243" s="3" t="s">
+      <c r="E243" s="1" t="s">
         <v>2024</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>2025</v>
       </c>
       <c r="H243" s="3" t="s">
         <v>40</v>
@@ -16977,61 +17163,61 @@
         <v>874</v>
       </c>
       <c r="M243" s="3" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="244" spans="1:14" ht="85">
       <c r="A244" s="3" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C244" s="3" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D244" s="3" t="s">
         <v>2028</v>
       </c>
-      <c r="D244" s="3" t="s">
-        <v>2029</v>
-      </c>
       <c r="E244" s="1" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="245" spans="1:14" ht="68">
       <c r="A245" s="3" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C245" s="3" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D245" s="3" t="s">
         <v>2031</v>
       </c>
-      <c r="D245" s="3" t="s">
+      <c r="E245" s="1" t="s">
         <v>2032</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="246" spans="1:14" ht="51">
       <c r="A246" s="3" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C246" s="3" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D246" s="3" t="s">
         <v>2040</v>
       </c>
-      <c r="D246" s="3" t="s">
+      <c r="E246" s="1" t="s">
         <v>2041</v>
       </c>
-      <c r="E246" s="1" t="s">
-        <v>2042</v>
-      </c>
       <c r="G246" s="3" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="H246" s="3" t="s">
         <v>513</v>
@@ -17043,27 +17229,27 @@
         <v>374</v>
       </c>
       <c r="L246" s="3" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="M246" s="3" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="247" spans="1:14" ht="51">
       <c r="A247" s="3" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C247" s="3" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D247" s="3" t="s">
         <v>2057</v>
       </c>
-      <c r="D247" s="3" t="s">
-        <v>2058</v>
-      </c>
       <c r="E247" s="1" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="H247" s="3" t="s">
         <v>40</v>
@@ -17072,90 +17258,90 @@
         <v>874</v>
       </c>
       <c r="M247" s="3" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="248" spans="1:14" ht="85">
       <c r="A248" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C248" s="3" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D248" s="3" t="s">
         <v>2061</v>
       </c>
-      <c r="D248" s="3" t="s">
+      <c r="E248" s="1" t="s">
         <v>2062</v>
       </c>
-      <c r="E248" s="1" t="s">
-        <v>2063</v>
-      </c>
       <c r="G248" s="3" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="249" spans="1:14" ht="68">
       <c r="A249" s="3" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C249" s="3" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D249" s="3" t="s">
         <v>2067</v>
       </c>
-      <c r="D249" s="3" t="s">
+      <c r="E249" s="1" t="s">
         <v>2068</v>
       </c>
-      <c r="E249" s="1" t="s">
+      <c r="G249" s="3" t="s">
         <v>2069</v>
-      </c>
-      <c r="G249" s="3" t="s">
-        <v>2070</v>
       </c>
     </row>
     <row r="250" spans="1:14" ht="85">
       <c r="A250" s="3" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C250" s="3" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D250" s="3" t="s">
         <v>2073</v>
       </c>
-      <c r="D250" s="3" t="s">
+      <c r="E250" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G250" s="3" t="s">
         <v>2074</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>2071</v>
-      </c>
-      <c r="G250" s="3" t="s">
-        <v>2075</v>
       </c>
     </row>
     <row r="251" spans="1:14" ht="102">
       <c r="A251" s="3" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C251" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D251" s="3" t="s">
         <v>2081</v>
       </c>
-      <c r="D251" s="3" t="s">
+      <c r="E251" s="1" t="s">
         <v>2082</v>
       </c>
-      <c r="E251" s="1" t="s">
+      <c r="F251" s="1" t="s">
         <v>2083</v>
       </c>
-      <c r="F251" s="1" t="s">
+      <c r="G251" s="3" t="s">
         <v>2084</v>
-      </c>
-      <c r="G251" s="3" t="s">
-        <v>2085</v>
       </c>
       <c r="H251" s="3" t="s">
         <v>40</v>
@@ -17164,16 +17350,16 @@
         <v>874</v>
       </c>
       <c r="J251" s="3" t="s">
+        <v>2086</v>
+      </c>
+      <c r="K251" s="3" t="s">
         <v>2087</v>
       </c>
-      <c r="K251" s="3" t="s">
+      <c r="L251" s="3" t="s">
         <v>2088</v>
       </c>
-      <c r="L251" s="3" t="s">
-        <v>2089</v>
-      </c>
       <c r="M251" s="3" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="N251" s="3" t="s">
         <v>637</v>
@@ -17181,22 +17367,22 @@
     </row>
     <row r="252" spans="1:14" ht="85">
       <c r="A252" s="3" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C252" s="3" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D252" s="3" t="s">
         <v>2094</v>
       </c>
-      <c r="D252" s="3" t="s">
+      <c r="E252" s="1" t="s">
         <v>2095</v>
       </c>
-      <c r="E252" s="1" t="s">
+      <c r="G252" s="3" t="s">
         <v>2096</v>
-      </c>
-      <c r="G252" s="3" t="s">
-        <v>2097</v>
       </c>
       <c r="H252" s="3" t="s">
         <v>969</v>
@@ -17205,13 +17391,13 @@
         <v>874</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="K252" s="3" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="M252" s="3" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="N252" s="3" t="s">
         <v>637</v>
@@ -17219,56 +17405,56 @@
     </row>
     <row r="253" spans="1:14" ht="68">
       <c r="A253" s="3" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C253" s="3" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D253" s="3" t="s">
         <v>2101</v>
       </c>
-      <c r="D253" s="3" t="s">
+      <c r="E253" s="1" t="s">
         <v>2102</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>2103</v>
       </c>
     </row>
     <row r="254" spans="1:14" ht="68">
       <c r="A254" s="3" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="255" spans="1:14" ht="51">
       <c r="A255" s="3" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="D255" s="3" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E255" s="1" t="s">
         <v>2110</v>
       </c>
-      <c r="E255" s="1" t="s">
-        <v>2111</v>
-      </c>
       <c r="G255" s="3" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="H255" s="3" t="s">
         <v>40</v>
@@ -17277,144 +17463,144 @@
         <v>874</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="K255" s="3" t="s">
+        <v>2122</v>
+      </c>
+      <c r="L255" s="3" t="s">
         <v>2123</v>
       </c>
-      <c r="L255" s="3" t="s">
-        <v>2124</v>
-      </c>
       <c r="M255" s="3" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="256" spans="1:14" ht="68">
       <c r="A256" s="3" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C256" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D256" s="3" t="s">
         <v>2114</v>
       </c>
-      <c r="D256" s="3" t="s">
-        <v>2115</v>
-      </c>
       <c r="E256" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="257" spans="1:14" ht="68">
       <c r="A257" s="3" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C257" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E257" s="1" t="s">
         <v>2117</v>
       </c>
-      <c r="D257" s="3" t="s">
-        <v>2110</v>
-      </c>
-      <c r="E257" s="1" t="s">
+      <c r="F257" s="1" t="s">
         <v>2118</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>2119</v>
       </c>
     </row>
     <row r="258" spans="1:14" ht="85">
       <c r="A258" s="3" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C258" s="3" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D258" s="3" t="s">
         <v>2134</v>
       </c>
-      <c r="D258" s="3" t="s">
+      <c r="E258" s="1" t="s">
         <v>2135</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>2136</v>
       </c>
     </row>
     <row r="259" spans="1:14" ht="51">
       <c r="A259" s="3" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C259" s="3" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D259" s="3" t="s">
         <v>2138</v>
       </c>
-      <c r="D259" s="3" t="s">
+      <c r="E259" s="1" t="s">
         <v>2139</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>2140</v>
       </c>
     </row>
     <row r="260" spans="1:14" ht="85">
       <c r="A260" s="3" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C260" s="3" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D260" s="3" t="s">
         <v>2142</v>
       </c>
-      <c r="D260" s="3" t="s">
+      <c r="E260" s="1" t="s">
         <v>2143</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>2144</v>
       </c>
     </row>
     <row r="261" spans="1:14" ht="85">
       <c r="A261" s="3" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C261" s="3" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E261" s="1" t="s">
         <v>2146</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>2148</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>2147</v>
       </c>
     </row>
     <row r="262" spans="1:14" ht="68">
       <c r="A262" s="3" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C262" s="3" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D262" s="3" t="s">
         <v>2150</v>
       </c>
-      <c r="D262" s="3" t="s">
+      <c r="E262" s="1" t="s">
         <v>2151</v>
       </c>
-      <c r="E262" s="1" t="s">
+      <c r="F262" s="1" t="s">
         <v>2152</v>
       </c>
-      <c r="F262" s="1" t="s">
-        <v>2153</v>
-      </c>
       <c r="G262" s="3" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="H262" s="3" t="s">
         <v>40</v>
@@ -17423,16 +17609,16 @@
         <v>874</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="K262" s="3" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="L262" s="3" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="M262" s="3" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="N262" s="3" t="s">
         <v>637</v>
@@ -17440,48 +17626,48 @@
     </row>
     <row r="263" spans="1:14" ht="68">
       <c r="A263" s="3" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C263" s="3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D263" s="3" t="s">
         <v>2165</v>
       </c>
-      <c r="D263" s="3" t="s">
+      <c r="E263" s="1" t="s">
         <v>2166</v>
       </c>
-      <c r="E263" s="1" t="s">
-        <v>2167</v>
-      </c>
       <c r="F263" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G263" s="3" t="s">
         <v>2173</v>
       </c>
-      <c r="G263" s="3" t="s">
+      <c r="J263" s="3" t="s">
         <v>2174</v>
       </c>
-      <c r="J263" s="3" t="s">
+      <c r="M263" s="3" t="s">
         <v>2175</v>
-      </c>
-      <c r="M263" s="3" t="s">
-        <v>2176</v>
       </c>
     </row>
     <row r="264" spans="1:14" ht="51">
       <c r="A264" s="3" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C264" s="3" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D264" s="3" t="s">
         <v>2169</v>
       </c>
-      <c r="D264" s="3" t="s">
+      <c r="E264" s="1" t="s">
         <v>2170</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>2171</v>
       </c>
       <c r="N264" s="3" t="s">
         <v>637</v>
@@ -17489,25 +17675,25 @@
     </row>
     <row r="265" spans="1:14" ht="68">
       <c r="A265" s="3" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C265" s="3" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D265" s="3" t="s">
         <v>2179</v>
       </c>
-      <c r="D265" s="3" t="s">
+      <c r="E265" s="1" t="s">
         <v>2180</v>
       </c>
-      <c r="E265" s="1" t="s">
+      <c r="F265" s="1" t="s">
         <v>2181</v>
       </c>
-      <c r="F265" s="1" t="s">
-        <v>2182</v>
-      </c>
       <c r="G265" s="3" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="H265" s="3" t="s">
         <v>40</v>
@@ -17516,33 +17702,33 @@
         <v>874</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="L265" s="3" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="M265" s="3" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="266" spans="1:14" ht="68">
       <c r="A266" s="3" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C266" s="3" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>2189</v>
+      </c>
+      <c r="E266" s="1" t="s">
         <v>2188</v>
       </c>
-      <c r="D266" s="3" t="s">
-        <v>2190</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>2189</v>
-      </c>
       <c r="G266" s="3" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="H266" s="3" t="s">
         <v>40</v>
@@ -17551,133 +17737,133 @@
         <v>874</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="L266" s="3" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="M266" s="3" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="267" spans="1:14" ht="34">
       <c r="A267" s="3" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="D267" s="3" t="s">
+        <v>2195</v>
+      </c>
+      <c r="E267" s="1" t="s">
         <v>2196</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>2197</v>
       </c>
     </row>
     <row r="268" spans="1:14" ht="51">
       <c r="A268" s="3" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="269" spans="1:14" ht="68">
       <c r="A269" s="3" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C269" s="3" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D269" s="3" t="s">
         <v>2203</v>
       </c>
-      <c r="D269" s="3" t="s">
+      <c r="E269" s="1" t="s">
         <v>2204</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>2205</v>
       </c>
     </row>
     <row r="270" spans="1:14" ht="51">
       <c r="A270" s="3" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C270" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D270" s="3" t="s">
         <v>2211</v>
       </c>
-      <c r="D270" s="3" t="s">
+      <c r="E270" s="1" t="s">
         <v>2212</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>2213</v>
       </c>
     </row>
     <row r="271" spans="1:14" ht="102">
       <c r="A271" s="3" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C271" s="3" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D271" s="3" t="s">
         <v>2215</v>
       </c>
-      <c r="D271" s="3" t="s">
+      <c r="E271" s="1" t="s">
         <v>2216</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>2217</v>
       </c>
     </row>
     <row r="272" spans="1:14" ht="68">
       <c r="A272" s="3" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="I272" s="3" t="s">
         <v>874</v>
       </c>
       <c r="J272" s="3" t="s">
+        <v>2224</v>
+      </c>
+      <c r="K272" s="3" t="s">
         <v>2225</v>
       </c>
-      <c r="K272" s="3" t="s">
-        <v>2226</v>
-      </c>
       <c r="L272" s="3" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="M272" s="3" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="N272" s="3" t="s">
         <v>637</v>
@@ -17685,22 +17871,22 @@
     </row>
     <row r="273" spans="1:14" ht="51">
       <c r="A273" s="3" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C273" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D273" s="3" t="s">
         <v>2228</v>
       </c>
-      <c r="D273" s="3" t="s">
+      <c r="E273" s="1" t="s">
         <v>2229</v>
       </c>
-      <c r="E273" s="1" t="s">
+      <c r="M273" s="3" t="s">
         <v>2230</v>
-      </c>
-      <c r="M273" s="3" t="s">
-        <v>2231</v>
       </c>
       <c r="N273" s="3" t="s">
         <v>637</v>
@@ -17708,22 +17894,22 @@
     </row>
     <row r="274" spans="1:14" ht="136">
       <c r="A274" s="3" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C274" s="3" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D274" s="3" t="s">
         <v>2233</v>
       </c>
-      <c r="D274" s="3" t="s">
+      <c r="E274" s="1" t="s">
         <v>2234</v>
       </c>
-      <c r="E274" s="1" t="s">
-        <v>2235</v>
-      </c>
       <c r="G274" s="3" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="H274" s="3" t="s">
         <v>40</v>
@@ -17732,16 +17918,16 @@
         <v>874</v>
       </c>
       <c r="J274" s="3" t="s">
+        <v>2236</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>2235</v>
+      </c>
+      <c r="L274" s="3" t="s">
         <v>2237</v>
       </c>
-      <c r="K274" s="3" t="s">
-        <v>2236</v>
-      </c>
-      <c r="L274" s="3" t="s">
-        <v>2238</v>
-      </c>
       <c r="M274" s="3" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="N274" s="3" t="s">
         <v>637</v>
@@ -17749,22 +17935,22 @@
     </row>
     <row r="275" spans="1:14" ht="68">
       <c r="A275" s="3" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C275" s="3" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D275" s="3" t="s">
         <v>2240</v>
       </c>
-      <c r="D275" s="3" t="s">
+      <c r="E275" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="E275" s="1" t="s">
-        <v>2242</v>
-      </c>
       <c r="G275" s="3" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="H275" s="3" t="s">
         <v>40</v>
@@ -17773,16 +17959,16 @@
         <v>874</v>
       </c>
       <c r="J275" s="3" t="s">
+        <v>2437</v>
+      </c>
+      <c r="K275" s="3" t="s">
         <v>2438</v>
       </c>
-      <c r="K275" s="3" t="s">
-        <v>2439</v>
-      </c>
       <c r="L275" s="3" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="M275" s="3" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="N275" s="3" t="s">
         <v>637</v>
@@ -17790,22 +17976,22 @@
     </row>
     <row r="276" spans="1:14" ht="51">
       <c r="A276" s="3" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C276" s="3" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D276" s="3" t="s">
         <v>2246</v>
       </c>
-      <c r="D276" s="3" t="s">
+      <c r="E276" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="E276" s="1" t="s">
+      <c r="G276" s="3" t="s">
         <v>2248</v>
-      </c>
-      <c r="G276" s="3" t="s">
-        <v>2249</v>
       </c>
       <c r="H276" s="3" t="s">
         <v>40</v>
@@ -17816,71 +18002,71 @@
     </row>
     <row r="277" spans="1:14" ht="34">
       <c r="A277" s="3" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C277" s="3" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D277" s="3" t="s">
         <v>2430</v>
       </c>
-      <c r="D277" s="3" t="s">
+      <c r="E277" s="1" t="s">
         <v>2431</v>
       </c>
-      <c r="E277" s="1" t="s">
-        <v>2432</v>
-      </c>
       <c r="F277" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="H277" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M277" s="3" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="278" spans="1:14" ht="68">
       <c r="A278" s="3" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C278" s="3" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D278" s="3" t="s">
         <v>2441</v>
       </c>
-      <c r="D278" s="3" t="s">
+      <c r="E278" s="1" t="s">
         <v>2442</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>2443</v>
       </c>
     </row>
     <row r="279" spans="1:14" ht="51">
       <c r="A279" s="3" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C279" s="3" t="s">
+        <v>2443</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E279" s="1" t="s">
         <v>2444</v>
       </c>
-      <c r="D279" s="3" t="s">
-        <v>2446</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>2445</v>
-      </c>
       <c r="G279" s="3" t="s">
+        <v>2469</v>
+      </c>
+      <c r="K279" s="3" t="s">
         <v>2470</v>
       </c>
-      <c r="K279" s="3" t="s">
-        <v>2471</v>
-      </c>
       <c r="M279" s="3" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="N279" s="3" t="s">
         <v>637</v>
@@ -17888,51 +18074,51 @@
     </row>
     <row r="280" spans="1:14" ht="85">
       <c r="A280" s="3" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>809</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="G280" s="3" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="K280" s="3" t="s">
         <v>49</v>
       </c>
       <c r="L280" s="3" t="s">
+        <v>2472</v>
+      </c>
+      <c r="M280" s="3" t="s">
         <v>2473</v>
-      </c>
-      <c r="M280" s="3" t="s">
-        <v>2474</v>
       </c>
     </row>
     <row r="281" spans="1:14" ht="85">
       <c r="A281" s="3" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C281" s="3" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D281" s="3" t="s">
         <v>2453</v>
       </c>
-      <c r="D281" s="3" t="s">
+      <c r="E281" s="1" t="s">
         <v>2454</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>2455</v>
       </c>
       <c r="H281" s="3" t="s">
         <v>492</v>
@@ -17941,13 +18127,13 @@
         <v>874</v>
       </c>
       <c r="J281" s="3" t="s">
+        <v>2460</v>
+      </c>
+      <c r="K281" s="3" t="s">
         <v>2461</v>
       </c>
-      <c r="K281" s="3" t="s">
-        <v>2462</v>
-      </c>
       <c r="M281" s="3" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="N281" s="3" t="s">
         <v>637</v>
@@ -17955,40 +18141,40 @@
     </row>
     <row r="282" spans="1:14" ht="51">
       <c r="A282" s="3" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C282" s="3" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D282" s="3" t="s">
         <v>2457</v>
       </c>
-      <c r="D282" s="3" t="s">
+      <c r="E282" s="1" t="s">
         <v>2458</v>
       </c>
-      <c r="E282" s="1" t="s">
-        <v>2459</v>
-      </c>
       <c r="F282" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>2462</v>
+      </c>
+      <c r="H282" s="3" t="s">
         <v>2465</v>
-      </c>
-      <c r="G282" s="3" t="s">
-        <v>2463</v>
-      </c>
-      <c r="H282" s="3" t="s">
-        <v>2466</v>
       </c>
       <c r="I282" s="3" t="s">
         <v>874</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="L282" s="3" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="M282" s="3" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="N282" s="3" t="s">
         <v>637</v>
@@ -17996,314 +18182,610 @@
     </row>
     <row r="283" spans="1:14" ht="51">
       <c r="A283" s="3" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C283" s="3" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D283" s="3" t="s">
         <v>2477</v>
       </c>
-      <c r="D283" s="3" t="s">
+      <c r="E283" s="1" t="s">
         <v>2478</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>2479</v>
       </c>
     </row>
     <row r="284" spans="1:14" ht="68">
       <c r="A284" s="3" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C284" s="3" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D284" s="3" t="s">
         <v>2481</v>
       </c>
-      <c r="D284" s="3" t="s">
-        <v>2482</v>
-      </c>
       <c r="E284" s="4" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="285" spans="1:14" ht="85">
       <c r="A285" s="3" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D285" s="3" t="s">
+        <v>2485</v>
+      </c>
+      <c r="E285" s="1" t="s">
         <v>2486</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>2487</v>
       </c>
     </row>
     <row r="286" spans="1:14" ht="85">
       <c r="A286" s="3" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C286" s="3" t="s">
+        <v>2487</v>
+      </c>
+      <c r="D286" s="3" t="s">
         <v>2488</v>
       </c>
-      <c r="D286" s="3" t="s">
-        <v>2489</v>
-      </c>
       <c r="E286" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="287" spans="1:14" ht="51">
       <c r="A287" s="3" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C287" s="3" t="s">
+        <v>2491</v>
+      </c>
+      <c r="D287" s="3" t="s">
         <v>2492</v>
       </c>
-      <c r="D287" s="3" t="s">
+      <c r="E287" s="1" t="s">
         <v>2493</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>2494</v>
       </c>
     </row>
     <row r="288" spans="1:14" ht="68">
       <c r="A288" s="3" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C288" s="3" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>2497</v>
+      </c>
+      <c r="E288" s="1" t="s">
         <v>2496</v>
       </c>
-      <c r="D288" s="3" t="s">
-        <v>2498</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" ht="68">
+      <c r="J288" s="3" t="s">
+        <v>2611</v>
+      </c>
+      <c r="L288" s="3" t="s">
+        <v>2609</v>
+      </c>
+      <c r="M288" s="3" t="s">
+        <v>2610</v>
+      </c>
+      <c r="N288" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" ht="68">
       <c r="A289" s="3" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C289" s="3" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D289" s="3" t="s">
         <v>2501</v>
       </c>
-      <c r="D289" s="3" t="s">
-        <v>2502</v>
-      </c>
       <c r="E289" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>2504</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" ht="51">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" ht="51">
       <c r="A290" s="3" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C290" s="3" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D290" s="3" t="s">
         <v>2505</v>
       </c>
-      <c r="D290" s="3" t="s">
+      <c r="E290" s="1" t="s">
         <v>2506</v>
       </c>
-      <c r="E290" s="1" t="s">
-        <v>2507</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" ht="51">
+    </row>
+    <row r="291" spans="1:14" ht="51">
       <c r="A291" s="3" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C291" s="3" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D291" s="3" t="s">
         <v>2509</v>
       </c>
-      <c r="D291" s="3" t="s">
+      <c r="E291" s="4" t="s">
         <v>2510</v>
       </c>
-      <c r="E291" s="4" t="s">
-        <v>2511</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" ht="102">
+    </row>
+    <row r="292" spans="1:14" ht="102">
       <c r="A292" s="3" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C292" s="3" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D292" s="3" t="s">
         <v>2514</v>
       </c>
-      <c r="D292" s="3" t="s">
-        <v>2515</v>
-      </c>
       <c r="E292" s="1" t="s">
-        <v>2513</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" ht="85">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" ht="85">
       <c r="A293" s="3" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C293" s="3" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D293" s="3" t="s">
         <v>2517</v>
       </c>
-      <c r="D293" s="3" t="s">
+      <c r="E293" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="E293" s="1" t="s">
-        <v>2519</v>
-      </c>
       <c r="G293" s="3" t="s">
-        <v>2521</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" ht="68">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" ht="68">
       <c r="A294" s="3" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="D294" s="3" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E294" s="1" t="s">
         <v>2524</v>
       </c>
-      <c r="E294" s="1" t="s">
+    </row>
+    <row r="295" spans="1:14" ht="34">
+      <c r="A295" s="3" t="s">
         <v>2525</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" ht="34">
-      <c r="A295" s="3" t="s">
-        <v>2526</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C295" s="3" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>2526</v>
+      </c>
+      <c r="E295" s="1" t="s">
         <v>2527</v>
       </c>
-      <c r="D295" s="3" t="s">
-        <v>2528</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>2529</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" ht="34">
+    </row>
+    <row r="296" spans="1:14" ht="34">
       <c r="A296" s="3" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C296" s="3" t="s">
+        <v>2528</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>2529</v>
+      </c>
+      <c r="E296" s="1" t="s">
         <v>2530</v>
       </c>
-      <c r="D296" s="3" t="s">
-        <v>2531</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>2532</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" ht="102">
+    </row>
+    <row r="297" spans="1:14" ht="102">
       <c r="A297" s="3" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="D297" s="3" t="s">
+        <v>2533</v>
+      </c>
+      <c r="E297" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="E297" s="1" t="s">
-        <v>2537</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" ht="51">
+    </row>
+    <row r="298" spans="1:14" ht="51">
       <c r="A298" s="3" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C298" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>2539</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" ht="51">
+      <c r="A299" s="3" t="s">
         <v>2540</v>
-      </c>
-      <c r="D298" s="3" t="s">
-        <v>2541</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>2539</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" ht="51">
-      <c r="A299" s="3" t="s">
-        <v>2542</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C299" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>2542</v>
+      </c>
+      <c r="E299" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="D299" s="3" t="s">
+    </row>
+    <row r="300" spans="1:14" ht="68">
+      <c r="A300" s="3" t="s">
         <v>2544</v>
-      </c>
-      <c r="E299" s="1" t="s">
-        <v>2545</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" ht="68">
-      <c r="A300" s="3" t="s">
-        <v>2546</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C300" s="3" t="s">
+        <v>2545</v>
+      </c>
+      <c r="D300" s="3" t="s">
         <v>2547</v>
       </c>
-      <c r="D300" s="3" t="s">
+      <c r="E300" s="1" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" ht="68">
+      <c r="A301" s="3" t="s">
         <v>2549</v>
       </c>
-      <c r="E300" s="1" t="s">
-        <v>2548</v>
+      <c r="B301" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>2551</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" ht="102">
+      <c r="A302" s="3" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>2572</v>
+      </c>
+      <c r="M302" s="3" t="s">
+        <v>2561</v>
+      </c>
+      <c r="N302" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" ht="34">
+      <c r="A303" s="3" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="M303" s="3" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N303" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" ht="51">
+      <c r="A304" s="3" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>2563</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>2569</v>
+      </c>
+      <c r="M304" s="3" t="s">
+        <v>2570</v>
+      </c>
+      <c r="N304" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" ht="85">
+      <c r="A305" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>2567</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="G305" s="3" t="s">
+        <v>2573</v>
+      </c>
+      <c r="H305" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I305" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="J305" s="3" t="s">
+        <v>2576</v>
+      </c>
+      <c r="K305" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="L305" s="3" t="s">
+        <v>2571</v>
+      </c>
+      <c r="M305" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="N305" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" ht="51">
+      <c r="A306" s="3" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>2579</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" ht="51">
+      <c r="A307" s="3" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" ht="102">
+      <c r="A308" s="3" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" ht="85">
+      <c r="A309" s="3" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" ht="68">
+      <c r="A310" s="3" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" ht="68">
+      <c r="A311" s="3" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" ht="51">
+      <c r="A312" s="3" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>2600</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" ht="119">
+      <c r="A313" s="3" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>2603</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="J313" s="3" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K313" s="3" t="s">
+        <v>2607</v>
+      </c>
+      <c r="L313" s="3" t="s">
+        <v>2608</v>
+      </c>
+      <c r="M313" s="3" t="s">
+        <v>2606</v>
+      </c>
+      <c r="N313" s="3" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -18462,284 +18944,298 @@
     <hyperlink ref="E159" r:id="rId148" xr:uid="{46E7F4C9-0590-A444-8193-8B0AC58635EE}"/>
     <hyperlink ref="E158" r:id="rId149" xr:uid="{70137826-5422-1C4D-A37B-0327C14D3857}"/>
     <hyperlink ref="E157" r:id="rId150" xr:uid="{C3B2F743-DB09-714F-AAC8-26F4A976F4A1}"/>
-    <hyperlink ref="E156" r:id="rId151" xr:uid="{EA741AE6-B64F-0842-A44B-740F4938D332}"/>
-    <hyperlink ref="E155" r:id="rId152" xr:uid="{B77DFE6E-DF8B-6C40-9CC6-97F566E506A7}"/>
-    <hyperlink ref="E154" r:id="rId153" xr:uid="{2610CD40-58DA-3443-BCF3-0DDA57BF2EBF}"/>
-    <hyperlink ref="E153" r:id="rId154" xr:uid="{5B44294D-4F3B-F247-AA46-A5C128CCC7B1}"/>
-    <hyperlink ref="E152" r:id="rId155" xr:uid="{40848DF5-5697-654D-9768-823D16E96E17}"/>
-    <hyperlink ref="E151" r:id="rId156" xr:uid="{D072C7EE-2722-0945-9046-9728DFE828CB}"/>
-    <hyperlink ref="E150" r:id="rId157" xr:uid="{BEEC9054-91C6-A845-BB1C-3D18E3B01B3B}"/>
-    <hyperlink ref="E149" r:id="rId158" display="http://2017.ds3-datascience-polytechnique.fr/wp-content/uploads/2017/08/DS3_posterID_048.pdf" xr:uid="{D7DBC5A5-DD78-9A49-ACC3-278298EF2657}"/>
-    <hyperlink ref="E148" r:id="rId159" xr:uid="{902221B1-2DAB-034F-ABA5-F27372499274}"/>
-    <hyperlink ref="E147" r:id="rId160" xr:uid="{6DFCF6FC-28DF-4B4F-9C1A-6A3CB6A9F198}"/>
-    <hyperlink ref="E146" r:id="rId161" xr:uid="{257B33F0-3E19-994B-927D-39D66AB5E6FE}"/>
-    <hyperlink ref="E145" r:id="rId162" xr:uid="{7BBFA0E6-D261-2C47-B54A-EEC2A56EA4BC}"/>
-    <hyperlink ref="E144" r:id="rId163" xr:uid="{2A396368-4C6B-C546-AC33-C34CCE2D9C5D}"/>
-    <hyperlink ref="E143" r:id="rId164" xr:uid="{AC31FE78-95C0-614D-A7D7-ADB8CD5233BE}"/>
-    <hyperlink ref="E142" r:id="rId165" xr:uid="{C8D784F4-ADC7-C640-B063-4A9851B78236}"/>
-    <hyperlink ref="E140" r:id="rId166" xr:uid="{43EB408C-3B93-994A-8898-82238E8739F9}"/>
-    <hyperlink ref="E139" r:id="rId167" xr:uid="{C60401B6-D284-6C4E-84C3-1BDA6B7640B6}"/>
-    <hyperlink ref="E138" r:id="rId168" xr:uid="{76904A68-77E0-E84A-ABE2-B56CD32ADDAC}"/>
-    <hyperlink ref="E136" r:id="rId169" xr:uid="{FBD75AE4-0EB2-FD40-841D-368F3496C12F}"/>
-    <hyperlink ref="E135" r:id="rId170" xr:uid="{A73ADDDA-E55D-C642-A7B0-1C9733D25C90}"/>
-    <hyperlink ref="E134" r:id="rId171" xr:uid="{F493203C-B67A-A04C-B651-697767C0178D}"/>
-    <hyperlink ref="E133" r:id="rId172" xr:uid="{B1EC8237-12A7-3A40-BBB8-96E16CBC9DF5}"/>
-    <hyperlink ref="E132" r:id="rId173" xr:uid="{2E3CACB3-FC71-D74B-883C-3C51D1F9DBE4}"/>
-    <hyperlink ref="N2" r:id="rId174" display="https://github.com/youngleec/DeepGenerativeModels" xr:uid="{7C19B556-F84E-9548-9605-4F03B891A0CE}"/>
-    <hyperlink ref="E131" r:id="rId175" xr:uid="{73C29958-F4B1-6F4D-93B2-79B552DCC173}"/>
-    <hyperlink ref="E130" r:id="rId176" xr:uid="{7CCE2187-C43D-2242-AD18-AA309394F575}"/>
-    <hyperlink ref="E129" r:id="rId177" xr:uid="{A4775757-53F8-8B45-A9AB-F9FA216E5E7D}"/>
-    <hyperlink ref="E128" r:id="rId178" xr:uid="{21CBC9DE-D28B-F44A-92EB-F8634F1C8E38}"/>
-    <hyperlink ref="E127" r:id="rId179" xr:uid="{A2ACA7AD-6F8D-0D4C-8CA3-B9DD24FAFFFD}"/>
-    <hyperlink ref="E126" r:id="rId180" xr:uid="{1F435C60-1DB2-2045-87EB-3E7260719A00}"/>
-    <hyperlink ref="E125" r:id="rId181" display="https://arxiv.org/pdf/1807.09356.pdf" xr:uid="{47022A3F-BCFE-0F41-A4FD-71A0A5723034}"/>
-    <hyperlink ref="E124" r:id="rId182" xr:uid="{3CA89AC3-6C9E-F94A-8E36-55A9E9213956}"/>
-    <hyperlink ref="E123" r:id="rId183" xr:uid="{71581D31-D5D9-3C41-BBBE-C91547CD9BB5}"/>
-    <hyperlink ref="E122" r:id="rId184" xr:uid="{7AF8E4B5-20A3-914B-9FC1-65A6E9366D9F}"/>
-    <hyperlink ref="E121" r:id="rId185" xr:uid="{A231E325-CE15-7140-BE90-B16A05F79CEC}"/>
-    <hyperlink ref="E120" r:id="rId186" xr:uid="{45E16E6F-5876-7F4E-A651-C033578D1BF5}"/>
-    <hyperlink ref="E119" r:id="rId187" xr:uid="{63DA334F-C94A-E048-90C4-875223E78FC5}"/>
-    <hyperlink ref="E118" r:id="rId188" xr:uid="{C18394C9-4A26-E74D-9DC2-C0D9F976DADB}"/>
-    <hyperlink ref="E117" r:id="rId189" xr:uid="{D7AC6EC2-DB28-3741-A801-3A2C591F4372}"/>
-    <hyperlink ref="E116" r:id="rId190" xr:uid="{D2DAFDA3-8DA0-3A41-96F1-B984A9677C2C}"/>
-    <hyperlink ref="E115" r:id="rId191" xr:uid="{8F34129F-53F3-954B-A4F8-CAC1641CE73E}"/>
-    <hyperlink ref="E114" r:id="rId192" xr:uid="{1170A079-E568-984D-976D-7AE8038329A4}"/>
-    <hyperlink ref="E113" r:id="rId193" xr:uid="{B1B4AAC3-2EC0-A242-B03E-D3DD8CDD4D35}"/>
-    <hyperlink ref="E112" r:id="rId194" xr:uid="{E7286F66-EB9A-8A44-B020-368B51630404}"/>
-    <hyperlink ref="E111" r:id="rId195" xr:uid="{7C88A0B1-AB52-C74A-897A-E363A0D0760E}"/>
-    <hyperlink ref="E110" r:id="rId196" xr:uid="{8B59613E-4094-6A47-85CE-3930B922B05E}"/>
-    <hyperlink ref="E109" r:id="rId197" xr:uid="{FA49247A-4FCE-354A-9C19-9C470523BB9E}"/>
-    <hyperlink ref="E107" r:id="rId198" xr:uid="{CD3C7D2D-EEFE-2F4E-8931-74B5D8DF2E21}"/>
-    <hyperlink ref="E108" r:id="rId199" xr:uid="{B8B026B2-62AA-5246-9B24-694AB774E853}"/>
-    <hyperlink ref="E106" r:id="rId200" xr:uid="{E753D5F3-08CF-9246-9558-415DD1101F17}"/>
-    <hyperlink ref="E105" r:id="rId201" xr:uid="{05EA7040-AA80-1E42-A739-CD5C42969BE7}"/>
-    <hyperlink ref="E104" r:id="rId202" xr:uid="{A250D5D1-B878-7545-B73E-C6227C1D4A48}"/>
-    <hyperlink ref="E103" r:id="rId203" xr:uid="{A1420B55-22FD-9947-AC05-9689708F4724}"/>
-    <hyperlink ref="E102" r:id="rId204" xr:uid="{01F2916E-934C-E545-BA10-9732E4ED82E6}"/>
-    <hyperlink ref="E101" r:id="rId205" xr:uid="{D068A7A1-29ED-CD4E-96E0-3BA4B68000EC}"/>
-    <hyperlink ref="E100" r:id="rId206" xr:uid="{7BB2D929-A5A0-E145-A0D4-0AAE845F0F67}"/>
-    <hyperlink ref="E99" r:id="rId207" xr:uid="{87733583-A3A0-F540-93A3-4E32D7F6E240}"/>
-    <hyperlink ref="E98" r:id="rId208" xr:uid="{3222C550-264B-204A-B320-72C3DD3ACEA3}"/>
-    <hyperlink ref="E97" r:id="rId209" xr:uid="{ED598E9F-E756-FD4F-B307-2AEE261DD300}"/>
-    <hyperlink ref="E96" r:id="rId210" xr:uid="{3115AF41-F576-B146-BE2F-9752BCF8626F}"/>
-    <hyperlink ref="E95" r:id="rId211" xr:uid="{2C8DFE2B-C45F-F346-84D8-A58199075F40}"/>
-    <hyperlink ref="E94" r:id="rId212" xr:uid="{87928C87-2EC6-0D42-9A71-44D683A914F1}"/>
-    <hyperlink ref="E93" r:id="rId213" xr:uid="{DDED75B6-BC96-C34F-8A33-88B96B0C5D73}"/>
-    <hyperlink ref="E92" r:id="rId214" display="https://www.researchgate.net/profile/Andreas_Veit/publication/301837223_Disentangling_Nonlinear_Perceptual_Embeddings_With_Multi-Query_Triplet_Networks/links/57e2997308ae040ae3c2f3a3/Disentangling-Nonlinear-Perceptual-Embeddings-With-Multi-Query-Triplet-Networks.pdf" xr:uid="{9F93F0B1-2BC7-0C46-9C04-78ED319D0912}"/>
-    <hyperlink ref="E91" r:id="rId215" xr:uid="{C117CC20-124C-424E-8E09-9B812018D0A6}"/>
-    <hyperlink ref="E90" r:id="rId216" xr:uid="{2E904AC1-6EC8-7843-B843-2F15B94041BE}"/>
-    <hyperlink ref="E89" r:id="rId217" xr:uid="{56BE9458-7FB1-214C-A122-96DE97D87BD8}"/>
-    <hyperlink ref="E88" r:id="rId218" xr:uid="{C25E2D4B-2DFF-5846-A9DE-4F99442B561A}"/>
-    <hyperlink ref="E87" r:id="rId219" xr:uid="{5512ADAD-2EBC-9743-BB56-E814C7683FFD}"/>
-    <hyperlink ref="E85" r:id="rId220" xr:uid="{516C4FBA-663D-7E4B-ADDC-1980FE5F1238}"/>
-    <hyperlink ref="E86" r:id="rId221" xr:uid="{DAF248E7-438E-784E-AF8B-63EFAD89FF00}"/>
-    <hyperlink ref="E84" r:id="rId222" xr:uid="{62F4BB00-F5BB-CC45-9C26-8057F661D21F}"/>
-    <hyperlink ref="E83" r:id="rId223" xr:uid="{C6737A2F-5E00-1741-BFE7-0E0682A19E76}"/>
-    <hyperlink ref="E82" r:id="rId224" xr:uid="{44D0A2C5-1E52-8547-84E2-4DDA0FBCB105}"/>
-    <hyperlink ref="E81" r:id="rId225" display="https://vimeo.com/285802293" xr:uid="{622FBD58-DC08-7549-A44F-B632170B42D3}"/>
-    <hyperlink ref="E80" r:id="rId226" xr:uid="{E747A436-79A2-E54C-AB94-34BE18D12CEB}"/>
-    <hyperlink ref="E79" r:id="rId227" xr:uid="{A6C92A62-5828-EA40-A4D5-890445A0E38E}"/>
-    <hyperlink ref="E78" r:id="rId228" xr:uid="{CEE4C649-7F3D-444B-A11C-F796AE8CB7D4}"/>
-    <hyperlink ref="E77" r:id="rId229" xr:uid="{308058B2-9DF1-734D-9974-FBB843AABE16}"/>
-    <hyperlink ref="E76" r:id="rId230" xr:uid="{FAB704CB-68D8-B043-B640-98465F4A70EC}"/>
-    <hyperlink ref="E75" r:id="rId231" xr:uid="{3E40E21F-EF8D-5844-AEFE-D70E44AC940F}"/>
-    <hyperlink ref="E74" r:id="rId232" xr:uid="{984FFBFE-A91A-9046-BA1A-AE493EEE7D7D}"/>
-    <hyperlink ref="E69" r:id="rId233" xr:uid="{7CEACBFE-1656-8B48-B5B0-E925C95050C8}"/>
-    <hyperlink ref="E73" r:id="rId234" xr:uid="{D21E2177-3083-8C45-A177-363CD860E664}"/>
-    <hyperlink ref="E72" r:id="rId235" xr:uid="{768E9870-CFEF-F942-B847-02342E33FF4A}"/>
-    <hyperlink ref="E71" r:id="rId236" xr:uid="{FE8783B1-4D44-054D-BDDE-D18425980D94}"/>
-    <hyperlink ref="E70" r:id="rId237" xr:uid="{C4F062B0-E20C-B046-AE17-CF48CF1FD846}"/>
-    <hyperlink ref="E68" r:id="rId238" xr:uid="{A39FA1F0-5A74-214D-8F5C-6E4E0C021C35}"/>
-    <hyperlink ref="E67" r:id="rId239" xr:uid="{213949E7-9053-B84F-9132-E709B82FB93A}"/>
-    <hyperlink ref="E66" r:id="rId240" xr:uid="{AA0452C5-98EC-F043-8D90-6F4B87260C50}"/>
-    <hyperlink ref="E65" r:id="rId241" xr:uid="{9A781361-CF96-C14C-AFDA-69BECEA920B0}"/>
-    <hyperlink ref="E64" r:id="rId242" display="https://arxiv.org/pdf/1603.02514.pdf " xr:uid="{8B166347-F3A4-0C4C-8C9F-57F08F678D86}"/>
-    <hyperlink ref="E63" r:id="rId243" xr:uid="{C0D8BD5C-0D3E-6F4C-82D3-DE299A46B1B6}"/>
-    <hyperlink ref="E62" r:id="rId244" xr:uid="{4A20FE83-D8FF-1F40-AF95-9AF006962CE4}"/>
-    <hyperlink ref="E61" r:id="rId245" xr:uid="{90B1D2EE-F4FE-C249-9554-AF6607CE2982}"/>
-    <hyperlink ref="E60" r:id="rId246" xr:uid="{0420C41B-A23E-284B-ADA0-DD11DC75C1E5}"/>
-    <hyperlink ref="E59" r:id="rId247" xr:uid="{EA47B403-405E-5243-980A-DCA6D68D4BCB}"/>
-    <hyperlink ref="E58" r:id="rId248" xr:uid="{07102C24-5D5C-1146-BADD-8B8B8C5D90ED}"/>
-    <hyperlink ref="E57" r:id="rId249" xr:uid="{A89499A2-AC73-AD4A-AB36-D06C3409177D}"/>
-    <hyperlink ref="E56" r:id="rId250" xr:uid="{0A12411D-23E4-744D-B562-D70FCC8AF978}"/>
-    <hyperlink ref="E55" r:id="rId251" xr:uid="{4F1A2511-4676-8947-B560-B304B8EE6342}"/>
-    <hyperlink ref="E54" r:id="rId252" xr:uid="{79CD9A80-6156-3146-B151-529C578C6654}"/>
-    <hyperlink ref="E53" r:id="rId253" xr:uid="{18860AEB-B914-D749-8897-DE464124F923}"/>
-    <hyperlink ref="E52" r:id="rId254" xr:uid="{A22FE584-5BEB-2044-8C54-5A209668F44A}"/>
-    <hyperlink ref="E51" r:id="rId255" xr:uid="{79E2163C-4A10-2E48-A958-B3E9A50695D8}"/>
-    <hyperlink ref="E50" r:id="rId256" xr:uid="{E4508A09-2999-C14B-BAD5-5E1D600C23D8}"/>
-    <hyperlink ref="E49" r:id="rId257" xr:uid="{33D63C2C-A122-0B41-B539-74187DA5C153}"/>
-    <hyperlink ref="E48" r:id="rId258" xr:uid="{1B1C1524-635F-654E-B016-AB1E1DFE0BD4}"/>
-    <hyperlink ref="E47" r:id="rId259" xr:uid="{AFF39D95-E577-EE4B-A025-8C0018E3ADC1}"/>
-    <hyperlink ref="E46" r:id="rId260" xr:uid="{E63017F7-D5F5-284E-991A-982F8EB606FD}"/>
-    <hyperlink ref="E45" r:id="rId261" xr:uid="{5F648001-98EB-3B45-AE26-196D439188D5}"/>
-    <hyperlink ref="E44" r:id="rId262" xr:uid="{5B554A1C-E84F-5F4A-8ED9-0A8A3458D5C8}"/>
-    <hyperlink ref="E43" r:id="rId263" xr:uid="{45F76E88-4B74-5E4B-A6D1-5B6B3848F560}"/>
-    <hyperlink ref="E42" r:id="rId264" xr:uid="{D223B593-B41D-C946-ADC3-FCF06ED17F5A}"/>
-    <hyperlink ref="E41" r:id="rId265" xr:uid="{3BDD0579-BD1A-A84A-81E0-CEA058339000}"/>
-    <hyperlink ref="E40" r:id="rId266" xr:uid="{DC8AC94E-6F60-C349-9C1C-55CD8606E658}"/>
-    <hyperlink ref="E180" r:id="rId267" xr:uid="{F82D0D5D-52FF-C648-985B-52F280F4C0B1}"/>
-    <hyperlink ref="E39" r:id="rId268" xr:uid="{7778B0B2-93E7-A245-8B4E-1F0756236DD3}"/>
-    <hyperlink ref="E38" r:id="rId269" xr:uid="{9DA57912-5201-914E-B610-3DFEBA61DF13}"/>
-    <hyperlink ref="E37" r:id="rId270" xr:uid="{89D276A0-9111-5C49-808B-037C83656A4B}"/>
-    <hyperlink ref="E36" r:id="rId271" xr:uid="{F8DAEB65-529C-1B4D-A0BD-7875BD428FFF}"/>
-    <hyperlink ref="E35" r:id="rId272" xr:uid="{8AE40189-A24F-364E-9C6F-9535A15F6207}"/>
-    <hyperlink ref="E34" r:id="rId273" xr:uid="{CD85543D-0F45-B442-8056-59A5D0CAC591}"/>
-    <hyperlink ref="E33" r:id="rId274" xr:uid="{F7877987-A307-9E4C-AC0F-4B7AD496EC66}"/>
-    <hyperlink ref="E32" r:id="rId275" xr:uid="{43AD3320-5419-134A-B915-5E7933289A5D}"/>
-    <hyperlink ref="E31" r:id="rId276" xr:uid="{527988F4-D96C-C446-A104-5289059D7AA9}"/>
-    <hyperlink ref="E30" r:id="rId277" xr:uid="{27D1D7C0-ED6E-2441-93D3-68A56636571B}"/>
-    <hyperlink ref="E29" r:id="rId278" xr:uid="{2E248752-89B7-3E41-8B9F-A87AD5816AE7}"/>
-    <hyperlink ref="E28" r:id="rId279" xr:uid="{121BDBA0-0A98-4A44-8386-EF2307896247}"/>
-    <hyperlink ref="E27" r:id="rId280" xr:uid="{F3877792-5EF0-E345-858E-9EAA5A02137E}"/>
-    <hyperlink ref="E26" r:id="rId281" xr:uid="{F86BE994-C6B8-BC4C-A3B3-7E75B1F72A04}"/>
-    <hyperlink ref="E25" r:id="rId282" xr:uid="{A7A50C8F-6111-A240-AF6D-EA48457572B0}"/>
-    <hyperlink ref="E24" r:id="rId283" xr:uid="{9176E768-ED83-FC49-A193-03365BCB5AD6}"/>
-    <hyperlink ref="E23" r:id="rId284" xr:uid="{1F64D28C-2A7E-D64A-95BA-6DDD80260DD6}"/>
-    <hyperlink ref="E22" r:id="rId285" xr:uid="{C5E08AA4-6E8B-3845-A98E-E2E9BD0B9E75}"/>
-    <hyperlink ref="E21" r:id="rId286" xr:uid="{D12AD687-5E1E-4E43-9911-0AE159A13C23}"/>
-    <hyperlink ref="E20" r:id="rId287" xr:uid="{6812D194-9452-854D-889F-C774620D4163}"/>
-    <hyperlink ref="E19" r:id="rId288" xr:uid="{56EC5D00-AC89-E542-B267-3A54495A9BA3}"/>
-    <hyperlink ref="E18" r:id="rId289" xr:uid="{BDE9D707-C6B9-0343-8C72-908B7FCB3689}"/>
-    <hyperlink ref="E17" r:id="rId290" xr:uid="{9EED600A-C6CD-1F4D-A52A-42BF5958B7EA}"/>
-    <hyperlink ref="E16" r:id="rId291" xr:uid="{66867570-F699-574F-94A0-A5D227BBEB86}"/>
-    <hyperlink ref="E15" r:id="rId292" xr:uid="{9E226031-1A93-7042-A53A-CE51DD9ABC65}"/>
-    <hyperlink ref="E14" r:id="rId293" xr:uid="{4FF6750B-469D-4C48-8700-7D71E2270C9A}"/>
-    <hyperlink ref="E13" r:id="rId294" xr:uid="{7AF440A2-1DBA-5C43-AC27-82BDE286168A}"/>
-    <hyperlink ref="E12" r:id="rId295" xr:uid="{0F4ABD6D-A0FB-044B-8F74-208BDFB0CC4A}"/>
-    <hyperlink ref="E11" r:id="rId296" xr:uid="{A2039981-9D1F-4042-BF05-5FAFF0F426E8}"/>
-    <hyperlink ref="E10" r:id="rId297" xr:uid="{710816D4-97E6-004F-B089-E1ABD789F089}"/>
-    <hyperlink ref="E9" r:id="rId298" xr:uid="{F3BAFF5B-3AA5-AF48-AE58-1178FD304899}"/>
-    <hyperlink ref="E8" r:id="rId299" xr:uid="{75736402-73CE-5647-AEB0-0C935EB06D4B}"/>
-    <hyperlink ref="E7" r:id="rId300" xr:uid="{241DAD7E-25A8-1A43-BF01-91CE111377CE}"/>
-    <hyperlink ref="E6" r:id="rId301" xr:uid="{748E930A-EA16-E44D-96D5-C065BBB5ACC9}"/>
-    <hyperlink ref="E5" r:id="rId302" xr:uid="{762BBD67-35EB-C648-8785-2882DE807AB4}"/>
-    <hyperlink ref="E4" r:id="rId303" xr:uid="{7CF8C55D-B082-7A4A-B16A-0379FC5F862C}"/>
-    <hyperlink ref="E3" r:id="rId304" xr:uid="{3D68445D-29DA-B64C-97CE-ACF8027E5FF6}"/>
-    <hyperlink ref="E2" r:id="rId305" xr:uid="{287684C2-8B7E-5848-A893-933142CE627C}"/>
-    <hyperlink ref="E200" r:id="rId306" xr:uid="{7993D877-CA9E-DD40-A813-4E18192CE47E}"/>
-    <hyperlink ref="E199" r:id="rId307" xr:uid="{BCCA6948-18C5-4E48-9249-AB77C10C7304}"/>
-    <hyperlink ref="F200" r:id="rId308" xr:uid="{AA1D75B7-7944-B24C-9169-57DBD79D9641}"/>
-    <hyperlink ref="E201" r:id="rId309" xr:uid="{E05994ED-2705-894D-9DD4-AB3EBF14A824}"/>
-    <hyperlink ref="E202" r:id="rId310" xr:uid="{3E7CD4A7-8E4E-6342-9F75-755A08F92E84}"/>
-    <hyperlink ref="E203" r:id="rId311" xr:uid="{65C41358-E16D-3B43-9AF6-0DD61B3BAC58}"/>
-    <hyperlink ref="E204" r:id="rId312" xr:uid="{4A1A7F92-6EDA-E449-AEFD-53C1C59440B2}"/>
-    <hyperlink ref="F204" r:id="rId313" xr:uid="{0DFF4DEB-BA1B-6F47-9A19-765A3D5C9E99}"/>
-    <hyperlink ref="E205" r:id="rId314" xr:uid="{2BC17AB9-F52C-5A48-875C-5920A8ACB0EA}"/>
-    <hyperlink ref="E206" r:id="rId315" xr:uid="{FE47C1EF-2477-A54A-97FE-D13FCE63D4C5}"/>
-    <hyperlink ref="E207" r:id="rId316" xr:uid="{43A08E32-39A8-9B42-AFD0-0BBBF1454F3B}"/>
-    <hyperlink ref="E208" r:id="rId317" xr:uid="{A67675B5-50BF-054F-85AA-CE49DD09D05C}"/>
-    <hyperlink ref="F208" r:id="rId318" xr:uid="{A3069929-30AA-734F-B6A2-309A0E36FDCF}"/>
-    <hyperlink ref="E209" r:id="rId319" xr:uid="{CEB657D1-0A3E-1F46-8FFA-645247356189}"/>
-    <hyperlink ref="F210" r:id="rId320" xr:uid="{F32AD366-8B24-2A4E-A881-442F3711B0EE}"/>
-    <hyperlink ref="E211" r:id="rId321" xr:uid="{37E068A2-8EEC-F549-B1EC-615A0BD6550F}"/>
-    <hyperlink ref="E212" r:id="rId322" xr:uid="{2C461F2A-FAA2-604B-B245-F8CCBCA49A5D}"/>
-    <hyperlink ref="E213" r:id="rId323" xr:uid="{25D8FE57-C24E-C345-BC6F-81F591A042DC}"/>
-    <hyperlink ref="E214" r:id="rId324" xr:uid="{21A45BE6-D947-EF41-9D3A-36570621AD86}"/>
-    <hyperlink ref="E215" r:id="rId325" xr:uid="{C2B9C176-43C4-854C-B6E2-97DF662242C6}"/>
-    <hyperlink ref="E216" r:id="rId326" xr:uid="{E60CD47F-463E-8C42-B330-6C4F765777C7}"/>
-    <hyperlink ref="E217" r:id="rId327" xr:uid="{8D2655CB-46F8-584C-A915-65E112A35A87}"/>
-    <hyperlink ref="F217" r:id="rId328" xr:uid="{136290C0-5DA6-8946-AF76-09C5DCD26019}"/>
-    <hyperlink ref="F214" r:id="rId329" xr:uid="{B2850A1C-1237-4248-BB16-A36454B5B96A}"/>
-    <hyperlink ref="E218" r:id="rId330" xr:uid="{A07AAC98-008D-9D47-87BD-DE2ADA4E4ED8}"/>
-    <hyperlink ref="E219" r:id="rId331" xr:uid="{084EA629-4980-7248-A2C6-EBFC76ECCF23}"/>
-    <hyperlink ref="E220" r:id="rId332" xr:uid="{C3AF3E87-D154-D24C-A825-7946DAB3E1E4}"/>
-    <hyperlink ref="F220" r:id="rId333" xr:uid="{659F2739-CBE4-384C-9E2D-3A4BB4A921F3}"/>
-    <hyperlink ref="E221" r:id="rId334" xr:uid="{B80534F2-8E2B-D344-A514-1FC28D9D03C5}"/>
-    <hyperlink ref="F221" r:id="rId335" xr:uid="{32E4F664-79EA-8F4C-9747-CBCA6080E915}"/>
-    <hyperlink ref="E222" r:id="rId336" xr:uid="{F1856C82-0001-A943-826B-F45114EBC3E0}"/>
-    <hyperlink ref="E223" r:id="rId337" xr:uid="{479CA383-00FC-1042-A4B7-5C902E2D3F29}"/>
-    <hyperlink ref="E224" r:id="rId338" xr:uid="{A66E28D7-A82F-F543-BC9C-EC1C4DAD9629}"/>
-    <hyperlink ref="E225" r:id="rId339" xr:uid="{17DD2431-2275-9F42-8916-0537BED613A9}"/>
-    <hyperlink ref="F225" r:id="rId340" xr:uid="{35F67E82-B585-ED4B-9DFF-957A1998F99C}"/>
-    <hyperlink ref="E226" r:id="rId341" xr:uid="{673FA506-028B-4240-A69D-5594EE18254A}"/>
-    <hyperlink ref="F226" r:id="rId342" xr:uid="{8B5B9AF9-E986-A84B-915A-D767AFA04F4C}"/>
-    <hyperlink ref="E227" r:id="rId343" xr:uid="{A95B14D6-4A79-734B-846B-1A2D08CB771B}"/>
-    <hyperlink ref="E228" r:id="rId344" xr:uid="{760E3794-BEF9-0C43-9651-F3A7E09E0753}"/>
-    <hyperlink ref="F229" r:id="rId345" xr:uid="{EFC37890-8F4B-6442-BCA0-91C8FBB3E462}"/>
-    <hyperlink ref="E229" r:id="rId346" xr:uid="{99873E87-BA69-2545-A5FF-ECB84628112E}"/>
-    <hyperlink ref="E230" r:id="rId347" xr:uid="{19625D7C-B58C-E348-8E0E-AA619E2C66A1}"/>
-    <hyperlink ref="E231" r:id="rId348" xr:uid="{9F256A76-B505-3341-AC27-9A25239AD866}"/>
-    <hyperlink ref="E232" r:id="rId349" xr:uid="{3899558B-9CEE-0944-8DD3-EE334EF6CF09}"/>
-    <hyperlink ref="E233" r:id="rId350" xr:uid="{73DD404D-CEC1-F54C-9F03-B2A34724E23A}"/>
-    <hyperlink ref="E234" r:id="rId351" xr:uid="{877CF798-E247-3342-ACE5-88899282305E}"/>
-    <hyperlink ref="E235" r:id="rId352" xr:uid="{CC8C52AA-4614-5D41-9D21-84392BB44722}"/>
-    <hyperlink ref="E236" r:id="rId353" xr:uid="{0FA88743-4B78-2042-B2A8-510DD699564B}"/>
-    <hyperlink ref="E238" r:id="rId354" xr:uid="{12E3E19E-C9BF-0F48-94B0-769EC2CE4FA9}"/>
-    <hyperlink ref="E239" r:id="rId355" xr:uid="{9F625FC2-A47B-784F-910E-7AEB9E9AF570}"/>
-    <hyperlink ref="E240" r:id="rId356" xr:uid="{EAF78CBA-F022-CE40-948E-5B86EE454CBD}"/>
-    <hyperlink ref="E241" r:id="rId357" xr:uid="{C8342FBE-5462-E64D-9D5D-0BD5BC188BD4}"/>
-    <hyperlink ref="E242" r:id="rId358" xr:uid="{A9E4FCC9-EF6E-544C-A5E5-493CBEA58013}"/>
-    <hyperlink ref="E243" r:id="rId359" xr:uid="{DAE81838-D6D6-694F-8D66-2B582E5866C8}"/>
-    <hyperlink ref="E244" r:id="rId360" xr:uid="{C17E9F31-B71E-2441-841C-F1FD09C00AE5}"/>
-    <hyperlink ref="E245" r:id="rId361" xr:uid="{894688A6-D52A-984F-9FEC-F482A58AE130}"/>
-    <hyperlink ref="E246" r:id="rId362" xr:uid="{FA18624B-43FB-CC44-ACC7-2AB750612FE5}"/>
-    <hyperlink ref="E247" r:id="rId363" xr:uid="{4D9F5CD1-A9FE-674E-BC58-9D04172B5CC3}"/>
-    <hyperlink ref="E248" r:id="rId364" xr:uid="{33479A30-184A-1544-B64A-2DDA510FE3C3}"/>
-    <hyperlink ref="E249" r:id="rId365" xr:uid="{4E2F460E-2AAB-9443-83DE-450E3725DF5E}"/>
-    <hyperlink ref="E250" r:id="rId366" xr:uid="{CE08CEA9-9E41-264E-81B6-39BDE2151C59}"/>
-    <hyperlink ref="F228" r:id="rId367" xr:uid="{060B88CB-B8C4-004D-9435-DD9F26E1E832}"/>
-    <hyperlink ref="E251" r:id="rId368" xr:uid="{B0CB209A-232A-5C46-A377-71FF2451C1EA}"/>
-    <hyperlink ref="F251" r:id="rId369" xr:uid="{0485845A-7AE7-C54D-94EB-AED9B7560C3D}"/>
-    <hyperlink ref="E252" r:id="rId370" xr:uid="{600D9EDE-E4A4-3343-8139-BD6C010DDD64}"/>
-    <hyperlink ref="E253" r:id="rId371" xr:uid="{3ECE4E72-E087-2945-B237-D046C560912D}"/>
-    <hyperlink ref="E254" r:id="rId372" display="https://www.researchgate.net/profile/Luzheng_Bi2/publication/335619300_EEG-Based_Adaptive_Driver-Vehicle_Interface_Using_Variational_Autoencoder_and_PI-TSVM/links/5d70bb234585151ee49e5a30/EEG-Based-Adaptive-Driver-Vehicle-Interface-Using-Variational-Autoencoder-and-PI-TSVM.pdf" xr:uid="{9CAFCCFE-6691-3944-8791-30CD32616A84}"/>
-    <hyperlink ref="E255" r:id="rId373" xr:uid="{712E7D56-9BFF-844B-856F-74D6C4EF3AAB}"/>
-    <hyperlink ref="E256" r:id="rId374" xr:uid="{10F166E0-EBBE-2F4C-9B72-4C1EB7956DDA}"/>
-    <hyperlink ref="E257" r:id="rId375" xr:uid="{ED964185-550D-FB40-8874-991477476028}"/>
-    <hyperlink ref="F257" r:id="rId376" xr:uid="{91B849B0-AEAE-DE41-B84A-5F6005A9ED3E}"/>
-    <hyperlink ref="F237" r:id="rId377" xr:uid="{0024C9C5-AE5C-7D4C-8334-D1709E5D070D}"/>
-    <hyperlink ref="E258" r:id="rId378" xr:uid="{E4F9C98D-F073-BC4D-B6B3-8B766F10ABCC}"/>
-    <hyperlink ref="E259" r:id="rId379" xr:uid="{4494AD4A-9F8F-E445-8B77-1F0FAFA9CABC}"/>
-    <hyperlink ref="E260" r:id="rId380" xr:uid="{15CEFA17-FEF9-DC4E-91D6-39749AFD677F}"/>
-    <hyperlink ref="E261" r:id="rId381" xr:uid="{94412141-4204-8E4A-AC7F-14B97B60D879}"/>
-    <hyperlink ref="E262" r:id="rId382" xr:uid="{08D65C89-2792-9C4F-811D-92A691E17C0F}"/>
-    <hyperlink ref="F262" r:id="rId383" display="https://github.com/sungyubkim/MINE-Mutual-Information-Neural-Estimation-" xr:uid="{A3C9CC1B-7426-CE48-8F72-C5812F92A3F5}"/>
-    <hyperlink ref="F241" r:id="rId384" location="further-rules" display="https://www.aicrowd.com/challenges/neurips-2019-disentanglement-challenge - further-rules" xr:uid="{D313F98E-A4FB-C04D-B5E3-CB5EB0C081FE}"/>
-    <hyperlink ref="E263" r:id="rId385" xr:uid="{01206444-B58F-BE44-A22E-25AB9E07CC34}"/>
-    <hyperlink ref="E264" r:id="rId386" xr:uid="{28F055E3-D626-7E40-8055-502A8C933D0D}"/>
-    <hyperlink ref="F263" r:id="rId387" xr:uid="{F429FF2F-DA24-E84E-99DC-FBCBE21A6E39}"/>
-    <hyperlink ref="E141" r:id="rId388" xr:uid="{587F3BF6-8DD3-424A-A1DF-3E08E991D6BE}"/>
-    <hyperlink ref="E265" r:id="rId389" xr:uid="{28012B6C-B0C9-EC44-9EFF-ED525F0ECA8A}"/>
-    <hyperlink ref="F265" r:id="rId390" display="https://ermongroup.github.io/blog/bias-and-generalization-dgm/" xr:uid="{199B46B1-D52C-084B-BA1D-A2F671F3C7A4}"/>
-    <hyperlink ref="E266" r:id="rId391" xr:uid="{D662B39A-3698-6D48-B165-C6D71A944DD7}"/>
-    <hyperlink ref="E267" r:id="rId392" xr:uid="{2F6162D5-D63B-804F-82DA-C111623FFA5C}"/>
-    <hyperlink ref="E268" r:id="rId393" xr:uid="{DEF32EFB-C83B-3745-BBD0-F5081E3E48A1}"/>
-    <hyperlink ref="E269" r:id="rId394" xr:uid="{E399C8E5-B37E-F64D-89C1-D99E6DFEDC0D}"/>
-    <hyperlink ref="E270" r:id="rId395" xr:uid="{4873F520-4AA6-EE44-B338-1A845D4ABF99}"/>
-    <hyperlink ref="E271" r:id="rId396" xr:uid="{AA38EACB-BA04-C248-ACC6-4E41188E7B98}"/>
-    <hyperlink ref="E272" r:id="rId397" xr:uid="{60C240D1-56A3-7040-B5B7-379EFEECDB28}"/>
-    <hyperlink ref="E273" r:id="rId398" xr:uid="{5F7682C9-EE36-D041-924C-0A0810877E4A}"/>
-    <hyperlink ref="E274" r:id="rId399" xr:uid="{D25D8AA3-2405-E54B-B74D-78E63C0B95B5}"/>
-    <hyperlink ref="E275" r:id="rId400" xr:uid="{097E694D-4BF4-E644-AF4C-6F5A30179227}"/>
-    <hyperlink ref="E210" r:id="rId401" xr:uid="{6517B79F-A43B-D744-BB3F-79632FA89577}"/>
-    <hyperlink ref="E276" r:id="rId402" xr:uid="{DDE478D9-605E-EF4A-88CA-B122B229B413}"/>
-    <hyperlink ref="E277" r:id="rId403" xr:uid="{6451FC3D-0D82-3046-910A-4308C9641613}"/>
-    <hyperlink ref="F277" r:id="rId404" xr:uid="{86C31095-D39E-CC43-B156-B938E92DAD8E}"/>
-    <hyperlink ref="E278" r:id="rId405" xr:uid="{D90EC2B1-1663-5C41-8ACB-56181D983289}"/>
-    <hyperlink ref="E279" r:id="rId406" xr:uid="{5CCA9482-6C9A-2C45-9753-1649A4F8E535}"/>
-    <hyperlink ref="E280" r:id="rId407" xr:uid="{1CD8AA55-42C5-8949-84A6-9588196179A5}"/>
-    <hyperlink ref="E281" r:id="rId408" xr:uid="{8A4EFCDA-992A-3848-8FEA-2D17F523BCA1}"/>
-    <hyperlink ref="E282" r:id="rId409" xr:uid="{9E16EC4C-8F79-5449-B263-F80764143C9C}"/>
-    <hyperlink ref="F282" r:id="rId410" xr:uid="{4BAC1C40-04A5-264E-B9B1-49A36D467A10}"/>
-    <hyperlink ref="E283" r:id="rId411" xr:uid="{A77BE2DA-A42D-F147-BB2B-5754480DCE4A}"/>
-    <hyperlink ref="E284" r:id="rId412" xr:uid="{F0E5207F-CFDD-B643-A810-1334CFDD47AF}"/>
-    <hyperlink ref="E285" r:id="rId413" xr:uid="{813F5BC0-0227-314A-90F7-792BF73AC809}"/>
-    <hyperlink ref="E286" r:id="rId414" xr:uid="{4B867537-26A0-8B43-BA96-43FFD340D7F7}"/>
-    <hyperlink ref="E287" r:id="rId415" xr:uid="{CA5BB15D-D970-9143-8965-FCF7A4A4BA7D}"/>
-    <hyperlink ref="E288" r:id="rId416" xr:uid="{8D36F08A-BA2E-9C48-829D-39DDC8A59C73}"/>
-    <hyperlink ref="E289" r:id="rId417" xr:uid="{13FD44FC-2E0D-A94C-AE75-40F9C92ABB5F}"/>
-    <hyperlink ref="E290" r:id="rId418" xr:uid="{1135EE36-91DB-E149-931E-39AF8A3F0170}"/>
-    <hyperlink ref="E291" r:id="rId419" xr:uid="{57F550C7-2609-284E-9DE6-69BE9E2ACF04}"/>
-    <hyperlink ref="E292" r:id="rId420" xr:uid="{EE9BD39F-7FFC-CA4C-8AC5-DCD26CA8B600}"/>
-    <hyperlink ref="E293" r:id="rId421" xr:uid="{2887EC4F-EFDE-694B-8FD2-5EF5BE27F899}"/>
-    <hyperlink ref="E294" r:id="rId422" xr:uid="{7DD62244-0EF0-F549-A52F-92FFBCB44B08}"/>
-    <hyperlink ref="E295" r:id="rId423" xr:uid="{0459351D-787A-CE45-ADB7-FADBFF7448CB}"/>
-    <hyperlink ref="E296" r:id="rId424" xr:uid="{9CC520D7-137C-CF42-B7CA-5C572AE9D413}"/>
-    <hyperlink ref="E297" r:id="rId425" xr:uid="{711EBE8C-F406-FF4D-B4EB-2D2267EF2D84}"/>
-    <hyperlink ref="E298" r:id="rId426" xr:uid="{49C56194-90AA-AC49-9224-BC89F73C21B0}"/>
-    <hyperlink ref="E299" r:id="rId427" xr:uid="{0B754BF4-A124-1149-B2AB-44DC0BB9D78A}"/>
-    <hyperlink ref="E300" r:id="rId428" xr:uid="{A1B1C658-0606-9542-B294-23E87A049EFB}"/>
+    <hyperlink ref="E155" r:id="rId151" xr:uid="{B77DFE6E-DF8B-6C40-9CC6-97F566E506A7}"/>
+    <hyperlink ref="E154" r:id="rId152" xr:uid="{2610CD40-58DA-3443-BCF3-0DDA57BF2EBF}"/>
+    <hyperlink ref="E153" r:id="rId153" xr:uid="{5B44294D-4F3B-F247-AA46-A5C128CCC7B1}"/>
+    <hyperlink ref="E152" r:id="rId154" xr:uid="{40848DF5-5697-654D-9768-823D16E96E17}"/>
+    <hyperlink ref="E151" r:id="rId155" xr:uid="{D072C7EE-2722-0945-9046-9728DFE828CB}"/>
+    <hyperlink ref="E150" r:id="rId156" xr:uid="{BEEC9054-91C6-A845-BB1C-3D18E3B01B3B}"/>
+    <hyperlink ref="E149" r:id="rId157" display="http://2017.ds3-datascience-polytechnique.fr/wp-content/uploads/2017/08/DS3_posterID_048.pdf" xr:uid="{D7DBC5A5-DD78-9A49-ACC3-278298EF2657}"/>
+    <hyperlink ref="E148" r:id="rId158" xr:uid="{902221B1-2DAB-034F-ABA5-F27372499274}"/>
+    <hyperlink ref="E147" r:id="rId159" xr:uid="{6DFCF6FC-28DF-4B4F-9C1A-6A3CB6A9F198}"/>
+    <hyperlink ref="E146" r:id="rId160" xr:uid="{257B33F0-3E19-994B-927D-39D66AB5E6FE}"/>
+    <hyperlink ref="E145" r:id="rId161" xr:uid="{7BBFA0E6-D261-2C47-B54A-EEC2A56EA4BC}"/>
+    <hyperlink ref="E144" r:id="rId162" xr:uid="{2A396368-4C6B-C546-AC33-C34CCE2D9C5D}"/>
+    <hyperlink ref="E143" r:id="rId163" xr:uid="{AC31FE78-95C0-614D-A7D7-ADB8CD5233BE}"/>
+    <hyperlink ref="E142" r:id="rId164" xr:uid="{C8D784F4-ADC7-C640-B063-4A9851B78236}"/>
+    <hyperlink ref="E140" r:id="rId165" xr:uid="{43EB408C-3B93-994A-8898-82238E8739F9}"/>
+    <hyperlink ref="E139" r:id="rId166" xr:uid="{C60401B6-D284-6C4E-84C3-1BDA6B7640B6}"/>
+    <hyperlink ref="E138" r:id="rId167" xr:uid="{76904A68-77E0-E84A-ABE2-B56CD32ADDAC}"/>
+    <hyperlink ref="E136" r:id="rId168" xr:uid="{FBD75AE4-0EB2-FD40-841D-368F3496C12F}"/>
+    <hyperlink ref="E135" r:id="rId169" xr:uid="{A73ADDDA-E55D-C642-A7B0-1C9733D25C90}"/>
+    <hyperlink ref="E134" r:id="rId170" xr:uid="{F493203C-B67A-A04C-B651-697767C0178D}"/>
+    <hyperlink ref="E133" r:id="rId171" xr:uid="{B1EC8237-12A7-3A40-BBB8-96E16CBC9DF5}"/>
+    <hyperlink ref="E132" r:id="rId172" xr:uid="{2E3CACB3-FC71-D74B-883C-3C51D1F9DBE4}"/>
+    <hyperlink ref="N2" r:id="rId173" display="https://github.com/youngleec/DeepGenerativeModels" xr:uid="{7C19B556-F84E-9548-9605-4F03B891A0CE}"/>
+    <hyperlink ref="E131" r:id="rId174" xr:uid="{73C29958-F4B1-6F4D-93B2-79B552DCC173}"/>
+    <hyperlink ref="E130" r:id="rId175" xr:uid="{7CCE2187-C43D-2242-AD18-AA309394F575}"/>
+    <hyperlink ref="E129" r:id="rId176" xr:uid="{A4775757-53F8-8B45-A9AB-F9FA216E5E7D}"/>
+    <hyperlink ref="E128" r:id="rId177" xr:uid="{21CBC9DE-D28B-F44A-92EB-F8634F1C8E38}"/>
+    <hyperlink ref="E127" r:id="rId178" xr:uid="{A2ACA7AD-6F8D-0D4C-8CA3-B9DD24FAFFFD}"/>
+    <hyperlink ref="E126" r:id="rId179" xr:uid="{1F435C60-1DB2-2045-87EB-3E7260719A00}"/>
+    <hyperlink ref="E125" r:id="rId180" display="https://arxiv.org/pdf/1807.09356.pdf" xr:uid="{47022A3F-BCFE-0F41-A4FD-71A0A5723034}"/>
+    <hyperlink ref="E124" r:id="rId181" xr:uid="{3CA89AC3-6C9E-F94A-8E36-55A9E9213956}"/>
+    <hyperlink ref="E123" r:id="rId182" xr:uid="{71581D31-D5D9-3C41-BBBE-C91547CD9BB5}"/>
+    <hyperlink ref="E122" r:id="rId183" xr:uid="{7AF8E4B5-20A3-914B-9FC1-65A6E9366D9F}"/>
+    <hyperlink ref="E121" r:id="rId184" xr:uid="{A231E325-CE15-7140-BE90-B16A05F79CEC}"/>
+    <hyperlink ref="E120" r:id="rId185" xr:uid="{45E16E6F-5876-7F4E-A651-C033578D1BF5}"/>
+    <hyperlink ref="E119" r:id="rId186" xr:uid="{63DA334F-C94A-E048-90C4-875223E78FC5}"/>
+    <hyperlink ref="E118" r:id="rId187" xr:uid="{C18394C9-4A26-E74D-9DC2-C0D9F976DADB}"/>
+    <hyperlink ref="E117" r:id="rId188" xr:uid="{D7AC6EC2-DB28-3741-A801-3A2C591F4372}"/>
+    <hyperlink ref="E116" r:id="rId189" xr:uid="{D2DAFDA3-8DA0-3A41-96F1-B984A9677C2C}"/>
+    <hyperlink ref="E115" r:id="rId190" xr:uid="{8F34129F-53F3-954B-A4F8-CAC1641CE73E}"/>
+    <hyperlink ref="E114" r:id="rId191" xr:uid="{1170A079-E568-984D-976D-7AE8038329A4}"/>
+    <hyperlink ref="E113" r:id="rId192" xr:uid="{B1B4AAC3-2EC0-A242-B03E-D3DD8CDD4D35}"/>
+    <hyperlink ref="E112" r:id="rId193" xr:uid="{E7286F66-EB9A-8A44-B020-368B51630404}"/>
+    <hyperlink ref="E111" r:id="rId194" xr:uid="{7C88A0B1-AB52-C74A-897A-E363A0D0760E}"/>
+    <hyperlink ref="E110" r:id="rId195" xr:uid="{8B59613E-4094-6A47-85CE-3930B922B05E}"/>
+    <hyperlink ref="E109" r:id="rId196" xr:uid="{FA49247A-4FCE-354A-9C19-9C470523BB9E}"/>
+    <hyperlink ref="E107" r:id="rId197" xr:uid="{CD3C7D2D-EEFE-2F4E-8931-74B5D8DF2E21}"/>
+    <hyperlink ref="E108" r:id="rId198" xr:uid="{B8B026B2-62AA-5246-9B24-694AB774E853}"/>
+    <hyperlink ref="E106" r:id="rId199" xr:uid="{E753D5F3-08CF-9246-9558-415DD1101F17}"/>
+    <hyperlink ref="E105" r:id="rId200" xr:uid="{05EA7040-AA80-1E42-A739-CD5C42969BE7}"/>
+    <hyperlink ref="E104" r:id="rId201" xr:uid="{A250D5D1-B878-7545-B73E-C6227C1D4A48}"/>
+    <hyperlink ref="E103" r:id="rId202" xr:uid="{A1420B55-22FD-9947-AC05-9689708F4724}"/>
+    <hyperlink ref="E102" r:id="rId203" xr:uid="{01F2916E-934C-E545-BA10-9732E4ED82E6}"/>
+    <hyperlink ref="E101" r:id="rId204" xr:uid="{D068A7A1-29ED-CD4E-96E0-3BA4B68000EC}"/>
+    <hyperlink ref="E100" r:id="rId205" xr:uid="{7BB2D929-A5A0-E145-A0D4-0AAE845F0F67}"/>
+    <hyperlink ref="E99" r:id="rId206" xr:uid="{87733583-A3A0-F540-93A3-4E32D7F6E240}"/>
+    <hyperlink ref="E98" r:id="rId207" xr:uid="{3222C550-264B-204A-B320-72C3DD3ACEA3}"/>
+    <hyperlink ref="E97" r:id="rId208" xr:uid="{ED598E9F-E756-FD4F-B307-2AEE261DD300}"/>
+    <hyperlink ref="E96" r:id="rId209" xr:uid="{3115AF41-F576-B146-BE2F-9752BCF8626F}"/>
+    <hyperlink ref="E95" r:id="rId210" xr:uid="{2C8DFE2B-C45F-F346-84D8-A58199075F40}"/>
+    <hyperlink ref="E94" r:id="rId211" xr:uid="{87928C87-2EC6-0D42-9A71-44D683A914F1}"/>
+    <hyperlink ref="E93" r:id="rId212" xr:uid="{DDED75B6-BC96-C34F-8A33-88B96B0C5D73}"/>
+    <hyperlink ref="E92" r:id="rId213" display="https://www.researchgate.net/profile/Andreas_Veit/publication/301837223_Disentangling_Nonlinear_Perceptual_Embeddings_With_Multi-Query_Triplet_Networks/links/57e2997308ae040ae3c2f3a3/Disentangling-Nonlinear-Perceptual-Embeddings-With-Multi-Query-Triplet-Networks.pdf" xr:uid="{9F93F0B1-2BC7-0C46-9C04-78ED319D0912}"/>
+    <hyperlink ref="E91" r:id="rId214" xr:uid="{C117CC20-124C-424E-8E09-9B812018D0A6}"/>
+    <hyperlink ref="E90" r:id="rId215" xr:uid="{2E904AC1-6EC8-7843-B843-2F15B94041BE}"/>
+    <hyperlink ref="E89" r:id="rId216" xr:uid="{56BE9458-7FB1-214C-A122-96DE97D87BD8}"/>
+    <hyperlink ref="E88" r:id="rId217" xr:uid="{C25E2D4B-2DFF-5846-A9DE-4F99442B561A}"/>
+    <hyperlink ref="E87" r:id="rId218" xr:uid="{5512ADAD-2EBC-9743-BB56-E814C7683FFD}"/>
+    <hyperlink ref="E85" r:id="rId219" xr:uid="{516C4FBA-663D-7E4B-ADDC-1980FE5F1238}"/>
+    <hyperlink ref="E86" r:id="rId220" xr:uid="{DAF248E7-438E-784E-AF8B-63EFAD89FF00}"/>
+    <hyperlink ref="E84" r:id="rId221" xr:uid="{62F4BB00-F5BB-CC45-9C26-8057F661D21F}"/>
+    <hyperlink ref="E83" r:id="rId222" xr:uid="{C6737A2F-5E00-1741-BFE7-0E0682A19E76}"/>
+    <hyperlink ref="E82" r:id="rId223" xr:uid="{44D0A2C5-1E52-8547-84E2-4DDA0FBCB105}"/>
+    <hyperlink ref="E81" r:id="rId224" display="https://vimeo.com/285802293" xr:uid="{622FBD58-DC08-7549-A44F-B632170B42D3}"/>
+    <hyperlink ref="E80" r:id="rId225" xr:uid="{E747A436-79A2-E54C-AB94-34BE18D12CEB}"/>
+    <hyperlink ref="E79" r:id="rId226" xr:uid="{A6C92A62-5828-EA40-A4D5-890445A0E38E}"/>
+    <hyperlink ref="E78" r:id="rId227" xr:uid="{CEE4C649-7F3D-444B-A11C-F796AE8CB7D4}"/>
+    <hyperlink ref="E77" r:id="rId228" xr:uid="{308058B2-9DF1-734D-9974-FBB843AABE16}"/>
+    <hyperlink ref="E76" r:id="rId229" xr:uid="{FAB704CB-68D8-B043-B640-98465F4A70EC}"/>
+    <hyperlink ref="E75" r:id="rId230" xr:uid="{3E40E21F-EF8D-5844-AEFE-D70E44AC940F}"/>
+    <hyperlink ref="E74" r:id="rId231" xr:uid="{984FFBFE-A91A-9046-BA1A-AE493EEE7D7D}"/>
+    <hyperlink ref="E69" r:id="rId232" xr:uid="{7CEACBFE-1656-8B48-B5B0-E925C95050C8}"/>
+    <hyperlink ref="E73" r:id="rId233" xr:uid="{D21E2177-3083-8C45-A177-363CD860E664}"/>
+    <hyperlink ref="E72" r:id="rId234" xr:uid="{768E9870-CFEF-F942-B847-02342E33FF4A}"/>
+    <hyperlink ref="E71" r:id="rId235" xr:uid="{FE8783B1-4D44-054D-BDDE-D18425980D94}"/>
+    <hyperlink ref="E70" r:id="rId236" xr:uid="{C4F062B0-E20C-B046-AE17-CF48CF1FD846}"/>
+    <hyperlink ref="E68" r:id="rId237" xr:uid="{A39FA1F0-5A74-214D-8F5C-6E4E0C021C35}"/>
+    <hyperlink ref="E67" r:id="rId238" xr:uid="{213949E7-9053-B84F-9132-E709B82FB93A}"/>
+    <hyperlink ref="E66" r:id="rId239" xr:uid="{AA0452C5-98EC-F043-8D90-6F4B87260C50}"/>
+    <hyperlink ref="E65" r:id="rId240" xr:uid="{9A781361-CF96-C14C-AFDA-69BECEA920B0}"/>
+    <hyperlink ref="E64" r:id="rId241" display="https://arxiv.org/pdf/1603.02514.pdf " xr:uid="{8B166347-F3A4-0C4C-8C9F-57F08F678D86}"/>
+    <hyperlink ref="E63" r:id="rId242" xr:uid="{C0D8BD5C-0D3E-6F4C-82D3-DE299A46B1B6}"/>
+    <hyperlink ref="E62" r:id="rId243" xr:uid="{4A20FE83-D8FF-1F40-AF95-9AF006962CE4}"/>
+    <hyperlink ref="E61" r:id="rId244" xr:uid="{90B1D2EE-F4FE-C249-9554-AF6607CE2982}"/>
+    <hyperlink ref="E60" r:id="rId245" xr:uid="{0420C41B-A23E-284B-ADA0-DD11DC75C1E5}"/>
+    <hyperlink ref="E59" r:id="rId246" xr:uid="{EA47B403-405E-5243-980A-DCA6D68D4BCB}"/>
+    <hyperlink ref="E58" r:id="rId247" xr:uid="{07102C24-5D5C-1146-BADD-8B8B8C5D90ED}"/>
+    <hyperlink ref="E57" r:id="rId248" xr:uid="{A89499A2-AC73-AD4A-AB36-D06C3409177D}"/>
+    <hyperlink ref="E56" r:id="rId249" xr:uid="{0A12411D-23E4-744D-B562-D70FCC8AF978}"/>
+    <hyperlink ref="E55" r:id="rId250" xr:uid="{4F1A2511-4676-8947-B560-B304B8EE6342}"/>
+    <hyperlink ref="E54" r:id="rId251" xr:uid="{79CD9A80-6156-3146-B151-529C578C6654}"/>
+    <hyperlink ref="E53" r:id="rId252" xr:uid="{18860AEB-B914-D749-8897-DE464124F923}"/>
+    <hyperlink ref="E52" r:id="rId253" xr:uid="{A22FE584-5BEB-2044-8C54-5A209668F44A}"/>
+    <hyperlink ref="E51" r:id="rId254" xr:uid="{79E2163C-4A10-2E48-A958-B3E9A50695D8}"/>
+    <hyperlink ref="E50" r:id="rId255" xr:uid="{E4508A09-2999-C14B-BAD5-5E1D600C23D8}"/>
+    <hyperlink ref="E49" r:id="rId256" xr:uid="{33D63C2C-A122-0B41-B539-74187DA5C153}"/>
+    <hyperlink ref="E48" r:id="rId257" xr:uid="{1B1C1524-635F-654E-B016-AB1E1DFE0BD4}"/>
+    <hyperlink ref="E47" r:id="rId258" xr:uid="{AFF39D95-E577-EE4B-A025-8C0018E3ADC1}"/>
+    <hyperlink ref="E46" r:id="rId259" xr:uid="{E63017F7-D5F5-284E-991A-982F8EB606FD}"/>
+    <hyperlink ref="E45" r:id="rId260" xr:uid="{5F648001-98EB-3B45-AE26-196D439188D5}"/>
+    <hyperlink ref="E44" r:id="rId261" xr:uid="{5B554A1C-E84F-5F4A-8ED9-0A8A3458D5C8}"/>
+    <hyperlink ref="E43" r:id="rId262" xr:uid="{45F76E88-4B74-5E4B-A6D1-5B6B3848F560}"/>
+    <hyperlink ref="E42" r:id="rId263" xr:uid="{D223B593-B41D-C946-ADC3-FCF06ED17F5A}"/>
+    <hyperlink ref="E41" r:id="rId264" xr:uid="{3BDD0579-BD1A-A84A-81E0-CEA058339000}"/>
+    <hyperlink ref="E40" r:id="rId265" xr:uid="{DC8AC94E-6F60-C349-9C1C-55CD8606E658}"/>
+    <hyperlink ref="E180" r:id="rId266" xr:uid="{F82D0D5D-52FF-C648-985B-52F280F4C0B1}"/>
+    <hyperlink ref="E39" r:id="rId267" xr:uid="{7778B0B2-93E7-A245-8B4E-1F0756236DD3}"/>
+    <hyperlink ref="E38" r:id="rId268" xr:uid="{9DA57912-5201-914E-B610-3DFEBA61DF13}"/>
+    <hyperlink ref="E37" r:id="rId269" xr:uid="{89D276A0-9111-5C49-808B-037C83656A4B}"/>
+    <hyperlink ref="E36" r:id="rId270" xr:uid="{F8DAEB65-529C-1B4D-A0BD-7875BD428FFF}"/>
+    <hyperlink ref="E35" r:id="rId271" xr:uid="{8AE40189-A24F-364E-9C6F-9535A15F6207}"/>
+    <hyperlink ref="E34" r:id="rId272" xr:uid="{CD85543D-0F45-B442-8056-59A5D0CAC591}"/>
+    <hyperlink ref="E33" r:id="rId273" xr:uid="{F7877987-A307-9E4C-AC0F-4B7AD496EC66}"/>
+    <hyperlink ref="E32" r:id="rId274" xr:uid="{43AD3320-5419-134A-B915-5E7933289A5D}"/>
+    <hyperlink ref="E31" r:id="rId275" xr:uid="{527988F4-D96C-C446-A104-5289059D7AA9}"/>
+    <hyperlink ref="E30" r:id="rId276" xr:uid="{27D1D7C0-ED6E-2441-93D3-68A56636571B}"/>
+    <hyperlink ref="E29" r:id="rId277" xr:uid="{2E248752-89B7-3E41-8B9F-A87AD5816AE7}"/>
+    <hyperlink ref="E28" r:id="rId278" xr:uid="{121BDBA0-0A98-4A44-8386-EF2307896247}"/>
+    <hyperlink ref="E27" r:id="rId279" xr:uid="{F3877792-5EF0-E345-858E-9EAA5A02137E}"/>
+    <hyperlink ref="E26" r:id="rId280" xr:uid="{F86BE994-C6B8-BC4C-A3B3-7E75B1F72A04}"/>
+    <hyperlink ref="E25" r:id="rId281" xr:uid="{A7A50C8F-6111-A240-AF6D-EA48457572B0}"/>
+    <hyperlink ref="E24" r:id="rId282" xr:uid="{9176E768-ED83-FC49-A193-03365BCB5AD6}"/>
+    <hyperlink ref="E23" r:id="rId283" xr:uid="{1F64D28C-2A7E-D64A-95BA-6DDD80260DD6}"/>
+    <hyperlink ref="E22" r:id="rId284" xr:uid="{C5E08AA4-6E8B-3845-A98E-E2E9BD0B9E75}"/>
+    <hyperlink ref="E21" r:id="rId285" xr:uid="{D12AD687-5E1E-4E43-9911-0AE159A13C23}"/>
+    <hyperlink ref="E20" r:id="rId286" xr:uid="{6812D194-9452-854D-889F-C774620D4163}"/>
+    <hyperlink ref="E19" r:id="rId287" xr:uid="{56EC5D00-AC89-E542-B267-3A54495A9BA3}"/>
+    <hyperlink ref="E18" r:id="rId288" xr:uid="{BDE9D707-C6B9-0343-8C72-908B7FCB3689}"/>
+    <hyperlink ref="E17" r:id="rId289" xr:uid="{9EED600A-C6CD-1F4D-A52A-42BF5958B7EA}"/>
+    <hyperlink ref="E16" r:id="rId290" xr:uid="{66867570-F699-574F-94A0-A5D227BBEB86}"/>
+    <hyperlink ref="E15" r:id="rId291" xr:uid="{9E226031-1A93-7042-A53A-CE51DD9ABC65}"/>
+    <hyperlink ref="E14" r:id="rId292" xr:uid="{4FF6750B-469D-4C48-8700-7D71E2270C9A}"/>
+    <hyperlink ref="E13" r:id="rId293" xr:uid="{7AF440A2-1DBA-5C43-AC27-82BDE286168A}"/>
+    <hyperlink ref="E12" r:id="rId294" xr:uid="{0F4ABD6D-A0FB-044B-8F74-208BDFB0CC4A}"/>
+    <hyperlink ref="E11" r:id="rId295" xr:uid="{A2039981-9D1F-4042-BF05-5FAFF0F426E8}"/>
+    <hyperlink ref="E10" r:id="rId296" xr:uid="{710816D4-97E6-004F-B089-E1ABD789F089}"/>
+    <hyperlink ref="E9" r:id="rId297" xr:uid="{F3BAFF5B-3AA5-AF48-AE58-1178FD304899}"/>
+    <hyperlink ref="E8" r:id="rId298" xr:uid="{75736402-73CE-5647-AEB0-0C935EB06D4B}"/>
+    <hyperlink ref="E7" r:id="rId299" xr:uid="{241DAD7E-25A8-1A43-BF01-91CE111377CE}"/>
+    <hyperlink ref="E6" r:id="rId300" xr:uid="{748E930A-EA16-E44D-96D5-C065BBB5ACC9}"/>
+    <hyperlink ref="E5" r:id="rId301" xr:uid="{762BBD67-35EB-C648-8785-2882DE807AB4}"/>
+    <hyperlink ref="E4" r:id="rId302" xr:uid="{7CF8C55D-B082-7A4A-B16A-0379FC5F862C}"/>
+    <hyperlink ref="E3" r:id="rId303" xr:uid="{3D68445D-29DA-B64C-97CE-ACF8027E5FF6}"/>
+    <hyperlink ref="E2" r:id="rId304" xr:uid="{287684C2-8B7E-5848-A893-933142CE627C}"/>
+    <hyperlink ref="E200" r:id="rId305" xr:uid="{7993D877-CA9E-DD40-A813-4E18192CE47E}"/>
+    <hyperlink ref="E199" r:id="rId306" xr:uid="{BCCA6948-18C5-4E48-9249-AB77C10C7304}"/>
+    <hyperlink ref="F200" r:id="rId307" xr:uid="{AA1D75B7-7944-B24C-9169-57DBD79D9641}"/>
+    <hyperlink ref="E201" r:id="rId308" xr:uid="{E05994ED-2705-894D-9DD4-AB3EBF14A824}"/>
+    <hyperlink ref="E202" r:id="rId309" xr:uid="{3E7CD4A7-8E4E-6342-9F75-755A08F92E84}"/>
+    <hyperlink ref="E203" r:id="rId310" xr:uid="{65C41358-E16D-3B43-9AF6-0DD61B3BAC58}"/>
+    <hyperlink ref="E204" r:id="rId311" xr:uid="{4A1A7F92-6EDA-E449-AEFD-53C1C59440B2}"/>
+    <hyperlink ref="F204" r:id="rId312" xr:uid="{0DFF4DEB-BA1B-6F47-9A19-765A3D5C9E99}"/>
+    <hyperlink ref="E205" r:id="rId313" xr:uid="{2BC17AB9-F52C-5A48-875C-5920A8ACB0EA}"/>
+    <hyperlink ref="E206" r:id="rId314" xr:uid="{FE47C1EF-2477-A54A-97FE-D13FCE63D4C5}"/>
+    <hyperlink ref="E207" r:id="rId315" xr:uid="{43A08E32-39A8-9B42-AFD0-0BBBF1454F3B}"/>
+    <hyperlink ref="E208" r:id="rId316" xr:uid="{A67675B5-50BF-054F-85AA-CE49DD09D05C}"/>
+    <hyperlink ref="F208" r:id="rId317" xr:uid="{A3069929-30AA-734F-B6A2-309A0E36FDCF}"/>
+    <hyperlink ref="E209" r:id="rId318" xr:uid="{CEB657D1-0A3E-1F46-8FFA-645247356189}"/>
+    <hyperlink ref="F210" r:id="rId319" xr:uid="{F32AD366-8B24-2A4E-A881-442F3711B0EE}"/>
+    <hyperlink ref="E211" r:id="rId320" xr:uid="{37E068A2-8EEC-F549-B1EC-615A0BD6550F}"/>
+    <hyperlink ref="E212" r:id="rId321" xr:uid="{2C461F2A-FAA2-604B-B245-F8CCBCA49A5D}"/>
+    <hyperlink ref="E213" r:id="rId322" xr:uid="{25D8FE57-C24E-C345-BC6F-81F591A042DC}"/>
+    <hyperlink ref="E214" r:id="rId323" xr:uid="{21A45BE6-D947-EF41-9D3A-36570621AD86}"/>
+    <hyperlink ref="E215" r:id="rId324" xr:uid="{C2B9C176-43C4-854C-B6E2-97DF662242C6}"/>
+    <hyperlink ref="E216" r:id="rId325" xr:uid="{E60CD47F-463E-8C42-B330-6C4F765777C7}"/>
+    <hyperlink ref="E217" r:id="rId326" xr:uid="{8D2655CB-46F8-584C-A915-65E112A35A87}"/>
+    <hyperlink ref="F217" r:id="rId327" xr:uid="{136290C0-5DA6-8946-AF76-09C5DCD26019}"/>
+    <hyperlink ref="F214" r:id="rId328" xr:uid="{B2850A1C-1237-4248-BB16-A36454B5B96A}"/>
+    <hyperlink ref="E218" r:id="rId329" xr:uid="{A07AAC98-008D-9D47-87BD-DE2ADA4E4ED8}"/>
+    <hyperlink ref="E219" r:id="rId330" xr:uid="{084EA629-4980-7248-A2C6-EBFC76ECCF23}"/>
+    <hyperlink ref="E220" r:id="rId331" xr:uid="{C3AF3E87-D154-D24C-A825-7946DAB3E1E4}"/>
+    <hyperlink ref="F220" r:id="rId332" xr:uid="{659F2739-CBE4-384C-9E2D-3A4BB4A921F3}"/>
+    <hyperlink ref="E221" r:id="rId333" xr:uid="{B80534F2-8E2B-D344-A514-1FC28D9D03C5}"/>
+    <hyperlink ref="F221" r:id="rId334" xr:uid="{32E4F664-79EA-8F4C-9747-CBCA6080E915}"/>
+    <hyperlink ref="E222" r:id="rId335" xr:uid="{F1856C82-0001-A943-826B-F45114EBC3E0}"/>
+    <hyperlink ref="E223" r:id="rId336" xr:uid="{479CA383-00FC-1042-A4B7-5C902E2D3F29}"/>
+    <hyperlink ref="E224" r:id="rId337" xr:uid="{A66E28D7-A82F-F543-BC9C-EC1C4DAD9629}"/>
+    <hyperlink ref="E225" r:id="rId338" xr:uid="{17DD2431-2275-9F42-8916-0537BED613A9}"/>
+    <hyperlink ref="F225" r:id="rId339" xr:uid="{35F67E82-B585-ED4B-9DFF-957A1998F99C}"/>
+    <hyperlink ref="E226" r:id="rId340" xr:uid="{673FA506-028B-4240-A69D-5594EE18254A}"/>
+    <hyperlink ref="F226" r:id="rId341" xr:uid="{8B5B9AF9-E986-A84B-915A-D767AFA04F4C}"/>
+    <hyperlink ref="E227" r:id="rId342" xr:uid="{A95B14D6-4A79-734B-846B-1A2D08CB771B}"/>
+    <hyperlink ref="E228" r:id="rId343" xr:uid="{760E3794-BEF9-0C43-9651-F3A7E09E0753}"/>
+    <hyperlink ref="F229" r:id="rId344" xr:uid="{EFC37890-8F4B-6442-BCA0-91C8FBB3E462}"/>
+    <hyperlink ref="E229" r:id="rId345" xr:uid="{99873E87-BA69-2545-A5FF-ECB84628112E}"/>
+    <hyperlink ref="E230" r:id="rId346" xr:uid="{19625D7C-B58C-E348-8E0E-AA619E2C66A1}"/>
+    <hyperlink ref="E231" r:id="rId347" xr:uid="{9F256A76-B505-3341-AC27-9A25239AD866}"/>
+    <hyperlink ref="E232" r:id="rId348" xr:uid="{3899558B-9CEE-0944-8DD3-EE334EF6CF09}"/>
+    <hyperlink ref="E233" r:id="rId349" xr:uid="{73DD404D-CEC1-F54C-9F03-B2A34724E23A}"/>
+    <hyperlink ref="E234" r:id="rId350" xr:uid="{877CF798-E247-3342-ACE5-88899282305E}"/>
+    <hyperlink ref="E235" r:id="rId351" xr:uid="{CC8C52AA-4614-5D41-9D21-84392BB44722}"/>
+    <hyperlink ref="E236" r:id="rId352" xr:uid="{0FA88743-4B78-2042-B2A8-510DD699564B}"/>
+    <hyperlink ref="E238" r:id="rId353" xr:uid="{12E3E19E-C9BF-0F48-94B0-769EC2CE4FA9}"/>
+    <hyperlink ref="E239" r:id="rId354" xr:uid="{9F625FC2-A47B-784F-910E-7AEB9E9AF570}"/>
+    <hyperlink ref="E240" r:id="rId355" xr:uid="{EAF78CBA-F022-CE40-948E-5B86EE454CBD}"/>
+    <hyperlink ref="E241" r:id="rId356" xr:uid="{C8342FBE-5462-E64D-9D5D-0BD5BC188BD4}"/>
+    <hyperlink ref="E242" r:id="rId357" xr:uid="{A9E4FCC9-EF6E-544C-A5E5-493CBEA58013}"/>
+    <hyperlink ref="E243" r:id="rId358" xr:uid="{DAE81838-D6D6-694F-8D66-2B582E5866C8}"/>
+    <hyperlink ref="E244" r:id="rId359" xr:uid="{C17E9F31-B71E-2441-841C-F1FD09C00AE5}"/>
+    <hyperlink ref="E245" r:id="rId360" xr:uid="{894688A6-D52A-984F-9FEC-F482A58AE130}"/>
+    <hyperlink ref="E246" r:id="rId361" xr:uid="{FA18624B-43FB-CC44-ACC7-2AB750612FE5}"/>
+    <hyperlink ref="E247" r:id="rId362" xr:uid="{4D9F5CD1-A9FE-674E-BC58-9D04172B5CC3}"/>
+    <hyperlink ref="E248" r:id="rId363" xr:uid="{33479A30-184A-1544-B64A-2DDA510FE3C3}"/>
+    <hyperlink ref="E249" r:id="rId364" xr:uid="{4E2F460E-2AAB-9443-83DE-450E3725DF5E}"/>
+    <hyperlink ref="E250" r:id="rId365" xr:uid="{CE08CEA9-9E41-264E-81B6-39BDE2151C59}"/>
+    <hyperlink ref="F228" r:id="rId366" xr:uid="{060B88CB-B8C4-004D-9435-DD9F26E1E832}"/>
+    <hyperlink ref="E251" r:id="rId367" xr:uid="{B0CB209A-232A-5C46-A377-71FF2451C1EA}"/>
+    <hyperlink ref="F251" r:id="rId368" xr:uid="{0485845A-7AE7-C54D-94EB-AED9B7560C3D}"/>
+    <hyperlink ref="E252" r:id="rId369" xr:uid="{600D9EDE-E4A4-3343-8139-BD6C010DDD64}"/>
+    <hyperlink ref="E253" r:id="rId370" xr:uid="{3ECE4E72-E087-2945-B237-D046C560912D}"/>
+    <hyperlink ref="E254" r:id="rId371" display="https://www.researchgate.net/profile/Luzheng_Bi2/publication/335619300_EEG-Based_Adaptive_Driver-Vehicle_Interface_Using_Variational_Autoencoder_and_PI-TSVM/links/5d70bb234585151ee49e5a30/EEG-Based-Adaptive-Driver-Vehicle-Interface-Using-Variational-Autoencoder-and-PI-TSVM.pdf" xr:uid="{9CAFCCFE-6691-3944-8791-30CD32616A84}"/>
+    <hyperlink ref="E255" r:id="rId372" xr:uid="{712E7D56-9BFF-844B-856F-74D6C4EF3AAB}"/>
+    <hyperlink ref="E256" r:id="rId373" xr:uid="{10F166E0-EBBE-2F4C-9B72-4C1EB7956DDA}"/>
+    <hyperlink ref="E257" r:id="rId374" xr:uid="{ED964185-550D-FB40-8874-991477476028}"/>
+    <hyperlink ref="F257" r:id="rId375" xr:uid="{91B849B0-AEAE-DE41-B84A-5F6005A9ED3E}"/>
+    <hyperlink ref="F237" r:id="rId376" xr:uid="{0024C9C5-AE5C-7D4C-8334-D1709E5D070D}"/>
+    <hyperlink ref="E258" r:id="rId377" xr:uid="{E4F9C98D-F073-BC4D-B6B3-8B766F10ABCC}"/>
+    <hyperlink ref="E259" r:id="rId378" xr:uid="{4494AD4A-9F8F-E445-8B77-1F0FAFA9CABC}"/>
+    <hyperlink ref="E260" r:id="rId379" xr:uid="{15CEFA17-FEF9-DC4E-91D6-39749AFD677F}"/>
+    <hyperlink ref="E261" r:id="rId380" xr:uid="{94412141-4204-8E4A-AC7F-14B97B60D879}"/>
+    <hyperlink ref="E262" r:id="rId381" xr:uid="{08D65C89-2792-9C4F-811D-92A691E17C0F}"/>
+    <hyperlink ref="F262" r:id="rId382" display="https://github.com/sungyubkim/MINE-Mutual-Information-Neural-Estimation-" xr:uid="{A3C9CC1B-7426-CE48-8F72-C5812F92A3F5}"/>
+    <hyperlink ref="F241" r:id="rId383" location="further-rules" display="https://www.aicrowd.com/challenges/neurips-2019-disentanglement-challenge - further-rules" xr:uid="{D313F98E-A4FB-C04D-B5E3-CB5EB0C081FE}"/>
+    <hyperlink ref="E263" r:id="rId384" xr:uid="{01206444-B58F-BE44-A22E-25AB9E07CC34}"/>
+    <hyperlink ref="E264" r:id="rId385" xr:uid="{28F055E3-D626-7E40-8055-502A8C933D0D}"/>
+    <hyperlink ref="F263" r:id="rId386" xr:uid="{F429FF2F-DA24-E84E-99DC-FBCBE21A6E39}"/>
+    <hyperlink ref="E141" r:id="rId387" xr:uid="{587F3BF6-8DD3-424A-A1DF-3E08E991D6BE}"/>
+    <hyperlink ref="E265" r:id="rId388" xr:uid="{28012B6C-B0C9-EC44-9EFF-ED525F0ECA8A}"/>
+    <hyperlink ref="F265" r:id="rId389" display="https://ermongroup.github.io/blog/bias-and-generalization-dgm/" xr:uid="{199B46B1-D52C-084B-BA1D-A2F671F3C7A4}"/>
+    <hyperlink ref="E266" r:id="rId390" xr:uid="{D662B39A-3698-6D48-B165-C6D71A944DD7}"/>
+    <hyperlink ref="E267" r:id="rId391" xr:uid="{2F6162D5-D63B-804F-82DA-C111623FFA5C}"/>
+    <hyperlink ref="E268" r:id="rId392" xr:uid="{DEF32EFB-C83B-3745-BBD0-F5081E3E48A1}"/>
+    <hyperlink ref="E269" r:id="rId393" xr:uid="{E399C8E5-B37E-F64D-89C1-D99E6DFEDC0D}"/>
+    <hyperlink ref="E270" r:id="rId394" xr:uid="{4873F520-4AA6-EE44-B338-1A845D4ABF99}"/>
+    <hyperlink ref="E271" r:id="rId395" xr:uid="{AA38EACB-BA04-C248-ACC6-4E41188E7B98}"/>
+    <hyperlink ref="E272" r:id="rId396" xr:uid="{60C240D1-56A3-7040-B5B7-379EFEECDB28}"/>
+    <hyperlink ref="E273" r:id="rId397" xr:uid="{5F7682C9-EE36-D041-924C-0A0810877E4A}"/>
+    <hyperlink ref="E274" r:id="rId398" xr:uid="{D25D8AA3-2405-E54B-B74D-78E63C0B95B5}"/>
+    <hyperlink ref="E275" r:id="rId399" xr:uid="{097E694D-4BF4-E644-AF4C-6F5A30179227}"/>
+    <hyperlink ref="E210" r:id="rId400" xr:uid="{6517B79F-A43B-D744-BB3F-79632FA89577}"/>
+    <hyperlink ref="E276" r:id="rId401" xr:uid="{DDE478D9-605E-EF4A-88CA-B122B229B413}"/>
+    <hyperlink ref="E277" r:id="rId402" xr:uid="{6451FC3D-0D82-3046-910A-4308C9641613}"/>
+    <hyperlink ref="F277" r:id="rId403" xr:uid="{86C31095-D39E-CC43-B156-B938E92DAD8E}"/>
+    <hyperlink ref="E278" r:id="rId404" xr:uid="{D90EC2B1-1663-5C41-8ACB-56181D983289}"/>
+    <hyperlink ref="E279" r:id="rId405" xr:uid="{5CCA9482-6C9A-2C45-9753-1649A4F8E535}"/>
+    <hyperlink ref="E280" r:id="rId406" xr:uid="{1CD8AA55-42C5-8949-84A6-9588196179A5}"/>
+    <hyperlink ref="E281" r:id="rId407" xr:uid="{8A4EFCDA-992A-3848-8FEA-2D17F523BCA1}"/>
+    <hyperlink ref="E282" r:id="rId408" xr:uid="{9E16EC4C-8F79-5449-B263-F80764143C9C}"/>
+    <hyperlink ref="F282" r:id="rId409" xr:uid="{4BAC1C40-04A5-264E-B9B1-49A36D467A10}"/>
+    <hyperlink ref="E283" r:id="rId410" xr:uid="{A77BE2DA-A42D-F147-BB2B-5754480DCE4A}"/>
+    <hyperlink ref="E284" r:id="rId411" xr:uid="{F0E5207F-CFDD-B643-A810-1334CFDD47AF}"/>
+    <hyperlink ref="E285" r:id="rId412" xr:uid="{813F5BC0-0227-314A-90F7-792BF73AC809}"/>
+    <hyperlink ref="E286" r:id="rId413" xr:uid="{4B867537-26A0-8B43-BA96-43FFD340D7F7}"/>
+    <hyperlink ref="E287" r:id="rId414" xr:uid="{CA5BB15D-D970-9143-8965-FCF7A4A4BA7D}"/>
+    <hyperlink ref="E288" r:id="rId415" xr:uid="{8D36F08A-BA2E-9C48-829D-39DDC8A59C73}"/>
+    <hyperlink ref="E289" r:id="rId416" xr:uid="{13FD44FC-2E0D-A94C-AE75-40F9C92ABB5F}"/>
+    <hyperlink ref="E290" r:id="rId417" xr:uid="{1135EE36-91DB-E149-931E-39AF8A3F0170}"/>
+    <hyperlink ref="E291" r:id="rId418" xr:uid="{57F550C7-2609-284E-9DE6-69BE9E2ACF04}"/>
+    <hyperlink ref="E292" r:id="rId419" xr:uid="{EE9BD39F-7FFC-CA4C-8AC5-DCD26CA8B600}"/>
+    <hyperlink ref="E293" r:id="rId420" xr:uid="{2887EC4F-EFDE-694B-8FD2-5EF5BE27F899}"/>
+    <hyperlink ref="E294" r:id="rId421" xr:uid="{7DD62244-0EF0-F549-A52F-92FFBCB44B08}"/>
+    <hyperlink ref="E295" r:id="rId422" xr:uid="{0459351D-787A-CE45-ADB7-FADBFF7448CB}"/>
+    <hyperlink ref="E296" r:id="rId423" xr:uid="{9CC520D7-137C-CF42-B7CA-5C572AE9D413}"/>
+    <hyperlink ref="E297" r:id="rId424" xr:uid="{711EBE8C-F406-FF4D-B4EB-2D2267EF2D84}"/>
+    <hyperlink ref="E298" r:id="rId425" xr:uid="{49C56194-90AA-AC49-9224-BC89F73C21B0}"/>
+    <hyperlink ref="E299" r:id="rId426" xr:uid="{0B754BF4-A124-1149-B2AB-44DC0BB9D78A}"/>
+    <hyperlink ref="E300" r:id="rId427" xr:uid="{A1B1C658-0606-9542-B294-23E87A049EFB}"/>
+    <hyperlink ref="E301" r:id="rId428" xr:uid="{AC92EC4B-DF7C-4D4B-8BC4-FAB6F7AF794E}"/>
+    <hyperlink ref="E302" r:id="rId429" xr:uid="{2C4D3C91-30D6-F24C-BED7-EAAEAC5B6CAA}"/>
+    <hyperlink ref="E303" r:id="rId430" xr:uid="{47324447-7148-6344-BB8D-97A338E59A8E}"/>
+    <hyperlink ref="E305" r:id="rId431" xr:uid="{B0D1D591-1A62-7C43-AA79-490E7B5FD75C}"/>
+    <hyperlink ref="E304" r:id="rId432" xr:uid="{19DE77EE-CDF8-6A45-97CD-F022F217764F}"/>
+    <hyperlink ref="F304" r:id="rId433" xr:uid="{00079BD6-68E2-7C4E-8EE9-EB15327C6F59}"/>
+    <hyperlink ref="E306" r:id="rId434" xr:uid="{63883BFE-CB2E-7B4D-ADDC-D758801C9419}"/>
+    <hyperlink ref="E307" r:id="rId435" xr:uid="{65CF942B-874E-4E44-AE51-F9A1FDFEB5D8}"/>
+    <hyperlink ref="E308" r:id="rId436" xr:uid="{0836845B-1E9E-B548-8DDA-21EC25FE32E9}"/>
+    <hyperlink ref="E309" r:id="rId437" xr:uid="{B17E13A4-37CF-CC4C-9AC4-F867E7A7A53D}"/>
+    <hyperlink ref="E310" r:id="rId438" xr:uid="{CB06B080-8E94-6F41-8EEF-33651222CB28}"/>
+    <hyperlink ref="E311" r:id="rId439" xr:uid="{75EABC0D-C89C-1A4E-B984-EA2235E94A14}"/>
+    <hyperlink ref="E312" r:id="rId440" xr:uid="{30344FEC-39AB-F047-9107-7CFBAF2CCE3C}"/>
+    <hyperlink ref="E313" r:id="rId441" xr:uid="{BAC3F42D-C122-D64D-973C-9A9A7E11BD9C}"/>
+    <hyperlink ref="E156" r:id="rId442" xr:uid="{DF4ED559-9B84-C343-A36A-C3F36AEFF365}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -18770,28 +19266,28 @@
   <sheetData>
     <row r="3" spans="1:9" ht="13" customHeight="1">
       <c r="B3" s="12" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>2253</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>2254</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>2255</v>
-      </c>
       <c r="G3" s="12" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="16" customFormat="1" ht="13" customHeight="1">
@@ -18799,28 +19295,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D4" s="15">
         <v>2017</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>2256</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>2257</v>
-      </c>
       <c r="G4" s="15" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="16" customFormat="1" ht="49" customHeight="1">
@@ -18831,25 +19327,25 @@
         <v>389</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D5" s="15">
         <v>2016</v>
       </c>
       <c r="E5" s="15" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>2262</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>2263</v>
-      </c>
       <c r="G5" s="15" t="s">
+        <v>2265</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>2266</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>2267</v>
-      </c>
       <c r="I5" s="15" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="16" customFormat="1" ht="16" customHeight="1">
@@ -18857,28 +19353,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D6" s="15">
         <v>2018</v>
       </c>
       <c r="E6" s="15" t="s">
+        <v>2268</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>2269</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="15" t="s">
         <v>2270</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="H6" s="15" t="s">
         <v>2271</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>2272</v>
-      </c>
       <c r="I6" s="15" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="13" customHeight="1">
@@ -18886,10 +19382,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>2274</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>2275</v>
       </c>
       <c r="D7" s="13">
         <v>2018</v>
@@ -18898,16 +19394,16 @@
         <v>360</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>361</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="16" customFormat="1" ht="13" customHeight="1">
@@ -18915,28 +19411,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D8" s="15">
         <v>2019</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>2282</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>2283</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>2284</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="16" customFormat="1" ht="13" customHeight="1">
@@ -18944,28 +19440,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>2287</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>2288</v>
       </c>
       <c r="D9" s="15">
         <v>2016</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="13" customHeight="1">
@@ -18973,28 +19469,28 @@
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>2294</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>2295</v>
       </c>
       <c r="D10" s="13">
         <v>2019</v>
       </c>
       <c r="E10" s="13" t="s">
+        <v>2297</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>2298</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>2299</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>2300</v>
-      </c>
       <c r="H10" s="13" t="s">
+        <v>2295</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>2296</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="16" customFormat="1" ht="13" customHeight="1">
@@ -19005,25 +19501,25 @@
         <v>681</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D11" s="15">
         <v>2017</v>
       </c>
       <c r="E11" s="15" t="s">
+        <v>2300</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>2301</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="G11" s="15" t="s">
         <v>2302</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="H11" s="15" t="s">
         <v>2303</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="I11" s="15" t="s">
         <v>2304</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>2305</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="16" customFormat="1" ht="25" customHeight="1">
@@ -19031,28 +19527,28 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D12" s="15">
         <v>2016</v>
       </c>
       <c r="E12" s="15" t="s">
+        <v>2307</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>2308</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="G12" s="15" t="s">
+        <v>2306</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>2289</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>2309</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>2307</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>2290</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>2310</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="16" customFormat="1" ht="28" customHeight="1">
@@ -19060,28 +19556,28 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D13" s="15">
         <v>2018</v>
       </c>
       <c r="E13" s="15" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>2311</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>2313</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>2312</v>
-      </c>
-      <c r="G13" s="15" t="s">
+      <c r="H13" s="15" t="s">
+        <v>1370</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>2314</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>1371</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>2315</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="16" customFormat="1" ht="13" customHeight="1">
@@ -19089,28 +19585,28 @@
         <v>11</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D14" s="15">
         <v>2018</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="16" customFormat="1" ht="23" customHeight="1">
@@ -19118,28 +19614,28 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>2321</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>2322</v>
       </c>
       <c r="D15" s="15">
         <v>2019</v>
       </c>
       <c r="E15" s="15" t="s">
+        <v>2322</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>2324</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>2323</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>2325</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>2324</v>
-      </c>
       <c r="H15" s="15" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="21" customHeight="1">
@@ -19147,28 +19643,28 @@
         <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D16" s="13">
         <v>2016</v>
       </c>
       <c r="E16" s="13" t="s">
+        <v>2327</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>2330</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>2328</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>2331</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>2329</v>
-      </c>
       <c r="H16" s="13" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="16" customFormat="1" ht="27" customHeight="1">
@@ -19179,7 +19675,7 @@
         <v>491</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D17" s="15">
         <v>2017</v>
@@ -19188,16 +19684,16 @@
         <v>493</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="17" customFormat="1" ht="41" customHeight="1">
@@ -19205,28 +19701,28 @@
         <v>15</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="D18" s="13">
         <v>2019</v>
       </c>
       <c r="E18" s="13" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>2284</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>2328</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>2338</v>
+      </c>
+      <c r="I18" s="13" t="s">
         <v>2337</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>2285</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>2329</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>2339</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>2338</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="26" customHeight="1">
@@ -19234,10 +19730,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>2340</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>2341</v>
       </c>
       <c r="D19" s="13">
         <v>2019</v>
@@ -19246,16 +19742,16 @@
         <v>722</v>
       </c>
       <c r="F19" s="13" t="s">
+        <v>2341</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>2328</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>2343</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>2342</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>2329</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>2344</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17" customHeight="1">
@@ -19266,7 +19762,7 @@
         <v>1204</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D20" s="13">
         <v>2019</v>
@@ -19275,16 +19771,16 @@
         <v>722</v>
       </c>
       <c r="F20" s="13" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>2346</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>2318</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>2345</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>2347</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>2319</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>2346</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="19" customHeight="1">
@@ -19292,28 +19788,28 @@
         <v>18</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>2348</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>2349</v>
       </c>
       <c r="D21" s="13">
         <v>2017</v>
       </c>
       <c r="E21" s="13" t="s">
+        <v>2351</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>2352</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="G21" s="13" t="s">
         <v>2353</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>2354</v>
-      </c>
       <c r="H21" s="13" t="s">
+        <v>2349</v>
+      </c>
+      <c r="I21" s="13" t="s">
         <v>2350</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>2351</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -19321,28 +19817,28 @@
         <v>19</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D22" s="13">
         <v>2014</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="G22" s="13" t="s">
+        <v>2355</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>2357</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>2356</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>2358</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>2357</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="22" customHeight="1">
@@ -19353,25 +19849,25 @@
         <v>36</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D23" s="13">
         <v>2017</v>
       </c>
       <c r="E23" s="13" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>2359</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="G23" s="13" t="s">
         <v>2360</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="H23" s="13" t="s">
+        <v>2318</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>2361</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>2319</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>2362</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="16" customFormat="1" ht="41" customHeight="1">
@@ -19379,28 +19875,28 @@
         <v>21</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D24" s="15">
         <v>2019</v>
       </c>
       <c r="E24" s="15" t="s">
+        <v>2364</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>2363</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>2367</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>2365</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>2364</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>2368</v>
-      </c>
-      <c r="H24" s="15" t="s">
+      <c r="I24" s="15" t="s">
         <v>2366</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>2367</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1">
@@ -19408,25 +19904,25 @@
         <v>22</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D25" s="13">
         <v>2017</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="F25" s="13" t="s">
+        <v>2368</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>2369</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>2370</v>
-      </c>
       <c r="H25" s="13" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="I25" s="13"/>
     </row>
@@ -19435,28 +19931,28 @@
         <v>23</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D26" s="13">
         <v>2018</v>
       </c>
       <c r="E26" s="13" t="s">
+        <v>2374</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>2375</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="G26" s="13" t="s">
         <v>2376</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="H26" s="13" t="s">
         <v>2377</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>2378</v>
-      </c>
       <c r="I26" s="13" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="22" customHeight="1">
@@ -19464,28 +19960,28 @@
         <v>24</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D27" s="13">
         <v>2017</v>
       </c>
       <c r="E27" s="13" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>2378</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>2380</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>2379</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>2381</v>
-      </c>
       <c r="H27" s="13" t="s">
+        <v>2382</v>
+      </c>
+      <c r="I27" s="13" t="s">
         <v>2383</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>2384</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="16" customFormat="1" ht="13" customHeight="1">
@@ -19493,28 +19989,28 @@
         <v>25</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>2384</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>2385</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>2386</v>
       </c>
       <c r="D28" s="15">
         <v>2019</v>
       </c>
       <c r="E28" s="15" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>2387</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="G28" s="15" t="s">
         <v>2388</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="H28" s="15" t="s">
         <v>2389</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="I28" s="15" t="s">
         <v>2390</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>2391</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1">
@@ -19522,28 +20018,28 @@
         <v>26</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D29" s="15">
         <v>2019</v>
       </c>
       <c r="E29" s="15" t="s">
+        <v>2391</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>2392</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="G29" s="15" t="s">
         <v>2393</v>
       </c>
-      <c r="G29" s="15" t="s">
-        <v>2394</v>
-      </c>
       <c r="H29" s="15" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
@@ -19551,28 +20047,28 @@
         <v>27</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D30" s="13">
         <v>2017</v>
       </c>
       <c r="E30" s="13" t="s">
+        <v>2400</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>2401</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="G30" s="13" t="s">
         <v>2402</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="H30" s="13" t="s">
         <v>2403</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>2404</v>
-      </c>
       <c r="I30" s="13" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="16" customFormat="1" ht="13" customHeight="1">
@@ -19580,28 +20076,28 @@
         <v>28</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D31" s="15">
         <v>2019</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>2408</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>2409</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>2407</v>
+      </c>
+      <c r="I31" s="15" t="s">
         <v>2406</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>2409</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>2410</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>2408</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>2407</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="13" customHeight="1">
@@ -19609,25 +20105,25 @@
         <v>29</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D32" s="13">
         <v>2018</v>
       </c>
       <c r="E32" s="13" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>2412</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="G32" s="13" t="s">
         <v>2413</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="H32" s="13" t="s">
         <v>2414</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>2415</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>1256</v>
@@ -19635,7 +20131,7 @@
     </row>
     <row r="36" spans="1:9" ht="17">
       <c r="A36" s="17" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="16" customFormat="1" ht="13" customHeight="1">
@@ -19646,25 +20142,25 @@
         <v>389</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D37" s="15">
         <v>2016</v>
       </c>
       <c r="E37" s="15" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>2262</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>2263</v>
-      </c>
       <c r="G37" s="15" t="s">
+        <v>2265</v>
+      </c>
+      <c r="H37" s="15" t="s">
         <v>2266</v>
       </c>
-      <c r="H37" s="15" t="s">
-        <v>2267</v>
-      </c>
       <c r="I37" s="15" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="16" customFormat="1" ht="16" customHeight="1">
@@ -19672,28 +20168,28 @@
         <v>3</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D38" s="15">
         <v>2018</v>
       </c>
       <c r="E38" s="15" t="s">
+        <v>2268</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>2269</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="G38" s="15" t="s">
         <v>2270</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="H38" s="15" t="s">
         <v>2271</v>
       </c>
-      <c r="H38" s="15" t="s">
-        <v>2272</v>
-      </c>
       <c r="I38" s="15" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="16" customFormat="1" ht="13" customHeight="1">
@@ -19701,28 +20197,28 @@
         <v>5</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D39" s="15">
         <v>2019</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="H39" s="15" t="s">
+        <v>2282</v>
+      </c>
+      <c r="I39" s="15" t="s">
         <v>2283</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>2284</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="16" customFormat="1" ht="13" customHeight="1">
@@ -19733,25 +20229,25 @@
         <v>681</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D40" s="15">
         <v>2017</v>
       </c>
       <c r="E40" s="15" t="s">
+        <v>2300</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>2301</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="G40" s="15" t="s">
         <v>2302</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="H40" s="15" t="s">
         <v>2303</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="I40" s="15" t="s">
         <v>2304</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>2305</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="16" customFormat="1" ht="13" customHeight="1">
@@ -19759,28 +20255,28 @@
         <v>11</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D41" s="15">
         <v>2018</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="16" customFormat="1" ht="23" customHeight="1">
@@ -19788,28 +20284,28 @@
         <v>12</v>
       </c>
       <c r="B42" s="15" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>2321</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>2322</v>
       </c>
       <c r="D42" s="15">
         <v>2019</v>
       </c>
       <c r="E42" s="15" t="s">
+        <v>2322</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>2324</v>
+      </c>
+      <c r="G42" s="15" t="s">
         <v>2323</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>2325</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>2324</v>
-      </c>
       <c r="H42" s="15" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="16" customFormat="1" ht="41" customHeight="1">
@@ -19817,28 +20313,28 @@
         <v>21</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D43" s="15">
         <v>2019</v>
       </c>
       <c r="E43" s="15" t="s">
+        <v>2364</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>2363</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>2367</v>
+      </c>
+      <c r="H43" s="15" t="s">
         <v>2365</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>2364</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>2368</v>
-      </c>
-      <c r="H43" s="15" t="s">
+      <c r="I43" s="15" t="s">
         <v>2366</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>2367</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="16" customFormat="1" ht="24" customHeight="1">
@@ -19846,28 +20342,28 @@
         <v>25</v>
       </c>
       <c r="B44" s="15" t="s">
+        <v>2384</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>2385</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>2386</v>
       </c>
       <c r="D44" s="15">
         <v>2019</v>
       </c>
       <c r="E44" s="15" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F44" s="15" t="s">
         <v>2387</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="G44" s="15" t="s">
         <v>2388</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="H44" s="15" t="s">
         <v>2389</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="I44" s="15" t="s">
         <v>2390</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>2391</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="16" customFormat="1" ht="25" customHeight="1">
@@ -19875,28 +20371,28 @@
         <v>9</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D45" s="15">
         <v>2016</v>
       </c>
       <c r="E45" s="15" t="s">
+        <v>2307</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>2308</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="G45" s="15" t="s">
+        <v>2306</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>2289</v>
+      </c>
+      <c r="I45" s="15" t="s">
         <v>2309</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>2307</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>2290</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>2310</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="16" customFormat="1" ht="25" customHeight="1">
@@ -19904,28 +20400,28 @@
         <v>1</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D46" s="15">
         <v>2017</v>
       </c>
       <c r="E46" s="15" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F46" s="15" t="s">
         <v>2256</v>
       </c>
-      <c r="F46" s="15" t="s">
-        <v>2257</v>
-      </c>
       <c r="G46" s="15" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="34">
@@ -19933,12 +20429,12 @@
         <v>73</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="49" spans="5:6" ht="17">
       <c r="E49" s="11" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="F49" s="11">
         <v>3</v>
@@ -19946,42 +20442,42 @@
     </row>
     <row r="50" spans="5:6" ht="17">
       <c r="E50" s="11" t="s">
+        <v>2418</v>
+      </c>
+      <c r="F50" s="11" t="s">
         <v>2419</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>2420</v>
       </c>
     </row>
     <row r="51" spans="5:6" ht="17">
       <c r="E51" s="11" t="s">
+        <v>2420</v>
+      </c>
+      <c r="F51" s="11" t="s">
         <v>2421</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>2422</v>
       </c>
     </row>
     <row r="52" spans="5:6" ht="17">
       <c r="E52" s="11" t="s">
+        <v>2422</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>2423</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>2424</v>
       </c>
     </row>
     <row r="53" spans="5:6" ht="17">
       <c r="E53" s="11" t="s">
+        <v>2424</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>2425</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>2426</v>
       </c>
     </row>
     <row r="55" spans="5:6" ht="34">
       <c r="E55" s="11" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F55" s="11" t="s">
         <v>2427</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>2428</v>
       </c>
     </row>
   </sheetData>
@@ -20029,123 +20525,123 @@
   <sheetData>
     <row r="1" spans="1:38" s="2" customFormat="1" ht="85">
       <c r="A1" s="2" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>1395</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>1376</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>1390</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>1375</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>1398</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>1396</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>1391</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>1405</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>1404</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>1411</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>1388</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>1369</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>1417</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>1392</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="W1" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>1370</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>1429</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>1380</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>1379</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>1371</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>1378</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>1372</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>1373</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>1420</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>1377</v>
-      </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>1381</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>1399</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>1382</v>
-      </c>
       <c r="AK1" s="2" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="2" spans="1:38">
       <c r="A2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B2">
         <v>168</v>
@@ -20178,13 +20674,13 @@
         <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="M2">
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="O2">
         <v>20</v>
@@ -20208,13 +20704,13 @@
         <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="W2">
         <v>22</v>
       </c>
       <c r="X2" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="Y2">
         <v>44</v>
@@ -20226,13 +20722,13 @@
         <v>43</v>
       </c>
       <c r="AB2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="AC2">
         <v>46</v>
       </c>
       <c r="AD2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="AE2">
         <v>161</v>
@@ -20261,7 +20757,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B3">
         <v>189</v>
@@ -20297,7 +20793,7 @@
         <v>126</v>
       </c>
       <c r="N3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="O3">
         <v>9</v>
@@ -20321,13 +20817,13 @@
         <v>44</v>
       </c>
       <c r="V3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="W3">
         <v>9</v>
       </c>
       <c r="X3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="Y3">
         <v>24</v>
@@ -20374,7 +20870,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C4">
         <v>54</v>
@@ -20401,7 +20897,7 @@
         <v>153</v>
       </c>
       <c r="N4" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="O4">
         <v>101</v>
@@ -20413,7 +20909,7 @@
         <v>78</v>
       </c>
       <c r="R4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="S4">
         <v>155</v>
@@ -20425,13 +20921,13 @@
         <v>164</v>
       </c>
       <c r="V4" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="W4">
         <v>116</v>
       </c>
       <c r="X4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="Y4">
         <v>9</v>
@@ -20473,12 +20969,12 @@
         <v>35</v>
       </c>
       <c r="AL4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="5" spans="1:38">
       <c r="A5" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -20499,7 +20995,7 @@
         <v>96</v>
       </c>
       <c r="N5" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="O5">
         <v>109</v>
@@ -20511,7 +21007,7 @@
         <v>10</v>
       </c>
       <c r="R5" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="S5">
         <v>149</v>
@@ -20526,10 +21022,10 @@
         <v>164</v>
       </c>
       <c r="X5" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="Y5" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="Z5">
         <v>49</v>
@@ -20547,7 +21043,7 @@
         <v>33</v>
       </c>
       <c r="AE5" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AG5">
         <v>45</v>
@@ -20567,7 +21063,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H6">
         <v>33</v>
@@ -20582,7 +21078,7 @@
         <v>162</v>
       </c>
       <c r="L6" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="N6">
         <v>38</v>
@@ -20597,7 +21093,7 @@
         <v>145</v>
       </c>
       <c r="R6" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="S6">
         <v>136</v>
@@ -20612,7 +21108,7 @@
         <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="Y6">
         <v>160</v>
@@ -20648,12 +21144,12 @@
         <v>41</v>
       </c>
       <c r="AL6" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="7" spans="1:38">
       <c r="A7" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -20695,7 +21191,7 @@
         <v>84</v>
       </c>
       <c r="X7" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="Y7">
         <v>147</v>
@@ -20733,7 +21229,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H8">
         <v>108</v>
@@ -20763,7 +21259,7 @@
         <v>131</v>
       </c>
       <c r="R8" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="T8">
         <v>40</v>
@@ -20772,13 +21268,13 @@
         <v>7</v>
       </c>
       <c r="W8" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="Y8">
         <v>25</v>
       </c>
       <c r="AA8" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AB8">
         <v>147</v>
@@ -20807,7 +21303,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H9">
         <v>61</v>
@@ -20846,7 +21342,7 @@
         <v>2</v>
       </c>
       <c r="W9" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="Y9">
         <v>144</v>
@@ -20864,7 +21360,7 @@
         <v>9</v>
       </c>
       <c r="AE9" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="AG9">
         <v>101</v>
@@ -20878,13 +21374,13 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H10">
         <v>181</v>
       </c>
       <c r="I10" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="J10">
         <v>255</v>
@@ -20896,7 +21392,7 @@
         <v>142</v>
       </c>
       <c r="N10" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="O10">
         <v>84</v>
@@ -20917,7 +21413,7 @@
         <v>150</v>
       </c>
       <c r="Y10" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="AA10">
         <v>55</v>
@@ -20946,7 +21442,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="I11">
         <v>190</v>
@@ -20994,7 +21490,7 @@
         <v>103</v>
       </c>
       <c r="AE11" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="AG11">
         <v>164</v>
@@ -21008,7 +21504,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="K12">
         <v>102</v>
@@ -21044,7 +21540,7 @@
         <v>62</v>
       </c>
       <c r="AC12" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="AD12">
         <v>109</v>
@@ -21064,7 +21560,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="K13">
         <v>104</v>
@@ -21114,7 +21610,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="K14">
         <v>105</v>
@@ -21161,13 +21657,13 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="K15">
         <v>111</v>
       </c>
       <c r="N15" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="O15">
         <v>11</v>
@@ -21182,7 +21678,7 @@
         <v>12</v>
       </c>
       <c r="Y15" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="AA15">
         <v>13</v>
@@ -21208,13 +21704,13 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="K16">
         <v>173</v>
       </c>
       <c r="N16" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="O16">
         <v>22</v>
@@ -21255,13 +21751,13 @@
     </row>
     <row r="17" spans="1:34">
       <c r="A17" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="K17">
         <v>189</v>
       </c>
       <c r="N17" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="O17">
         <v>158</v>
@@ -21276,7 +21772,7 @@
         <v>105</v>
       </c>
       <c r="Y17" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AA17">
         <v>1</v>
@@ -21299,7 +21795,7 @@
     </row>
     <row r="18" spans="1:34">
       <c r="A18" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="K18">
         <v>255</v>
@@ -21317,7 +21813,7 @@
         <v>106</v>
       </c>
       <c r="Y18" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="AA18">
         <v>140</v>
@@ -21340,7 +21836,7 @@
     </row>
     <row r="19" spans="1:34">
       <c r="A19" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="N19">
         <v>52</v>
@@ -21375,13 +21871,13 @@
     </row>
     <row r="20" spans="1:34">
       <c r="A20" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="N20">
         <v>53</v>
       </c>
       <c r="O20" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="P20">
         <v>6</v>
@@ -21451,10 +21947,10 @@
         <v>51</v>
       </c>
       <c r="W22" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="Y22" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="AA22">
         <v>159</v>
@@ -21463,7 +21959,7 @@
         <v>21</v>
       </c>
       <c r="AD22" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="AG22">
         <v>149</v>
@@ -21480,7 +21976,7 @@
         <v>131</v>
       </c>
       <c r="P23" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="W23">
         <v>122</v>
@@ -21538,7 +22034,7 @@
     </row>
     <row r="25" spans="1:34">
       <c r="N25" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="O25">
         <v>75</v>
@@ -21547,7 +22043,7 @@
         <v>150</v>
       </c>
       <c r="Y25" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AA25">
         <v>144</v>
@@ -21567,7 +22063,7 @@
     </row>
     <row r="26" spans="1:34">
       <c r="N26" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="O26">
         <v>12</v>
@@ -21576,13 +22072,13 @@
         <v>149</v>
       </c>
       <c r="Y26" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="AA26">
         <v>56</v>
       </c>
       <c r="AC26" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="AD26">
         <v>11</v>
@@ -21602,10 +22098,10 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="Y27" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="AA27">
         <v>142</v>
@@ -21752,7 +22248,7 @@
     </row>
     <row r="33" spans="14:33">
       <c r="N33" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="O33">
         <v>189</v>
@@ -21813,7 +22309,7 @@
         <v>4</v>
       </c>
       <c r="AD35" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="AG35">
         <v>185</v>
@@ -22004,7 +22500,7 @@
         <v>62</v>
       </c>
       <c r="AC45" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AD45">
         <v>2</v>
@@ -22077,7 +22573,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AA50">
         <v>87</v>
@@ -22102,7 +22598,7 @@
     </row>
     <row r="52" spans="14:30">
       <c r="N52" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="P52">
         <v>124</v>
@@ -22208,7 +22704,7 @@
         <v>280</v>
       </c>
       <c r="AD60" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="61" spans="14:30">
